--- a/experiment_results/47475P7.xlsx
+++ b/experiment_results/47475P7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1627"/>
+  <dimension ref="A1:I1397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,7 +590,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -1071,7 +1071,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Category: ['', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['', 'Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1596,7 +1596,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Historical Tours']</t>
+          <t>Category: ['Entertainment', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -2796,7 +2796,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -3321,7 +3321,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Aerial Tours', 'Modern Attractions']</t>
+          <t>Category: ['Aerial Tours', 'City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
@@ -3546,7 +3546,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
@@ -4371,7 +4371,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Museums']</t>
         </is>
       </c>
       <c r="B259" t="inlineStr"/>
@@ -4446,7 +4446,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B264" t="inlineStr"/>
@@ -4746,7 +4746,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['Modern Attractions', 'Dining Experiences', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B284" t="inlineStr"/>
@@ -5571,7 +5571,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B339" t="inlineStr"/>
@@ -6171,7 +6171,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B379" t="inlineStr"/>
@@ -6546,7 +6546,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B404" t="inlineStr"/>
@@ -6621,7 +6621,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B409" t="inlineStr"/>
@@ -6846,7 +6846,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B424" t="inlineStr"/>
@@ -6921,7 +6921,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Museums', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B429" t="inlineStr"/>
@@ -6996,7 +6996,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B434" t="inlineStr"/>
@@ -7221,7 +7221,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B449" t="inlineStr"/>
@@ -7671,7 +7671,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions', 'Dining Experiences']</t>
+          <t>Category: ['City Tours', 'Dining Experiences', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B479" t="inlineStr"/>
@@ -7896,7 +7896,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B494" t="inlineStr"/>
@@ -7971,7 +7971,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B499" t="inlineStr"/>
@@ -8046,7 +8046,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Entertainment', 'City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B504" t="inlineStr"/>
@@ -8271,7 +8271,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Entertainment', 'Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B519" t="inlineStr"/>
@@ -8721,7 +8721,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B549" t="inlineStr"/>
@@ -9246,7 +9246,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Dining Experiences']</t>
+          <t>Category: ['City Tours', 'Dining Experiences', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B584" t="inlineStr"/>
@@ -10146,7 +10146,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B644" t="inlineStr"/>
@@ -11046,7 +11046,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B704" t="inlineStr"/>
@@ -11121,7 +11121,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B709" t="inlineStr"/>
@@ -11721,7 +11721,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B749" t="inlineStr"/>
@@ -12021,7 +12021,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Dining Experiences', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B769" t="inlineStr"/>
@@ -12096,7 +12096,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B774" t="inlineStr"/>
@@ -12321,7 +12321,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions', 'Dining Experiences']</t>
+          <t>Category: ['City Tours', 'Dining Experiences', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B789" t="inlineStr"/>
@@ -13521,7 +13521,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B869" t="inlineStr"/>
@@ -13671,7 +13671,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Modern Attractions']</t>
+          <t>Category: ['Entertainment', 'City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B879" t="inlineStr"/>
@@ -13746,7 +13746,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B884" t="inlineStr"/>
@@ -13821,7 +13821,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B889" t="inlineStr"/>
@@ -14421,7 +14421,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Entertainment', 'Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B929" t="inlineStr"/>
@@ -15021,7 +15021,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B969" t="inlineStr"/>
@@ -15171,7 +15171,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B979" t="inlineStr"/>
@@ -15442,7 +15442,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 423364P1</t>
+          <t>PRODUCTCODE: 366458P1</t>
         </is>
       </c>
       <c r="B997" t="inlineStr"/>
@@ -15457,7 +15457,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>Summarized description: Explore all three floors of the Eiffel Tower, starting from the second level. Immerse yourself in the tower's history, as our guide shares captivating anecdotes.</t>
+          <t>Summarized description: Take in sweeping city views as you ascend this iconic landmark. See Notre-Dame Cathedral, the Trocadéro gardens and the golden dome of the Hôtel des Invalides. Live a unique experience with local guides.</t>
         </is>
       </c>
       <c r="B998" t="inlineStr"/>
@@ -15472,7 +15472,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Guiding Tour by Elevator with Summit Access</t>
+          <t>Title: Visit all floors of the Eiffel Tower by elevator</t>
         </is>
       </c>
       <c r="B999" t="inlineStr"/>
@@ -15487,7 +15487,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>TotalReviews: 2309</t>
+          <t>TotalReviews: 3445</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr"/>
@@ -15502,7 +15502,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr"/>
@@ -15517,7 +15517,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9205P4</t>
+          <t>PRODUCTCODE: 423364P1</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>Summarized description: The 60-minute tour includes access to the second level of the Eiffel Tower. You can also enjoy a view of Paris' skyline from 1,063 feet above the city.</t>
+          <t>Summarized description: Explore all three floors of the Eiffel Tower, starting from the second level. Immerse yourself in the tower's history, as our guide shares captivating anecdotes.</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr"/>
@@ -15547,7 +15547,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Reserved access Tour and optional Summit by Elevator</t>
+          <t>Title: Eiffel Tower Guiding Tour by Elevator with Summit Access</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -15562,7 +15562,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>TotalReviews: 2174</t>
+          <t>TotalReviews: 2309</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr"/>
@@ -15577,7 +15577,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr"/>
@@ -15592,7 +15592,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3731EIFFELTOWER</t>
+          <t>PRODUCTCODE: 9205P4</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr"/>
@@ -15607,7 +15607,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>Summarized description: Meet your guide near the base of the Eiffel Tower, listening to the fascinating history of the original “Dame de Fer” (Iron Lady) You’ll have a chance to enjoy her every curve from every angle and to understand the beautiful science that keeps her standing.</t>
+          <t>Summarized description: The 60-minute tour includes access to the second level of the Eiffel Tower. You can also enjoy a view of Paris' skyline from 1,063 feet above the city.</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr"/>
@@ -15622,7 +15622,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Guided Tour with Optional Access to the Summit</t>
+          <t>Title: Eiffel Tower Reserved access Tour and optional Summit by Elevator</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15637,7 +15637,7 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>TotalReviews: 973</t>
+          <t>TotalReviews: 2174</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Category: ['', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 382015P1</t>
+          <t>PRODUCTCODE: 3731EIFFELTOWER</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Summarized description: Direct access ticket to the Eiffel Tower. Professional guides will accompany you all the way to the iconic “Iron Lady'' Panoramic and unobstructed view of the most romantic city in the world.</t>
+          <t>Summarized description: Meet your guide near the base of the Eiffel Tower, listening to the fascinating history of the original “Dame de Fer” (Iron Lady) You’ll have a chance to enjoy her every curve from every angle and to understand the beautiful science that keeps her standing.</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Reserved Access Summit or 2nd Floor Guided by Lift</t>
+          <t>Title: Eiffel Tower Guided Tour with Optional Access to the Summit</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15712,7 +15712,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>TotalReviews: 939</t>
+          <t>TotalReviews: 973</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['', 'Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 438153P1</t>
+          <t>PRODUCTCODE: 382015P1</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Summarized description: Ecklectours offers tours of the Eiffel Tower in Paris, France. The tour is entertaining and engaging to give you a lasting memory of the magnificent Tower.</t>
+          <t>Summarized description: Direct access ticket to the Eiffel Tower. Professional guides will accompany you all the way to the iconic “Iron Lady'' Panoramic and unobstructed view of the most romantic city in the world.</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Elevator Tour with a Guide (Ecklectours)</t>
+          <t>Title: Eiffel Tower Reserved Access Summit or 2nd Floor Guided by Lift</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15787,7 +15787,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>TotalReviews: 478</t>
+          <t>TotalReviews: 939</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 352648P3</t>
+          <t>PRODUCTCODE: 438153P1</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Summarized description: Take awesome pictures from any of the floors of the Tower and get ready to see Paris from a different and spectacular perspective. Engage in our exciting quiz session to broaden your knowledge of the tower in a fun and engaging way. The quiz master will be rewarded with a special gift, making this experience truly unforgettable.</t>
+          <t>Summarized description: Ecklectours offers tours of the Eiffel Tower in Paris, France. The tour is entertaining and engaging to give you a lasting memory of the magnificent Tower.</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower by Elevator, Lovely Views, Optional Summit &amp; Cruise</t>
+          <t>Title: Eiffel Tower Elevator Tour with a Guide (Ecklectours)</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>TotalReviews: 402</t>
+          <t>TotalReviews: 478</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6839P8</t>
+          <t>PRODUCTCODE: 456325P1</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description: Choose a morning start time when it is less crowded to start your journey at the Eiffel Tower. You will hear tales as you walk, and learn about its creation for the International Exposition of 1889. Hop aboard your sightseeing boat at the water’s edge, and relax out on deck or in the lower saloon as you cruise along the famous river.</t>
+          <t>Summarized description: Discover the enchanting beauty and rich history of Paris through our exclusive tour of the Eiffel Tower. With special access to the summit, you get to admire breathtaking panoramas from the second level. Indulge in a glass of Champagne from the bar (additional cost)</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit Morning Tour by Elevator &amp; Seine River Cruise</t>
+          <t xml:space="preserve">Title: Eiffel Tower Guided Tour by Elevator with Summit access Reserved </t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>TotalReviews: 328</t>
+          <t>TotalReviews: 250</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['Dining Experiences', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 220637P8</t>
+          <t>PRODUCTCODE: 46334P29</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Summarized description: Meet your English-speaking guide a few steps from the Eiffel Tower. Enjoy breathtaking 360-degree panoramic views of the capital of France.</t>
+          <t>Summarized description: Climb to the top of the Eiffel Tower with our timed entry tour. Discover the fascinating stories behind the construction of the ‘Iron Lady’</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower with reserved access to the Summit</t>
+          <t>Title: Eiffel Tower Guided Tour with Summit Access</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>TotalReviews: 316</t>
+          <t>TotalReviews: 238</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9205P2</t>
+          <t>PRODUCTCODE: 6839P88</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Summarized description: Head to the elevator and up to the second floor to begin exploring with a guide. Admire panoramic city views from your vantage point up the tower.</t>
+          <t>Summarized description: From the tower’s second floor, the city of Paris spreads out like a virtual map. Revel in sweeping panoramic views over Paris from the top of the Eiffel Tower.</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Eiffel Tower Second Level Reserved tour by Elevator </t>
+          <t xml:space="preserve">Title: Eiffel Tower Tour: Morning Access with host by Elevator </t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16087,7 +16087,7 @@
     <row r="1040">
       <c r="A1040" t="inlineStr">
         <is>
-          <t>TotalReviews: 310</t>
+          <t>TotalReviews: 165</t>
         </is>
       </c>
       <c r="B1040" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 220637P13</t>
+          <t>PRODUCTCODE: 193509P2</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Summarized description: If you purchased the option, you will also have access to the top of the Eiffel Tower. Rising to a height of approximately 276 meters, this third floor offers its visitors the best view over the City of Light.</t>
+          <t>Summarized description: Eiffel Tower skip-the-line pass and 1.5-hour tour. Get priority access to the tower's second level. Toast your travels with a glass of bubbly from the Champagne bar.</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Guided Tour of 2nd Floor with Summit Access Option</t>
+          <t>Title: Skip the Line: Eiffel Tower Tour and Summit Access by elevator</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16162,7 +16162,7 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>TotalReviews: 293</t>
+          <t>TotalReviews: 116</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7832P151</t>
+          <t>PRODUCTCODE: 375109P1</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower is the highest place in Paris and the view from there is breath taking. Meet with one of our friendly hosts at our meeting point and let us lead you to the entrance to the tower via elevator.</t>
+          <t>Summarized description: The energy of the city is what makes this tour so special. We are all about making sure everyone understands and enjoy the experience. Our tour guides have enough experience to satisfy every demand.</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Entry Ticket with Summit Access by Elevator</t>
+          <t>Title: Eiffel Tower Tour with a Guide and Elevator Access</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16237,7 +16237,7 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>TotalReviews: 283</t>
+          <t>TotalReviews: 81</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 456325P1</t>
+          <t>PRODUCTCODE: 275837P5</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the enchanting beauty and rich history of Paris through our exclusive tour of the Eiffel Tower. With special access to the summit, you get to admire breathtaking panoramas from the second level. Indulge in a glass of Champagne from the bar (additional cost)</t>
+          <t>Summarized description: Take the elevator straight to the 2nd floor of the Eiffel Tower from where you will see a breathtaking view of the amazing city of Paris. Our fluent guides, with their novel storytelling approach, makes this tour extremely unique.</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Eiffel Tower Guided Tour by Elevator with Summit access Reserved </t>
+          <t>Title: Visit the Eiffel Tower with Experienced Guide | Elevator to the 2nd Floor</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16312,7 +16312,7 @@
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>TotalReviews: 250</t>
+          <t>TotalReviews: 73</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Historical Tours']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 46334P29</t>
+          <t>PRODUCTCODE: 5045P44</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Summarized description: Climb to the top of the Eiffel Tower with our timed entry tour. Discover the fascinating stories behind the construction of the ‘Iron Lady’</t>
+          <t>Summarized description: Head up to the 2nd level of the Eiffel Tower with your ticket and admire many of the top attractions of Paris from up above. Hear commentary from an English-speaking guide on a 1-hour Seine River cruise.</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Guided Tour with Summit Access</t>
+          <t>Title: Eiffel Tower Entry to 2nd Floor By Elevator and Seine Cruise</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16387,7 +16387,7 @@
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>TotalReviews: 238</t>
+          <t>TotalReviews: 70</t>
         </is>
       </c>
       <c r="B1060" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 67584P13</t>
+          <t>PRODUCTCODE: 5045P75</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Summarized description: This guided ascent of France's renowned symbol allows you to fulfill that aspiration. As you ascend the 674 steps to the tower's second level, you'll be captivated by the tale of its extraordinary construction and tumultuous beginnings.</t>
+          <t>Summarized description: Head directly up to the 2nd level of the Eiffel Tower with your ticket by elevator. On your way down, walk on the floor of glass for a thrilling moment.</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Climbing Tour with Summit Access</t>
+          <t>Title: Pre-booked Timed Eiffel Tower Ticket to 2nd floor by Elevator</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16462,7 +16462,7 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>TotalReviews: 199</t>
+          <t>TotalReviews: 34</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 67584P5</t>
+          <t>PRODUCTCODE: 7245P5</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Summarized description: Paris at night is enchanting! Make the most of your stay by booking this fantastic combo. A Seine River Cruise and a comprehensive guided tour with elevator access to the Eiffel Tower.</t>
+          <t>Summarized description: Enjoy a one hour Seine river cruise on a glass-covered boat. Use your cruise ticket anytime of day or night. Skip the long lines to the second floor of the Eiffel Tower.</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Tour &amp; River Cruise with Summit Option</t>
+          <t>Title: Eiffel Tower 2nd floor Skip the Line Ticket with Hotel Pick up and Cruise</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16537,7 +16537,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>TotalReviews: 169</t>
+          <t>TotalReviews: 30</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6839P88</t>
+          <t>PRODUCTCODE: 46334P66</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Summarized description: From the tower’s second floor, the city of Paris spreads out like a virtual map. Revel in sweeping panoramic views over Paris from the top of the Eiffel Tower.</t>
+          <t>Summarized description: Join an expert guide for a semi-private tour of the Eiffel Tower. The tour is shared with a small group of only 10 guests. You'll learn about the turbulent history of the "Iron Lady"</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Eiffel Tower Tour: Morning Access with host by Elevator </t>
+          <t>Title: Eiffel Tower Summit Semi-Private Guided Tour</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16612,7 +16612,7 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>TotalReviews: 165</t>
+          <t>TotalReviews: 24</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 384451P1</t>
+          <t>PRODUCTCODE: 457596P2</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Summarized description: Expert guides will entertain you with facts about the Eiffel tower, its history, and much more while you ascend to the summit in a glass-walled elevator.</t>
+          <t>Summarized description: The Eiffel Tower tour is an unforgettable exploration of the iconic Parisian landmark. Visitors have the opportunity to ascend the tower and enjoy breathtaking views of the city's skyline, including the Louvre, Notre-Dame, and the Seine River.</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit Priority Access Guided Experience</t>
+          <t>Title: Eiffel Tower Guided Tour Summit Access</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>TotalReviews: 157</t>
+          <t>TotalReviews: 23</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7249P6</t>
+          <t>PRODUCTCODE: 387432P1</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description: This tour provides access to all three floors of the Eiffel Tower. Included the Top floor Access. Skip the line and visit this iconic monument with a local guide who loves it.</t>
+          <t>Summarized description: Group guides aim to make each experience on the Eiffel Tower unique. We focus on small group sizes so everyone has a unique and personalized experience. We use a very visual and entertaining approach to present the iron lady.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Full access : Skip-the-Line Tour with Summit Access included</t>
+          <t>Title: Eiffel Tower Visit With A Guide and Top Elevator Access</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16762,7 +16762,7 @@
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>TotalReviews: 119</t>
+          <t>TotalReviews: 22</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 193509P2</t>
+          <t>PRODUCTCODE: 3588P46</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description: Eiffel Tower skip-the-line pass and 1.5-hour tour. Get priority access to the tower's second level. Toast your travels with a glass of bubbly from the Champagne bar.</t>
+          <t>Summarized description: Enjoy reserved entry at the base of the Tower. As you make your way up to the summit, your guide will give you background on the history of the Eiffel Tower. Your guide will point out various amenities, such as restaurants, current exhibitions, and places where you can sit.</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Eiffel Tower Tour and Summit Access by elevator</t>
+          <t>Title: Small-Group Eiffel Tower Tour with Reserved Entry &amp; Summit Access</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16837,7 +16837,7 @@
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>TotalReviews: 116</t>
+          <t>TotalReviews: 21</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 438153P2</t>
+          <t>PRODUCTCODE: 275837P8</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description: You will be guided by a local and expert guide on the history of the Eiffel Tower. Also the time was carefully selected to make sure that all year round the guests are able to see the tower lights.</t>
+          <t>Summarized description: Guests book this experience because they are assured of access to the summit. Get within hand reach of the details of the tower - the rivets holding together the iron pieces, the bulbs that light up at night.</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Climbing tour with Summit lift access (Ecklectours)</t>
+          <t>Title: Guaranteed Summit Access - Eiffel Tower Elevator Tour</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16912,7 +16912,7 @@
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>TotalReviews: 96</t>
+          <t>TotalReviews: 21</t>
         </is>
       </c>
       <c r="B1095" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 375109P1</t>
+          <t>PRODUCTCODE: 112782P30</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: The energy of the city is what makes this tour so special. We are all about making sure everyone understands and enjoy the experience. Our tour guides have enough experience to satisfy every demand.</t>
+          <t>Summarized description: Learn about the building itself and about the civil engineer who created it, Gustave Eiffel. Take advantage of the optional opportunity to ascend by elevator past the second floor to the summit of the tower.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Tour with a Guide and Elevator Access</t>
+          <t>Title: Eiffel Tower Guided Tour - 2nd floor + optional Summit access</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -16987,7 +16987,7 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>TotalReviews: 81</t>
+          <t>TotalReviews: 19</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 275837P5</t>
+          <t>PRODUCTCODE: 427087P1</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Summarized description: Take the elevator straight to the 2nd floor of the Eiffel Tower from where you will see a breathtaking view of the amazing city of Paris. Our fluent guides, with their novel storytelling approach, makes this tour extremely unique.</t>
+          <t>Summarized description: Eiffel Tower tours are fun, smart and engaging in the image of our guides. As a young team of Parisian experienced guides, we believe in small intimate and interactive groups.</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>Title: Visit the Eiffel Tower with Experienced Guide | Elevator to the 2nd Floor</t>
+          <t xml:space="preserve">Title: Eiffel Tower small group guided tour </t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17062,7 +17062,7 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>TotalReviews: 73</t>
+          <t>TotalReviews: 17</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5045P44</t>
+          <t>PRODUCTCODE: 220637P7</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Summarized description: Head up to the 2nd level of the Eiffel Tower with your ticket and admire many of the top attractions of Paris from up above. Hear commentary from an English-speaking guide on a 1-hour Seine River cruise.</t>
+          <t>Summarized description: Meet your Spanish-speaking guide a few steps from the Eiffel Tower. As you walk, your guide will tell you the history and anecdotes about the construction of the structure.</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Entry to 2nd Floor By Elevator and Seine Cruise</t>
+          <t>Title: Eiffel Tower Spanish Guided Tour with 2nd Level Access Ticket</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17137,7 +17137,7 @@
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>TotalReviews: 70</t>
+          <t>TotalReviews: 16</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5045P40</t>
+          <t>PRODUCTCODE: 379045P2</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Summarized description: Head directly up to the 2nd level of the Eiffel Tower with your ticket. Get access to the Summit so you can admire the city from every angle. Later on, you and your small group will have the opportunity to embark on a Seine River cruise.</t>
+          <t>Summarized description: Step into the historic elevators of the Eiffel Tower and be whisked away to dizzying heights. Panoramic views of Paris await you at every turn. Learn the Tower's Secrets with insightful commentary from our knowledgeable guides. Skip the lines and enjoy VIP treatment with our exclusive tour package.</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Eiffel Tower Tour with Summit by Elevator and Seine Cruise </t>
+          <t xml:space="preserve">Title: Eiffel Tower Elevator Tour </t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17212,7 +17212,7 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>TotalReviews: 34</t>
+          <t>TotalReviews: 15</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5045P75</t>
+          <t>PRODUCTCODE: 247361P11</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Summarized description: Head directly up to the 2nd level of the Eiffel Tower with your ticket by elevator. On your way down, walk on the floor of glass for a thrilling moment.</t>
+          <t>Summarized description: Don't miss the wonderful experience of climbing the Eiffel Tower. Enjoy the incredible view of the beautiful city of Paris from the top of the tower.</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>Title: Pre-booked Timed Eiffel Tower Ticket to 2nd floor by Elevator</t>
+          <t xml:space="preserve">Title: Skip-the-Line Eiffel Tower </t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17287,7 +17287,7 @@
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>TotalReviews: 34</t>
+          <t>TotalReviews: 11</t>
         </is>
       </c>
       <c r="B1120" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 413318P103</t>
+          <t>PRODUCTCODE: 391918P9</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17332,7 +17332,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Summarized description: The summit of the Eiffel Tower offers a bird's-eye view of Paris. The vistas from the summit are simply awe-inspiring. You'll see Paris's most renowned landmarks, its winding river, and the bustling streets.</t>
+          <t>Summarized description: Eiffel Tower Skip The Queue Ticket and Audio guide tour is designed to maximize your time at the iconic landmark. Embark on an unforgettable journey with our self-guided audio tour, your personal storyteller.</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit Skip the Line Ticket with Audio Guide Tour</t>
+          <t>Title: Eiffel Tower Skip The Queue Ticket Tour with Paris Audio Guide</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -17362,7 +17362,7 @@
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>TotalReviews: 32</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B1125" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Aerial Tours', 'Modern Attractions']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 46334P66</t>
+          <t>PRODUCTCODE: 7832P36</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17407,7 +17407,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Summarized description: Join an expert guide for a semi-private tour of the Eiffel Tower. The tour is shared with a small group of only 10 guests. You'll learn about the turbulent history of the "Iron Lady"</t>
+          <t>Summarized description: Your guide will take you to the second floor on which s/he will tell you about the history of the Eiffel Tower and get a detailed description of the view. Enjoy visiting  all the way up the world's famous  monument with your guide.</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr"/>
@@ -17422,7 +17422,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit Semi-Private Guided Tour</t>
+          <t>Title: Eiffel Tower Summit Access Guided Visit and Optional Cruise</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr"/>
@@ -17437,7 +17437,7 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>TotalReviews: 24</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 457596P2</t>
+          <t>PRODUCTCODE: 375109P2</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr"/>
@@ -17482,7 +17482,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower tour is an unforgettable exploration of the iconic Parisian landmark. Visitors have the opportunity to ascend the tower and enjoy breathtaking views of the city's skyline, including the Louvre, Notre-Dame, and the Seine River.</t>
+          <t>Summarized description: Visit the eiffel tower with a live guide who will tell you all about the history of one of the most iconic monuments of this world. Relax on a Seine river cruise through the City of Light.</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Guided Tour Summit Access</t>
+          <t>Title: Boat Cruise River Seine Sightseeing and Guided Eiffel Tower Tour</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>TotalReviews: 23</t>
+          <t>TotalReviews: 8</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5045P70</t>
+          <t>PRODUCTCODE: 415184P100</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr"/>
@@ -17557,7 +17557,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Summarized description: Head up to the 2nd level of the Eiffel Tower with your ticket by elevator. Get access to the Summit so you can admire the city from every angle.</t>
+          <t>Summarized description: The Skip-the-Line feature allows you to spend more time exploring the heights of this iconic tower. Dive deep into the captivating history of the Eiffel Tower and gain a profound understanding of its significance in Parisian culture.</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Timed Entrance Ticket SUMMIT Access by Elevator</t>
+          <t>Title: Eiffel Tower Paris Skip The Line with Audio Guided Tour</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17587,7 +17587,7 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>TotalReviews: 23</t>
+          <t>TotalReviews: 8</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17617,7 +17617,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 268768P58</t>
+          <t>PRODUCTCODE: 419625P1</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr"/>
@@ -17632,7 +17632,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower is one of the world's most iconic observation points. From the summit, enjoy a panoramic bird's-eye view of Paris that's truly unmatched.</t>
+          <t>Summarized description: Our guide will provide a captivating historical overview of the Eiffel Tower. As you pass through security, our knowledgeable host will accompany you, addressing any questions you may have along the way.</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr"/>
@@ -17647,7 +17647,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>Title: Summit Eiffel Tower Skip the Queue Ticket and Audio Guide Tour</t>
+          <t>Title: Eiffel Tower Summit (All Floors) Guided Tour by Elevator Tickets.</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr"/>
@@ -17662,7 +17662,7 @@
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>TotalReviews: 22</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr"/>
@@ -17692,7 +17692,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 387432P1</t>
+          <t>PRODUCTCODE: 198319P6</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr"/>
@@ -17707,7 +17707,7 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>Summarized description: Group guides aim to make each experience on the Eiffel Tower unique. We focus on small group sizes so everyone has a unique and personalized experience. We use a very visual and entertaining approach to present the iron lady.</t>
+          <t>Summarized description: Find out more about the building itself and the civil engineer who designed it, Gustave Eiffel. Take advantage of the optional opportunity to ascend by elevator past the second floor to the summit of the tower.</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr"/>
@@ -17722,7 +17722,7 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Visit With A Guide and Top Elevator Access</t>
+          <t>Title: Paris: Eiffel Tower Guided Tour with Optional Summit Access</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr"/>
@@ -17737,7 +17737,7 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>TotalReviews: 22</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr"/>
@@ -17752,7 +17752,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr"/>
@@ -17767,7 +17767,7 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3588P46</t>
+          <t>PRODUCTCODE: 220418P22</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr"/>
@@ -17782,7 +17782,7 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy reserved entry at the base of the Tower. As you make your way up to the summit, your guide will give you background on the history of the Eiffel Tower. Your guide will point out various amenities, such as restaurants, current exhibitions, and places where you can sit.</t>
+          <t>Summarized description: Visit Paris' most iconic attraction with skip-the-line access and a tour guide. Take in the most impressive views of the city and learn about its construction and significance. Take the optional opportunity to ascend by elevator past the second floor to the summit.</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr"/>
@@ -17797,7 +17797,7 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>Title: Small-Group Eiffel Tower Tour with Reserved Entry &amp; Summit Access</t>
+          <t>Title: Paris: Eiffel Tower Guided Tour with Summit Access</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr"/>
@@ -17812,7 +17812,7 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>TotalReviews: 21</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3588P34</t>
+          <t>PRODUCTCODE: 64296P2</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr"/>
@@ -17857,7 +17857,7 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>Summarized description: Two hour behind-the-scenes tour of the Eiffel Tower. You'll receive exclusive access to the underground engine room. Limited group sizes and an entertaining guide.</t>
+          <t>Summarized description: The Eiffel Tower needs no introduction and you are just one of millions of travellers who will visit this year. Don’t waste time and stand in line but instead join us to Skip the Line with a local, fun, licensed, English speaking guide.</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr"/>
@@ -17872,7 +17872,7 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Skip the Line with Special Access Guided Tour</t>
+          <t>Title: VIP Eiffel Tower Tour &amp; Summit Access</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr"/>
@@ -17887,7 +17887,7 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>TotalReviews: 21</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr"/>
@@ -17902,7 +17902,7 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr"/>
@@ -17917,7 +17917,7 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 275837P8</t>
+          <t>PRODUCTCODE: 413318P104</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr"/>
@@ -17932,7 +17932,7 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>Summarized description: Guests book this experience because they are assured of access to the summit. Get within hand reach of the details of the tower - the rivets holding together the iron pieces, the bulbs that light up at night.</t>
+          <t>Summarized description: Visit a meticulously recreated office of Gustave Eiffel on the 2nd floor by lift. This unique opportunity gives you a glimpse into the mind of the visionary engineer responsible for this engineering marvel. Take your time, soak in the atmosphere, and create your own unique memories.</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr"/>
@@ -17947,7 +17947,7 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>Title: Guaranteed Summit Access - Eiffel Tower Elevator Tour</t>
+          <t>Title: Paris Eiffel Tower Skip the Line by lift with Audio Guide Tour</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr"/>
@@ -17962,7 +17962,7 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>TotalReviews: 21</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr"/>
@@ -17977,7 +17977,7 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Museums', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr"/>
@@ -17992,7 +17992,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 112782P30</t>
+          <t>PRODUCTCODE: 456325P3</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the building itself and about the civil engineer who created it, Gustave Eiffel. Take advantage of the optional opportunity to ascend by elevator past the second floor to the summit of the tower.</t>
+          <t>Summarized description: Learn all about the tower’s history from your guide, plus the famous sights you’ll see from the viewing areas. This is much more informative than if you were to ascend the tower on your own and you may even make a few new friends.</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr"/>
@@ -18022,7 +18022,7 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Guided Tour - 2nd floor + optional Summit access</t>
+          <t>Title: Eiffel Tower by Elevator with Spectacular City Views</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr"/>
@@ -18037,7 +18037,7 @@
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>TotalReviews: 19</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1170" t="inlineStr"/>
@@ -18052,7 +18052,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr"/>
@@ -18067,7 +18067,7 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7832P42</t>
+          <t>PRODUCTCODE: 320547P164</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr"/>
@@ -18082,7 +18082,7 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>Summarized description: 1-hour illuminations cruise along the Seine River. Admire the city of Paris from the Eiffel Tower highest point.</t>
+          <t>Summarized description: Our private Host is here to make things easier for you. You meet your host at a designated place where our host gives you a short explaination about this famous Monument. You climb up alone once you get the tickets from the host. It's Eiffel Tower second floor with elevator ticket included.</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr"/>
@@ -18097,7 +18097,7 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit Floor Entry and Illuminations Seine Cruise</t>
+          <t>Title: Eiffel Tower 2nd Floor Elevator Tour Eiffel with Private Host</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr"/>
@@ -18112,7 +18112,7 @@
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>TotalReviews: 19</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1175" t="inlineStr"/>
@@ -18127,7 +18127,7 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr"/>
@@ -18142,7 +18142,7 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 413318P102</t>
+          <t>PRODUCTCODE: 419625P4</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr"/>
@@ -18157,7 +18157,7 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>Summarized description: Embrace the full immersion of the Eiffel Tower's second-floor experience by stairs with the assistance of the audio guide. Take as much time as you desire to admire breathtaking views and soak in the ambiance of this iconic landmark.</t>
+          <t>Summarized description: Our guide will provide a captivating historical overview of the Eiffel Tower. As you pass through security, our knowledgeable host will accompany you. The guide will have your summit (top floor) Skip-The-Line elevator tickets.</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Skip the Line Ticket with Audio Guide Tour</t>
+          <t>Title: Eiffel Tower Summit/All Floors Skip-The-Line Guided Tour By Lift</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr"/>
@@ -18187,7 +18187,7 @@
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>TotalReviews: 19</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr"/>
@@ -18202,7 +18202,7 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr"/>
@@ -18217,7 +18217,7 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 427087P1</t>
+          <t>PRODUCTCODE: 443044P1</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr"/>
@@ -18232,7 +18232,7 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>Summarized description: Eiffel Tower tours are fun, smart and engaging in the image of our guides. As a young team of Parisian experienced guides, we believe in small intimate and interactive groups.</t>
+          <t>Summarized description: Find out more about the building itself and the civil engineer that designed it, Gustave Eiffel. Take advantage of the optional opportunity to ascend by elevator past the second floor to the summit of the tower.</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr"/>
@@ -18247,7 +18247,7 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Eiffel Tower small group guided tour </t>
+          <t>Title: Paris: Eiffel Tower Guided Tour with Optional Summit Access</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr"/>
@@ -18262,7 +18262,7 @@
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>TotalReviews: 17</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr"/>
@@ -18277,7 +18277,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr"/>
@@ -18292,7 +18292,7 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 220637P7</t>
+          <t>PRODUCTCODE: 75761P25</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr"/>
@@ -18307,7 +18307,7 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>Summarized description: Meet your Spanish-speaking guide a few steps from the Eiffel Tower. As you walk, your guide will tell you the history and anecdotes about the construction of the structure.</t>
+          <t>Summarized description: Paris Eiffel Tower Priority Access with Host. 1.3-hour tour of the 2nd Floor. Champagne bar at the top of the tower.</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr"/>
@@ -18322,7 +18322,7 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Spanish Guided Tour with 2nd Level Access Ticket</t>
+          <t xml:space="preserve">Title: Paris Eiffel Tower Priority Access With Tour Guide </t>
         </is>
       </c>
       <c r="B1189" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>TotalReviews: 16</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr"/>
@@ -18352,7 +18352,7 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Dining Experiences', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr"/>
@@ -18367,7 +18367,7 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7845P62</t>
+          <t>PRODUCTCODE: 239343P42</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr"/>
@@ -18382,7 +18382,7 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy a complimentary coffee and croissant in a typical french brasserie at the bottom of Eiffel Tower. Then hop on an entertaining and informative tour, lead by your expert guide. Summit access is optional, but our lovely hand-made maps of Paris are complimentary.</t>
+          <t>Summarized description: Learn about the tower's rich history, engineering, and current role in Parisian society. From above, take in a unique perspective of Paris and its landmarks.</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr"/>
@@ -18397,7 +18397,7 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Morning Guided Visit with Parisian Breakfast</t>
+          <t>Title: Paris Most Famous View Of Eiffel Tower Summit With Elevator Tour</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr"/>
@@ -18412,7 +18412,7 @@
     <row r="1195">
       <c r="A1195" t="inlineStr">
         <is>
-          <t>TotalReviews: 16</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1195" t="inlineStr"/>
@@ -18427,7 +18427,7 @@
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr"/>
@@ -18442,7 +18442,7 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7824P7</t>
+          <t>PRODUCTCODE: 85210P33</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr"/>
@@ -18457,7 +18457,7 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>Summarized description:  skip-the-line admission ticket for priority access to the Eiffel Tower. Discover the most emblematic Parisian monument from the second and third floors.</t>
+          <t>Summarized description: Book your priority access ticket to climb the Eiffel Tower either by day or by night. Enjoy panoramic views across the city and admire famous Parisian landmarks such as Notre-Dame Cathedral.</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr"/>
@@ -18472,7 +18472,7 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Eiffel Tower Small-Group Tour with Summit Access</t>
+          <t>Title: Eiffel tower with audio guide and PRIORITY ACCESS</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr"/>
@@ -18487,7 +18487,7 @@
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>TotalReviews: 16</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr"/>
@@ -18517,7 +18517,7 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 379045P2</t>
+          <t>PRODUCTCODE: 275837P12</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr"/>
@@ -18532,7 +18532,7 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>Summarized description: Step into the historic elevators of the Eiffel Tower and be whisked away to dizzying heights. Panoramic views of Paris await you at every turn. Learn the Tower's Secrets with insightful commentary from our knowledgeable guides. Skip the lines and enjoy VIP treatment with our exclusive tour package.</t>
+          <t>Summarized description: Guests book this experience because their guide handles everything. Your tickets are acquired on site by your guide and it takes you up to the 2nd level. For an extra experience, you can take the stairs as you descend.</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr"/>
@@ -18547,7 +18547,7 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Eiffel Tower Elevator Tour </t>
+          <t>Title: Eiffel Tower visit with Experienced Guide | Take the Elevator to the 2nd Floor</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr"/>
@@ -18562,7 +18562,7 @@
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>TotalReviews: 15</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1205" t="inlineStr"/>
@@ -18577,7 +18577,7 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr"/>
@@ -18592,7 +18592,7 @@
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7845P50</t>
+          <t>PRODUCTCODE: 419625P3</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr"/>
@@ -18607,7 +18607,7 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>Summarized description: Get ready for an experience unlike any other by climbing the 690 steps leading to the Eiffel Tower's second level. From there, you'll get a fantastic view of the surroundings and, especially, of some of Paris's most iconic monuments.</t>
+          <t>Summarized description: Our guide will provide a captivating historical overview of the Eiffel Tower. As you pass through security, our knowledgeable host will accompany you. The guide will have your elevator tickets and hand them to you.</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr"/>
@@ -18622,7 +18622,7 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Climb Up Experience with Summit Access by Lift</t>
+          <t>Title: Eiffel Tower Skip-the-Line 2nd Floor Guided Tour by Elevator</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr"/>
@@ -18637,7 +18637,7 @@
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>TotalReviews: 14</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr"/>
@@ -18652,7 +18652,7 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 320547P457</t>
+          <t>PRODUCTCODE: 5460P21</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr"/>
@@ -18682,7 +18682,7 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>Summarized description: Our host will give you a brief history of the Eiffel Tower. As you pass through security, you join our host in line. You must wait in line with our host, who will pick up the summit (top floor) with elevator tickets.</t>
+          <t>Summarized description: Choose from a guided tour of the 2nd floor or the summit. Hear from your handpicked guide about its origins and the secrets behind the construction of this architectural masterpiece.</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr"/>
@@ -18697,7 +18697,7 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit 3rd Floor Summit Tour with Private Host</t>
+          <t>Title: Eiffel Tower Guided Tour by Elevator in English</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr"/>
@@ -18712,7 +18712,7 @@
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>TotalReviews: 13</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr"/>
@@ -18727,7 +18727,7 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Museums', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr"/>
@@ -18742,7 +18742,7 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2050P315</t>
+          <t>PRODUCTCODE: 320547P459</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr"/>
@@ -18757,7 +18757,7 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>Summarized description: Take a spin around the essential sights from the comfort of a coach with our exclusive Histopad. Then embark on a cruise along the Seine, under its many bridges, before scaling the heights of the Grande Dame.</t>
+          <t>Summarized description: Paris is beautiful but it's challenging to visit Paris in a short period. Many people don't get time to visit Eiffel Tower in Paris which is a pity. We will pick you up from hotel with a private vehicle &amp; take you up to the 3rd floor. Our expert guide meets and leads you around to Eiffle tower and tells you about it's history. Your guide will also buy you tickets of Eiffler tower Top floor (summit with elevator)</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr"/>
@@ -18772,7 +18772,7 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit Access with City Tour and Seine Cruise</t>
+          <t xml:space="preserve">Title: Eiffel Tower Private Top floor Summit Tour with Hotel Pick up and private guide </t>
         </is>
       </c>
       <c r="B1219" t="inlineStr"/>
@@ -18787,7 +18787,7 @@
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>TotalReviews: 13</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr"/>
@@ -18802,7 +18802,7 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr"/>
@@ -18817,7 +18817,7 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 247361P11</t>
+          <t>PRODUCTCODE: 243313P23</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>Summarized description: Don't miss the wonderful experience of climbing the Eiffel Tower. Enjoy the incredible view of the beautiful city of Paris from the top of the tower.</t>
+          <t>Summarized description:  skip-the-line tickets give you access to the 2nd level of the Eiffel Tower. Check out stunning Parisian landmarks such as the Champs Elysees, Notre Dame, Montmartre, Seine River, and so on.</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr"/>
@@ -18847,7 +18847,7 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Skip-the-Line Eiffel Tower </t>
+          <t xml:space="preserve">Title: Eiffel Tower Skip the Line Experience : 2nd Floor or SUMMIT with Lift Access </t>
         </is>
       </c>
       <c r="B1224" t="inlineStr"/>
@@ -18862,7 +18862,7 @@
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>TotalReviews: 11</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr"/>
@@ -18877,7 +18877,7 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr"/>
@@ -18892,7 +18892,7 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7845P51</t>
+          <t>PRODUCTCODE: 375109P4</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr"/>
@@ -18907,7 +18907,7 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>Summarized description: Climb the 690 steps towards the Eiffel Tower's second level. Enjoy views of Montmartre and its Sacré Coeur basilica, the École Militaire, Les Invalides.</t>
+          <t>Summarized description: Paris is known worldwide for the Louvre Museum, Notre-Dame cathedral, and the Eiffel tower. It has a reputation of being a romantic and cultural city. The city is also known for its high-quality gastronomy and the terraces of its cafés.</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr"/>
@@ -18922,7 +18922,7 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Climb Up Experience to the Second Floor</t>
+          <t>Title: Eiffel Tower Elevator Visit with a Guide and City Bus Tour</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr"/>
@@ -18937,7 +18937,7 @@
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>TotalReviews: 11</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1230" t="inlineStr"/>
@@ -18952,7 +18952,7 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Dining Experiences', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr"/>
@@ -18967,7 +18967,7 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 391918P9</t>
+          <t>PRODUCTCODE: 248877P36</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr"/>
@@ -18982,7 +18982,7 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>Summarized description: Eiffel Tower Skip The Queue Ticket and Audio guide tour is designed to maximize your time at the iconic landmark. Embark on an unforgettable journey with our self-guided audio tour, your personal storyteller.</t>
+          <t>Summarized description: Take advantage of priority access to the 2nd floor of the Eiffel Tower with a expert English speaking guide. Enjoy the view of Paris from above and add access to go all the way to the summit.</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Skip The Queue Ticket Tour with Paris Audio Guide</t>
+          <t>Title: Eiffel Tower Guided Tour with Summit or Second Floor Priority Access</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr"/>
@@ -19012,7 +19012,7 @@
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1235" t="inlineStr"/>
@@ -19027,7 +19027,7 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr"/>
@@ -19042,7 +19042,7 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7832P36</t>
+          <t>PRODUCTCODE: 415184P116</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr"/>
@@ -19057,7 +19057,7 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>Summarized description: Your guide will take you to the second floor on which s/he will tell you about the history of the Eiffel Tower and get a detailed description of the view. Enjoy visiting  all the way up the world's famous  monument with your guide.</t>
+          <t>Summarized description: Our package includes Skip-the-Line access, granting you priority entry to the Eiffel Tower. Our knowledgeable guides are passionate about the history and stories behind the iconic Iron Lady.</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr"/>
@@ -19072,7 +19072,7 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit Access Guided Visit and Optional Cruise</t>
+          <t>Title: Paris Eiffel Tower Skip The Line Ticket with English Guided Tour</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr"/>
@@ -19087,7 +19087,7 @@
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1240" t="inlineStr"/>
@@ -19102,7 +19102,7 @@
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr"/>
@@ -19117,7 +19117,7 @@
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7832P177</t>
+          <t>PRODUCTCODE: 375109P30</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr"/>
@@ -19132,7 +19132,7 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>Summarized description: Your ticket includes a 1-hour cruise on the Seine river, that you can take at any time. Admire the UNESCO-listed buildings lining the riverbanks, including the Eiffel Tower.</t>
+          <t>Summarized description: Hear the history and legends linked to the Paris icon as a guide accompanies you to the second level. Get help to identify the different monuments at your feet and upgrade to access the summit and climb even higher.</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr"/>
@@ -19147,7 +19147,7 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit Floor Ticket and Seine River Cruise</t>
+          <t>Title: Morning Eiffel Tower tour with a guide and elevator access</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
     <row r="1245">
       <c r="A1245" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1245" t="inlineStr"/>
@@ -19177,7 +19177,7 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr"/>
@@ -19192,7 +19192,7 @@
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 415184P100</t>
+          <t>PRODUCTCODE: 268768P59</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr"/>
@@ -19207,7 +19207,7 @@
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>Summarized description: The Skip-the-Line feature allows you to spend more time exploring the heights of this iconic tower. Dive deep into the captivating history of the Eiffel Tower and gain a profound understanding of its significance in Parisian culture.</t>
+          <t>Summarized description: Discover a meticulously recreated office of Gustave Eiffel on the 2nd floor, accessed by lift. This exclusive opportunity provides insight into the mind of the visionary engineer responsible for this remarkable feat of engineering.</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr"/>
@@ -19222,7 +19222,7 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Paris Skip The Line with Audio Guided Tour</t>
+          <t>Title: Eiffel Tower Skip the Queue Ticket by lift and Audio Guide Tour</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr"/>
@@ -19237,7 +19237,7 @@
     <row r="1250">
       <c r="A1250" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1250" t="inlineStr"/>
@@ -19252,7 +19252,7 @@
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr"/>
@@ -19267,7 +19267,7 @@
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 419625P1</t>
+          <t>PRODUCTCODE: 320547P787</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr"/>
@@ -19282,7 +19282,7 @@
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>Summarized description: Our guide will provide a captivating historical overview of the Eiffel Tower. As you pass through security, our knowledgeable host will accompany you, addressing any questions you may have along the way.</t>
+          <t>Summarized description: Our host will give you a brief history of the Eiffel Tower. Then you follow the host to the complex's entrance. As you pass through security, you join our host in line. You must wait in line with our host, who will pick up the summit (top floor) with elevator tickets.</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr"/>
@@ -19297,7 +19297,7 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit (All Floors) Guided Tour by Elevator Tickets.</t>
+          <t xml:space="preserve">Title: Private Tour in Eiffel Tower with Guide and Pick up </t>
         </is>
       </c>
       <c r="B1254" t="inlineStr"/>
@@ -19312,7 +19312,7 @@
     <row r="1255">
       <c r="A1255" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1255" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr"/>
@@ -19342,7 +19342,7 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 220418P22</t>
+          <t>PRODUCTCODE: 420543P3</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr"/>
@@ -19357,7 +19357,7 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>Summarized description: Visit Paris' most iconic attraction with skip-the-line access and a tour guide. Take in the most impressive views of the city and learn about its construction and significance. Take the optional opportunity to ascend by elevator past the second floor to the summit.</t>
+          <t>Summarized description: The tour includes curated spots to discover within the Eiffel Tower, offering a 360-degree view that captures the essence of Paris. Customize your adventure upon request before the tour.</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr"/>
@@ -19372,7 +19372,7 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>Title: Paris: Eiffel Tower Guided Tour with Summit Access</t>
+          <t>Title: 2-Hour Private Tour in Eiffel Tower with 360-Degree View</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr"/>
@@ -19387,7 +19387,7 @@
     <row r="1260">
       <c r="A1260" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1260" t="inlineStr"/>
@@ -19402,7 +19402,7 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr"/>
@@ -19417,7 +19417,7 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 64296P2</t>
+          <t>PRODUCTCODE: 157275P22</t>
         </is>
       </c>
       <c r="B1262" t="inlineStr"/>
@@ -19432,7 +19432,7 @@
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower needs no introduction and you are just one of millions of travellers who will visit this year. Don’t waste time and stand in line but instead join us to Skip the Line with a local, fun, licensed, English speaking guide.</t>
+          <t>Summarized description: Paris Eiffel Tower is one of the world's most famous monuments. Skip the line with a 1.3-hour guided tour of the second floor. After the tour, continue to the summit for stellar views of the City of Lights.</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr"/>
@@ -19447,7 +19447,7 @@
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>Title: VIP Eiffel Tower Tour &amp; Summit Access</t>
+          <t xml:space="preserve">Title: Paris Eiffel Tower Skip-line Priority Access With Tour Guide </t>
         </is>
       </c>
       <c r="B1264" t="inlineStr"/>
@@ -19462,7 +19462,7 @@
     <row r="1265">
       <c r="A1265" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1265" t="inlineStr"/>
@@ -19477,7 +19477,7 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1266" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 413318P104</t>
+          <t>PRODUCTCODE: 248877P54</t>
         </is>
       </c>
       <c r="B1267" t="inlineStr"/>
@@ -19507,7 +19507,7 @@
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>Summarized description: Visit a meticulously recreated office of Gustave Eiffel on the 2nd floor by lift. This unique opportunity gives you a glimpse into the mind of the visionary engineer responsible for this engineering marvel. Take your time, soak in the atmosphere, and create your own unique memories.</t>
+          <t>Summarized description: The Eiffel Tower is one of the most famous landmarks in the world. It is located in the centre of the French capital, Paris. The tower was built in the early 1900s and is now a tourist attraction.</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr"/>
@@ -19522,7 +19522,7 @@
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>Title: Paris Eiffel Tower Skip the Line by lift with Audio Guide Tour</t>
+          <t>Title: Eiffel Tower - Paris Icon Tour : Direct Access to the Second Floor Guided Tour</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr"/>
@@ -19537,7 +19537,7 @@
     <row r="1270">
       <c r="A1270" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1270" t="inlineStr"/>
@@ -19552,7 +19552,7 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr"/>
@@ -19567,7 +19567,7 @@
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7845P20</t>
+          <t>PRODUCTCODE: 387432P34</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr"/>
@@ -19582,7 +19582,7 @@
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy a 1-hour experience where you’re escorted by a host to the Eiffel Tower and up to its Summit. Afterward, receive your Big Bus Paris Hop-on Hop-off tour and Bateaux Parisiens Seine River Sightseeing Cruise tickets.</t>
+          <t>Summarized description: Hear the history and legends linked to the Paris icon as a guide accompanies you to the second level. Get help to identify the different monuments at your feet and upgrade to access the summit and climb even higher.</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr"/>
@@ -19597,7 +19597,7 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit Entry with Big Bus and Seine River Cruise</t>
+          <t>Title: 2 Hour Eiffel Tower Morning Guided Tour</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr"/>
@@ -19612,7 +19612,7 @@
     <row r="1275">
       <c r="A1275" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1275" t="inlineStr"/>
@@ -19627,7 +19627,7 @@
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1276" t="inlineStr"/>
@@ -19642,7 +19642,7 @@
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6602P4</t>
+          <t>PRODUCTCODE: 112782P31</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the beauty of Paris at sunset on a two hour tour followed by a one hour live guided tour of the Eiffel Tower from the 2nd level. Marvel at the picturesque sights such as the Louvre Museum, Champs-Elysees, Palais Garnier and Notre Dame.</t>
+          <t>Summarized description: The Eiffel Tower is known to be the symbol of the city of Paris. You will get to know all about the building itself and about the civil engineer who created it. The view over the city will take your breath away.</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr"/>
@@ -19672,7 +19672,7 @@
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>Title: Priority Access Eiffel Tower guided tour + Big Bus city tour</t>
+          <t>Title: Paris: Eiffel Tower Guided Tour with Summit Access</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr"/>
@@ -19687,7 +19687,7 @@
     <row r="1280">
       <c r="A1280" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1280" t="inlineStr"/>
@@ -19702,7 +19702,7 @@
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr"/>
@@ -19717,7 +19717,7 @@
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7832P194</t>
+          <t>PRODUCTCODE: 374060P11</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr"/>
@@ -19732,7 +19732,7 @@
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>Summarized description: Your ticket includes a 1-hour cruise on the Seine River, that you can take at any time during your stay. Admire the UNESCO-listed buildings lining the riverbanks, including the Eiffel Tower.</t>
+          <t>Summarized description: After the security entrance, you can skip the line with our Guide. Climb up together on the stairs, up until to the second floor. Learn more about the architecture and history of the Eiffel Tower.</t>
         </is>
       </c>
       <c r="B1283" t="inlineStr"/>
@@ -19747,7 +19747,7 @@
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit Floor Access and Seine River Cruise</t>
+          <t>Title: Guided Tour to the Second Floor off Eiffel Tower in Paris</t>
         </is>
       </c>
       <c r="B1284" t="inlineStr"/>
@@ -19762,7 +19762,7 @@
     <row r="1285">
       <c r="A1285" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1285" t="inlineStr"/>
@@ -19777,7 +19777,7 @@
     <row r="1286">
       <c r="A1286" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1286" t="inlineStr"/>
@@ -19792,7 +19792,7 @@
     <row r="1287">
       <c r="A1287" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 46334P52</t>
+          <t>PRODUCTCODE: 125051P3</t>
         </is>
       </c>
       <c r="B1287" t="inlineStr"/>
@@ -19807,7 +19807,7 @@
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>Summarized description: Join an expert local guide to climb the Eiffel Tower. Hear about the events, techniques and controversies leading to the Tower’s construction. Enjoy some of the best views over the City of Lights.</t>
+          <t>Summarized description: Take an insider's tour of the summit with a guide. Get unparalleled views of Parisian landmarks like Montmartre, the Louvre Museum and more. Get the lowdown on how and why the tower was built.</t>
         </is>
       </c>
       <c r="B1288" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Tour with Second floor access and timed entry</t>
+          <t>Title: Tickets for Eiffel Tower - Summit: Guided Visit</t>
         </is>
       </c>
       <c r="B1289" t="inlineStr"/>
@@ -19837,7 +19837,7 @@
     <row r="1290">
       <c r="A1290" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1290" t="inlineStr"/>
@@ -19852,7 +19852,7 @@
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1291" t="inlineStr"/>
@@ -19867,7 +19867,7 @@
     <row r="1292">
       <c r="A1292" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 379045P1</t>
+          <t>PRODUCTCODE: 7845P52</t>
         </is>
       </c>
       <c r="B1292" t="inlineStr"/>
@@ -19882,7 +19882,7 @@
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower Climbing Tour is designed to immerse you in the history, beauty, and thrill of this iconic landmark. We believe in providing an intimate experience, so our tour groups are intentionally kept small.</t>
+          <t>Summarized description: Join your host and enjoy a one of a kind Eiffel Tower tour, combining history and technology. Enjoy many stories, anecdotes and even insider tips, all brought to you by your passionate guide. More importantly, you'll get to enjoy the added value of individual complementary tablets.</t>
         </is>
       </c>
       <c r="B1293" t="inlineStr"/>
@@ -19897,7 +19897,7 @@
     <row r="1294">
       <c r="A1294" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Climbing Tour</t>
+          <t>Title: Eiffel Tower Interactive Experience with 2nd Level Access</t>
         </is>
       </c>
       <c r="B1294" t="inlineStr"/>
@@ -19912,7 +19912,7 @@
     <row r="1295">
       <c r="A1295" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1295" t="inlineStr"/>
@@ -19927,7 +19927,7 @@
     <row r="1296">
       <c r="A1296" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Modern Attractions', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1296" t="inlineStr"/>
@@ -19942,7 +19942,7 @@
     <row r="1297">
       <c r="A1297" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7832P109</t>
+          <t>PRODUCTCODE: 46334P64</t>
         </is>
       </c>
       <c r="B1297" t="inlineStr"/>
@@ -19957,7 +19957,7 @@
     <row r="1298">
       <c r="A1298" t="inlineStr">
         <is>
-          <t>Summarized description: Skip the long lines to one of the most popular monument in Europe and enjoy fast track access to the Eiffel Tower. Be amazed by the illuminated views of Paris at night on a 1 hour River Cruise.</t>
+          <t>Summarized description: Enjoy pre-booked timed entry to the Eiffel Tower. Top off your visit with the best macarons in Paris as you savor the spectacular views over the city.</t>
         </is>
       </c>
       <c r="B1298" t="inlineStr"/>
@@ -19972,7 +19972,7 @@
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title:  Eiffel Tower Summit &amp; River Cruise Tickets by Night </t>
+          <t>Title: Eiffel Tower Timed Access Guided Tour with Macarons</t>
         </is>
       </c>
       <c r="B1299" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
     <row r="1300">
       <c r="A1300" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1300" t="inlineStr"/>
@@ -20002,7 +20002,7 @@
     <row r="1301">
       <c r="A1301" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Dining Experiences', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1301" t="inlineStr"/>
@@ -20017,7 +20017,7 @@
     <row r="1302">
       <c r="A1302" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7832P174</t>
+          <t>PRODUCTCODE: 452894P1</t>
         </is>
       </c>
       <c r="B1302" t="inlineStr"/>
@@ -20032,7 +20032,7 @@
     <row r="1303">
       <c r="A1303" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the Eiffel Tower with your own pleasure. Afterwards embark on a cruise tour on the Seine river. See many of the top sights in Paris in just 1 hour.</t>
+          <t>Summarized description: Discover the Eiffel Tower with a young Artist from Paris, with joy and good humor. Learn about the history of M. Gustave Eiffels Tower and its construction. Enjoy the amazing view and its beautiful landscape from the second floor.</t>
         </is>
       </c>
       <c r="B1303" t="inlineStr"/>
@@ -20047,7 +20047,7 @@
     <row r="1304">
       <c r="A1304" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Entrance Tickets, Sainte Chapelle and Cruise</t>
+          <t>Title: 2 Hours Eiffel Tower Guided Tour</t>
         </is>
       </c>
       <c r="B1304" t="inlineStr"/>
@@ -20062,7 +20062,7 @@
     <row r="1305">
       <c r="A1305" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1305" t="inlineStr"/>
@@ -20077,7 +20077,7 @@
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1306" t="inlineStr"/>
@@ -20092,7 +20092,7 @@
     <row r="1307">
       <c r="A1307" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 456325P3</t>
+          <t>PRODUCTCODE: 415184P115</t>
         </is>
       </c>
       <c r="B1307" t="inlineStr"/>
@@ -20107,7 +20107,7 @@
     <row r="1308">
       <c r="A1308" t="inlineStr">
         <is>
-          <t>Summarized description: Learn all about the tower’s history from your guide, plus the famous sights you’ll see from the viewing areas. This is much more informative than if you were to ascend the tower on your own and you may even make a few new friends.</t>
+          <t>Summarized description: With our Skip-the-Line priority access, you'll breeze past the crowds and be whisked directly to the heart of the Eiffel Tower. With our audio-guided tour, you will get an insider's perspective that adds an extra layer of wonder.</t>
         </is>
       </c>
       <c r="B1308" t="inlineStr"/>
@@ -20122,7 +20122,7 @@
     <row r="1309">
       <c r="A1309" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower by Elevator with Spectacular City Views</t>
+          <t>Title: Eiffel Tower Skip The Line Ticket by Lift &amp; Free Audio Guide Tour</t>
         </is>
       </c>
       <c r="B1309" t="inlineStr"/>
@@ -20137,7 +20137,7 @@
     <row r="1310">
       <c r="A1310" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1310" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
     <row r="1311">
       <c r="A1311" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1311" t="inlineStr"/>
@@ -20167,7 +20167,7 @@
     <row r="1312">
       <c r="A1312" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 320547P164</t>
+          <t>PRODUCTCODE: 32142P56</t>
         </is>
       </c>
       <c r="B1312" t="inlineStr"/>
@@ -20182,7 +20182,7 @@
     <row r="1313">
       <c r="A1313" t="inlineStr">
         <is>
-          <t>Summarized description: Our private Host is here to make things easier for you. You meet your host at a designated place where our host gives you a short explaination about this famous Monument. You climb up alone once you get the tickets from the host. It's Eiffel Tower second floor with elevator ticket included.</t>
+          <t>Summarized description: Small-Group Tour of the Eiffel Tower allows you to go straight to the security lines, climb up to the different levels of the tower. Tailor-made guided tour dedicated to kids and includes a basket of organic snacks and beverages.</t>
         </is>
       </c>
       <c r="B1313" t="inlineStr"/>
@@ -20197,7 +20197,7 @@
     <row r="1314">
       <c r="A1314" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower 2nd Floor Elevator Tour Eiffel with Private Host</t>
+          <t>Title: Family-Friendly Eiffel Tower Small-Group Tour</t>
         </is>
       </c>
       <c r="B1314" t="inlineStr"/>
@@ -20212,7 +20212,7 @@
     <row r="1315">
       <c r="A1315" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1315" t="inlineStr"/>
@@ -20227,7 +20227,7 @@
     <row r="1316">
       <c r="A1316" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Dining Experiences', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1316" t="inlineStr"/>
@@ -20242,7 +20242,7 @@
     <row r="1317">
       <c r="A1317" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 419625P4</t>
+          <t>PRODUCTCODE: 32142P55</t>
         </is>
       </c>
       <c r="B1317" t="inlineStr"/>
@@ -20257,7 +20257,7 @@
     <row r="1318">
       <c r="A1318" t="inlineStr">
         <is>
-          <t>Summarized description: Our guide will provide a captivating historical overview of the Eiffel Tower. As you pass through security, our knowledgeable host will accompany you. The guide will have your summit (top floor) Skip-The-Line elevator tickets.</t>
+          <t>Summarized description: Explore Paris' main attractions with your beloved ones. The tour includes entrance tickets to the Eiffel Tower that will allow your group to go straight to the security lines.</t>
         </is>
       </c>
       <c r="B1318" t="inlineStr"/>
@@ -20272,7 +20272,7 @@
     <row r="1319">
       <c r="A1319" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit/All Floors Skip-The-Line Guided Tour By Lift</t>
+          <t>Title: Family-Friendly Eiffel Tower Private Tour</t>
         </is>
       </c>
       <c r="B1319" t="inlineStr"/>
@@ -20287,7 +20287,7 @@
     <row r="1320">
       <c r="A1320" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1320" t="inlineStr"/>
@@ -20302,7 +20302,7 @@
     <row r="1321">
       <c r="A1321" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1321" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
     <row r="1322">
       <c r="A1322" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7845P53</t>
+          <t>PRODUCTCODE: 9205P14</t>
         </is>
       </c>
       <c r="B1322" t="inlineStr"/>
@@ -20332,7 +20332,7 @@
     <row r="1323">
       <c r="A1323" t="inlineStr">
         <is>
-          <t>Summarized description: Follow your guide to the Eiffel Tower's elevators, and enjoy many stories, anecdotes, and even insider tips. More importantly, you'll get to enjoy the added value of individual complementary tablets, as your guide will illustrate his fascinating stories with archive videos, pictures and augmented reality.</t>
+          <t>Summarized description: Discover Paris' most famous landmark with a local and passionate guide. Ticket includes skip-the-line access to the second level of the Eiffel Tower.</t>
         </is>
       </c>
       <c r="B1323" t="inlineStr"/>
@@ -20347,7 +20347,7 @@
     <row r="1324">
       <c r="A1324" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Interactive Experience with Summit Level Access</t>
+          <t>Title: Skip the Line: Eiffel Tower Tour and Summit Access by elevator-Group Option</t>
         </is>
       </c>
       <c r="B1324" t="inlineStr"/>
@@ -20362,7 +20362,7 @@
     <row r="1325">
       <c r="A1325" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1325" t="inlineStr"/>
@@ -20377,7 +20377,7 @@
     <row r="1326">
       <c r="A1326" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1326" t="inlineStr"/>
@@ -20392,7 +20392,7 @@
     <row r="1327">
       <c r="A1327" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7845P21</t>
+          <t>PRODUCTCODE: 197814P1</t>
         </is>
       </c>
       <c r="B1327" t="inlineStr"/>
@@ -20407,7 +20407,7 @@
     <row r="1328">
       <c r="A1328" t="inlineStr">
         <is>
-          <t>Summarized description:  skip-the-line admission tickets to the Eiffel Tower. Enjoy a 1-hour experience where you're escorted by a host to the tower. Afterward, receive your Big Bus Paris Hop-on Hop-off tour and Bateaux Parisiens Seine River Sightseeing Cruise tickets.</t>
+          <t>Summarized description: Learn history of Gustave Eiffel and the tower's construction. See Paris from 300 meters high for a tour from the sky. Toast your arrival at the top at the famous champagne bar.</t>
         </is>
       </c>
       <c r="B1328" t="inlineStr"/>
@@ -20422,7 +20422,7 @@
     <row r="1329">
       <c r="A1329" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Skip the Line 2nd Floor Access with Big Bus and Seine River Cruise</t>
+          <t>Title: Eiffel Tower Tour with Summit Option</t>
         </is>
       </c>
       <c r="B1329" t="inlineStr"/>
@@ -20437,7 +20437,7 @@
     <row r="1330">
       <c r="A1330" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1330" t="inlineStr"/>
@@ -20452,7 +20452,7 @@
     <row r="1331">
       <c r="A1331" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1331" t="inlineStr"/>
@@ -20467,7 +20467,7 @@
     <row r="1332">
       <c r="A1332" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 443044P1</t>
+          <t>PRODUCTCODE: 445693P5</t>
         </is>
       </c>
       <c r="B1332" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
     <row r="1333">
       <c r="A1333" t="inlineStr">
         <is>
-          <t>Summarized description: Find out more about the building itself and the civil engineer that designed it, Gustave Eiffel. Take advantage of the optional opportunity to ascend by elevator past the second floor to the summit of the tower.</t>
+          <t>Summarized description: Hear the history and legends behind the Paris icon as a guide accompanies you up to the second level. Get help identifying the monuments below, and upgrade for summit access.</t>
         </is>
       </c>
       <c r="B1333" t="inlineStr"/>
@@ -20497,7 +20497,7 @@
     <row r="1334">
       <c r="A1334" t="inlineStr">
         <is>
-          <t>Title: Paris: Eiffel Tower Guided Tour with Optional Summit Access</t>
+          <t xml:space="preserve">Title: Paris Eiffel Tower Tour by Elevator </t>
         </is>
       </c>
       <c r="B1334" t="inlineStr"/>
@@ -20512,7 +20512,7 @@
     <row r="1335">
       <c r="A1335" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1335" t="inlineStr"/>
@@ -20542,7 +20542,7 @@
     <row r="1337">
       <c r="A1337" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2050P314</t>
+          <t>PRODUCTCODE: 9386P48</t>
         </is>
       </c>
       <c r="B1337" t="inlineStr"/>
@@ -20557,7 +20557,7 @@
     <row r="1338">
       <c r="A1338" t="inlineStr">
         <is>
-          <t>Summarized description: 4/5-hour combo tour gives you the chance to experience Paris in the evening in three ways: a 1-hour river cruise on the Seine, a sightseeing tour by coach and admission to the summit level of the Eiffel Tower.</t>
+          <t>Summarized description: With our ticket to the Eiffel Tower with priority access, we will avoid the famous lines and go up by elevator to the second floor. There we will live one of the most beautiful moments of the walk, enjoying the most spectacular views of Paris.</t>
         </is>
       </c>
       <c r="B1338" t="inlineStr"/>
@@ -20572,7 +20572,7 @@
     <row r="1339">
       <c r="A1339" t="inlineStr">
         <is>
-          <t>Title: Evening Cruise and City Tour with Summit Priority Eiffel Tower Access</t>
+          <t>Title: Eiffel Tower Tour</t>
         </is>
       </c>
       <c r="B1339" t="inlineStr"/>
@@ -20587,7 +20587,7 @@
     <row r="1340">
       <c r="A1340" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1340" t="inlineStr"/>
@@ -20602,7 +20602,7 @@
     <row r="1341">
       <c r="A1341" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1341" t="inlineStr"/>
@@ -20617,7 +20617,7 @@
     <row r="1342">
       <c r="A1342" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239343P19</t>
+          <t>PRODUCTCODE: 183842P3</t>
         </is>
       </c>
       <c r="B1342" t="inlineStr"/>
@@ -20632,7 +20632,7 @@
     <row r="1343">
       <c r="A1343" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy direct access to the Second floor of the Eiffel Tower by Elevator or Stairs. Choose a time to embark on a Seine sightseeing river cruise.</t>
+          <t>Summarized description: A unique experience, taking the elevator to the second floor and then the summit. Guided admission ticket to the Eiffel Tower. Enjoying panoramic view from both the summit and the first floor.</t>
         </is>
       </c>
       <c r="B1343" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
     <row r="1344">
       <c r="A1344" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Second Floor Access and Seine River Cruise Tour</t>
+          <t xml:space="preserve">Title: Guided Tour Eiffel Tower elevator with Host </t>
         </is>
       </c>
       <c r="B1344" t="inlineStr"/>
@@ -20662,7 +20662,7 @@
     <row r="1345">
       <c r="A1345" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1345" t="inlineStr"/>
@@ -20677,7 +20677,7 @@
     <row r="1346">
       <c r="A1346" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1346" t="inlineStr"/>
@@ -20692,7 +20692,7 @@
     <row r="1347">
       <c r="A1347" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 60672P97</t>
+          <t>PRODUCTCODE: 458844P1</t>
         </is>
       </c>
       <c r="B1347" t="inlineStr"/>
@@ -20707,7 +20707,7 @@
     <row r="1348">
       <c r="A1348" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower is one of the most famous landmarks in the world. It is located at the top of the Champs-Elysees in Paris, France.</t>
+          <t>Summarized description: Make the most of this Viator Eiffel Tower ticket. Enjoy hassle-free entry to one of the world’s busiest monuments. Listen as your host adds colourful history and facts to the sights below.</t>
         </is>
       </c>
       <c r="B1348" t="inlineStr"/>
@@ -20722,7 +20722,7 @@
     <row r="1349">
       <c r="A1349" t="inlineStr">
         <is>
-          <t>Title: Paris: Climb up the Eiffel Tower - Summit Included By Lift</t>
+          <t>Title: Eiffel Tower with Host 2nd Floor access with elevator</t>
         </is>
       </c>
       <c r="B1349" t="inlineStr"/>
@@ -20737,7 +20737,7 @@
     <row r="1350">
       <c r="A1350" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1350" t="inlineStr"/>
@@ -20752,7 +20752,7 @@
     <row r="1351">
       <c r="A1351" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1351" t="inlineStr"/>
@@ -20767,7 +20767,7 @@
     <row r="1352">
       <c r="A1352" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 75761P25</t>
+          <t>PRODUCTCODE: 248877P42</t>
         </is>
       </c>
       <c r="B1352" t="inlineStr"/>
@@ -20782,7 +20782,7 @@
     <row r="1353">
       <c r="A1353" t="inlineStr">
         <is>
-          <t>Summarized description: Paris Eiffel Tower Priority Access with Host. 1.3-hour tour of the 2nd Floor. Champagne bar at the top of the tower.</t>
+          <t>Summarized description: The Eiffel Tower is a wrought iron lattice tower on the Champ de Mars in Paris, France. Enjoy direct access before admiring exceptional views of Paris. Take a thrilling trip to the summit or second level with a professional guide.</t>
         </is>
       </c>
       <c r="B1353" t="inlineStr"/>
@@ -20797,7 +20797,7 @@
     <row r="1354">
       <c r="A1354" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Paris Eiffel Tower Priority Access With Tour Guide </t>
+          <t>Title: Eiffel Tower Summit or 2nd Floor Direct Access Guided Tour (Small Group)</t>
         </is>
       </c>
       <c r="B1354" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
     <row r="1355">
       <c r="A1355" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1355" t="inlineStr"/>
@@ -20827,7 +20827,7 @@
     <row r="1356">
       <c r="A1356" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions', 'Dining Experiences']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1356" t="inlineStr"/>
@@ -20842,7 +20842,7 @@
     <row r="1357">
       <c r="A1357" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239343P42</t>
+          <t>PRODUCTCODE: 248877P47</t>
         </is>
       </c>
       <c r="B1357" t="inlineStr"/>
@@ -20857,7 +20857,7 @@
     <row r="1358">
       <c r="A1358" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the tower's rich history, engineering, and current role in Parisian society. From above, take in a unique perspective of Paris and its landmarks.</t>
+          <t>Summarized description: The Eiffel Tower is one of the most visited tourist attractions in the world. It is located on the banks of the River Seine in Paris, France.</t>
         </is>
       </c>
       <c r="B1358" t="inlineStr"/>
@@ -20872,7 +20872,7 @@
     <row r="1359">
       <c r="A1359" t="inlineStr">
         <is>
-          <t>Title: Paris Most Famous View Of Eiffel Tower Summit With Elevator Tour</t>
+          <t>Title: Paris Eiffel Tower Experience (Access to 2nd Floor)</t>
         </is>
       </c>
       <c r="B1359" t="inlineStr"/>
@@ -20887,7 +20887,7 @@
     <row r="1360">
       <c r="A1360" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1360" t="inlineStr"/>
@@ -20902,7 +20902,7 @@
     <row r="1361">
       <c r="A1361" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1361" t="inlineStr"/>
@@ -20917,7 +20917,7 @@
     <row r="1362">
       <c r="A1362" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 371158P9</t>
+          <t>PRODUCTCODE: 5717P11</t>
         </is>
       </c>
       <c r="B1362" t="inlineStr"/>
@@ -20932,7 +20932,7 @@
     <row r="1363">
       <c r="A1363" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the tower's history and details, and see the beautiful panorama of Paris. Meet Our Guide at Entrance: #1 (Pilier Sud) Please be there 15-Min Before the starts.</t>
+          <t>Summarized description: Discover a new side of the Eiffel Tower and her secrets. Enjoy a 90-minute guided tour to discover a newside of the tower and its secrets.</t>
         </is>
       </c>
       <c r="B1363" t="inlineStr"/>
@@ -20947,7 +20947,7 @@
     <row r="1364">
       <c r="A1364" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Live Guided Tour 2nd Floor Entry Tickets via Stairs</t>
+          <t>Title: Eiffel Tower Skip the Line Guided Tour to the 2nd floor</t>
         </is>
       </c>
       <c r="B1364" t="inlineStr"/>
@@ -20962,7 +20962,7 @@
     <row r="1365">
       <c r="A1365" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1365" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
     <row r="1366">
       <c r="A1366" t="inlineStr">
         <is>
-          <t>Category: ['', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1366" t="inlineStr"/>
@@ -20992,7 +20992,7 @@
     <row r="1367">
       <c r="A1367" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 435669P2</t>
+          <t>PRODUCTCODE: 226089P1</t>
         </is>
       </c>
       <c r="B1367" t="inlineStr"/>
@@ -21007,7 +21007,7 @@
     <row r="1368">
       <c r="A1368" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the Eiffel Tower with this tour that includes 2rd Floor access. Learn about Paris culture, traditions, and history. Sip Champagne from the onsite bar (own expense)</t>
+          <t>Summarized description: Explore the stunning views of Gustave Eiffel's most famous creation from top to bottom. Our skip the lines access will send you to the 2nd-floor observation deck right away.</t>
         </is>
       </c>
       <c r="B1368" t="inlineStr"/>
@@ -21022,7 +21022,7 @@
     <row r="1369">
       <c r="A1369" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower 2nd Floor Access</t>
+          <t>Title: Skip-the-line access: Guided Eiffel Tower Tour with Optional Summit Access</t>
         </is>
       </c>
       <c r="B1369" t="inlineStr"/>
@@ -21037,7 +21037,7 @@
     <row r="1370">
       <c r="A1370" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1370" t="inlineStr"/>
@@ -21052,7 +21052,7 @@
     <row r="1371">
       <c r="A1371" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1371" t="inlineStr"/>
@@ -21067,7 +21067,7 @@
     <row r="1372">
       <c r="A1372" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 85210P33</t>
+          <t>PRODUCTCODE: 248877P48</t>
         </is>
       </c>
       <c r="B1372" t="inlineStr"/>
@@ -21082,7 +21082,7 @@
     <row r="1373">
       <c r="A1373" t="inlineStr">
         <is>
-          <t>Summarized description: Book your priority access ticket to climb the Eiffel Tower either by day or by night. Enjoy panoramic views across the city and admire famous Parisian landmarks such as Notre-Dame Cathedral.</t>
+          <t>Summarized description:  skip-the-line tickets give you access to the 2nd level of the Eiffel Tower. Check out stunning Parisian neighborhoods such as the Champs Elysees, Notre Dame, Montmartre, Seine River.</t>
         </is>
       </c>
       <c r="B1373" t="inlineStr"/>
@@ -21097,7 +21097,7 @@
     <row r="1374">
       <c r="A1374" t="inlineStr">
         <is>
-          <t>Title: Eiffel tower with audio guide and PRIORITY ACCESS</t>
+          <t xml:space="preserve">Title: Eiffel Tower Skip the Line: 2nd Floor or SUMMIT Access with Quick Lift </t>
         </is>
       </c>
       <c r="B1374" t="inlineStr"/>
@@ -21112,7 +21112,7 @@
     <row r="1375">
       <c r="A1375" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1375" t="inlineStr"/>
@@ -21127,7 +21127,7 @@
     <row r="1376">
       <c r="A1376" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1376" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
     <row r="1377">
       <c r="A1377" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 275837P12</t>
+          <t>PRODUCTCODE: 183842P4</t>
         </is>
       </c>
       <c r="B1377" t="inlineStr"/>
@@ -21157,7 +21157,7 @@
     <row r="1378">
       <c r="A1378" t="inlineStr">
         <is>
-          <t>Summarized description: Guests book this experience because their guide handles everything. Your tickets are acquired on site by your guide and it takes you up to the 2nd level. For an extra experience, you can take the stairs as you descend.</t>
+          <t>Summarized description: A unique experience, taking the elevator to the second floor and then the summit. Guided admission ticket to the Eiffel Tower. Enjoying panoramic view from both the summit and the first floor.</t>
         </is>
       </c>
       <c r="B1378" t="inlineStr"/>
@@ -21172,7 +21172,7 @@
     <row r="1379">
       <c r="A1379" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower visit with Experienced Guide | Take the Elevator to the 2nd Floor</t>
+          <t xml:space="preserve">Title: Guided Eiffel Tower Tour by Elevator with professional guide </t>
         </is>
       </c>
       <c r="B1379" t="inlineStr"/>
@@ -21187,7 +21187,7 @@
     <row r="1380">
       <c r="A1380" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1380" t="inlineStr"/>
@@ -21202,7 +21202,7 @@
     <row r="1381">
       <c r="A1381" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1381" t="inlineStr"/>
@@ -21217,7 +21217,7 @@
     <row r="1382">
       <c r="A1382" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 419625P3</t>
+          <t>PRODUCTCODE: 239576P20</t>
         </is>
       </c>
       <c r="B1382" t="inlineStr"/>
@@ -21232,7 +21232,7 @@
     <row r="1383">
       <c r="A1383" t="inlineStr">
         <is>
-          <t>Summarized description: Our guide will provide a captivating historical overview of the Eiffel Tower. As you pass through security, our knowledgeable host will accompany you. The guide will have your elevator tickets and hand them to you.</t>
+          <t>Summarized description: Take on the 704-step trek to the Eiffel Tower's second floor as a challenge. From the second story of the Tower, take in the stunning 360-degree view.</t>
         </is>
       </c>
       <c r="B1383" t="inlineStr"/>
@@ -21247,7 +21247,7 @@
     <row r="1384">
       <c r="A1384" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Skip-the-Line 2nd Floor Guided Tour by Elevator</t>
+          <t>Title: Eiffel Tower Guided Tour (Multiple Options)</t>
         </is>
       </c>
       <c r="B1384" t="inlineStr"/>
@@ -21262,7 +21262,7 @@
     <row r="1385">
       <c r="A1385" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1385" t="inlineStr"/>
@@ -21277,7 +21277,7 @@
     <row r="1386">
       <c r="A1386" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Aerial Tours']</t>
         </is>
       </c>
       <c r="B1386" t="inlineStr"/>
@@ -21292,7 +21292,7 @@
     <row r="1387">
       <c r="A1387" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5460P21</t>
+          <t>PRODUCTCODE: 427087P2</t>
         </is>
       </c>
       <c r="B1387" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
     <row r="1388">
       <c r="A1388" t="inlineStr">
         <is>
-          <t>Summarized description: Choose from a guided tour of the 2nd floor or the summit. Hear from your handpicked guide about its origins and the secrets behind the construction of this architectural masterpiece.</t>
+          <t>Summarized description: Discover the Eiffel Tower at your own pace. You will get a more personalized and relaxed experience focused on your wishes. It will be a great and unique opportunity to share this memorable visit with your family or closest friends and nobody else.</t>
         </is>
       </c>
       <c r="B1388" t="inlineStr"/>
@@ -21322,7 +21322,7 @@
     <row r="1389">
       <c r="A1389" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Guided Tour by Elevator in English</t>
+          <t>Title: Private Tour at the Eiffel Tower with Second Floor Access</t>
         </is>
       </c>
       <c r="B1389" t="inlineStr"/>
@@ -21337,7 +21337,7 @@
     <row r="1390">
       <c r="A1390" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1390" t="inlineStr"/>
@@ -21352,7 +21352,7 @@
     <row r="1391">
       <c r="A1391" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1391" t="inlineStr"/>
@@ -21367,7 +21367,7 @@
     <row r="1392">
       <c r="A1392" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 243313P23</t>
+          <t>PRODUCTCODE: 409807P3</t>
         </is>
       </c>
       <c r="B1392" t="inlineStr"/>
@@ -21382,7 +21382,7 @@
     <row r="1393">
       <c r="A1393" t="inlineStr">
         <is>
-          <t>Summarized description:  skip-the-line tickets give you access to the 2nd level of the Eiffel Tower. Check out stunning Parisian landmarks such as the Champs Elysees, Notre Dame, Montmartre, Seine River, and so on.</t>
+          <t>Summarized description: Narrated by world class entertainers, this historical audio guide will allow you to digest Eiffel Tower information in a most enjoyable manner. Explore at your own pace and at an affordable price.</t>
         </is>
       </c>
       <c r="B1393" t="inlineStr"/>
@@ -21397,7 +21397,7 @@
     <row r="1394">
       <c r="A1394" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Eiffel Tower Skip the Line Experience : 2nd Floor or SUMMIT with Lift Access </t>
+          <t>Title: Eiffel Tower Audio Tour Experience</t>
         </is>
       </c>
       <c r="B1394" t="inlineStr"/>
@@ -21412,7 +21412,7 @@
     <row r="1395">
       <c r="A1395" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1395" t="inlineStr"/>
@@ -21427,7 +21427,7 @@
     <row r="1396">
       <c r="A1396" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Entertainment', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1396" t="inlineStr"/>
@@ -21442,7 +21442,7 @@
     <row r="1397">
       <c r="A1397" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 396871P50</t>
+          <t>*****</t>
         </is>
       </c>
       <c r="B1397" t="inlineStr"/>
@@ -21454,3456 +21454,6 @@
       <c r="H1397" t="inlineStr"/>
       <c r="I1397" t="inlineStr"/>
     </row>
-    <row r="1398">
-      <c r="A1398" t="inlineStr">
-        <is>
-          <t>Summarized description: Bypass the queues and make the most of your visit to the Eiffel Tower. Dive deep into the history, engineering marvels, and cultural significance of the tower.</t>
-        </is>
-      </c>
-      <c r="B1398" t="inlineStr"/>
-      <c r="C1398" t="inlineStr"/>
-      <c r="D1398" t="inlineStr"/>
-      <c r="E1398" t="inlineStr"/>
-      <c r="F1398" t="inlineStr"/>
-      <c r="G1398" t="inlineStr"/>
-      <c r="H1398" t="inlineStr"/>
-      <c r="I1398" t="inlineStr"/>
-    </row>
-    <row r="1399">
-      <c r="A1399" t="inlineStr">
-        <is>
-          <t>Title: Paris Eiffel Tower Skip the Line Ticket with Audio Guide Tour</t>
-        </is>
-      </c>
-      <c r="B1399" t="inlineStr"/>
-      <c r="C1399" t="inlineStr"/>
-      <c r="D1399" t="inlineStr"/>
-      <c r="E1399" t="inlineStr"/>
-      <c r="F1399" t="inlineStr"/>
-      <c r="G1399" t="inlineStr"/>
-      <c r="H1399" t="inlineStr"/>
-      <c r="I1399" t="inlineStr"/>
-    </row>
-    <row r="1400">
-      <c r="A1400" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1400" t="inlineStr"/>
-      <c r="C1400" t="inlineStr"/>
-      <c r="D1400" t="inlineStr"/>
-      <c r="E1400" t="inlineStr"/>
-      <c r="F1400" t="inlineStr"/>
-      <c r="G1400" t="inlineStr"/>
-      <c r="H1400" t="inlineStr"/>
-      <c r="I1400" t="inlineStr"/>
-    </row>
-    <row r="1401">
-      <c r="A1401" t="inlineStr">
-        <is>
-          <t>Category: ['Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1401" t="inlineStr"/>
-      <c r="C1401" t="inlineStr"/>
-      <c r="D1401" t="inlineStr"/>
-      <c r="E1401" t="inlineStr"/>
-      <c r="F1401" t="inlineStr"/>
-      <c r="G1401" t="inlineStr"/>
-      <c r="H1401" t="inlineStr"/>
-      <c r="I1401" t="inlineStr"/>
-    </row>
-    <row r="1402">
-      <c r="A1402" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 248877P36</t>
-        </is>
-      </c>
-      <c r="B1402" t="inlineStr"/>
-      <c r="C1402" t="inlineStr"/>
-      <c r="D1402" t="inlineStr"/>
-      <c r="E1402" t="inlineStr"/>
-      <c r="F1402" t="inlineStr"/>
-      <c r="G1402" t="inlineStr"/>
-      <c r="H1402" t="inlineStr"/>
-      <c r="I1402" t="inlineStr"/>
-    </row>
-    <row r="1403">
-      <c r="A1403" t="inlineStr">
-        <is>
-          <t>Summarized description: Take advantage of priority access to the 2nd floor of the Eiffel Tower with a expert English speaking guide. Enjoy the view of Paris from above and add access to go all the way to the summit.</t>
-        </is>
-      </c>
-      <c r="B1403" t="inlineStr"/>
-      <c r="C1403" t="inlineStr"/>
-      <c r="D1403" t="inlineStr"/>
-      <c r="E1403" t="inlineStr"/>
-      <c r="F1403" t="inlineStr"/>
-      <c r="G1403" t="inlineStr"/>
-      <c r="H1403" t="inlineStr"/>
-      <c r="I1403" t="inlineStr"/>
-    </row>
-    <row r="1404">
-      <c r="A1404" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower Guided Tour with Summit or Second Floor Priority Access</t>
-        </is>
-      </c>
-      <c r="B1404" t="inlineStr"/>
-      <c r="C1404" t="inlineStr"/>
-      <c r="D1404" t="inlineStr"/>
-      <c r="E1404" t="inlineStr"/>
-      <c r="F1404" t="inlineStr"/>
-      <c r="G1404" t="inlineStr"/>
-      <c r="H1404" t="inlineStr"/>
-      <c r="I1404" t="inlineStr"/>
-    </row>
-    <row r="1405">
-      <c r="A1405" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1405" t="inlineStr"/>
-      <c r="C1405" t="inlineStr"/>
-      <c r="D1405" t="inlineStr"/>
-      <c r="E1405" t="inlineStr"/>
-      <c r="F1405" t="inlineStr"/>
-      <c r="G1405" t="inlineStr"/>
-      <c r="H1405" t="inlineStr"/>
-      <c r="I1405" t="inlineStr"/>
-    </row>
-    <row r="1406">
-      <c r="A1406" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1406" t="inlineStr"/>
-      <c r="C1406" t="inlineStr"/>
-      <c r="D1406" t="inlineStr"/>
-      <c r="E1406" t="inlineStr"/>
-      <c r="F1406" t="inlineStr"/>
-      <c r="G1406" t="inlineStr"/>
-      <c r="H1406" t="inlineStr"/>
-      <c r="I1406" t="inlineStr"/>
-    </row>
-    <row r="1407">
-      <c r="A1407" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 415184P116</t>
-        </is>
-      </c>
-      <c r="B1407" t="inlineStr"/>
-      <c r="C1407" t="inlineStr"/>
-      <c r="D1407" t="inlineStr"/>
-      <c r="E1407" t="inlineStr"/>
-      <c r="F1407" t="inlineStr"/>
-      <c r="G1407" t="inlineStr"/>
-      <c r="H1407" t="inlineStr"/>
-      <c r="I1407" t="inlineStr"/>
-    </row>
-    <row r="1408">
-      <c r="A1408" t="inlineStr">
-        <is>
-          <t>Summarized description: Our package includes Skip-the-Line access, granting you priority entry to the Eiffel Tower. Our knowledgeable guides are passionate about the history and stories behind the iconic Iron Lady.</t>
-        </is>
-      </c>
-      <c r="B1408" t="inlineStr"/>
-      <c r="C1408" t="inlineStr"/>
-      <c r="D1408" t="inlineStr"/>
-      <c r="E1408" t="inlineStr"/>
-      <c r="F1408" t="inlineStr"/>
-      <c r="G1408" t="inlineStr"/>
-      <c r="H1408" t="inlineStr"/>
-      <c r="I1408" t="inlineStr"/>
-    </row>
-    <row r="1409">
-      <c r="A1409" t="inlineStr">
-        <is>
-          <t>Title: Paris Eiffel Tower Skip The Line Ticket with English Guided Tour</t>
-        </is>
-      </c>
-      <c r="B1409" t="inlineStr"/>
-      <c r="C1409" t="inlineStr"/>
-      <c r="D1409" t="inlineStr"/>
-      <c r="E1409" t="inlineStr"/>
-      <c r="F1409" t="inlineStr"/>
-      <c r="G1409" t="inlineStr"/>
-      <c r="H1409" t="inlineStr"/>
-      <c r="I1409" t="inlineStr"/>
-    </row>
-    <row r="1410">
-      <c r="A1410" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1410" t="inlineStr"/>
-      <c r="C1410" t="inlineStr"/>
-      <c r="D1410" t="inlineStr"/>
-      <c r="E1410" t="inlineStr"/>
-      <c r="F1410" t="inlineStr"/>
-      <c r="G1410" t="inlineStr"/>
-      <c r="H1410" t="inlineStr"/>
-      <c r="I1410" t="inlineStr"/>
-    </row>
-    <row r="1411">
-      <c r="A1411" t="inlineStr">
-        <is>
-          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1411" t="inlineStr"/>
-      <c r="C1411" t="inlineStr"/>
-      <c r="D1411" t="inlineStr"/>
-      <c r="E1411" t="inlineStr"/>
-      <c r="F1411" t="inlineStr"/>
-      <c r="G1411" t="inlineStr"/>
-      <c r="H1411" t="inlineStr"/>
-      <c r="I1411" t="inlineStr"/>
-    </row>
-    <row r="1412">
-      <c r="A1412" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 375109P30</t>
-        </is>
-      </c>
-      <c r="B1412" t="inlineStr"/>
-      <c r="C1412" t="inlineStr"/>
-      <c r="D1412" t="inlineStr"/>
-      <c r="E1412" t="inlineStr"/>
-      <c r="F1412" t="inlineStr"/>
-      <c r="G1412" t="inlineStr"/>
-      <c r="H1412" t="inlineStr"/>
-      <c r="I1412" t="inlineStr"/>
-    </row>
-    <row r="1413">
-      <c r="A1413" t="inlineStr">
-        <is>
-          <t>Summarized description: Hear the history and legends linked to the Paris icon as a guide accompanies you to the second level. Get help to identify the different monuments at your feet and upgrade to access the summit and climb even higher.</t>
-        </is>
-      </c>
-      <c r="B1413" t="inlineStr"/>
-      <c r="C1413" t="inlineStr"/>
-      <c r="D1413" t="inlineStr"/>
-      <c r="E1413" t="inlineStr"/>
-      <c r="F1413" t="inlineStr"/>
-      <c r="G1413" t="inlineStr"/>
-      <c r="H1413" t="inlineStr"/>
-      <c r="I1413" t="inlineStr"/>
-    </row>
-    <row r="1414">
-      <c r="A1414" t="inlineStr">
-        <is>
-          <t>Title: Morning Eiffel Tower tour with a guide and elevator access</t>
-        </is>
-      </c>
-      <c r="B1414" t="inlineStr"/>
-      <c r="C1414" t="inlineStr"/>
-      <c r="D1414" t="inlineStr"/>
-      <c r="E1414" t="inlineStr"/>
-      <c r="F1414" t="inlineStr"/>
-      <c r="G1414" t="inlineStr"/>
-      <c r="H1414" t="inlineStr"/>
-      <c r="I1414" t="inlineStr"/>
-    </row>
-    <row r="1415">
-      <c r="A1415" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1415" t="inlineStr"/>
-      <c r="C1415" t="inlineStr"/>
-      <c r="D1415" t="inlineStr"/>
-      <c r="E1415" t="inlineStr"/>
-      <c r="F1415" t="inlineStr"/>
-      <c r="G1415" t="inlineStr"/>
-      <c r="H1415" t="inlineStr"/>
-      <c r="I1415" t="inlineStr"/>
-    </row>
-    <row r="1416">
-      <c r="A1416" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1416" t="inlineStr"/>
-      <c r="C1416" t="inlineStr"/>
-      <c r="D1416" t="inlineStr"/>
-      <c r="E1416" t="inlineStr"/>
-      <c r="F1416" t="inlineStr"/>
-      <c r="G1416" t="inlineStr"/>
-      <c r="H1416" t="inlineStr"/>
-      <c r="I1416" t="inlineStr"/>
-    </row>
-    <row r="1417">
-      <c r="A1417" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 381347P3</t>
-        </is>
-      </c>
-      <c r="B1417" t="inlineStr"/>
-      <c r="C1417" t="inlineStr"/>
-      <c r="D1417" t="inlineStr"/>
-      <c r="E1417" t="inlineStr"/>
-      <c r="F1417" t="inlineStr"/>
-      <c r="G1417" t="inlineStr"/>
-      <c r="H1417" t="inlineStr"/>
-      <c r="I1417" t="inlineStr"/>
-    </row>
-    <row r="1418">
-      <c r="A1418" t="inlineStr">
-        <is>
-          <t>Summarized description: Direct Summit Access to one of the most famous monuments in the world. knowledgeable guides will entertain you with facts about the Eiffel tower. Breathtaking panoramic views from the top floor.</t>
-        </is>
-      </c>
-      <c r="B1418" t="inlineStr"/>
-      <c r="C1418" t="inlineStr"/>
-      <c r="D1418" t="inlineStr"/>
-      <c r="E1418" t="inlineStr"/>
-      <c r="F1418" t="inlineStr"/>
-      <c r="G1418" t="inlineStr"/>
-      <c r="H1418" t="inlineStr"/>
-      <c r="I1418" t="inlineStr"/>
-    </row>
-    <row r="1419">
-      <c r="A1419" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower Summit Direct Access</t>
-        </is>
-      </c>
-      <c r="B1419" t="inlineStr"/>
-      <c r="C1419" t="inlineStr"/>
-      <c r="D1419" t="inlineStr"/>
-      <c r="E1419" t="inlineStr"/>
-      <c r="F1419" t="inlineStr"/>
-      <c r="G1419" t="inlineStr"/>
-      <c r="H1419" t="inlineStr"/>
-      <c r="I1419" t="inlineStr"/>
-    </row>
-    <row r="1420">
-      <c r="A1420" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1420" t="inlineStr"/>
-      <c r="C1420" t="inlineStr"/>
-      <c r="D1420" t="inlineStr"/>
-      <c r="E1420" t="inlineStr"/>
-      <c r="F1420" t="inlineStr"/>
-      <c r="G1420" t="inlineStr"/>
-      <c r="H1420" t="inlineStr"/>
-      <c r="I1420" t="inlineStr"/>
-    </row>
-    <row r="1421">
-      <c r="A1421" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1421" t="inlineStr"/>
-      <c r="C1421" t="inlineStr"/>
-      <c r="D1421" t="inlineStr"/>
-      <c r="E1421" t="inlineStr"/>
-      <c r="F1421" t="inlineStr"/>
-      <c r="G1421" t="inlineStr"/>
-      <c r="H1421" t="inlineStr"/>
-      <c r="I1421" t="inlineStr"/>
-    </row>
-    <row r="1422">
-      <c r="A1422" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 220637P3</t>
-        </is>
-      </c>
-      <c r="B1422" t="inlineStr"/>
-      <c r="C1422" t="inlineStr"/>
-      <c r="D1422" t="inlineStr"/>
-      <c r="E1422" t="inlineStr"/>
-      <c r="F1422" t="inlineStr"/>
-      <c r="G1422" t="inlineStr"/>
-      <c r="H1422" t="inlineStr"/>
-      <c r="I1422" t="inlineStr"/>
-    </row>
-    <row r="1423">
-      <c r="A1423" t="inlineStr">
-        <is>
-          <t>Summarized description: Start your visit with an English-speaking guide just a few steps from the Eiffel Tower. The program includes some 690 steps to climb in order to reach the second floor.</t>
-        </is>
-      </c>
-      <c r="B1423" t="inlineStr"/>
-      <c r="C1423" t="inlineStr"/>
-      <c r="D1423" t="inlineStr"/>
-      <c r="E1423" t="inlineStr"/>
-      <c r="F1423" t="inlineStr"/>
-      <c r="G1423" t="inlineStr"/>
-      <c r="H1423" t="inlineStr"/>
-      <c r="I1423" t="inlineStr"/>
-    </row>
-    <row r="1424">
-      <c r="A1424" t="inlineStr">
-        <is>
-          <t>Title: English Spoken Eiffel Tower Climbing Experience</t>
-        </is>
-      </c>
-      <c r="B1424" t="inlineStr"/>
-      <c r="C1424" t="inlineStr"/>
-      <c r="D1424" t="inlineStr"/>
-      <c r="E1424" t="inlineStr"/>
-      <c r="F1424" t="inlineStr"/>
-      <c r="G1424" t="inlineStr"/>
-      <c r="H1424" t="inlineStr"/>
-      <c r="I1424" t="inlineStr"/>
-    </row>
-    <row r="1425">
-      <c r="A1425" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1425" t="inlineStr"/>
-      <c r="C1425" t="inlineStr"/>
-      <c r="D1425" t="inlineStr"/>
-      <c r="E1425" t="inlineStr"/>
-      <c r="F1425" t="inlineStr"/>
-      <c r="G1425" t="inlineStr"/>
-      <c r="H1425" t="inlineStr"/>
-      <c r="I1425" t="inlineStr"/>
-    </row>
-    <row r="1426">
-      <c r="A1426" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1426" t="inlineStr"/>
-      <c r="C1426" t="inlineStr"/>
-      <c r="D1426" t="inlineStr"/>
-      <c r="E1426" t="inlineStr"/>
-      <c r="F1426" t="inlineStr"/>
-      <c r="G1426" t="inlineStr"/>
-      <c r="H1426" t="inlineStr"/>
-      <c r="I1426" t="inlineStr"/>
-    </row>
-    <row r="1427">
-      <c r="A1427" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 384373P4</t>
-        </is>
-      </c>
-      <c r="B1427" t="inlineStr"/>
-      <c r="C1427" t="inlineStr"/>
-      <c r="D1427" t="inlineStr"/>
-      <c r="E1427" t="inlineStr"/>
-      <c r="F1427" t="inlineStr"/>
-      <c r="G1427" t="inlineStr"/>
-      <c r="H1427" t="inlineStr"/>
-      <c r="I1427" t="inlineStr"/>
-    </row>
-    <row r="1428">
-      <c r="A1428" t="inlineStr">
-        <is>
-          <t>Summarized description: Get an exclusive peek behind the scenes and beneath the tower's iconic beams. Enjoy panoramic views of the Louvre, the Arc de Triomphe, the Seine River, and the Champs-Élysées.</t>
-        </is>
-      </c>
-      <c r="B1428" t="inlineStr"/>
-      <c r="C1428" t="inlineStr"/>
-      <c r="D1428" t="inlineStr"/>
-      <c r="E1428" t="inlineStr"/>
-      <c r="F1428" t="inlineStr"/>
-      <c r="G1428" t="inlineStr"/>
-      <c r="H1428" t="inlineStr"/>
-      <c r="I1428" t="inlineStr"/>
-    </row>
-    <row r="1429">
-      <c r="A1429" t="inlineStr">
-        <is>
-          <t>Title: Sunrise Eiffel Tower Climbing Tour with Summit Access</t>
-        </is>
-      </c>
-      <c r="B1429" t="inlineStr"/>
-      <c r="C1429" t="inlineStr"/>
-      <c r="D1429" t="inlineStr"/>
-      <c r="E1429" t="inlineStr"/>
-      <c r="F1429" t="inlineStr"/>
-      <c r="G1429" t="inlineStr"/>
-      <c r="H1429" t="inlineStr"/>
-      <c r="I1429" t="inlineStr"/>
-    </row>
-    <row r="1430">
-      <c r="A1430" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1430" t="inlineStr"/>
-      <c r="C1430" t="inlineStr"/>
-      <c r="D1430" t="inlineStr"/>
-      <c r="E1430" t="inlineStr"/>
-      <c r="F1430" t="inlineStr"/>
-      <c r="G1430" t="inlineStr"/>
-      <c r="H1430" t="inlineStr"/>
-      <c r="I1430" t="inlineStr"/>
-    </row>
-    <row r="1431">
-      <c r="A1431" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1431" t="inlineStr"/>
-      <c r="C1431" t="inlineStr"/>
-      <c r="D1431" t="inlineStr"/>
-      <c r="E1431" t="inlineStr"/>
-      <c r="F1431" t="inlineStr"/>
-      <c r="G1431" t="inlineStr"/>
-      <c r="H1431" t="inlineStr"/>
-      <c r="I1431" t="inlineStr"/>
-    </row>
-    <row r="1432">
-      <c r="A1432" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 2050P313</t>
-        </is>
-      </c>
-      <c r="B1432" t="inlineStr"/>
-      <c r="C1432" t="inlineStr"/>
-      <c r="D1432" t="inlineStr"/>
-      <c r="E1432" t="inlineStr"/>
-      <c r="F1432" t="inlineStr"/>
-      <c r="G1432" t="inlineStr"/>
-      <c r="H1432" t="inlineStr"/>
-      <c r="I1432" t="inlineStr"/>
-    </row>
-    <row r="1433">
-      <c r="A1433" t="inlineStr">
-        <is>
-          <t>Summarized description: Take a spin around the essential sights from the comfort of a coach with our exclusive Histopad. Then embark on a cruise along the Seine, under its many bridges, before scaling the heights of the Grande Dame.</t>
-        </is>
-      </c>
-      <c r="B1433" t="inlineStr"/>
-      <c r="C1433" t="inlineStr"/>
-      <c r="D1433" t="inlineStr"/>
-      <c r="E1433" t="inlineStr"/>
-      <c r="F1433" t="inlineStr"/>
-      <c r="G1433" t="inlineStr"/>
-      <c r="H1433" t="inlineStr"/>
-      <c r="I1433" t="inlineStr"/>
-    </row>
-    <row r="1434">
-      <c r="A1434" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower Summit, Immersive Paris Tour &amp; Cruise</t>
-        </is>
-      </c>
-      <c r="B1434" t="inlineStr"/>
-      <c r="C1434" t="inlineStr"/>
-      <c r="D1434" t="inlineStr"/>
-      <c r="E1434" t="inlineStr"/>
-      <c r="F1434" t="inlineStr"/>
-      <c r="G1434" t="inlineStr"/>
-      <c r="H1434" t="inlineStr"/>
-      <c r="I1434" t="inlineStr"/>
-    </row>
-    <row r="1435">
-      <c r="A1435" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1435" t="inlineStr"/>
-      <c r="C1435" t="inlineStr"/>
-      <c r="D1435" t="inlineStr"/>
-      <c r="E1435" t="inlineStr"/>
-      <c r="F1435" t="inlineStr"/>
-      <c r="G1435" t="inlineStr"/>
-      <c r="H1435" t="inlineStr"/>
-      <c r="I1435" t="inlineStr"/>
-    </row>
-    <row r="1436">
-      <c r="A1436" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1436" t="inlineStr"/>
-      <c r="C1436" t="inlineStr"/>
-      <c r="D1436" t="inlineStr"/>
-      <c r="E1436" t="inlineStr"/>
-      <c r="F1436" t="inlineStr"/>
-      <c r="G1436" t="inlineStr"/>
-      <c r="H1436" t="inlineStr"/>
-      <c r="I1436" t="inlineStr"/>
-    </row>
-    <row r="1437">
-      <c r="A1437" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 7832P162</t>
-        </is>
-      </c>
-      <c r="B1437" t="inlineStr"/>
-      <c r="C1437" t="inlineStr"/>
-      <c r="D1437" t="inlineStr"/>
-      <c r="E1437" t="inlineStr"/>
-      <c r="F1437" t="inlineStr"/>
-      <c r="G1437" t="inlineStr"/>
-      <c r="H1437" t="inlineStr"/>
-      <c r="I1437" t="inlineStr"/>
-    </row>
-    <row r="1438">
-      <c r="A1438" t="inlineStr">
-        <is>
-          <t>Summarized description: Discover the highlights of Paris on a 2-hour lunch cruise aboard "The essence of Paris" Cruise past iconic sights such as the Eiffel Tower and Notre Dame, and sail under historic bridges.</t>
-        </is>
-      </c>
-      <c r="B1438" t="inlineStr"/>
-      <c r="C1438" t="inlineStr"/>
-      <c r="D1438" t="inlineStr"/>
-      <c r="E1438" t="inlineStr"/>
-      <c r="F1438" t="inlineStr"/>
-      <c r="G1438" t="inlineStr"/>
-      <c r="H1438" t="inlineStr"/>
-      <c r="I1438" t="inlineStr"/>
-    </row>
-    <row r="1439">
-      <c r="A1439" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower Summit Floor Access &amp; Lunch Cruise</t>
-        </is>
-      </c>
-      <c r="B1439" t="inlineStr"/>
-      <c r="C1439" t="inlineStr"/>
-      <c r="D1439" t="inlineStr"/>
-      <c r="E1439" t="inlineStr"/>
-      <c r="F1439" t="inlineStr"/>
-      <c r="G1439" t="inlineStr"/>
-      <c r="H1439" t="inlineStr"/>
-      <c r="I1439" t="inlineStr"/>
-    </row>
-    <row r="1440">
-      <c r="A1440" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1440" t="inlineStr"/>
-      <c r="C1440" t="inlineStr"/>
-      <c r="D1440" t="inlineStr"/>
-      <c r="E1440" t="inlineStr"/>
-      <c r="F1440" t="inlineStr"/>
-      <c r="G1440" t="inlineStr"/>
-      <c r="H1440" t="inlineStr"/>
-      <c r="I1440" t="inlineStr"/>
-    </row>
-    <row r="1441">
-      <c r="A1441" t="inlineStr">
-        <is>
-          <t>Category: ['Dining Experiences', 'Cultural Cruises']</t>
-        </is>
-      </c>
-      <c r="B1441" t="inlineStr"/>
-      <c r="C1441" t="inlineStr"/>
-      <c r="D1441" t="inlineStr"/>
-      <c r="E1441" t="inlineStr"/>
-      <c r="F1441" t="inlineStr"/>
-      <c r="G1441" t="inlineStr"/>
-      <c r="H1441" t="inlineStr"/>
-      <c r="I1441" t="inlineStr"/>
-    </row>
-    <row r="1442">
-      <c r="A1442" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 6839P148</t>
-        </is>
-      </c>
-      <c r="B1442" t="inlineStr"/>
-      <c r="C1442" t="inlineStr"/>
-      <c r="D1442" t="inlineStr"/>
-      <c r="E1442" t="inlineStr"/>
-      <c r="F1442" t="inlineStr"/>
-      <c r="G1442" t="inlineStr"/>
-      <c r="H1442" t="inlineStr"/>
-      <c r="I1442" t="inlineStr"/>
-    </row>
-    <row r="1443">
-      <c r="A1443" t="inlineStr">
-        <is>
-          <t>Summarized description:  Portuguese-speaking guide at the top of the Eiffel Tower. Listen to the history of this incredible monument and enjoy the spectacular views of Paris from above.</t>
-        </is>
-      </c>
-      <c r="B1443" t="inlineStr"/>
-      <c r="C1443" t="inlineStr"/>
-      <c r="D1443" t="inlineStr"/>
-      <c r="E1443" t="inlineStr"/>
-      <c r="F1443" t="inlineStr"/>
-      <c r="G1443" t="inlineStr"/>
-      <c r="H1443" t="inlineStr"/>
-      <c r="I1443" t="inlineStr"/>
-    </row>
-    <row r="1444">
-      <c r="A1444" t="inlineStr">
-        <is>
-          <t>Title: Guided Tour to the Top of the Eiffel Tower in Portuguese</t>
-        </is>
-      </c>
-      <c r="B1444" t="inlineStr"/>
-      <c r="C1444" t="inlineStr"/>
-      <c r="D1444" t="inlineStr"/>
-      <c r="E1444" t="inlineStr"/>
-      <c r="F1444" t="inlineStr"/>
-      <c r="G1444" t="inlineStr"/>
-      <c r="H1444" t="inlineStr"/>
-      <c r="I1444" t="inlineStr"/>
-    </row>
-    <row r="1445">
-      <c r="A1445" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1445" t="inlineStr"/>
-      <c r="C1445" t="inlineStr"/>
-      <c r="D1445" t="inlineStr"/>
-      <c r="E1445" t="inlineStr"/>
-      <c r="F1445" t="inlineStr"/>
-      <c r="G1445" t="inlineStr"/>
-      <c r="H1445" t="inlineStr"/>
-      <c r="I1445" t="inlineStr"/>
-    </row>
-    <row r="1446">
-      <c r="A1446" t="inlineStr">
-        <is>
-          <t>Category: ['Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1446" t="inlineStr"/>
-      <c r="C1446" t="inlineStr"/>
-      <c r="D1446" t="inlineStr"/>
-      <c r="E1446" t="inlineStr"/>
-      <c r="F1446" t="inlineStr"/>
-      <c r="G1446" t="inlineStr"/>
-      <c r="H1446" t="inlineStr"/>
-      <c r="I1446" t="inlineStr"/>
-    </row>
-    <row r="1447">
-      <c r="A1447" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 268768P59</t>
-        </is>
-      </c>
-      <c r="B1447" t="inlineStr"/>
-      <c r="C1447" t="inlineStr"/>
-      <c r="D1447" t="inlineStr"/>
-      <c r="E1447" t="inlineStr"/>
-      <c r="F1447" t="inlineStr"/>
-      <c r="G1447" t="inlineStr"/>
-      <c r="H1447" t="inlineStr"/>
-      <c r="I1447" t="inlineStr"/>
-    </row>
-    <row r="1448">
-      <c r="A1448" t="inlineStr">
-        <is>
-          <t>Summarized description: Discover a meticulously recreated office of Gustave Eiffel on the 2nd floor, accessed by lift. This exclusive opportunity provides insight into the mind of the visionary engineer responsible for this remarkable feat of engineering.</t>
-        </is>
-      </c>
-      <c r="B1448" t="inlineStr"/>
-      <c r="C1448" t="inlineStr"/>
-      <c r="D1448" t="inlineStr"/>
-      <c r="E1448" t="inlineStr"/>
-      <c r="F1448" t="inlineStr"/>
-      <c r="G1448" t="inlineStr"/>
-      <c r="H1448" t="inlineStr"/>
-      <c r="I1448" t="inlineStr"/>
-    </row>
-    <row r="1449">
-      <c r="A1449" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower Skip the Queue Ticket by lift and Audio Guide Tour</t>
-        </is>
-      </c>
-      <c r="B1449" t="inlineStr"/>
-      <c r="C1449" t="inlineStr"/>
-      <c r="D1449" t="inlineStr"/>
-      <c r="E1449" t="inlineStr"/>
-      <c r="F1449" t="inlineStr"/>
-      <c r="G1449" t="inlineStr"/>
-      <c r="H1449" t="inlineStr"/>
-      <c r="I1449" t="inlineStr"/>
-    </row>
-    <row r="1450">
-      <c r="A1450" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1450" t="inlineStr"/>
-      <c r="C1450" t="inlineStr"/>
-      <c r="D1450" t="inlineStr"/>
-      <c r="E1450" t="inlineStr"/>
-      <c r="F1450" t="inlineStr"/>
-      <c r="G1450" t="inlineStr"/>
-      <c r="H1450" t="inlineStr"/>
-      <c r="I1450" t="inlineStr"/>
-    </row>
-    <row r="1451">
-      <c r="A1451" t="inlineStr">
-        <is>
-          <t>Category: ['Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1451" t="inlineStr"/>
-      <c r="C1451" t="inlineStr"/>
-      <c r="D1451" t="inlineStr"/>
-      <c r="E1451" t="inlineStr"/>
-      <c r="F1451" t="inlineStr"/>
-      <c r="G1451" t="inlineStr"/>
-      <c r="H1451" t="inlineStr"/>
-      <c r="I1451" t="inlineStr"/>
-    </row>
-    <row r="1452">
-      <c r="A1452" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 320547P787</t>
-        </is>
-      </c>
-      <c r="B1452" t="inlineStr"/>
-      <c r="C1452" t="inlineStr"/>
-      <c r="D1452" t="inlineStr"/>
-      <c r="E1452" t="inlineStr"/>
-      <c r="F1452" t="inlineStr"/>
-      <c r="G1452" t="inlineStr"/>
-      <c r="H1452" t="inlineStr"/>
-      <c r="I1452" t="inlineStr"/>
-    </row>
-    <row r="1453">
-      <c r="A1453" t="inlineStr">
-        <is>
-          <t>Summarized description: Our host will give you a brief history of the Eiffel Tower. Then you follow the host to the complex's entrance. As you pass through security, you join our host in line. You must wait in line with our host, who will pick up the summit (top floor) with elevator tickets.</t>
-        </is>
-      </c>
-      <c r="B1453" t="inlineStr"/>
-      <c r="C1453" t="inlineStr"/>
-      <c r="D1453" t="inlineStr"/>
-      <c r="E1453" t="inlineStr"/>
-      <c r="F1453" t="inlineStr"/>
-      <c r="G1453" t="inlineStr"/>
-      <c r="H1453" t="inlineStr"/>
-      <c r="I1453" t="inlineStr"/>
-    </row>
-    <row r="1454">
-      <c r="A1454" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title: Private Tour in Eiffel Tower with Guide and Pick up </t>
-        </is>
-      </c>
-      <c r="B1454" t="inlineStr"/>
-      <c r="C1454" t="inlineStr"/>
-      <c r="D1454" t="inlineStr"/>
-      <c r="E1454" t="inlineStr"/>
-      <c r="F1454" t="inlineStr"/>
-      <c r="G1454" t="inlineStr"/>
-      <c r="H1454" t="inlineStr"/>
-      <c r="I1454" t="inlineStr"/>
-    </row>
-    <row r="1455">
-      <c r="A1455" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1455" t="inlineStr"/>
-      <c r="C1455" t="inlineStr"/>
-      <c r="D1455" t="inlineStr"/>
-      <c r="E1455" t="inlineStr"/>
-      <c r="F1455" t="inlineStr"/>
-      <c r="G1455" t="inlineStr"/>
-      <c r="H1455" t="inlineStr"/>
-      <c r="I1455" t="inlineStr"/>
-    </row>
-    <row r="1456">
-      <c r="A1456" t="inlineStr">
-        <is>
-          <t>Category: ['Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1456" t="inlineStr"/>
-      <c r="C1456" t="inlineStr"/>
-      <c r="D1456" t="inlineStr"/>
-      <c r="E1456" t="inlineStr"/>
-      <c r="F1456" t="inlineStr"/>
-      <c r="G1456" t="inlineStr"/>
-      <c r="H1456" t="inlineStr"/>
-      <c r="I1456" t="inlineStr"/>
-    </row>
-    <row r="1457">
-      <c r="A1457" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 420543P3</t>
-        </is>
-      </c>
-      <c r="B1457" t="inlineStr"/>
-      <c r="C1457" t="inlineStr"/>
-      <c r="D1457" t="inlineStr"/>
-      <c r="E1457" t="inlineStr"/>
-      <c r="F1457" t="inlineStr"/>
-      <c r="G1457" t="inlineStr"/>
-      <c r="H1457" t="inlineStr"/>
-      <c r="I1457" t="inlineStr"/>
-    </row>
-    <row r="1458">
-      <c r="A1458" t="inlineStr">
-        <is>
-          <t>Summarized description: The tour includes curated spots to discover within the Eiffel Tower, offering a 360-degree view that captures the essence of Paris. Customize your adventure upon request before the tour.</t>
-        </is>
-      </c>
-      <c r="B1458" t="inlineStr"/>
-      <c r="C1458" t="inlineStr"/>
-      <c r="D1458" t="inlineStr"/>
-      <c r="E1458" t="inlineStr"/>
-      <c r="F1458" t="inlineStr"/>
-      <c r="G1458" t="inlineStr"/>
-      <c r="H1458" t="inlineStr"/>
-      <c r="I1458" t="inlineStr"/>
-    </row>
-    <row r="1459">
-      <c r="A1459" t="inlineStr">
-        <is>
-          <t>Title: 2-Hour Private Tour in Eiffel Tower with 360-Degree View</t>
-        </is>
-      </c>
-      <c r="B1459" t="inlineStr"/>
-      <c r="C1459" t="inlineStr"/>
-      <c r="D1459" t="inlineStr"/>
-      <c r="E1459" t="inlineStr"/>
-      <c r="F1459" t="inlineStr"/>
-      <c r="G1459" t="inlineStr"/>
-      <c r="H1459" t="inlineStr"/>
-      <c r="I1459" t="inlineStr"/>
-    </row>
-    <row r="1460">
-      <c r="A1460" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1460" t="inlineStr"/>
-      <c r="C1460" t="inlineStr"/>
-      <c r="D1460" t="inlineStr"/>
-      <c r="E1460" t="inlineStr"/>
-      <c r="F1460" t="inlineStr"/>
-      <c r="G1460" t="inlineStr"/>
-      <c r="H1460" t="inlineStr"/>
-      <c r="I1460" t="inlineStr"/>
-    </row>
-    <row r="1461">
-      <c r="A1461" t="inlineStr">
-        <is>
-          <t>Category: ['Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1461" t="inlineStr"/>
-      <c r="C1461" t="inlineStr"/>
-      <c r="D1461" t="inlineStr"/>
-      <c r="E1461" t="inlineStr"/>
-      <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr"/>
-      <c r="H1461" t="inlineStr"/>
-      <c r="I1461" t="inlineStr"/>
-    </row>
-    <row r="1462">
-      <c r="A1462" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 157275P22</t>
-        </is>
-      </c>
-      <c r="B1462" t="inlineStr"/>
-      <c r="C1462" t="inlineStr"/>
-      <c r="D1462" t="inlineStr"/>
-      <c r="E1462" t="inlineStr"/>
-      <c r="F1462" t="inlineStr"/>
-      <c r="G1462" t="inlineStr"/>
-      <c r="H1462" t="inlineStr"/>
-      <c r="I1462" t="inlineStr"/>
-    </row>
-    <row r="1463">
-      <c r="A1463" t="inlineStr">
-        <is>
-          <t>Summarized description: Paris Eiffel Tower is one of the world's most famous monuments. Skip the line with a 1.3-hour guided tour of the second floor. After the tour, continue to the summit for stellar views of the City of Lights.</t>
-        </is>
-      </c>
-      <c r="B1463" t="inlineStr"/>
-      <c r="C1463" t="inlineStr"/>
-      <c r="D1463" t="inlineStr"/>
-      <c r="E1463" t="inlineStr"/>
-      <c r="F1463" t="inlineStr"/>
-      <c r="G1463" t="inlineStr"/>
-      <c r="H1463" t="inlineStr"/>
-      <c r="I1463" t="inlineStr"/>
-    </row>
-    <row r="1464">
-      <c r="A1464" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title: Paris Eiffel Tower Skip-line Priority Access With Tour Guide </t>
-        </is>
-      </c>
-      <c r="B1464" t="inlineStr"/>
-      <c r="C1464" t="inlineStr"/>
-      <c r="D1464" t="inlineStr"/>
-      <c r="E1464" t="inlineStr"/>
-      <c r="F1464" t="inlineStr"/>
-      <c r="G1464" t="inlineStr"/>
-      <c r="H1464" t="inlineStr"/>
-      <c r="I1464" t="inlineStr"/>
-    </row>
-    <row r="1465">
-      <c r="A1465" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1465" t="inlineStr"/>
-      <c r="C1465" t="inlineStr"/>
-      <c r="D1465" t="inlineStr"/>
-      <c r="E1465" t="inlineStr"/>
-      <c r="F1465" t="inlineStr"/>
-      <c r="G1465" t="inlineStr"/>
-      <c r="H1465" t="inlineStr"/>
-      <c r="I1465" t="inlineStr"/>
-    </row>
-    <row r="1466">
-      <c r="A1466" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1466" t="inlineStr"/>
-      <c r="C1466" t="inlineStr"/>
-      <c r="D1466" t="inlineStr"/>
-      <c r="E1466" t="inlineStr"/>
-      <c r="F1466" t="inlineStr"/>
-      <c r="G1466" t="inlineStr"/>
-      <c r="H1466" t="inlineStr"/>
-      <c r="I1466" t="inlineStr"/>
-    </row>
-    <row r="1467">
-      <c r="A1467" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 248877P54</t>
-        </is>
-      </c>
-      <c r="B1467" t="inlineStr"/>
-      <c r="C1467" t="inlineStr"/>
-      <c r="D1467" t="inlineStr"/>
-      <c r="E1467" t="inlineStr"/>
-      <c r="F1467" t="inlineStr"/>
-      <c r="G1467" t="inlineStr"/>
-      <c r="H1467" t="inlineStr"/>
-      <c r="I1467" t="inlineStr"/>
-    </row>
-    <row r="1468">
-      <c r="A1468" t="inlineStr">
-        <is>
-          <t>Summarized description: The Eiffel Tower is one of the most famous landmarks in the world. It is located in the centre of the French capital, Paris. The tower was built in the early 1900s and is now a tourist attraction.</t>
-        </is>
-      </c>
-      <c r="B1468" t="inlineStr"/>
-      <c r="C1468" t="inlineStr"/>
-      <c r="D1468" t="inlineStr"/>
-      <c r="E1468" t="inlineStr"/>
-      <c r="F1468" t="inlineStr"/>
-      <c r="G1468" t="inlineStr"/>
-      <c r="H1468" t="inlineStr"/>
-      <c r="I1468" t="inlineStr"/>
-    </row>
-    <row r="1469">
-      <c r="A1469" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower - Paris Icon Tour : Direct Access to the Second Floor Guided Tour</t>
-        </is>
-      </c>
-      <c r="B1469" t="inlineStr"/>
-      <c r="C1469" t="inlineStr"/>
-      <c r="D1469" t="inlineStr"/>
-      <c r="E1469" t="inlineStr"/>
-      <c r="F1469" t="inlineStr"/>
-      <c r="G1469" t="inlineStr"/>
-      <c r="H1469" t="inlineStr"/>
-      <c r="I1469" t="inlineStr"/>
-    </row>
-    <row r="1470">
-      <c r="A1470" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1470" t="inlineStr"/>
-      <c r="C1470" t="inlineStr"/>
-      <c r="D1470" t="inlineStr"/>
-      <c r="E1470" t="inlineStr"/>
-      <c r="F1470" t="inlineStr"/>
-      <c r="G1470" t="inlineStr"/>
-      <c r="H1470" t="inlineStr"/>
-      <c r="I1470" t="inlineStr"/>
-    </row>
-    <row r="1471">
-      <c r="A1471" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1471" t="inlineStr"/>
-      <c r="C1471" t="inlineStr"/>
-      <c r="D1471" t="inlineStr"/>
-      <c r="E1471" t="inlineStr"/>
-      <c r="F1471" t="inlineStr"/>
-      <c r="G1471" t="inlineStr"/>
-      <c r="H1471" t="inlineStr"/>
-      <c r="I1471" t="inlineStr"/>
-    </row>
-    <row r="1472">
-      <c r="A1472" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 214563P1</t>
-        </is>
-      </c>
-      <c r="B1472" t="inlineStr"/>
-      <c r="C1472" t="inlineStr"/>
-      <c r="D1472" t="inlineStr"/>
-      <c r="E1472" t="inlineStr"/>
-      <c r="F1472" t="inlineStr"/>
-      <c r="G1472" t="inlineStr"/>
-      <c r="H1472" t="inlineStr"/>
-      <c r="I1472" t="inlineStr"/>
-    </row>
-    <row r="1473">
-      <c r="A1473" t="inlineStr">
-        <is>
-          <t>Summarized description: This is a combo tour which has free transport from The Eiffel tower to The Louvre Museum. It has priority access so you don't need to fall in line.</t>
-        </is>
-      </c>
-      <c r="B1473" t="inlineStr"/>
-      <c r="C1473" t="inlineStr"/>
-      <c r="D1473" t="inlineStr"/>
-      <c r="E1473" t="inlineStr"/>
-      <c r="F1473" t="inlineStr"/>
-      <c r="G1473" t="inlineStr"/>
-      <c r="H1473" t="inlineStr"/>
-      <c r="I1473" t="inlineStr"/>
-    </row>
-    <row r="1474">
-      <c r="A1474" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower Guided Tour with Louvre Museum Combo Pack</t>
-        </is>
-      </c>
-      <c r="B1474" t="inlineStr"/>
-      <c r="C1474" t="inlineStr"/>
-      <c r="D1474" t="inlineStr"/>
-      <c r="E1474" t="inlineStr"/>
-      <c r="F1474" t="inlineStr"/>
-      <c r="G1474" t="inlineStr"/>
-      <c r="H1474" t="inlineStr"/>
-      <c r="I1474" t="inlineStr"/>
-    </row>
-    <row r="1475">
-      <c r="A1475" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1475" t="inlineStr"/>
-      <c r="C1475" t="inlineStr"/>
-      <c r="D1475" t="inlineStr"/>
-      <c r="E1475" t="inlineStr"/>
-      <c r="F1475" t="inlineStr"/>
-      <c r="G1475" t="inlineStr"/>
-      <c r="H1475" t="inlineStr"/>
-      <c r="I1475" t="inlineStr"/>
-    </row>
-    <row r="1476">
-      <c r="A1476" t="inlineStr">
-        <is>
-          <t>Category: ['Transportation &amp; Travel Services', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1476" t="inlineStr"/>
-      <c r="C1476" t="inlineStr"/>
-      <c r="D1476" t="inlineStr"/>
-      <c r="E1476" t="inlineStr"/>
-      <c r="F1476" t="inlineStr"/>
-      <c r="G1476" t="inlineStr"/>
-      <c r="H1476" t="inlineStr"/>
-      <c r="I1476" t="inlineStr"/>
-    </row>
-    <row r="1477">
-      <c r="A1477" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 199710P1</t>
-        </is>
-      </c>
-      <c r="B1477" t="inlineStr"/>
-      <c r="C1477" t="inlineStr"/>
-      <c r="D1477" t="inlineStr"/>
-      <c r="E1477" t="inlineStr"/>
-      <c r="F1477" t="inlineStr"/>
-      <c r="G1477" t="inlineStr"/>
-      <c r="H1477" t="inlineStr"/>
-      <c r="I1477" t="inlineStr"/>
-    </row>
-    <row r="1478">
-      <c r="A1478" t="inlineStr">
-        <is>
-          <t>Summarized description: Visit the Eiffel Tower with a priority access ticket. Enjoy access to the 1st and 2nd floors and the Top. Marvel at spectacular views of Paris.</t>
-        </is>
-      </c>
-      <c r="B1478" t="inlineStr"/>
-      <c r="C1478" t="inlineStr"/>
-      <c r="D1478" t="inlineStr"/>
-      <c r="E1478" t="inlineStr"/>
-      <c r="F1478" t="inlineStr"/>
-      <c r="G1478" t="inlineStr"/>
-      <c r="H1478" t="inlineStr"/>
-      <c r="I1478" t="inlineStr"/>
-    </row>
-    <row r="1479">
-      <c r="A1479" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower Skip the Ticket Line with Summit Access</t>
-        </is>
-      </c>
-      <c r="B1479" t="inlineStr"/>
-      <c r="C1479" t="inlineStr"/>
-      <c r="D1479" t="inlineStr"/>
-      <c r="E1479" t="inlineStr"/>
-      <c r="F1479" t="inlineStr"/>
-      <c r="G1479" t="inlineStr"/>
-      <c r="H1479" t="inlineStr"/>
-      <c r="I1479" t="inlineStr"/>
-    </row>
-    <row r="1480">
-      <c r="A1480" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1480" t="inlineStr"/>
-      <c r="C1480" t="inlineStr"/>
-      <c r="D1480" t="inlineStr"/>
-      <c r="E1480" t="inlineStr"/>
-      <c r="F1480" t="inlineStr"/>
-      <c r="G1480" t="inlineStr"/>
-      <c r="H1480" t="inlineStr"/>
-      <c r="I1480" t="inlineStr"/>
-    </row>
-    <row r="1481">
-      <c r="A1481" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1481" t="inlineStr"/>
-      <c r="C1481" t="inlineStr"/>
-      <c r="D1481" t="inlineStr"/>
-      <c r="E1481" t="inlineStr"/>
-      <c r="F1481" t="inlineStr"/>
-      <c r="G1481" t="inlineStr"/>
-      <c r="H1481" t="inlineStr"/>
-      <c r="I1481" t="inlineStr"/>
-    </row>
-    <row r="1482">
-      <c r="A1482" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 387432P34</t>
-        </is>
-      </c>
-      <c r="B1482" t="inlineStr"/>
-      <c r="C1482" t="inlineStr"/>
-      <c r="D1482" t="inlineStr"/>
-      <c r="E1482" t="inlineStr"/>
-      <c r="F1482" t="inlineStr"/>
-      <c r="G1482" t="inlineStr"/>
-      <c r="H1482" t="inlineStr"/>
-      <c r="I1482" t="inlineStr"/>
-    </row>
-    <row r="1483">
-      <c r="A1483" t="inlineStr">
-        <is>
-          <t>Summarized description: Hear the history and legends linked to the Paris icon as a guide accompanies you to the second level. Get help to identify the different monuments at your feet and upgrade to access the summit and climb even higher.</t>
-        </is>
-      </c>
-      <c r="B1483" t="inlineStr"/>
-      <c r="C1483" t="inlineStr"/>
-      <c r="D1483" t="inlineStr"/>
-      <c r="E1483" t="inlineStr"/>
-      <c r="F1483" t="inlineStr"/>
-      <c r="G1483" t="inlineStr"/>
-      <c r="H1483" t="inlineStr"/>
-      <c r="I1483" t="inlineStr"/>
-    </row>
-    <row r="1484">
-      <c r="A1484" t="inlineStr">
-        <is>
-          <t>Title: 2 Hour Eiffel Tower Morning Guided Tour</t>
-        </is>
-      </c>
-      <c r="B1484" t="inlineStr"/>
-      <c r="C1484" t="inlineStr"/>
-      <c r="D1484" t="inlineStr"/>
-      <c r="E1484" t="inlineStr"/>
-      <c r="F1484" t="inlineStr"/>
-      <c r="G1484" t="inlineStr"/>
-      <c r="H1484" t="inlineStr"/>
-      <c r="I1484" t="inlineStr"/>
-    </row>
-    <row r="1485">
-      <c r="A1485" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1485" t="inlineStr"/>
-      <c r="C1485" t="inlineStr"/>
-      <c r="D1485" t="inlineStr"/>
-      <c r="E1485" t="inlineStr"/>
-      <c r="F1485" t="inlineStr"/>
-      <c r="G1485" t="inlineStr"/>
-      <c r="H1485" t="inlineStr"/>
-      <c r="I1485" t="inlineStr"/>
-    </row>
-    <row r="1486">
-      <c r="A1486" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1486" t="inlineStr"/>
-      <c r="C1486" t="inlineStr"/>
-      <c r="D1486" t="inlineStr"/>
-      <c r="E1486" t="inlineStr"/>
-      <c r="F1486" t="inlineStr"/>
-      <c r="G1486" t="inlineStr"/>
-      <c r="H1486" t="inlineStr"/>
-      <c r="I1486" t="inlineStr"/>
-    </row>
-    <row r="1487">
-      <c r="A1487" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 320547P646</t>
-        </is>
-      </c>
-      <c r="B1487" t="inlineStr"/>
-      <c r="C1487" t="inlineStr"/>
-      <c r="D1487" t="inlineStr"/>
-      <c r="E1487" t="inlineStr"/>
-      <c r="F1487" t="inlineStr"/>
-      <c r="G1487" t="inlineStr"/>
-      <c r="H1487" t="inlineStr"/>
-      <c r="I1487" t="inlineStr"/>
-    </row>
-    <row r="1488">
-      <c r="A1488" t="inlineStr">
-        <is>
-          <t>Summarized description: Eiffel Tower, Seine River cruise and hop-on hop-off bus tour with an audio guide. Private chauffeur driven air conditioned vehicle Carrying a bottle of French wine. We can replace wine with juice on request.</t>
-        </is>
-      </c>
-      <c r="B1488" t="inlineStr"/>
-      <c r="C1488" t="inlineStr"/>
-      <c r="D1488" t="inlineStr"/>
-      <c r="E1488" t="inlineStr"/>
-      <c r="F1488" t="inlineStr"/>
-      <c r="G1488" t="inlineStr"/>
-      <c r="H1488" t="inlineStr"/>
-      <c r="I1488" t="inlineStr"/>
-    </row>
-    <row r="1489">
-      <c r="A1489" t="inlineStr">
-        <is>
-          <t>Title: Paris Open Bus Tour with Cruise, Eiffel Summit, Crepe and Pick up</t>
-        </is>
-      </c>
-      <c r="B1489" t="inlineStr"/>
-      <c r="C1489" t="inlineStr"/>
-      <c r="D1489" t="inlineStr"/>
-      <c r="E1489" t="inlineStr"/>
-      <c r="F1489" t="inlineStr"/>
-      <c r="G1489" t="inlineStr"/>
-      <c r="H1489" t="inlineStr"/>
-      <c r="I1489" t="inlineStr"/>
-    </row>
-    <row r="1490">
-      <c r="A1490" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1490" t="inlineStr"/>
-      <c r="C1490" t="inlineStr"/>
-      <c r="D1490" t="inlineStr"/>
-      <c r="E1490" t="inlineStr"/>
-      <c r="F1490" t="inlineStr"/>
-      <c r="G1490" t="inlineStr"/>
-      <c r="H1490" t="inlineStr"/>
-      <c r="I1490" t="inlineStr"/>
-    </row>
-    <row r="1491">
-      <c r="A1491" t="inlineStr">
-        <is>
-          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
-        </is>
-      </c>
-      <c r="B1491" t="inlineStr"/>
-      <c r="C1491" t="inlineStr"/>
-      <c r="D1491" t="inlineStr"/>
-      <c r="E1491" t="inlineStr"/>
-      <c r="F1491" t="inlineStr"/>
-      <c r="G1491" t="inlineStr"/>
-      <c r="H1491" t="inlineStr"/>
-      <c r="I1491" t="inlineStr"/>
-    </row>
-    <row r="1492">
-      <c r="A1492" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 247562P243</t>
-        </is>
-      </c>
-      <c r="B1492" t="inlineStr"/>
-      <c r="C1492" t="inlineStr"/>
-      <c r="D1492" t="inlineStr"/>
-      <c r="E1492" t="inlineStr"/>
-      <c r="F1492" t="inlineStr"/>
-      <c r="G1492" t="inlineStr"/>
-      <c r="H1492" t="inlineStr"/>
-      <c r="I1492" t="inlineStr"/>
-    </row>
-    <row r="1493">
-      <c r="A1493" t="inlineStr">
-        <is>
-          <t>Summarized description: Your driver will take you on a fantastic excursion through the streets of Paris. You will stop at the grandiose Eiffel Tower, and the Notre Dame Cathedral. The tour will conclude with a fascinating cruise on the Seine.</t>
-        </is>
-      </c>
-      <c r="B1493" t="inlineStr"/>
-      <c r="C1493" t="inlineStr"/>
-      <c r="D1493" t="inlineStr"/>
-      <c r="E1493" t="inlineStr"/>
-      <c r="F1493" t="inlineStr"/>
-      <c r="G1493" t="inlineStr"/>
-      <c r="H1493" t="inlineStr"/>
-      <c r="I1493" t="inlineStr"/>
-    </row>
-    <row r="1494">
-      <c r="A1494" t="inlineStr">
-        <is>
-          <t>Title: Paris in a Day with Tour Eiffel</t>
-        </is>
-      </c>
-      <c r="B1494" t="inlineStr"/>
-      <c r="C1494" t="inlineStr"/>
-      <c r="D1494" t="inlineStr"/>
-      <c r="E1494" t="inlineStr"/>
-      <c r="F1494" t="inlineStr"/>
-      <c r="G1494" t="inlineStr"/>
-      <c r="H1494" t="inlineStr"/>
-      <c r="I1494" t="inlineStr"/>
-    </row>
-    <row r="1495">
-      <c r="A1495" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1495" t="inlineStr"/>
-      <c r="C1495" t="inlineStr"/>
-      <c r="D1495" t="inlineStr"/>
-      <c r="E1495" t="inlineStr"/>
-      <c r="F1495" t="inlineStr"/>
-      <c r="G1495" t="inlineStr"/>
-      <c r="H1495" t="inlineStr"/>
-      <c r="I1495" t="inlineStr"/>
-    </row>
-    <row r="1496">
-      <c r="A1496" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
-        </is>
-      </c>
-      <c r="B1496" t="inlineStr"/>
-      <c r="C1496" t="inlineStr"/>
-      <c r="D1496" t="inlineStr"/>
-      <c r="E1496" t="inlineStr"/>
-      <c r="F1496" t="inlineStr"/>
-      <c r="G1496" t="inlineStr"/>
-      <c r="H1496" t="inlineStr"/>
-      <c r="I1496" t="inlineStr"/>
-    </row>
-    <row r="1497">
-      <c r="A1497" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 112782P31</t>
-        </is>
-      </c>
-      <c r="B1497" t="inlineStr"/>
-      <c r="C1497" t="inlineStr"/>
-      <c r="D1497" t="inlineStr"/>
-      <c r="E1497" t="inlineStr"/>
-      <c r="F1497" t="inlineStr"/>
-      <c r="G1497" t="inlineStr"/>
-      <c r="H1497" t="inlineStr"/>
-      <c r="I1497" t="inlineStr"/>
-    </row>
-    <row r="1498">
-      <c r="A1498" t="inlineStr">
-        <is>
-          <t>Summarized description: The Eiffel Tower is known to be the symbol of the city of Paris. You will get to know all about the building itself and about the civil engineer who created it. The view over the city will take your breath away.</t>
-        </is>
-      </c>
-      <c r="B1498" t="inlineStr"/>
-      <c r="C1498" t="inlineStr"/>
-      <c r="D1498" t="inlineStr"/>
-      <c r="E1498" t="inlineStr"/>
-      <c r="F1498" t="inlineStr"/>
-      <c r="G1498" t="inlineStr"/>
-      <c r="H1498" t="inlineStr"/>
-      <c r="I1498" t="inlineStr"/>
-    </row>
-    <row r="1499">
-      <c r="A1499" t="inlineStr">
-        <is>
-          <t>Title: Paris: Eiffel Tower Guided Tour with Summit Access</t>
-        </is>
-      </c>
-      <c r="B1499" t="inlineStr"/>
-      <c r="C1499" t="inlineStr"/>
-      <c r="D1499" t="inlineStr"/>
-      <c r="E1499" t="inlineStr"/>
-      <c r="F1499" t="inlineStr"/>
-      <c r="G1499" t="inlineStr"/>
-      <c r="H1499" t="inlineStr"/>
-      <c r="I1499" t="inlineStr"/>
-    </row>
-    <row r="1500">
-      <c r="A1500" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1500" t="inlineStr"/>
-      <c r="C1500" t="inlineStr"/>
-      <c r="D1500" t="inlineStr"/>
-      <c r="E1500" t="inlineStr"/>
-      <c r="F1500" t="inlineStr"/>
-      <c r="G1500" t="inlineStr"/>
-      <c r="H1500" t="inlineStr"/>
-      <c r="I1500" t="inlineStr"/>
-    </row>
-    <row r="1501">
-      <c r="A1501" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1501" t="inlineStr"/>
-      <c r="C1501" t="inlineStr"/>
-      <c r="D1501" t="inlineStr"/>
-      <c r="E1501" t="inlineStr"/>
-      <c r="F1501" t="inlineStr"/>
-      <c r="G1501" t="inlineStr"/>
-      <c r="H1501" t="inlineStr"/>
-      <c r="I1501" t="inlineStr"/>
-    </row>
-    <row r="1502">
-      <c r="A1502" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 125051P3</t>
-        </is>
-      </c>
-      <c r="B1502" t="inlineStr"/>
-      <c r="C1502" t="inlineStr"/>
-      <c r="D1502" t="inlineStr"/>
-      <c r="E1502" t="inlineStr"/>
-      <c r="F1502" t="inlineStr"/>
-      <c r="G1502" t="inlineStr"/>
-      <c r="H1502" t="inlineStr"/>
-      <c r="I1502" t="inlineStr"/>
-    </row>
-    <row r="1503">
-      <c r="A1503" t="inlineStr">
-        <is>
-          <t>Summarized description: Take an insider's tour of the summit with a guide. Get unparalleled views of Parisian landmarks like Montmartre, the Louvre Museum and more. Get the lowdown on how and why the tower was built.</t>
-        </is>
-      </c>
-      <c r="B1503" t="inlineStr"/>
-      <c r="C1503" t="inlineStr"/>
-      <c r="D1503" t="inlineStr"/>
-      <c r="E1503" t="inlineStr"/>
-      <c r="F1503" t="inlineStr"/>
-      <c r="G1503" t="inlineStr"/>
-      <c r="H1503" t="inlineStr"/>
-      <c r="I1503" t="inlineStr"/>
-    </row>
-    <row r="1504">
-      <c r="A1504" t="inlineStr">
-        <is>
-          <t>Title: Tickets for Eiffel Tower - Summit: Guided Visit</t>
-        </is>
-      </c>
-      <c r="B1504" t="inlineStr"/>
-      <c r="C1504" t="inlineStr"/>
-      <c r="D1504" t="inlineStr"/>
-      <c r="E1504" t="inlineStr"/>
-      <c r="F1504" t="inlineStr"/>
-      <c r="G1504" t="inlineStr"/>
-      <c r="H1504" t="inlineStr"/>
-      <c r="I1504" t="inlineStr"/>
-    </row>
-    <row r="1505">
-      <c r="A1505" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1505" t="inlineStr"/>
-      <c r="C1505" t="inlineStr"/>
-      <c r="D1505" t="inlineStr"/>
-      <c r="E1505" t="inlineStr"/>
-      <c r="F1505" t="inlineStr"/>
-      <c r="G1505" t="inlineStr"/>
-      <c r="H1505" t="inlineStr"/>
-      <c r="I1505" t="inlineStr"/>
-    </row>
-    <row r="1506">
-      <c r="A1506" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1506" t="inlineStr"/>
-      <c r="C1506" t="inlineStr"/>
-      <c r="D1506" t="inlineStr"/>
-      <c r="E1506" t="inlineStr"/>
-      <c r="F1506" t="inlineStr"/>
-      <c r="G1506" t="inlineStr"/>
-      <c r="H1506" t="inlineStr"/>
-      <c r="I1506" t="inlineStr"/>
-    </row>
-    <row r="1507">
-      <c r="A1507" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 7845P52</t>
-        </is>
-      </c>
-      <c r="B1507" t="inlineStr"/>
-      <c r="C1507" t="inlineStr"/>
-      <c r="D1507" t="inlineStr"/>
-      <c r="E1507" t="inlineStr"/>
-      <c r="F1507" t="inlineStr"/>
-      <c r="G1507" t="inlineStr"/>
-      <c r="H1507" t="inlineStr"/>
-      <c r="I1507" t="inlineStr"/>
-    </row>
-    <row r="1508">
-      <c r="A1508" t="inlineStr">
-        <is>
-          <t>Summarized description: Join your host and enjoy a one of a kind Eiffel Tower tour, combining history and technology. Enjoy many stories, anecdotes and even insider tips, all brought to you by your passionate guide. More importantly, you'll get to enjoy the added value of individual complementary tablets.</t>
-        </is>
-      </c>
-      <c r="B1508" t="inlineStr"/>
-      <c r="C1508" t="inlineStr"/>
-      <c r="D1508" t="inlineStr"/>
-      <c r="E1508" t="inlineStr"/>
-      <c r="F1508" t="inlineStr"/>
-      <c r="G1508" t="inlineStr"/>
-      <c r="H1508" t="inlineStr"/>
-      <c r="I1508" t="inlineStr"/>
-    </row>
-    <row r="1509">
-      <c r="A1509" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower Interactive Experience with 2nd Level Access</t>
-        </is>
-      </c>
-      <c r="B1509" t="inlineStr"/>
-      <c r="C1509" t="inlineStr"/>
-      <c r="D1509" t="inlineStr"/>
-      <c r="E1509" t="inlineStr"/>
-      <c r="F1509" t="inlineStr"/>
-      <c r="G1509" t="inlineStr"/>
-      <c r="H1509" t="inlineStr"/>
-      <c r="I1509" t="inlineStr"/>
-    </row>
-    <row r="1510">
-      <c r="A1510" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1510" t="inlineStr"/>
-      <c r="C1510" t="inlineStr"/>
-      <c r="D1510" t="inlineStr"/>
-      <c r="E1510" t="inlineStr"/>
-      <c r="F1510" t="inlineStr"/>
-      <c r="G1510" t="inlineStr"/>
-      <c r="H1510" t="inlineStr"/>
-      <c r="I1510" t="inlineStr"/>
-    </row>
-    <row r="1511">
-      <c r="A1511" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Modern Attractions', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1511" t="inlineStr"/>
-      <c r="C1511" t="inlineStr"/>
-      <c r="D1511" t="inlineStr"/>
-      <c r="E1511" t="inlineStr"/>
-      <c r="F1511" t="inlineStr"/>
-      <c r="G1511" t="inlineStr"/>
-      <c r="H1511" t="inlineStr"/>
-      <c r="I1511" t="inlineStr"/>
-    </row>
-    <row r="1512">
-      <c r="A1512" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 46334P64</t>
-        </is>
-      </c>
-      <c r="B1512" t="inlineStr"/>
-      <c r="C1512" t="inlineStr"/>
-      <c r="D1512" t="inlineStr"/>
-      <c r="E1512" t="inlineStr"/>
-      <c r="F1512" t="inlineStr"/>
-      <c r="G1512" t="inlineStr"/>
-      <c r="H1512" t="inlineStr"/>
-      <c r="I1512" t="inlineStr"/>
-    </row>
-    <row r="1513">
-      <c r="A1513" t="inlineStr">
-        <is>
-          <t>Summarized description: Enjoy pre-booked timed entry to the Eiffel Tower. Top off your visit with the best macarons in Paris as you savor the spectacular views over the city.</t>
-        </is>
-      </c>
-      <c r="B1513" t="inlineStr"/>
-      <c r="C1513" t="inlineStr"/>
-      <c r="D1513" t="inlineStr"/>
-      <c r="E1513" t="inlineStr"/>
-      <c r="F1513" t="inlineStr"/>
-      <c r="G1513" t="inlineStr"/>
-      <c r="H1513" t="inlineStr"/>
-      <c r="I1513" t="inlineStr"/>
-    </row>
-    <row r="1514">
-      <c r="A1514" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower Timed Access Guided Tour with Macarons</t>
-        </is>
-      </c>
-      <c r="B1514" t="inlineStr"/>
-      <c r="C1514" t="inlineStr"/>
-      <c r="D1514" t="inlineStr"/>
-      <c r="E1514" t="inlineStr"/>
-      <c r="F1514" t="inlineStr"/>
-      <c r="G1514" t="inlineStr"/>
-      <c r="H1514" t="inlineStr"/>
-      <c r="I1514" t="inlineStr"/>
-    </row>
-    <row r="1515">
-      <c r="A1515" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1515" t="inlineStr"/>
-      <c r="C1515" t="inlineStr"/>
-      <c r="D1515" t="inlineStr"/>
-      <c r="E1515" t="inlineStr"/>
-      <c r="F1515" t="inlineStr"/>
-      <c r="G1515" t="inlineStr"/>
-      <c r="H1515" t="inlineStr"/>
-      <c r="I1515" t="inlineStr"/>
-    </row>
-    <row r="1516">
-      <c r="A1516" t="inlineStr">
-        <is>
-          <t>Category: ['Dining Experiences', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1516" t="inlineStr"/>
-      <c r="C1516" t="inlineStr"/>
-      <c r="D1516" t="inlineStr"/>
-      <c r="E1516" t="inlineStr"/>
-      <c r="F1516" t="inlineStr"/>
-      <c r="G1516" t="inlineStr"/>
-      <c r="H1516" t="inlineStr"/>
-      <c r="I1516" t="inlineStr"/>
-    </row>
-    <row r="1517">
-      <c r="A1517" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 452894P1</t>
-        </is>
-      </c>
-      <c r="B1517" t="inlineStr"/>
-      <c r="C1517" t="inlineStr"/>
-      <c r="D1517" t="inlineStr"/>
-      <c r="E1517" t="inlineStr"/>
-      <c r="F1517" t="inlineStr"/>
-      <c r="G1517" t="inlineStr"/>
-      <c r="H1517" t="inlineStr"/>
-      <c r="I1517" t="inlineStr"/>
-    </row>
-    <row r="1518">
-      <c r="A1518" t="inlineStr">
-        <is>
-          <t>Summarized description: Discover the Eiffel Tower with a young Artist from Paris, with joy and good humor. Learn about the history of M. Gustave Eiffels Tower and its construction. Enjoy the amazing view and its beautiful landscape from the second floor.</t>
-        </is>
-      </c>
-      <c r="B1518" t="inlineStr"/>
-      <c r="C1518" t="inlineStr"/>
-      <c r="D1518" t="inlineStr"/>
-      <c r="E1518" t="inlineStr"/>
-      <c r="F1518" t="inlineStr"/>
-      <c r="G1518" t="inlineStr"/>
-      <c r="H1518" t="inlineStr"/>
-      <c r="I1518" t="inlineStr"/>
-    </row>
-    <row r="1519">
-      <c r="A1519" t="inlineStr">
-        <is>
-          <t>Title: 2 Hours Eiffel Tower Guided Tour</t>
-        </is>
-      </c>
-      <c r="B1519" t="inlineStr"/>
-      <c r="C1519" t="inlineStr"/>
-      <c r="D1519" t="inlineStr"/>
-      <c r="E1519" t="inlineStr"/>
-      <c r="F1519" t="inlineStr"/>
-      <c r="G1519" t="inlineStr"/>
-      <c r="H1519" t="inlineStr"/>
-      <c r="I1519" t="inlineStr"/>
-    </row>
-    <row r="1520">
-      <c r="A1520" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1520" t="inlineStr"/>
-      <c r="C1520" t="inlineStr"/>
-      <c r="D1520" t="inlineStr"/>
-      <c r="E1520" t="inlineStr"/>
-      <c r="F1520" t="inlineStr"/>
-      <c r="G1520" t="inlineStr"/>
-      <c r="H1520" t="inlineStr"/>
-      <c r="I1520" t="inlineStr"/>
-    </row>
-    <row r="1521">
-      <c r="A1521" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1521" t="inlineStr"/>
-      <c r="C1521" t="inlineStr"/>
-      <c r="D1521" t="inlineStr"/>
-      <c r="E1521" t="inlineStr"/>
-      <c r="F1521" t="inlineStr"/>
-      <c r="G1521" t="inlineStr"/>
-      <c r="H1521" t="inlineStr"/>
-      <c r="I1521" t="inlineStr"/>
-    </row>
-    <row r="1522">
-      <c r="A1522" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 415184P115</t>
-        </is>
-      </c>
-      <c r="B1522" t="inlineStr"/>
-      <c r="C1522" t="inlineStr"/>
-      <c r="D1522" t="inlineStr"/>
-      <c r="E1522" t="inlineStr"/>
-      <c r="F1522" t="inlineStr"/>
-      <c r="G1522" t="inlineStr"/>
-      <c r="H1522" t="inlineStr"/>
-      <c r="I1522" t="inlineStr"/>
-    </row>
-    <row r="1523">
-      <c r="A1523" t="inlineStr">
-        <is>
-          <t>Summarized description: With our Skip-the-Line priority access, you'll breeze past the crowds and be whisked directly to the heart of the Eiffel Tower. With our audio-guided tour, you will get an insider's perspective that adds an extra layer of wonder.</t>
-        </is>
-      </c>
-      <c r="B1523" t="inlineStr"/>
-      <c r="C1523" t="inlineStr"/>
-      <c r="D1523" t="inlineStr"/>
-      <c r="E1523" t="inlineStr"/>
-      <c r="F1523" t="inlineStr"/>
-      <c r="G1523" t="inlineStr"/>
-      <c r="H1523" t="inlineStr"/>
-      <c r="I1523" t="inlineStr"/>
-    </row>
-    <row r="1524">
-      <c r="A1524" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower Skip The Line Ticket by Lift &amp; Free Audio Guide Tour</t>
-        </is>
-      </c>
-      <c r="B1524" t="inlineStr"/>
-      <c r="C1524" t="inlineStr"/>
-      <c r="D1524" t="inlineStr"/>
-      <c r="E1524" t="inlineStr"/>
-      <c r="F1524" t="inlineStr"/>
-      <c r="G1524" t="inlineStr"/>
-      <c r="H1524" t="inlineStr"/>
-      <c r="I1524" t="inlineStr"/>
-    </row>
-    <row r="1525">
-      <c r="A1525" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1525" t="inlineStr"/>
-      <c r="C1525" t="inlineStr"/>
-      <c r="D1525" t="inlineStr"/>
-      <c r="E1525" t="inlineStr"/>
-      <c r="F1525" t="inlineStr"/>
-      <c r="G1525" t="inlineStr"/>
-      <c r="H1525" t="inlineStr"/>
-      <c r="I1525" t="inlineStr"/>
-    </row>
-    <row r="1526">
-      <c r="A1526" t="inlineStr">
-        <is>
-          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1526" t="inlineStr"/>
-      <c r="C1526" t="inlineStr"/>
-      <c r="D1526" t="inlineStr"/>
-      <c r="E1526" t="inlineStr"/>
-      <c r="F1526" t="inlineStr"/>
-      <c r="G1526" t="inlineStr"/>
-      <c r="H1526" t="inlineStr"/>
-      <c r="I1526" t="inlineStr"/>
-    </row>
-    <row r="1527">
-      <c r="A1527" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 415184P98</t>
-        </is>
-      </c>
-      <c r="B1527" t="inlineStr"/>
-      <c r="C1527" t="inlineStr"/>
-      <c r="D1527" t="inlineStr"/>
-      <c r="E1527" t="inlineStr"/>
-      <c r="F1527" t="inlineStr"/>
-      <c r="G1527" t="inlineStr"/>
-      <c r="H1527" t="inlineStr"/>
-      <c r="I1527" t="inlineStr"/>
-    </row>
-    <row r="1528">
-      <c r="A1528" t="inlineStr">
-        <is>
-          <t>Summarized description: We provide a self-guided audio tour that serves as your personal storyteller throughout your journey. Dive deep into the captivating history of the Eiffel Tower and develop a richer appreciation for its significance in Parisian culture.</t>
-        </is>
-      </c>
-      <c r="B1528" t="inlineStr"/>
-      <c r="C1528" t="inlineStr"/>
-      <c r="D1528" t="inlineStr"/>
-      <c r="E1528" t="inlineStr"/>
-      <c r="F1528" t="inlineStr"/>
-      <c r="G1528" t="inlineStr"/>
-      <c r="H1528" t="inlineStr"/>
-      <c r="I1528" t="inlineStr"/>
-    </row>
-    <row r="1529">
-      <c r="A1529" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower by Stairs Skip The Line Ticket and Audio Guide Tour</t>
-        </is>
-      </c>
-      <c r="B1529" t="inlineStr"/>
-      <c r="C1529" t="inlineStr"/>
-      <c r="D1529" t="inlineStr"/>
-      <c r="E1529" t="inlineStr"/>
-      <c r="F1529" t="inlineStr"/>
-      <c r="G1529" t="inlineStr"/>
-      <c r="H1529" t="inlineStr"/>
-      <c r="I1529" t="inlineStr"/>
-    </row>
-    <row r="1530">
-      <c r="A1530" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1530" t="inlineStr"/>
-      <c r="C1530" t="inlineStr"/>
-      <c r="D1530" t="inlineStr"/>
-      <c r="E1530" t="inlineStr"/>
-      <c r="F1530" t="inlineStr"/>
-      <c r="G1530" t="inlineStr"/>
-      <c r="H1530" t="inlineStr"/>
-      <c r="I1530" t="inlineStr"/>
-    </row>
-    <row r="1531">
-      <c r="A1531" t="inlineStr">
-        <is>
-          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1531" t="inlineStr"/>
-      <c r="C1531" t="inlineStr"/>
-      <c r="D1531" t="inlineStr"/>
-      <c r="E1531" t="inlineStr"/>
-      <c r="F1531" t="inlineStr"/>
-      <c r="G1531" t="inlineStr"/>
-      <c r="H1531" t="inlineStr"/>
-      <c r="I1531" t="inlineStr"/>
-    </row>
-    <row r="1532">
-      <c r="A1532" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 197814P1</t>
-        </is>
-      </c>
-      <c r="B1532" t="inlineStr"/>
-      <c r="C1532" t="inlineStr"/>
-      <c r="D1532" t="inlineStr"/>
-      <c r="E1532" t="inlineStr"/>
-      <c r="F1532" t="inlineStr"/>
-      <c r="G1532" t="inlineStr"/>
-      <c r="H1532" t="inlineStr"/>
-      <c r="I1532" t="inlineStr"/>
-    </row>
-    <row r="1533">
-      <c r="A1533" t="inlineStr">
-        <is>
-          <t>Summarized description: Learn history of Gustave Eiffel and the tower's construction. See Paris from 300 meters high for a tour from the sky. Toast your arrival at the top at the famous champagne bar.</t>
-        </is>
-      </c>
-      <c r="B1533" t="inlineStr"/>
-      <c r="C1533" t="inlineStr"/>
-      <c r="D1533" t="inlineStr"/>
-      <c r="E1533" t="inlineStr"/>
-      <c r="F1533" t="inlineStr"/>
-      <c r="G1533" t="inlineStr"/>
-      <c r="H1533" t="inlineStr"/>
-      <c r="I1533" t="inlineStr"/>
-    </row>
-    <row r="1534">
-      <c r="A1534" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower Tour with Summit Option</t>
-        </is>
-      </c>
-      <c r="B1534" t="inlineStr"/>
-      <c r="C1534" t="inlineStr"/>
-      <c r="D1534" t="inlineStr"/>
-      <c r="E1534" t="inlineStr"/>
-      <c r="F1534" t="inlineStr"/>
-      <c r="G1534" t="inlineStr"/>
-      <c r="H1534" t="inlineStr"/>
-      <c r="I1534" t="inlineStr"/>
-    </row>
-    <row r="1535">
-      <c r="A1535" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1535" t="inlineStr"/>
-      <c r="C1535" t="inlineStr"/>
-      <c r="D1535" t="inlineStr"/>
-      <c r="E1535" t="inlineStr"/>
-      <c r="F1535" t="inlineStr"/>
-      <c r="G1535" t="inlineStr"/>
-      <c r="H1535" t="inlineStr"/>
-      <c r="I1535" t="inlineStr"/>
-    </row>
-    <row r="1536">
-      <c r="A1536" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1536" t="inlineStr"/>
-      <c r="C1536" t="inlineStr"/>
-      <c r="D1536" t="inlineStr"/>
-      <c r="E1536" t="inlineStr"/>
-      <c r="F1536" t="inlineStr"/>
-      <c r="G1536" t="inlineStr"/>
-      <c r="H1536" t="inlineStr"/>
-      <c r="I1536" t="inlineStr"/>
-    </row>
-    <row r="1537">
-      <c r="A1537" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 158620P24</t>
-        </is>
-      </c>
-      <c r="B1537" t="inlineStr"/>
-      <c r="C1537" t="inlineStr"/>
-      <c r="D1537" t="inlineStr"/>
-      <c r="E1537" t="inlineStr"/>
-      <c r="F1537" t="inlineStr"/>
-      <c r="G1537" t="inlineStr"/>
-      <c r="H1537" t="inlineStr"/>
-      <c r="I1537" t="inlineStr"/>
-    </row>
-    <row r="1538">
-      <c r="A1538" t="inlineStr">
-        <is>
-          <t>Summarized description: Discover the 1st and 2nd floor to savor the spectacular views. Cruise along the UNESCO-listed riverbanks of the Seine and admire the Louvre.</t>
-        </is>
-      </c>
-      <c r="B1538" t="inlineStr"/>
-      <c r="C1538" t="inlineStr"/>
-      <c r="D1538" t="inlineStr"/>
-      <c r="E1538" t="inlineStr"/>
-      <c r="F1538" t="inlineStr"/>
-      <c r="G1538" t="inlineStr"/>
-      <c r="H1538" t="inlineStr"/>
-      <c r="I1538" t="inlineStr"/>
-    </row>
-    <row r="1539">
-      <c r="A1539" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower Tour with Free Seine Cruise Ride</t>
-        </is>
-      </c>
-      <c r="B1539" t="inlineStr"/>
-      <c r="C1539" t="inlineStr"/>
-      <c r="D1539" t="inlineStr"/>
-      <c r="E1539" t="inlineStr"/>
-      <c r="F1539" t="inlineStr"/>
-      <c r="G1539" t="inlineStr"/>
-      <c r="H1539" t="inlineStr"/>
-      <c r="I1539" t="inlineStr"/>
-    </row>
-    <row r="1540">
-      <c r="A1540" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1540" t="inlineStr"/>
-      <c r="C1540" t="inlineStr"/>
-      <c r="D1540" t="inlineStr"/>
-      <c r="E1540" t="inlineStr"/>
-      <c r="F1540" t="inlineStr"/>
-      <c r="G1540" t="inlineStr"/>
-      <c r="H1540" t="inlineStr"/>
-      <c r="I1540" t="inlineStr"/>
-    </row>
-    <row r="1541">
-      <c r="A1541" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
-        </is>
-      </c>
-      <c r="B1541" t="inlineStr"/>
-      <c r="C1541" t="inlineStr"/>
-      <c r="D1541" t="inlineStr"/>
-      <c r="E1541" t="inlineStr"/>
-      <c r="F1541" t="inlineStr"/>
-      <c r="G1541" t="inlineStr"/>
-      <c r="H1541" t="inlineStr"/>
-      <c r="I1541" t="inlineStr"/>
-    </row>
-    <row r="1542">
-      <c r="A1542" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 270253P10</t>
-        </is>
-      </c>
-      <c r="B1542" t="inlineStr"/>
-      <c r="C1542" t="inlineStr"/>
-      <c r="D1542" t="inlineStr"/>
-      <c r="E1542" t="inlineStr"/>
-      <c r="F1542" t="inlineStr"/>
-      <c r="G1542" t="inlineStr"/>
-      <c r="H1542" t="inlineStr"/>
-      <c r="I1542" t="inlineStr"/>
-    </row>
-    <row r="1543">
-      <c r="A1543" t="inlineStr">
-        <is>
-          <t>Summarized description: Ticket with priority access to the Eiffel Tower to the first and second levels by elevator. 1 Seine river cruise with Bateaux Parisiens ticket.</t>
-        </is>
-      </c>
-      <c r="B1543" t="inlineStr"/>
-      <c r="C1543" t="inlineStr"/>
-      <c r="D1543" t="inlineStr"/>
-      <c r="E1543" t="inlineStr"/>
-      <c r="F1543" t="inlineStr"/>
-      <c r="G1543" t="inlineStr"/>
-      <c r="H1543" t="inlineStr"/>
-      <c r="I1543" t="inlineStr"/>
-    </row>
-    <row r="1544">
-      <c r="A1544" t="inlineStr">
-        <is>
-          <t>Title: Guided Eiffel Tower Skip-the-Line Tour with Seine River Cruise</t>
-        </is>
-      </c>
-      <c r="B1544" t="inlineStr"/>
-      <c r="C1544" t="inlineStr"/>
-      <c r="D1544" t="inlineStr"/>
-      <c r="E1544" t="inlineStr"/>
-      <c r="F1544" t="inlineStr"/>
-      <c r="G1544" t="inlineStr"/>
-      <c r="H1544" t="inlineStr"/>
-      <c r="I1544" t="inlineStr"/>
-    </row>
-    <row r="1545">
-      <c r="A1545" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1545" t="inlineStr"/>
-      <c r="C1545" t="inlineStr"/>
-      <c r="D1545" t="inlineStr"/>
-      <c r="E1545" t="inlineStr"/>
-      <c r="F1545" t="inlineStr"/>
-      <c r="G1545" t="inlineStr"/>
-      <c r="H1545" t="inlineStr"/>
-      <c r="I1545" t="inlineStr"/>
-    </row>
-    <row r="1546">
-      <c r="A1546" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1546" t="inlineStr"/>
-      <c r="C1546" t="inlineStr"/>
-      <c r="D1546" t="inlineStr"/>
-      <c r="E1546" t="inlineStr"/>
-      <c r="F1546" t="inlineStr"/>
-      <c r="G1546" t="inlineStr"/>
-      <c r="H1546" t="inlineStr"/>
-      <c r="I1546" t="inlineStr"/>
-    </row>
-    <row r="1547">
-      <c r="A1547" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 445693P5</t>
-        </is>
-      </c>
-      <c r="B1547" t="inlineStr"/>
-      <c r="C1547" t="inlineStr"/>
-      <c r="D1547" t="inlineStr"/>
-      <c r="E1547" t="inlineStr"/>
-      <c r="F1547" t="inlineStr"/>
-      <c r="G1547" t="inlineStr"/>
-      <c r="H1547" t="inlineStr"/>
-      <c r="I1547" t="inlineStr"/>
-    </row>
-    <row r="1548">
-      <c r="A1548" t="inlineStr">
-        <is>
-          <t>Summarized description: Hear the history and legends behind the Paris icon as a guide accompanies you up to the second level. Get help identifying the monuments below, and upgrade for summit access.</t>
-        </is>
-      </c>
-      <c r="B1548" t="inlineStr"/>
-      <c r="C1548" t="inlineStr"/>
-      <c r="D1548" t="inlineStr"/>
-      <c r="E1548" t="inlineStr"/>
-      <c r="F1548" t="inlineStr"/>
-      <c r="G1548" t="inlineStr"/>
-      <c r="H1548" t="inlineStr"/>
-      <c r="I1548" t="inlineStr"/>
-    </row>
-    <row r="1549">
-      <c r="A1549" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title: Paris Eiffel Tower Tour by Elevator </t>
-        </is>
-      </c>
-      <c r="B1549" t="inlineStr"/>
-      <c r="C1549" t="inlineStr"/>
-      <c r="D1549" t="inlineStr"/>
-      <c r="E1549" t="inlineStr"/>
-      <c r="F1549" t="inlineStr"/>
-      <c r="G1549" t="inlineStr"/>
-      <c r="H1549" t="inlineStr"/>
-      <c r="I1549" t="inlineStr"/>
-    </row>
-    <row r="1550">
-      <c r="A1550" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1550" t="inlineStr"/>
-      <c r="C1550" t="inlineStr"/>
-      <c r="D1550" t="inlineStr"/>
-      <c r="E1550" t="inlineStr"/>
-      <c r="F1550" t="inlineStr"/>
-      <c r="G1550" t="inlineStr"/>
-      <c r="H1550" t="inlineStr"/>
-      <c r="I1550" t="inlineStr"/>
-    </row>
-    <row r="1551">
-      <c r="A1551" t="inlineStr">
-        <is>
-          <t>Category: ['Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1551" t="inlineStr"/>
-      <c r="C1551" t="inlineStr"/>
-      <c r="D1551" t="inlineStr"/>
-      <c r="E1551" t="inlineStr"/>
-      <c r="F1551" t="inlineStr"/>
-      <c r="G1551" t="inlineStr"/>
-      <c r="H1551" t="inlineStr"/>
-      <c r="I1551" t="inlineStr"/>
-    </row>
-    <row r="1552">
-      <c r="A1552" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 423194P1</t>
-        </is>
-      </c>
-      <c r="B1552" t="inlineStr"/>
-      <c r="C1552" t="inlineStr"/>
-      <c r="D1552" t="inlineStr"/>
-      <c r="E1552" t="inlineStr"/>
-      <c r="F1552" t="inlineStr"/>
-      <c r="G1552" t="inlineStr"/>
-      <c r="H1552" t="inlineStr"/>
-      <c r="I1552" t="inlineStr"/>
-    </row>
-    <row r="1553">
-      <c r="A1553" t="inlineStr">
-        <is>
-          <t>Summarized description: Visit the Eiffel Tower with this entry ticket and marvel at spectacular views of Paris. Enjoy access to the 1st and 2nd floors by elevator. Hear the history and legends behind the Paris icon.</t>
-        </is>
-      </c>
-      <c r="B1553" t="inlineStr"/>
-      <c r="C1553" t="inlineStr"/>
-      <c r="D1553" t="inlineStr"/>
-      <c r="E1553" t="inlineStr"/>
-      <c r="F1553" t="inlineStr"/>
-      <c r="G1553" t="inlineStr"/>
-      <c r="H1553" t="inlineStr"/>
-      <c r="I1553" t="inlineStr"/>
-    </row>
-    <row r="1554">
-      <c r="A1554" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower Elevator Guided Tour with Summit Access</t>
-        </is>
-      </c>
-      <c r="B1554" t="inlineStr"/>
-      <c r="C1554" t="inlineStr"/>
-      <c r="D1554" t="inlineStr"/>
-      <c r="E1554" t="inlineStr"/>
-      <c r="F1554" t="inlineStr"/>
-      <c r="G1554" t="inlineStr"/>
-      <c r="H1554" t="inlineStr"/>
-      <c r="I1554" t="inlineStr"/>
-    </row>
-    <row r="1555">
-      <c r="A1555" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1555" t="inlineStr"/>
-      <c r="C1555" t="inlineStr"/>
-      <c r="D1555" t="inlineStr"/>
-      <c r="E1555" t="inlineStr"/>
-      <c r="F1555" t="inlineStr"/>
-      <c r="G1555" t="inlineStr"/>
-      <c r="H1555" t="inlineStr"/>
-      <c r="I1555" t="inlineStr"/>
-    </row>
-    <row r="1556">
-      <c r="A1556" t="inlineStr">
-        <is>
-          <t>Category: ['Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1556" t="inlineStr"/>
-      <c r="C1556" t="inlineStr"/>
-      <c r="D1556" t="inlineStr"/>
-      <c r="E1556" t="inlineStr"/>
-      <c r="F1556" t="inlineStr"/>
-      <c r="G1556" t="inlineStr"/>
-      <c r="H1556" t="inlineStr"/>
-      <c r="I1556" t="inlineStr"/>
-    </row>
-    <row r="1557">
-      <c r="A1557" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 183842P3</t>
-        </is>
-      </c>
-      <c r="B1557" t="inlineStr"/>
-      <c r="C1557" t="inlineStr"/>
-      <c r="D1557" t="inlineStr"/>
-      <c r="E1557" t="inlineStr"/>
-      <c r="F1557" t="inlineStr"/>
-      <c r="G1557" t="inlineStr"/>
-      <c r="H1557" t="inlineStr"/>
-      <c r="I1557" t="inlineStr"/>
-    </row>
-    <row r="1558">
-      <c r="A1558" t="inlineStr">
-        <is>
-          <t>Summarized description: A unique experience, taking the elevator to the second floor and then the summit. Guided admission ticket to the Eiffel Tower. Enjoying panoramic view from both the summit and the first floor.</t>
-        </is>
-      </c>
-      <c r="B1558" t="inlineStr"/>
-      <c r="C1558" t="inlineStr"/>
-      <c r="D1558" t="inlineStr"/>
-      <c r="E1558" t="inlineStr"/>
-      <c r="F1558" t="inlineStr"/>
-      <c r="G1558" t="inlineStr"/>
-      <c r="H1558" t="inlineStr"/>
-      <c r="I1558" t="inlineStr"/>
-    </row>
-    <row r="1559">
-      <c r="A1559" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title: Guided Tour Eiffel Tower elevator with Host </t>
-        </is>
-      </c>
-      <c r="B1559" t="inlineStr"/>
-      <c r="C1559" t="inlineStr"/>
-      <c r="D1559" t="inlineStr"/>
-      <c r="E1559" t="inlineStr"/>
-      <c r="F1559" t="inlineStr"/>
-      <c r="G1559" t="inlineStr"/>
-      <c r="H1559" t="inlineStr"/>
-      <c r="I1559" t="inlineStr"/>
-    </row>
-    <row r="1560">
-      <c r="A1560" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1560" t="inlineStr"/>
-      <c r="C1560" t="inlineStr"/>
-      <c r="D1560" t="inlineStr"/>
-      <c r="E1560" t="inlineStr"/>
-      <c r="F1560" t="inlineStr"/>
-      <c r="G1560" t="inlineStr"/>
-      <c r="H1560" t="inlineStr"/>
-      <c r="I1560" t="inlineStr"/>
-    </row>
-    <row r="1561">
-      <c r="A1561" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1561" t="inlineStr"/>
-      <c r="C1561" t="inlineStr"/>
-      <c r="D1561" t="inlineStr"/>
-      <c r="E1561" t="inlineStr"/>
-      <c r="F1561" t="inlineStr"/>
-      <c r="G1561" t="inlineStr"/>
-      <c r="H1561" t="inlineStr"/>
-      <c r="I1561" t="inlineStr"/>
-    </row>
-    <row r="1562">
-      <c r="A1562" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 458844P1</t>
-        </is>
-      </c>
-      <c r="B1562" t="inlineStr"/>
-      <c r="C1562" t="inlineStr"/>
-      <c r="D1562" t="inlineStr"/>
-      <c r="E1562" t="inlineStr"/>
-      <c r="F1562" t="inlineStr"/>
-      <c r="G1562" t="inlineStr"/>
-      <c r="H1562" t="inlineStr"/>
-      <c r="I1562" t="inlineStr"/>
-    </row>
-    <row r="1563">
-      <c r="A1563" t="inlineStr">
-        <is>
-          <t>Summarized description: Make the most of this Viator Eiffel Tower ticket. Enjoy hassle-free entry to one of the world’s busiest monuments. Listen as your host adds colourful history and facts to the sights below.</t>
-        </is>
-      </c>
-      <c r="B1563" t="inlineStr"/>
-      <c r="C1563" t="inlineStr"/>
-      <c r="D1563" t="inlineStr"/>
-      <c r="E1563" t="inlineStr"/>
-      <c r="F1563" t="inlineStr"/>
-      <c r="G1563" t="inlineStr"/>
-      <c r="H1563" t="inlineStr"/>
-      <c r="I1563" t="inlineStr"/>
-    </row>
-    <row r="1564">
-      <c r="A1564" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower with Host 2nd Floor access with elevator</t>
-        </is>
-      </c>
-      <c r="B1564" t="inlineStr"/>
-      <c r="C1564" t="inlineStr"/>
-      <c r="D1564" t="inlineStr"/>
-      <c r="E1564" t="inlineStr"/>
-      <c r="F1564" t="inlineStr"/>
-      <c r="G1564" t="inlineStr"/>
-      <c r="H1564" t="inlineStr"/>
-      <c r="I1564" t="inlineStr"/>
-    </row>
-    <row r="1565">
-      <c r="A1565" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1565" t="inlineStr"/>
-      <c r="C1565" t="inlineStr"/>
-      <c r="D1565" t="inlineStr"/>
-      <c r="E1565" t="inlineStr"/>
-      <c r="F1565" t="inlineStr"/>
-      <c r="G1565" t="inlineStr"/>
-      <c r="H1565" t="inlineStr"/>
-      <c r="I1565" t="inlineStr"/>
-    </row>
-    <row r="1566">
-      <c r="A1566" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1566" t="inlineStr"/>
-      <c r="C1566" t="inlineStr"/>
-      <c r="D1566" t="inlineStr"/>
-      <c r="E1566" t="inlineStr"/>
-      <c r="F1566" t="inlineStr"/>
-      <c r="G1566" t="inlineStr"/>
-      <c r="H1566" t="inlineStr"/>
-      <c r="I1566" t="inlineStr"/>
-    </row>
-    <row r="1567">
-      <c r="A1567" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 248877P47</t>
-        </is>
-      </c>
-      <c r="B1567" t="inlineStr"/>
-      <c r="C1567" t="inlineStr"/>
-      <c r="D1567" t="inlineStr"/>
-      <c r="E1567" t="inlineStr"/>
-      <c r="F1567" t="inlineStr"/>
-      <c r="G1567" t="inlineStr"/>
-      <c r="H1567" t="inlineStr"/>
-      <c r="I1567" t="inlineStr"/>
-    </row>
-    <row r="1568">
-      <c r="A1568" t="inlineStr">
-        <is>
-          <t>Summarized description: The Eiffel Tower is one of the most visited tourist attractions in the world. It is located on the banks of the River Seine in Paris, France.</t>
-        </is>
-      </c>
-      <c r="B1568" t="inlineStr"/>
-      <c r="C1568" t="inlineStr"/>
-      <c r="D1568" t="inlineStr"/>
-      <c r="E1568" t="inlineStr"/>
-      <c r="F1568" t="inlineStr"/>
-      <c r="G1568" t="inlineStr"/>
-      <c r="H1568" t="inlineStr"/>
-      <c r="I1568" t="inlineStr"/>
-    </row>
-    <row r="1569">
-      <c r="A1569" t="inlineStr">
-        <is>
-          <t>Title: Paris Eiffel Tower Experience (Access to 2nd Floor)</t>
-        </is>
-      </c>
-      <c r="B1569" t="inlineStr"/>
-      <c r="C1569" t="inlineStr"/>
-      <c r="D1569" t="inlineStr"/>
-      <c r="E1569" t="inlineStr"/>
-      <c r="F1569" t="inlineStr"/>
-      <c r="G1569" t="inlineStr"/>
-      <c r="H1569" t="inlineStr"/>
-      <c r="I1569" t="inlineStr"/>
-    </row>
-    <row r="1570">
-      <c r="A1570" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1570" t="inlineStr"/>
-      <c r="C1570" t="inlineStr"/>
-      <c r="D1570" t="inlineStr"/>
-      <c r="E1570" t="inlineStr"/>
-      <c r="F1570" t="inlineStr"/>
-      <c r="G1570" t="inlineStr"/>
-      <c r="H1570" t="inlineStr"/>
-      <c r="I1570" t="inlineStr"/>
-    </row>
-    <row r="1571">
-      <c r="A1571" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1571" t="inlineStr"/>
-      <c r="C1571" t="inlineStr"/>
-      <c r="D1571" t="inlineStr"/>
-      <c r="E1571" t="inlineStr"/>
-      <c r="F1571" t="inlineStr"/>
-      <c r="G1571" t="inlineStr"/>
-      <c r="H1571" t="inlineStr"/>
-      <c r="I1571" t="inlineStr"/>
-    </row>
-    <row r="1572">
-      <c r="A1572" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 396871P30</t>
-        </is>
-      </c>
-      <c r="B1572" t="inlineStr"/>
-      <c r="C1572" t="inlineStr"/>
-      <c r="D1572" t="inlineStr"/>
-      <c r="E1572" t="inlineStr"/>
-      <c r="F1572" t="inlineStr"/>
-      <c r="G1572" t="inlineStr"/>
-      <c r="H1572" t="inlineStr"/>
-      <c r="I1572" t="inlineStr"/>
-    </row>
-    <row r="1573">
-      <c r="A1573" t="inlineStr">
-        <is>
-          <t>Summarized description: Gain immediate access to the Eiffel Tower's Top Summit. Ascend to the highest viewing platform for breathtaking, panoramic views of Paris. Enjoy a comprehensive audio guide available in English.</t>
-        </is>
-      </c>
-      <c r="B1573" t="inlineStr"/>
-      <c r="C1573" t="inlineStr"/>
-      <c r="D1573" t="inlineStr"/>
-      <c r="E1573" t="inlineStr"/>
-      <c r="F1573" t="inlineStr"/>
-      <c r="G1573" t="inlineStr"/>
-      <c r="H1573" t="inlineStr"/>
-      <c r="I1573" t="inlineStr"/>
-    </row>
-    <row r="1574">
-      <c r="A1574" t="inlineStr">
-        <is>
-          <t>Title: Summit Eiffel Tower Top Floor Skip the line with Audio Guide Tour</t>
-        </is>
-      </c>
-      <c r="B1574" t="inlineStr"/>
-      <c r="C1574" t="inlineStr"/>
-      <c r="D1574" t="inlineStr"/>
-      <c r="E1574" t="inlineStr"/>
-      <c r="F1574" t="inlineStr"/>
-      <c r="G1574" t="inlineStr"/>
-      <c r="H1574" t="inlineStr"/>
-      <c r="I1574" t="inlineStr"/>
-    </row>
-    <row r="1575">
-      <c r="A1575" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1575" t="inlineStr"/>
-      <c r="C1575" t="inlineStr"/>
-      <c r="D1575" t="inlineStr"/>
-      <c r="E1575" t="inlineStr"/>
-      <c r="F1575" t="inlineStr"/>
-      <c r="G1575" t="inlineStr"/>
-      <c r="H1575" t="inlineStr"/>
-      <c r="I1575" t="inlineStr"/>
-    </row>
-    <row r="1576">
-      <c r="A1576" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1576" t="inlineStr"/>
-      <c r="C1576" t="inlineStr"/>
-      <c r="D1576" t="inlineStr"/>
-      <c r="E1576" t="inlineStr"/>
-      <c r="F1576" t="inlineStr"/>
-      <c r="G1576" t="inlineStr"/>
-      <c r="H1576" t="inlineStr"/>
-      <c r="I1576" t="inlineStr"/>
-    </row>
-    <row r="1577">
-      <c r="A1577" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 170990P27</t>
-        </is>
-      </c>
-      <c r="B1577" t="inlineStr"/>
-      <c r="C1577" t="inlineStr"/>
-      <c r="D1577" t="inlineStr"/>
-      <c r="E1577" t="inlineStr"/>
-      <c r="F1577" t="inlineStr"/>
-      <c r="G1577" t="inlineStr"/>
-      <c r="H1577" t="inlineStr"/>
-      <c r="I1577" t="inlineStr"/>
-    </row>
-    <row r="1578">
-      <c r="A1578" t="inlineStr">
-        <is>
-          <t>Summarized description: Enjoy hassle-free entry to one of the world’s busiest monuments. Cut out the long admission lines with a timed, priority-entry ticket. Explore the Eiffel Tower's first and second levels at your own pace.</t>
-        </is>
-      </c>
-      <c r="B1578" t="inlineStr"/>
-      <c r="C1578" t="inlineStr"/>
-      <c r="D1578" t="inlineStr"/>
-      <c r="E1578" t="inlineStr"/>
-      <c r="F1578" t="inlineStr"/>
-      <c r="G1578" t="inlineStr"/>
-      <c r="H1578" t="inlineStr"/>
-      <c r="I1578" t="inlineStr"/>
-    </row>
-    <row r="1579">
-      <c r="A1579" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower Tour and Summit Priority Access</t>
-        </is>
-      </c>
-      <c r="B1579" t="inlineStr"/>
-      <c r="C1579" t="inlineStr"/>
-      <c r="D1579" t="inlineStr"/>
-      <c r="E1579" t="inlineStr"/>
-      <c r="F1579" t="inlineStr"/>
-      <c r="G1579" t="inlineStr"/>
-      <c r="H1579" t="inlineStr"/>
-      <c r="I1579" t="inlineStr"/>
-    </row>
-    <row r="1580">
-      <c r="A1580" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1580" t="inlineStr"/>
-      <c r="C1580" t="inlineStr"/>
-      <c r="D1580" t="inlineStr"/>
-      <c r="E1580" t="inlineStr"/>
-      <c r="F1580" t="inlineStr"/>
-      <c r="G1580" t="inlineStr"/>
-      <c r="H1580" t="inlineStr"/>
-      <c r="I1580" t="inlineStr"/>
-    </row>
-    <row r="1581">
-      <c r="A1581" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1581" t="inlineStr"/>
-      <c r="C1581" t="inlineStr"/>
-      <c r="D1581" t="inlineStr"/>
-      <c r="E1581" t="inlineStr"/>
-      <c r="F1581" t="inlineStr"/>
-      <c r="G1581" t="inlineStr"/>
-      <c r="H1581" t="inlineStr"/>
-      <c r="I1581" t="inlineStr"/>
-    </row>
-    <row r="1582">
-      <c r="A1582" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 5717P11</t>
-        </is>
-      </c>
-      <c r="B1582" t="inlineStr"/>
-      <c r="C1582" t="inlineStr"/>
-      <c r="D1582" t="inlineStr"/>
-      <c r="E1582" t="inlineStr"/>
-      <c r="F1582" t="inlineStr"/>
-      <c r="G1582" t="inlineStr"/>
-      <c r="H1582" t="inlineStr"/>
-      <c r="I1582" t="inlineStr"/>
-    </row>
-    <row r="1583">
-      <c r="A1583" t="inlineStr">
-        <is>
-          <t>Summarized description: Discover a new side of the Eiffel Tower and her secrets. Enjoy a 90-minute guided tour to discover a newside of the tower and its secrets.</t>
-        </is>
-      </c>
-      <c r="B1583" t="inlineStr"/>
-      <c r="C1583" t="inlineStr"/>
-      <c r="D1583" t="inlineStr"/>
-      <c r="E1583" t="inlineStr"/>
-      <c r="F1583" t="inlineStr"/>
-      <c r="G1583" t="inlineStr"/>
-      <c r="H1583" t="inlineStr"/>
-      <c r="I1583" t="inlineStr"/>
-    </row>
-    <row r="1584">
-      <c r="A1584" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower Skip the Line Guided Tour to the 2nd floor</t>
-        </is>
-      </c>
-      <c r="B1584" t="inlineStr"/>
-      <c r="C1584" t="inlineStr"/>
-      <c r="D1584" t="inlineStr"/>
-      <c r="E1584" t="inlineStr"/>
-      <c r="F1584" t="inlineStr"/>
-      <c r="G1584" t="inlineStr"/>
-      <c r="H1584" t="inlineStr"/>
-      <c r="I1584" t="inlineStr"/>
-    </row>
-    <row r="1585">
-      <c r="A1585" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1585" t="inlineStr"/>
-      <c r="C1585" t="inlineStr"/>
-      <c r="D1585" t="inlineStr"/>
-      <c r="E1585" t="inlineStr"/>
-      <c r="F1585" t="inlineStr"/>
-      <c r="G1585" t="inlineStr"/>
-      <c r="H1585" t="inlineStr"/>
-      <c r="I1585" t="inlineStr"/>
-    </row>
-    <row r="1586">
-      <c r="A1586" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1586" t="inlineStr"/>
-      <c r="C1586" t="inlineStr"/>
-      <c r="D1586" t="inlineStr"/>
-      <c r="E1586" t="inlineStr"/>
-      <c r="F1586" t="inlineStr"/>
-      <c r="G1586" t="inlineStr"/>
-      <c r="H1586" t="inlineStr"/>
-      <c r="I1586" t="inlineStr"/>
-    </row>
-    <row r="1587">
-      <c r="A1587" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 226089P1</t>
-        </is>
-      </c>
-      <c r="B1587" t="inlineStr"/>
-      <c r="C1587" t="inlineStr"/>
-      <c r="D1587" t="inlineStr"/>
-      <c r="E1587" t="inlineStr"/>
-      <c r="F1587" t="inlineStr"/>
-      <c r="G1587" t="inlineStr"/>
-      <c r="H1587" t="inlineStr"/>
-      <c r="I1587" t="inlineStr"/>
-    </row>
-    <row r="1588">
-      <c r="A1588" t="inlineStr">
-        <is>
-          <t>Summarized description: Explore the stunning views of Gustave Eiffel's most famous creation from top to bottom. Our skip the lines access will send you to the 2nd-floor observation deck right away.</t>
-        </is>
-      </c>
-      <c r="B1588" t="inlineStr"/>
-      <c r="C1588" t="inlineStr"/>
-      <c r="D1588" t="inlineStr"/>
-      <c r="E1588" t="inlineStr"/>
-      <c r="F1588" t="inlineStr"/>
-      <c r="G1588" t="inlineStr"/>
-      <c r="H1588" t="inlineStr"/>
-      <c r="I1588" t="inlineStr"/>
-    </row>
-    <row r="1589">
-      <c r="A1589" t="inlineStr">
-        <is>
-          <t>Title: Skip-the-line access: Guided Eiffel Tower Tour with Optional Summit Access</t>
-        </is>
-      </c>
-      <c r="B1589" t="inlineStr"/>
-      <c r="C1589" t="inlineStr"/>
-      <c r="D1589" t="inlineStr"/>
-      <c r="E1589" t="inlineStr"/>
-      <c r="F1589" t="inlineStr"/>
-      <c r="G1589" t="inlineStr"/>
-      <c r="H1589" t="inlineStr"/>
-      <c r="I1589" t="inlineStr"/>
-    </row>
-    <row r="1590">
-      <c r="A1590" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1590" t="inlineStr"/>
-      <c r="C1590" t="inlineStr"/>
-      <c r="D1590" t="inlineStr"/>
-      <c r="E1590" t="inlineStr"/>
-      <c r="F1590" t="inlineStr"/>
-      <c r="G1590" t="inlineStr"/>
-      <c r="H1590" t="inlineStr"/>
-      <c r="I1590" t="inlineStr"/>
-    </row>
-    <row r="1591">
-      <c r="A1591" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1591" t="inlineStr"/>
-      <c r="C1591" t="inlineStr"/>
-      <c r="D1591" t="inlineStr"/>
-      <c r="E1591" t="inlineStr"/>
-      <c r="F1591" t="inlineStr"/>
-      <c r="G1591" t="inlineStr"/>
-      <c r="H1591" t="inlineStr"/>
-      <c r="I1591" t="inlineStr"/>
-    </row>
-    <row r="1592">
-      <c r="A1592" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 248877P48</t>
-        </is>
-      </c>
-      <c r="B1592" t="inlineStr"/>
-      <c r="C1592" t="inlineStr"/>
-      <c r="D1592" t="inlineStr"/>
-      <c r="E1592" t="inlineStr"/>
-      <c r="F1592" t="inlineStr"/>
-      <c r="G1592" t="inlineStr"/>
-      <c r="H1592" t="inlineStr"/>
-      <c r="I1592" t="inlineStr"/>
-    </row>
-    <row r="1593">
-      <c r="A1593" t="inlineStr">
-        <is>
-          <t>Summarized description:  skip-the-line tickets give you access to the 2nd level of the Eiffel Tower. Check out stunning Parisian neighborhoods such as the Champs Elysees, Notre Dame, Montmartre, Seine River.</t>
-        </is>
-      </c>
-      <c r="B1593" t="inlineStr"/>
-      <c r="C1593" t="inlineStr"/>
-      <c r="D1593" t="inlineStr"/>
-      <c r="E1593" t="inlineStr"/>
-      <c r="F1593" t="inlineStr"/>
-      <c r="G1593" t="inlineStr"/>
-      <c r="H1593" t="inlineStr"/>
-      <c r="I1593" t="inlineStr"/>
-    </row>
-    <row r="1594">
-      <c r="A1594" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title: Eiffel Tower Skip the Line: 2nd Floor or SUMMIT Access with Quick Lift </t>
-        </is>
-      </c>
-      <c r="B1594" t="inlineStr"/>
-      <c r="C1594" t="inlineStr"/>
-      <c r="D1594" t="inlineStr"/>
-      <c r="E1594" t="inlineStr"/>
-      <c r="F1594" t="inlineStr"/>
-      <c r="G1594" t="inlineStr"/>
-      <c r="H1594" t="inlineStr"/>
-      <c r="I1594" t="inlineStr"/>
-    </row>
-    <row r="1595">
-      <c r="A1595" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1595" t="inlineStr"/>
-      <c r="C1595" t="inlineStr"/>
-      <c r="D1595" t="inlineStr"/>
-      <c r="E1595" t="inlineStr"/>
-      <c r="F1595" t="inlineStr"/>
-      <c r="G1595" t="inlineStr"/>
-      <c r="H1595" t="inlineStr"/>
-      <c r="I1595" t="inlineStr"/>
-    </row>
-    <row r="1596">
-      <c r="A1596" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1596" t="inlineStr"/>
-      <c r="C1596" t="inlineStr"/>
-      <c r="D1596" t="inlineStr"/>
-      <c r="E1596" t="inlineStr"/>
-      <c r="F1596" t="inlineStr"/>
-      <c r="G1596" t="inlineStr"/>
-      <c r="H1596" t="inlineStr"/>
-      <c r="I1596" t="inlineStr"/>
-    </row>
-    <row r="1597">
-      <c r="A1597" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 183842P4</t>
-        </is>
-      </c>
-      <c r="B1597" t="inlineStr"/>
-      <c r="C1597" t="inlineStr"/>
-      <c r="D1597" t="inlineStr"/>
-      <c r="E1597" t="inlineStr"/>
-      <c r="F1597" t="inlineStr"/>
-      <c r="G1597" t="inlineStr"/>
-      <c r="H1597" t="inlineStr"/>
-      <c r="I1597" t="inlineStr"/>
-    </row>
-    <row r="1598">
-      <c r="A1598" t="inlineStr">
-        <is>
-          <t>Summarized description: A unique experience, taking the elevator to the second floor and then the summit. Guided admission ticket to the Eiffel Tower. Enjoying panoramic view from both the summit and the first floor.</t>
-        </is>
-      </c>
-      <c r="B1598" t="inlineStr"/>
-      <c r="C1598" t="inlineStr"/>
-      <c r="D1598" t="inlineStr"/>
-      <c r="E1598" t="inlineStr"/>
-      <c r="F1598" t="inlineStr"/>
-      <c r="G1598" t="inlineStr"/>
-      <c r="H1598" t="inlineStr"/>
-      <c r="I1598" t="inlineStr"/>
-    </row>
-    <row r="1599">
-      <c r="A1599" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title: Guided Eiffel Tower Tour by Elevator with professional guide </t>
-        </is>
-      </c>
-      <c r="B1599" t="inlineStr"/>
-      <c r="C1599" t="inlineStr"/>
-      <c r="D1599" t="inlineStr"/>
-      <c r="E1599" t="inlineStr"/>
-      <c r="F1599" t="inlineStr"/>
-      <c r="G1599" t="inlineStr"/>
-      <c r="H1599" t="inlineStr"/>
-      <c r="I1599" t="inlineStr"/>
-    </row>
-    <row r="1600">
-      <c r="A1600" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1600" t="inlineStr"/>
-      <c r="C1600" t="inlineStr"/>
-      <c r="D1600" t="inlineStr"/>
-      <c r="E1600" t="inlineStr"/>
-      <c r="F1600" t="inlineStr"/>
-      <c r="G1600" t="inlineStr"/>
-      <c r="H1600" t="inlineStr"/>
-      <c r="I1600" t="inlineStr"/>
-    </row>
-    <row r="1601">
-      <c r="A1601" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1601" t="inlineStr"/>
-      <c r="C1601" t="inlineStr"/>
-      <c r="D1601" t="inlineStr"/>
-      <c r="E1601" t="inlineStr"/>
-      <c r="F1601" t="inlineStr"/>
-      <c r="G1601" t="inlineStr"/>
-      <c r="H1601" t="inlineStr"/>
-      <c r="I1601" t="inlineStr"/>
-    </row>
-    <row r="1602">
-      <c r="A1602" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 40121P1</t>
-        </is>
-      </c>
-      <c r="B1602" t="inlineStr"/>
-      <c r="C1602" t="inlineStr"/>
-      <c r="D1602" t="inlineStr"/>
-      <c r="E1602" t="inlineStr"/>
-      <c r="F1602" t="inlineStr"/>
-      <c r="G1602" t="inlineStr"/>
-      <c r="H1602" t="inlineStr"/>
-      <c r="I1602" t="inlineStr"/>
-    </row>
-    <row r="1603">
-      <c r="A1603" t="inlineStr">
-        <is>
-          <t>Summarized description: Ride along the Seine River through the heart of the city. Admire many of the most famous monuments including the Louvre and Notre Dame Cathedral. After your cruise, a guide will accompany you to the second floor of the Eiffel Tower.</t>
-        </is>
-      </c>
-      <c r="B1603" t="inlineStr"/>
-      <c r="C1603" t="inlineStr"/>
-      <c r="D1603" t="inlineStr"/>
-      <c r="E1603" t="inlineStr"/>
-      <c r="F1603" t="inlineStr"/>
-      <c r="G1603" t="inlineStr"/>
-      <c r="H1603" t="inlineStr"/>
-      <c r="I1603" t="inlineStr"/>
-    </row>
-    <row r="1604">
-      <c r="A1604" t="inlineStr">
-        <is>
-          <t>Title: Priority Access Eiffel Tower and Seine River Cruise</t>
-        </is>
-      </c>
-      <c r="B1604" t="inlineStr"/>
-      <c r="C1604" t="inlineStr"/>
-      <c r="D1604" t="inlineStr"/>
-      <c r="E1604" t="inlineStr"/>
-      <c r="F1604" t="inlineStr"/>
-      <c r="G1604" t="inlineStr"/>
-      <c r="H1604" t="inlineStr"/>
-      <c r="I1604" t="inlineStr"/>
-    </row>
-    <row r="1605">
-      <c r="A1605" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1605" t="inlineStr"/>
-      <c r="C1605" t="inlineStr"/>
-      <c r="D1605" t="inlineStr"/>
-      <c r="E1605" t="inlineStr"/>
-      <c r="F1605" t="inlineStr"/>
-      <c r="G1605" t="inlineStr"/>
-      <c r="H1605" t="inlineStr"/>
-      <c r="I1605" t="inlineStr"/>
-    </row>
-    <row r="1606">
-      <c r="A1606" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
-        </is>
-      </c>
-      <c r="B1606" t="inlineStr"/>
-      <c r="C1606" t="inlineStr"/>
-      <c r="D1606" t="inlineStr"/>
-      <c r="E1606" t="inlineStr"/>
-      <c r="F1606" t="inlineStr"/>
-      <c r="G1606" t="inlineStr"/>
-      <c r="H1606" t="inlineStr"/>
-      <c r="I1606" t="inlineStr"/>
-    </row>
-    <row r="1607">
-      <c r="A1607" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 7832P131</t>
-        </is>
-      </c>
-      <c r="B1607" t="inlineStr"/>
-      <c r="C1607" t="inlineStr"/>
-      <c r="D1607" t="inlineStr"/>
-      <c r="E1607" t="inlineStr"/>
-      <c r="F1607" t="inlineStr"/>
-      <c r="G1607" t="inlineStr"/>
-      <c r="H1607" t="inlineStr"/>
-      <c r="I1607" t="inlineStr"/>
-    </row>
-    <row r="1608">
-      <c r="A1608" t="inlineStr">
-        <is>
-          <t>Summarized description: Get closer to the sky at 320 meters altitude and contemplate the most beautiful monuments of Paris from the top of Eiffel Tower. Unwind while contemplating many monuments such as the Louvre Museum and Notre Dame Cathedral on a Seine River cruise.</t>
-        </is>
-      </c>
-      <c r="B1608" t="inlineStr"/>
-      <c r="C1608" t="inlineStr"/>
-      <c r="D1608" t="inlineStr"/>
-      <c r="E1608" t="inlineStr"/>
-      <c r="F1608" t="inlineStr"/>
-      <c r="G1608" t="inlineStr"/>
-      <c r="H1608" t="inlineStr"/>
-      <c r="I1608" t="inlineStr"/>
-    </row>
-    <row r="1609">
-      <c r="A1609" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower Access including Summit in Spanish &amp; Seine River Cruise</t>
-        </is>
-      </c>
-      <c r="B1609" t="inlineStr"/>
-      <c r="C1609" t="inlineStr"/>
-      <c r="D1609" t="inlineStr"/>
-      <c r="E1609" t="inlineStr"/>
-      <c r="F1609" t="inlineStr"/>
-      <c r="G1609" t="inlineStr"/>
-      <c r="H1609" t="inlineStr"/>
-      <c r="I1609" t="inlineStr"/>
-    </row>
-    <row r="1610">
-      <c r="A1610" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1610" t="inlineStr"/>
-      <c r="C1610" t="inlineStr"/>
-      <c r="D1610" t="inlineStr"/>
-      <c r="E1610" t="inlineStr"/>
-      <c r="F1610" t="inlineStr"/>
-      <c r="G1610" t="inlineStr"/>
-      <c r="H1610" t="inlineStr"/>
-      <c r="I1610" t="inlineStr"/>
-    </row>
-    <row r="1611">
-      <c r="A1611" t="inlineStr">
-        <is>
-          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
-        </is>
-      </c>
-      <c r="B1611" t="inlineStr"/>
-      <c r="C1611" t="inlineStr"/>
-      <c r="D1611" t="inlineStr"/>
-      <c r="E1611" t="inlineStr"/>
-      <c r="F1611" t="inlineStr"/>
-      <c r="G1611" t="inlineStr"/>
-      <c r="H1611" t="inlineStr"/>
-      <c r="I1611" t="inlineStr"/>
-    </row>
-    <row r="1612">
-      <c r="A1612" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 427087P2</t>
-        </is>
-      </c>
-      <c r="B1612" t="inlineStr"/>
-      <c r="C1612" t="inlineStr"/>
-      <c r="D1612" t="inlineStr"/>
-      <c r="E1612" t="inlineStr"/>
-      <c r="F1612" t="inlineStr"/>
-      <c r="G1612" t="inlineStr"/>
-      <c r="H1612" t="inlineStr"/>
-      <c r="I1612" t="inlineStr"/>
-    </row>
-    <row r="1613">
-      <c r="A1613" t="inlineStr">
-        <is>
-          <t>Summarized description: Discover the Eiffel Tower at your own pace. You will get a more personalized and relaxed experience focused on your wishes. It will be a great and unique opportunity to share this memorable visit with your family or closest friends and nobody else.</t>
-        </is>
-      </c>
-      <c r="B1613" t="inlineStr"/>
-      <c r="C1613" t="inlineStr"/>
-      <c r="D1613" t="inlineStr"/>
-      <c r="E1613" t="inlineStr"/>
-      <c r="F1613" t="inlineStr"/>
-      <c r="G1613" t="inlineStr"/>
-      <c r="H1613" t="inlineStr"/>
-      <c r="I1613" t="inlineStr"/>
-    </row>
-    <row r="1614">
-      <c r="A1614" t="inlineStr">
-        <is>
-          <t>Title: Private Tour at the Eiffel Tower with Second Floor Access</t>
-        </is>
-      </c>
-      <c r="B1614" t="inlineStr"/>
-      <c r="C1614" t="inlineStr"/>
-      <c r="D1614" t="inlineStr"/>
-      <c r="E1614" t="inlineStr"/>
-      <c r="F1614" t="inlineStr"/>
-      <c r="G1614" t="inlineStr"/>
-      <c r="H1614" t="inlineStr"/>
-      <c r="I1614" t="inlineStr"/>
-    </row>
-    <row r="1615">
-      <c r="A1615" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1615" t="inlineStr"/>
-      <c r="C1615" t="inlineStr"/>
-      <c r="D1615" t="inlineStr"/>
-      <c r="E1615" t="inlineStr"/>
-      <c r="F1615" t="inlineStr"/>
-      <c r="G1615" t="inlineStr"/>
-      <c r="H1615" t="inlineStr"/>
-      <c r="I1615" t="inlineStr"/>
-    </row>
-    <row r="1616">
-      <c r="A1616" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1616" t="inlineStr"/>
-      <c r="C1616" t="inlineStr"/>
-      <c r="D1616" t="inlineStr"/>
-      <c r="E1616" t="inlineStr"/>
-      <c r="F1616" t="inlineStr"/>
-      <c r="G1616" t="inlineStr"/>
-      <c r="H1616" t="inlineStr"/>
-      <c r="I1616" t="inlineStr"/>
-    </row>
-    <row r="1617">
-      <c r="A1617" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 90894P186</t>
-        </is>
-      </c>
-      <c r="B1617" t="inlineStr"/>
-      <c r="C1617" t="inlineStr"/>
-      <c r="D1617" t="inlineStr"/>
-      <c r="E1617" t="inlineStr"/>
-      <c r="F1617" t="inlineStr"/>
-      <c r="G1617" t="inlineStr"/>
-      <c r="H1617" t="inlineStr"/>
-      <c r="I1617" t="inlineStr"/>
-    </row>
-    <row r="1618">
-      <c r="A1618" t="inlineStr">
-        <is>
-          <t>Summarized description: Scenic cruise down River Seine. Panoramic night bus tour of the city. Unforgettable views over the city from the 2nd floor of the Eiffel Tower.</t>
-        </is>
-      </c>
-      <c r="B1618" t="inlineStr"/>
-      <c r="C1618" t="inlineStr"/>
-      <c r="D1618" t="inlineStr"/>
-      <c r="E1618" t="inlineStr"/>
-      <c r="F1618" t="inlineStr"/>
-      <c r="G1618" t="inlineStr"/>
-      <c r="H1618" t="inlineStr"/>
-      <c r="I1618" t="inlineStr"/>
-    </row>
-    <row r="1619">
-      <c r="A1619" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower Visit with Seine Cruise and Paris Night Tour</t>
-        </is>
-      </c>
-      <c r="B1619" t="inlineStr"/>
-      <c r="C1619" t="inlineStr"/>
-      <c r="D1619" t="inlineStr"/>
-      <c r="E1619" t="inlineStr"/>
-      <c r="F1619" t="inlineStr"/>
-      <c r="G1619" t="inlineStr"/>
-      <c r="H1619" t="inlineStr"/>
-      <c r="I1619" t="inlineStr"/>
-    </row>
-    <row r="1620">
-      <c r="A1620" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1620" t="inlineStr"/>
-      <c r="C1620" t="inlineStr"/>
-      <c r="D1620" t="inlineStr"/>
-      <c r="E1620" t="inlineStr"/>
-      <c r="F1620" t="inlineStr"/>
-      <c r="G1620" t="inlineStr"/>
-      <c r="H1620" t="inlineStr"/>
-      <c r="I1620" t="inlineStr"/>
-    </row>
-    <row r="1621">
-      <c r="A1621" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions', 'Cultural Cruises']</t>
-        </is>
-      </c>
-      <c r="B1621" t="inlineStr"/>
-      <c r="C1621" t="inlineStr"/>
-      <c r="D1621" t="inlineStr"/>
-      <c r="E1621" t="inlineStr"/>
-      <c r="F1621" t="inlineStr"/>
-      <c r="G1621" t="inlineStr"/>
-      <c r="H1621" t="inlineStr"/>
-      <c r="I1621" t="inlineStr"/>
-    </row>
-    <row r="1622">
-      <c r="A1622" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 466185P1</t>
-        </is>
-      </c>
-      <c r="B1622" t="inlineStr"/>
-      <c r="C1622" t="inlineStr"/>
-      <c r="D1622" t="inlineStr"/>
-      <c r="E1622" t="inlineStr"/>
-      <c r="F1622" t="inlineStr"/>
-      <c r="G1622" t="inlineStr"/>
-      <c r="H1622" t="inlineStr"/>
-      <c r="I1622" t="inlineStr"/>
-    </row>
-    <row r="1623">
-      <c r="A1623" t="inlineStr">
-        <is>
-          <t>Summarized description: The Eiffel Tower Guided Climb offers a unique blend of personal attention and privileged access. As you ascend, engage in interactive games that not only entertain but enrich your journey with laughter and camaraderie.</t>
-        </is>
-      </c>
-      <c r="B1623" t="inlineStr"/>
-      <c r="C1623" t="inlineStr"/>
-      <c r="D1623" t="inlineStr"/>
-      <c r="E1623" t="inlineStr"/>
-      <c r="F1623" t="inlineStr"/>
-      <c r="G1623" t="inlineStr"/>
-      <c r="H1623" t="inlineStr"/>
-      <c r="I1623" t="inlineStr"/>
-    </row>
-    <row r="1624">
-      <c r="A1624" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower Climb With Summit Concierge</t>
-        </is>
-      </c>
-      <c r="B1624" t="inlineStr"/>
-      <c r="C1624" t="inlineStr"/>
-      <c r="D1624" t="inlineStr"/>
-      <c r="E1624" t="inlineStr"/>
-      <c r="F1624" t="inlineStr"/>
-      <c r="G1624" t="inlineStr"/>
-      <c r="H1624" t="inlineStr"/>
-      <c r="I1624" t="inlineStr"/>
-    </row>
-    <row r="1625">
-      <c r="A1625" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1625" t="inlineStr"/>
-      <c r="C1625" t="inlineStr"/>
-      <c r="D1625" t="inlineStr"/>
-      <c r="E1625" t="inlineStr"/>
-      <c r="F1625" t="inlineStr"/>
-      <c r="G1625" t="inlineStr"/>
-      <c r="H1625" t="inlineStr"/>
-      <c r="I1625" t="inlineStr"/>
-    </row>
-    <row r="1626">
-      <c r="A1626" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1626" t="inlineStr"/>
-      <c r="C1626" t="inlineStr"/>
-      <c r="D1626" t="inlineStr"/>
-      <c r="E1626" t="inlineStr"/>
-      <c r="F1626" t="inlineStr"/>
-      <c r="G1626" t="inlineStr"/>
-      <c r="H1626" t="inlineStr"/>
-      <c r="I1626" t="inlineStr"/>
-    </row>
-    <row r="1627">
-      <c r="A1627" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-      <c r="B1627" t="inlineStr"/>
-      <c r="C1627" t="inlineStr"/>
-      <c r="D1627" t="inlineStr"/>
-      <c r="E1627" t="inlineStr"/>
-      <c r="F1627" t="inlineStr"/>
-      <c r="G1627" t="inlineStr"/>
-      <c r="H1627" t="inlineStr"/>
-      <c r="I1627" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/47475P7.xlsx
+++ b/experiment_results/47475P7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1397"/>
+  <dimension ref="A1:I1422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,7 +590,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -1071,7 +1071,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Category: ['', 'Scenic Tours', 'City Tours']</t>
+          <t>Category: ['', 'City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1371,7 +1371,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -1596,7 +1596,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -2046,7 +2046,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -2121,7 +2121,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
@@ -2496,7 +2496,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
@@ -3021,7 +3021,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
@@ -3321,7 +3321,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours', 'City Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Aerial Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
@@ -3471,7 +3471,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
@@ -3696,7 +3696,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
@@ -3771,7 +3771,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
@@ -4746,7 +4746,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Dining Experiences', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Dining Experiences', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B284" t="inlineStr"/>
@@ -4896,7 +4896,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B294" t="inlineStr"/>
@@ -5421,7 +5421,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B329" t="inlineStr"/>
@@ -5571,7 +5571,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B339" t="inlineStr"/>
@@ -5721,7 +5721,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B349" t="inlineStr"/>
@@ -6096,7 +6096,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Museums']</t>
         </is>
       </c>
       <c r="B374" t="inlineStr"/>
@@ -6396,7 +6396,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B394" t="inlineStr"/>
@@ -6471,7 +6471,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B399" t="inlineStr"/>
@@ -6696,7 +6696,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B414" t="inlineStr"/>
@@ -6921,7 +6921,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Museums', 'Modern Attractions']</t>
+          <t>Category: ['Museums', 'Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B429" t="inlineStr"/>
@@ -7146,7 +7146,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B444" t="inlineStr"/>
@@ -7821,7 +7821,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Category: ['', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B489" t="inlineStr"/>
@@ -7971,7 +7971,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B499" t="inlineStr"/>
@@ -8046,7 +8046,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Entertainment']</t>
         </is>
       </c>
       <c r="B504" t="inlineStr"/>
@@ -8271,7 +8271,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Cultural Cruises', 'Entertainment', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B519" t="inlineStr"/>
@@ -8796,7 +8796,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Museums']</t>
         </is>
       </c>
       <c r="B554" t="inlineStr"/>
@@ -8946,7 +8946,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B564" t="inlineStr"/>
@@ -9246,7 +9246,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Dining Experiences', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B584" t="inlineStr"/>
@@ -9696,7 +9696,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B614" t="inlineStr"/>
@@ -10821,7 +10821,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>Category: ['Transportation &amp; Travel Services', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B689" t="inlineStr"/>
@@ -11121,7 +11121,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B709" t="inlineStr"/>
@@ -11571,7 +11571,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B739" t="inlineStr"/>
@@ -11646,7 +11646,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B744" t="inlineStr"/>
@@ -11796,7 +11796,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>Category: ['', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B754" t="inlineStr"/>
@@ -12246,7 +12246,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B784" t="inlineStr"/>
@@ -12471,7 +12471,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B799" t="inlineStr"/>
@@ -12546,7 +12546,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B804" t="inlineStr"/>
@@ -13671,7 +13671,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Entertainment', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B879" t="inlineStr"/>
@@ -14121,7 +14121,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B909" t="inlineStr"/>
@@ -15321,7 +15321,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B989" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['', 'Scenic Tours', 'City Tours']</t>
+          <t>Category: ['', 'City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5045P75</t>
+          <t>PRODUCTCODE: 415184P119</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Summarized description: Head directly up to the 2nd level of the Eiffel Tower with your ticket by elevator. On your way down, walk on the floor of glass for a thrilling moment.</t>
+          <t>Summarized description: We offer a self-guided audio tour that acts as your personal storyteller. Delve into the Eiffel Tower's captivating history and gain a deeper understanding of its significance in Parisian culture and architecture.</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>Title: Pre-booked Timed Eiffel Tower Ticket to 2nd floor by Elevator</t>
+          <t>Title: Eiffel Tower Paris Skip The Line Ticket &amp; Free Audio Guide Tour</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16462,7 +16462,7 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>TotalReviews: 34</t>
+          <t>TotalReviews: 36</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7245P5</t>
+          <t>PRODUCTCODE: 5045P75</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy a one hour Seine river cruise on a glass-covered boat. Use your cruise ticket anytime of day or night. Skip the long lines to the second floor of the Eiffel Tower.</t>
+          <t>Summarized description: Head directly up to the 2nd level of the Eiffel Tower with your ticket by elevator. On your way down, walk on the floor of glass for a thrilling moment.</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower 2nd floor Skip the Line Ticket with Hotel Pick up and Cruise</t>
+          <t>Title: Pre-booked Timed Eiffel Tower Ticket to 2nd floor by Elevator</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16537,7 +16537,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>TotalReviews: 30</t>
+          <t>TotalReviews: 34</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 46334P66</t>
+          <t>PRODUCTCODE: 413318P103</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Summarized description: Join an expert guide for a semi-private tour of the Eiffel Tower. The tour is shared with a small group of only 10 guests. You'll learn about the turbulent history of the "Iron Lady"</t>
+          <t>Summarized description: The summit of the Eiffel Tower offers a bird's-eye view of Paris. The vistas from the summit are simply awe-inspiring. You'll see Paris's most renowned landmarks, its winding river, and the bustling streets.</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit Semi-Private Guided Tour</t>
+          <t>Title: Eiffel Tower Summit Skip the Line Ticket with Audio Guide Tour</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16612,7 +16612,7 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>TotalReviews: 24</t>
+          <t>TotalReviews: 32</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Aerial Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 457596P2</t>
+          <t>PRODUCTCODE: 7245P5</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower tour is an unforgettable exploration of the iconic Parisian landmark. Visitors have the opportunity to ascend the tower and enjoy breathtaking views of the city's skyline, including the Louvre, Notre-Dame, and the Seine River.</t>
+          <t>Summarized description: Enjoy a one hour Seine river cruise on a glass-covered boat. Use your cruise ticket anytime of day or night. Skip the long lines to the second floor of the Eiffel Tower.</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Guided Tour Summit Access</t>
+          <t>Title: Eiffel Tower 2nd floor Skip the Line Ticket with Hotel Pick up and Cruise</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>TotalReviews: 23</t>
+          <t>TotalReviews: 30</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 387432P1</t>
+          <t>PRODUCTCODE: 6718P195</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description: Group guides aim to make each experience on the Eiffel Tower unique. We focus on small group sizes so everyone has a unique and personalized experience. We use a very visual and entertaining approach to present the iron lady.</t>
+          <t>Summarized description: Eiffel Tower is the most iconic symbol of Paris. Enjoy skip-the-line entry and board a glass elevator as you journey through this 276 meter high tower. At the very top, experience breathtaking views of the city of Paris below.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Visit With A Guide and Top Elevator Access</t>
+          <t>Title: Top Tier Eiffel Tower Skip the Line Semi-Private Tour</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16762,7 +16762,7 @@
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>TotalReviews: 22</t>
+          <t>TotalReviews: 25</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3588P46</t>
+          <t>PRODUCTCODE: 46334P66</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy reserved entry at the base of the Tower. As you make your way up to the summit, your guide will give you background on the history of the Eiffel Tower. Your guide will point out various amenities, such as restaurants, current exhibitions, and places where you can sit.</t>
+          <t>Summarized description: Join an expert guide for a semi-private tour of the Eiffel Tower. The tour is shared with a small group of only 10 guests. You'll learn about the turbulent history of the "Iron Lady"</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Title: Small-Group Eiffel Tower Tour with Reserved Entry &amp; Summit Access</t>
+          <t>Title: Eiffel Tower Summit Semi-Private Guided Tour</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16837,7 +16837,7 @@
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>TotalReviews: 21</t>
+          <t>TotalReviews: 24</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 275837P8</t>
+          <t>PRODUCTCODE: 457596P2</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description: Guests book this experience because they are assured of access to the summit. Get within hand reach of the details of the tower - the rivets holding together the iron pieces, the bulbs that light up at night.</t>
+          <t>Summarized description: The Eiffel Tower tour is an unforgettable exploration of the iconic Parisian landmark. Visitors have the opportunity to ascend the tower and enjoy breathtaking views of the city's skyline, including the Louvre, Notre-Dame, and the Seine River.</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>Title: Guaranteed Summit Access - Eiffel Tower Elevator Tour</t>
+          <t>Title: Eiffel Tower Guided Tour Summit Access</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16912,7 +16912,7 @@
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>TotalReviews: 21</t>
+          <t>TotalReviews: 23</t>
         </is>
       </c>
       <c r="B1095" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 112782P30</t>
+          <t>PRODUCTCODE: 387432P1</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the building itself and about the civil engineer who created it, Gustave Eiffel. Take advantage of the optional opportunity to ascend by elevator past the second floor to the summit of the tower.</t>
+          <t>Summarized description: Group guides aim to make each experience on the Eiffel Tower unique. We focus on small group sizes so everyone has a unique and personalized experience. We use a very visual and entertaining approach to present the iron lady.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Guided Tour - 2nd floor + optional Summit access</t>
+          <t>Title: Eiffel Tower Visit With A Guide and Top Elevator Access</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -16987,7 +16987,7 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>TotalReviews: 19</t>
+          <t>TotalReviews: 22</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 427087P1</t>
+          <t>PRODUCTCODE: 3588P46</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Summarized description: Eiffel Tower tours are fun, smart and engaging in the image of our guides. As a young team of Parisian experienced guides, we believe in small intimate and interactive groups.</t>
+          <t>Summarized description: Enjoy reserved entry at the base of the Tower. As you make your way up to the summit, your guide will give you background on the history of the Eiffel Tower. Your guide will point out various amenities, such as restaurants, current exhibitions, and places where you can sit.</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Eiffel Tower small group guided tour </t>
+          <t>Title: Small-Group Eiffel Tower Tour with Reserved Entry &amp; Summit Access</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17062,7 +17062,7 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>TotalReviews: 17</t>
+          <t>TotalReviews: 21</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 220637P7</t>
+          <t>PRODUCTCODE: 275837P8</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Summarized description: Meet your Spanish-speaking guide a few steps from the Eiffel Tower. As you walk, your guide will tell you the history and anecdotes about the construction of the structure.</t>
+          <t>Summarized description: Guests book this experience because they are assured of access to the summit. Get within hand reach of the details of the tower - the rivets holding together the iron pieces, the bulbs that light up at night.</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Spanish Guided Tour with 2nd Level Access Ticket</t>
+          <t>Title: Guaranteed Summit Access - Eiffel Tower Elevator Tour</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17137,7 +17137,7 @@
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>TotalReviews: 16</t>
+          <t>TotalReviews: 21</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 379045P2</t>
+          <t>PRODUCTCODE: 112782P30</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Summarized description: Step into the historic elevators of the Eiffel Tower and be whisked away to dizzying heights. Panoramic views of Paris await you at every turn. Learn the Tower's Secrets with insightful commentary from our knowledgeable guides. Skip the lines and enjoy VIP treatment with our exclusive tour package.</t>
+          <t>Summarized description: Learn about the building itself and about the civil engineer who created it, Gustave Eiffel. Take advantage of the optional opportunity to ascend by elevator past the second floor to the summit of the tower.</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Eiffel Tower Elevator Tour </t>
+          <t>Title: Eiffel Tower Guided Tour - 2nd floor + optional Summit access</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17212,7 +17212,7 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>TotalReviews: 15</t>
+          <t>TotalReviews: 19</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 247361P11</t>
+          <t>PRODUCTCODE: 427087P1</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Summarized description: Don't miss the wonderful experience of climbing the Eiffel Tower. Enjoy the incredible view of the beautiful city of Paris from the top of the tower.</t>
+          <t>Summarized description: Eiffel Tower tours are fun, smart and engaging in the image of our guides. As a young team of Parisian experienced guides, we believe in small intimate and interactive groups.</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Skip-the-Line Eiffel Tower </t>
+          <t xml:space="preserve">Title: Eiffel Tower small group guided tour </t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17287,7 +17287,7 @@
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>TotalReviews: 11</t>
+          <t>TotalReviews: 17</t>
         </is>
       </c>
       <c r="B1120" t="inlineStr"/>
@@ -17302,7 +17302,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 391918P9</t>
+          <t>PRODUCTCODE: 220637P7</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17332,7 +17332,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Summarized description: Eiffel Tower Skip The Queue Ticket and Audio guide tour is designed to maximize your time at the iconic landmark. Embark on an unforgettable journey with our self-guided audio tour, your personal storyteller.</t>
+          <t>Summarized description: Meet your Spanish-speaking guide a few steps from the Eiffel Tower. As you walk, your guide will tell you the history and anecdotes about the construction of the structure.</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Skip The Queue Ticket Tour with Paris Audio Guide</t>
+          <t>Title: Eiffel Tower Spanish Guided Tour with 2nd Level Access Ticket</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -17362,7 +17362,7 @@
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 16</t>
         </is>
       </c>
       <c r="B1125" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7832P36</t>
+          <t>PRODUCTCODE: 379045P2</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17407,7 +17407,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Summarized description: Your guide will take you to the second floor on which s/he will tell you about the history of the Eiffel Tower and get a detailed description of the view. Enjoy visiting  all the way up the world's famous  monument with your guide.</t>
+          <t>Summarized description: Step into the historic elevators of the Eiffel Tower and be whisked away to dizzying heights. Panoramic views of Paris await you at every turn. Learn the Tower's Secrets with insightful commentary from our knowledgeable guides. Skip the lines and enjoy VIP treatment with our exclusive tour package.</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr"/>
@@ -17422,7 +17422,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit Access Guided Visit and Optional Cruise</t>
+          <t xml:space="preserve">Title: Eiffel Tower Elevator Tour </t>
         </is>
       </c>
       <c r="B1129" t="inlineStr"/>
@@ -17437,7 +17437,7 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 15</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 375109P2</t>
+          <t>PRODUCTCODE: 247361P11</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr"/>
@@ -17482,7 +17482,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the eiffel tower with a live guide who will tell you all about the history of one of the most iconic monuments of this world. Relax on a Seine river cruise through the City of Light.</t>
+          <t>Summarized description: Don't miss the wonderful experience of climbing the Eiffel Tower. Enjoy the incredible view of the beautiful city of Paris from the top of the tower.</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>Title: Boat Cruise River Seine Sightseeing and Guided Eiffel Tower Tour</t>
+          <t xml:space="preserve">Title: Skip-the-Line Eiffel Tower </t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>TotalReviews: 11</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 415184P100</t>
+          <t>PRODUCTCODE: 391918P9</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr"/>
@@ -17557,7 +17557,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Summarized description: The Skip-the-Line feature allows you to spend more time exploring the heights of this iconic tower. Dive deep into the captivating history of the Eiffel Tower and gain a profound understanding of its significance in Parisian culture.</t>
+          <t>Summarized description: Eiffel Tower Skip The Queue Ticket and Audio guide tour is designed to maximize your time at the iconic landmark. Embark on an unforgettable journey with our self-guided audio tour, your personal storyteller.</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Paris Skip The Line with Audio Guided Tour</t>
+          <t>Title: Eiffel Tower Skip The Queue Ticket Tour with Paris Audio Guide</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17587,7 +17587,7 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17617,7 +17617,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 419625P1</t>
+          <t>PRODUCTCODE: 7832P36</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr"/>
@@ -17632,7 +17632,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>Summarized description: Our guide will provide a captivating historical overview of the Eiffel Tower. As you pass through security, our knowledgeable host will accompany you, addressing any questions you may have along the way.</t>
+          <t>Summarized description: Your guide will take you to the second floor on which s/he will tell you about the history of the Eiffel Tower and get a detailed description of the view. Enjoy visiting  all the way up the world's famous  monument with your guide.</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr"/>
@@ -17647,7 +17647,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit (All Floors) Guided Tour by Elevator Tickets.</t>
+          <t>Title: Eiffel Tower Summit Access Guided Visit and Optional Cruise</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr"/>
@@ -17662,7 +17662,7 @@
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr"/>
@@ -17692,7 +17692,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 198319P6</t>
+          <t>PRODUCTCODE: 415184P100</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr"/>
@@ -17707,7 +17707,7 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>Summarized description: Find out more about the building itself and the civil engineer who designed it, Gustave Eiffel. Take advantage of the optional opportunity to ascend by elevator past the second floor to the summit of the tower.</t>
+          <t>Summarized description: The Skip-the-Line feature allows you to spend more time exploring the heights of this iconic tower. Dive deep into the captivating history of the Eiffel Tower and gain a profound understanding of its significance in Parisian culture.</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr"/>
@@ -17722,7 +17722,7 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>Title: Paris: Eiffel Tower Guided Tour with Optional Summit Access</t>
+          <t>Title: Eiffel Tower Paris Skip The Line with Audio Guided Tour</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr"/>
@@ -17737,7 +17737,7 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 8</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr"/>
@@ -17752,7 +17752,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr"/>
@@ -17767,7 +17767,7 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 220418P22</t>
+          <t>PRODUCTCODE: 419625P1</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr"/>
@@ -17782,7 +17782,7 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>Summarized description: Visit Paris' most iconic attraction with skip-the-line access and a tour guide. Take in the most impressive views of the city and learn about its construction and significance. Take the optional opportunity to ascend by elevator past the second floor to the summit.</t>
+          <t>Summarized description: Our guide will provide a captivating historical overview of the Eiffel Tower. As you pass through security, our knowledgeable host will accompany you, addressing any questions you may have along the way.</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr"/>
@@ -17797,7 +17797,7 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>Title: Paris: Eiffel Tower Guided Tour with Summit Access</t>
+          <t>Title: Eiffel Tower Summit (All Floors) Guided Tour by Elevator Tickets.</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr"/>
@@ -17827,7 +17827,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 64296P2</t>
+          <t>PRODUCTCODE: 198319P6</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr"/>
@@ -17857,7 +17857,7 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower needs no introduction and you are just one of millions of travellers who will visit this year. Don’t waste time and stand in line but instead join us to Skip the Line with a local, fun, licensed, English speaking guide.</t>
+          <t>Summarized description: Find out more about the building itself and the civil engineer who designed it, Gustave Eiffel. Take advantage of the optional opportunity to ascend by elevator past the second floor to the summit of the tower.</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr"/>
@@ -17872,7 +17872,7 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>Title: VIP Eiffel Tower Tour &amp; Summit Access</t>
+          <t>Title: Paris: Eiffel Tower Guided Tour with Optional Summit Access</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr"/>
@@ -17887,7 +17887,7 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr"/>
@@ -17917,7 +17917,7 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 413318P104</t>
+          <t>PRODUCTCODE: 220418P22</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr"/>
@@ -17932,7 +17932,7 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>Summarized description: Visit a meticulously recreated office of Gustave Eiffel on the 2nd floor by lift. This unique opportunity gives you a glimpse into the mind of the visionary engineer responsible for this engineering marvel. Take your time, soak in the atmosphere, and create your own unique memories.</t>
+          <t>Summarized description: Visit Paris' most iconic attraction with skip-the-line access and a tour guide. Take in the most impressive views of the city and learn about its construction and significance. Take the optional opportunity to ascend by elevator past the second floor to the summit.</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr"/>
@@ -17947,7 +17947,7 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>Title: Paris Eiffel Tower Skip the Line by lift with Audio Guide Tour</t>
+          <t>Title: Paris: Eiffel Tower Guided Tour with Summit Access</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr"/>
@@ -17962,7 +17962,7 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr"/>
@@ -17977,7 +17977,7 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr"/>
@@ -17992,7 +17992,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 456325P3</t>
+          <t>PRODUCTCODE: 64296P2</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>Summarized description: Learn all about the tower’s history from your guide, plus the famous sights you’ll see from the viewing areas. This is much more informative than if you were to ascend the tower on your own and you may even make a few new friends.</t>
+          <t>Summarized description: The Eiffel Tower needs no introduction and you are just one of millions of travellers who will visit this year. Don’t waste time and stand in line but instead join us to Skip the Line with a local, fun, licensed, English speaking guide.</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr"/>
@@ -18022,7 +18022,7 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower by Elevator with Spectacular City Views</t>
+          <t>Title: VIP Eiffel Tower Tour &amp; Summit Access</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr"/>
@@ -18037,7 +18037,7 @@
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1170" t="inlineStr"/>
@@ -18052,7 +18052,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr"/>
@@ -18067,7 +18067,7 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 320547P164</t>
+          <t>PRODUCTCODE: 413318P104</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr"/>
@@ -18082,7 +18082,7 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>Summarized description: Our private Host is here to make things easier for you. You meet your host at a designated place where our host gives you a short explaination about this famous Monument. You climb up alone once you get the tickets from the host. It's Eiffel Tower second floor with elevator ticket included.</t>
+          <t>Summarized description: Visit a meticulously recreated office of Gustave Eiffel on the 2nd floor by lift. This unique opportunity gives you a glimpse into the mind of the visionary engineer responsible for this engineering marvel. Take your time, soak in the atmosphere, and create your own unique memories.</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr"/>
@@ -18097,7 +18097,7 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower 2nd Floor Elevator Tour Eiffel with Private Host</t>
+          <t>Title: Paris Eiffel Tower Skip the Line by lift with Audio Guide Tour</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr"/>
@@ -18112,7 +18112,7 @@
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1175" t="inlineStr"/>
@@ -18127,7 +18127,7 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Museums']</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr"/>
@@ -18142,7 +18142,7 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 419625P4</t>
+          <t>PRODUCTCODE: 46334P52</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr"/>
@@ -18157,7 +18157,7 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>Summarized description: Our guide will provide a captivating historical overview of the Eiffel Tower. As you pass through security, our knowledgeable host will accompany you. The guide will have your summit (top floor) Skip-The-Line elevator tickets.</t>
+          <t>Summarized description: Join an expert local guide to climb the Eiffel Tower. Hear about the events, techniques and controversies leading to the Tower’s construction. Enjoy some of the best views over the City of Lights.</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit/All Floors Skip-The-Line Guided Tour By Lift</t>
+          <t>Title: Eiffel Tower Tour with Second floor access and timed entry</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr"/>
@@ -18187,7 +18187,7 @@
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr"/>
@@ -18202,7 +18202,7 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr"/>
@@ -18217,7 +18217,7 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 443044P1</t>
+          <t>PRODUCTCODE: 456325P3</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr"/>
@@ -18232,7 +18232,7 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>Summarized description: Find out more about the building itself and the civil engineer that designed it, Gustave Eiffel. Take advantage of the optional opportunity to ascend by elevator past the second floor to the summit of the tower.</t>
+          <t>Summarized description: Learn all about the tower’s history from your guide, plus the famous sights you’ll see from the viewing areas. This is much more informative than if you were to ascend the tower on your own and you may even make a few new friends.</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr"/>
@@ -18247,7 +18247,7 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>Title: Paris: Eiffel Tower Guided Tour with Optional Summit Access</t>
+          <t>Title: Eiffel Tower by Elevator with Spectacular City Views</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr"/>
@@ -18262,7 +18262,7 @@
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr"/>
@@ -18277,7 +18277,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr"/>
@@ -18292,7 +18292,7 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 75761P25</t>
+          <t>PRODUCTCODE: 320547P164</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr"/>
@@ -18307,7 +18307,7 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>Summarized description: Paris Eiffel Tower Priority Access with Host. 1.3-hour tour of the 2nd Floor. Champagne bar at the top of the tower.</t>
+          <t>Summarized description: Our private Host is here to make things easier for you. You meet your host at a designated place where our host gives you a short explaination about this famous Monument. You climb up alone once you get the tickets from the host. It's Eiffel Tower second floor with elevator ticket included.</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr"/>
@@ -18322,7 +18322,7 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Paris Eiffel Tower Priority Access With Tour Guide </t>
+          <t>Title: Eiffel Tower 2nd Floor Elevator Tour Eiffel with Private Host</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr"/>
@@ -18352,7 +18352,7 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Dining Experiences', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr"/>
@@ -18367,7 +18367,7 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239343P42</t>
+          <t>PRODUCTCODE: 419625P4</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr"/>
@@ -18382,7 +18382,7 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the tower's rich history, engineering, and current role in Parisian society. From above, take in a unique perspective of Paris and its landmarks.</t>
+          <t>Summarized description: Our guide will provide a captivating historical overview of the Eiffel Tower. As you pass through security, our knowledgeable host will accompany you. The guide will have your summit (top floor) Skip-The-Line elevator tickets.</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr"/>
@@ -18397,7 +18397,7 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>Title: Paris Most Famous View Of Eiffel Tower Summit With Elevator Tour</t>
+          <t>Title: Eiffel Tower Summit/All Floors Skip-The-Line Guided Tour By Lift</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr"/>
@@ -18427,7 +18427,7 @@
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr"/>
@@ -18442,7 +18442,7 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 85210P33</t>
+          <t>PRODUCTCODE: 7845P53</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr"/>
@@ -18457,7 +18457,7 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>Summarized description: Book your priority access ticket to climb the Eiffel Tower either by day or by night. Enjoy panoramic views across the city and admire famous Parisian landmarks such as Notre-Dame Cathedral.</t>
+          <t>Summarized description: Follow your guide to the Eiffel Tower's elevators, and enjoy many stories, anecdotes, and even insider tips. More importantly, you'll get to enjoy the added value of individual complementary tablets, as your guide will illustrate his fascinating stories with archive videos, pictures and augmented reality.</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr"/>
@@ -18472,7 +18472,7 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>Title: Eiffel tower with audio guide and PRIORITY ACCESS</t>
+          <t>Title: Eiffel Tower Interactive Experience with Summit Level Access</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr"/>
@@ -18487,7 +18487,7 @@
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr"/>
@@ -18517,7 +18517,7 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 275837P12</t>
+          <t>PRODUCTCODE: 443044P1</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr"/>
@@ -18532,7 +18532,7 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>Summarized description: Guests book this experience because their guide handles everything. Your tickets are acquired on site by your guide and it takes you up to the 2nd level. For an extra experience, you can take the stairs as you descend.</t>
+          <t>Summarized description: Find out more about the building itself and the civil engineer that designed it, Gustave Eiffel. Take advantage of the optional opportunity to ascend by elevator past the second floor to the summit of the tower.</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr"/>
@@ -18547,7 +18547,7 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower visit with Experienced Guide | Take the Elevator to the 2nd Floor</t>
+          <t>Title: Paris: Eiffel Tower Guided Tour with Optional Summit Access</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr"/>
@@ -18562,7 +18562,7 @@
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1205" t="inlineStr"/>
@@ -18592,7 +18592,7 @@
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 419625P3</t>
+          <t>PRODUCTCODE: 75761P25</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr"/>
@@ -18607,7 +18607,7 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>Summarized description: Our guide will provide a captivating historical overview of the Eiffel Tower. As you pass through security, our knowledgeable host will accompany you. The guide will have your elevator tickets and hand them to you.</t>
+          <t>Summarized description: Paris Eiffel Tower Priority Access with Host. 1.3-hour tour of the 2nd Floor. Champagne bar at the top of the tower.</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr"/>
@@ -18622,7 +18622,7 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Skip-the-Line 2nd Floor Guided Tour by Elevator</t>
+          <t xml:space="preserve">Title: Paris Eiffel Tower Priority Access With Tour Guide </t>
         </is>
       </c>
       <c r="B1209" t="inlineStr"/>
@@ -18637,7 +18637,7 @@
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr"/>
@@ -18652,7 +18652,7 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['City Tours', 'Dining Experiences', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5460P21</t>
+          <t>PRODUCTCODE: 239343P42</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr"/>
@@ -18682,7 +18682,7 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>Summarized description: Choose from a guided tour of the 2nd floor or the summit. Hear from your handpicked guide about its origins and the secrets behind the construction of this architectural masterpiece.</t>
+          <t>Summarized description: Learn about the tower's rich history, engineering, and current role in Parisian society. From above, take in a unique perspective of Paris and its landmarks.</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr"/>
@@ -18697,7 +18697,7 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Guided Tour by Elevator in English</t>
+          <t>Title: Paris Most Famous View Of Eiffel Tower Summit With Elevator Tour</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr"/>
@@ -18712,7 +18712,7 @@
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr"/>
@@ -18727,7 +18727,7 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Modern Attractions']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr"/>
@@ -18742,7 +18742,7 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 320547P459</t>
+          <t>PRODUCTCODE: 85210P33</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr"/>
@@ -18757,7 +18757,7 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>Summarized description: Paris is beautiful but it's challenging to visit Paris in a short period. Many people don't get time to visit Eiffel Tower in Paris which is a pity. We will pick you up from hotel with a private vehicle &amp; take you up to the 3rd floor. Our expert guide meets and leads you around to Eiffle tower and tells you about it's history. Your guide will also buy you tickets of Eiffler tower Top floor (summit with elevator)</t>
+          <t>Summarized description: Book your priority access ticket to climb the Eiffel Tower either by day or by night. Enjoy panoramic views across the city and admire famous Parisian landmarks such as Notre-Dame Cathedral.</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr"/>
@@ -18772,7 +18772,7 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Eiffel Tower Private Top floor Summit Tour with Hotel Pick up and private guide </t>
+          <t>Title: Eiffel tower with audio guide and PRIORITY ACCESS</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr"/>
@@ -18787,7 +18787,7 @@
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr"/>
@@ -18817,7 +18817,7 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 243313P23</t>
+          <t>PRODUCTCODE: 275837P12</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>Summarized description:  skip-the-line tickets give you access to the 2nd level of the Eiffel Tower. Check out stunning Parisian landmarks such as the Champs Elysees, Notre Dame, Montmartre, Seine River, and so on.</t>
+          <t>Summarized description: Guests book this experience because their guide handles everything. Your tickets are acquired on site by your guide and it takes you up to the 2nd level. For an extra experience, you can take the stairs as you descend.</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr"/>
@@ -18847,7 +18847,7 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Eiffel Tower Skip the Line Experience : 2nd Floor or SUMMIT with Lift Access </t>
+          <t>Title: Eiffel Tower visit with Experienced Guide | Take the Elevator to the 2nd Floor</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr"/>
@@ -18862,7 +18862,7 @@
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr"/>
@@ -18877,7 +18877,7 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr"/>
@@ -18892,7 +18892,7 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 375109P4</t>
+          <t>PRODUCTCODE: 419625P3</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr"/>
@@ -18907,7 +18907,7 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>Summarized description: Paris is known worldwide for the Louvre Museum, Notre-Dame cathedral, and the Eiffel tower. It has a reputation of being a romantic and cultural city. The city is also known for its high-quality gastronomy and the terraces of its cafés.</t>
+          <t>Summarized description: Our guide will provide a captivating historical overview of the Eiffel Tower. As you pass through security, our knowledgeable host will accompany you. The guide will have your elevator tickets and hand them to you.</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr"/>
@@ -18922,7 +18922,7 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Elevator Visit with a Guide and City Bus Tour</t>
+          <t>Title: Eiffel Tower Skip-the-Line 2nd Floor Guided Tour by Elevator</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr"/>
@@ -18952,7 +18952,7 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Dining Experiences', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr"/>
@@ -18967,7 +18967,7 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 248877P36</t>
+          <t>PRODUCTCODE: 5460P21</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr"/>
@@ -18982,7 +18982,7 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>Summarized description: Take advantage of priority access to the 2nd floor of the Eiffel Tower with a expert English speaking guide. Enjoy the view of Paris from above and add access to go all the way to the summit.</t>
+          <t>Summarized description: Choose from a guided tour of the 2nd floor or the summit. Hear from your handpicked guide about its origins and the secrets behind the construction of this architectural masterpiece.</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Guided Tour with Summit or Second Floor Priority Access</t>
+          <t>Title: Eiffel Tower Guided Tour by Elevator in English</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr"/>
@@ -19027,7 +19027,7 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Museums']</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr"/>
@@ -19042,7 +19042,7 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 415184P116</t>
+          <t>PRODUCTCODE: 320547P459</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr"/>
@@ -19057,7 +19057,7 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>Summarized description: Our package includes Skip-the-Line access, granting you priority entry to the Eiffel Tower. Our knowledgeable guides are passionate about the history and stories behind the iconic Iron Lady.</t>
+          <t>Summarized description: Paris is beautiful but it's challenging to visit Paris in a short period. Many people don't get time to visit Eiffel Tower in Paris which is a pity. We will pick you up from hotel with a private vehicle &amp; take you up to the 3rd floor. Our expert guide meets and leads you around to Eiffle tower and tells you about it's history. Your guide will also buy you tickets of Eiffler tower Top floor (summit with elevator)</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr"/>
@@ -19072,7 +19072,7 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>Title: Paris Eiffel Tower Skip The Line Ticket with English Guided Tour</t>
+          <t xml:space="preserve">Title: Eiffel Tower Private Top floor Summit Tour with Hotel Pick up and private guide </t>
         </is>
       </c>
       <c r="B1239" t="inlineStr"/>
@@ -19102,7 +19102,7 @@
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr"/>
@@ -19117,7 +19117,7 @@
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 375109P30</t>
+          <t>PRODUCTCODE: 243313P23</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr"/>
@@ -19132,7 +19132,7 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>Summarized description: Hear the history and legends linked to the Paris icon as a guide accompanies you to the second level. Get help to identify the different monuments at your feet and upgrade to access the summit and climb even higher.</t>
+          <t>Summarized description:  skip-the-line tickets give you access to the 2nd level of the Eiffel Tower. Check out stunning Parisian landmarks such as the Champs Elysees, Notre Dame, Montmartre, Seine River, and so on.</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr"/>
@@ -19147,7 +19147,7 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>Title: Morning Eiffel Tower tour with a guide and elevator access</t>
+          <t xml:space="preserve">Title: Eiffel Tower Skip the Line Experience : 2nd Floor or SUMMIT with Lift Access </t>
         </is>
       </c>
       <c r="B1244" t="inlineStr"/>
@@ -19177,7 +19177,7 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr"/>
@@ -19192,7 +19192,7 @@
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 268768P59</t>
+          <t>PRODUCTCODE: 375109P4</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr"/>
@@ -19207,7 +19207,7 @@
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>Summarized description: Discover a meticulously recreated office of Gustave Eiffel on the 2nd floor, accessed by lift. This exclusive opportunity provides insight into the mind of the visionary engineer responsible for this remarkable feat of engineering.</t>
+          <t>Summarized description: Paris is known worldwide for the Louvre Museum, Notre-Dame cathedral, and the Eiffel tower. It has a reputation of being a romantic and cultural city. The city is also known for its high-quality gastronomy and the terraces of its cafés.</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr"/>
@@ -19222,7 +19222,7 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Skip the Queue Ticket by lift and Audio Guide Tour</t>
+          <t>Title: Eiffel Tower Elevator Visit with a Guide and City Bus Tour</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr"/>
@@ -19252,7 +19252,7 @@
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr"/>
@@ -19267,7 +19267,7 @@
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 320547P787</t>
+          <t>PRODUCTCODE: 248877P36</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr"/>
@@ -19282,7 +19282,7 @@
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>Summarized description: Our host will give you a brief history of the Eiffel Tower. Then you follow the host to the complex's entrance. As you pass through security, you join our host in line. You must wait in line with our host, who will pick up the summit (top floor) with elevator tickets.</t>
+          <t>Summarized description: Take advantage of priority access to the 2nd floor of the Eiffel Tower with a expert English speaking guide. Enjoy the view of Paris from above and add access to go all the way to the summit.</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr"/>
@@ -19297,7 +19297,7 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Private Tour in Eiffel Tower with Guide and Pick up </t>
+          <t>Title: Eiffel Tower Guided Tour with Summit or Second Floor Priority Access</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr"/>
@@ -19342,7 +19342,7 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 420543P3</t>
+          <t>PRODUCTCODE: 415184P116</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr"/>
@@ -19357,7 +19357,7 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>Summarized description: The tour includes curated spots to discover within the Eiffel Tower, offering a 360-degree view that captures the essence of Paris. Customize your adventure upon request before the tour.</t>
+          <t>Summarized description: Our package includes Skip-the-Line access, granting you priority entry to the Eiffel Tower. Our knowledgeable guides are passionate about the history and stories behind the iconic Iron Lady.</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr"/>
@@ -19372,7 +19372,7 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>Title: 2-Hour Private Tour in Eiffel Tower with 360-Degree View</t>
+          <t>Title: Paris Eiffel Tower Skip The Line Ticket with English Guided Tour</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr"/>
@@ -19387,7 +19387,7 @@
     <row r="1260">
       <c r="A1260" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1260" t="inlineStr"/>
@@ -19402,7 +19402,7 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr"/>
@@ -19417,7 +19417,7 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 157275P22</t>
+          <t>PRODUCTCODE: 375109P30</t>
         </is>
       </c>
       <c r="B1262" t="inlineStr"/>
@@ -19432,7 +19432,7 @@
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>Summarized description: Paris Eiffel Tower is one of the world's most famous monuments. Skip the line with a 1.3-hour guided tour of the second floor. After the tour, continue to the summit for stellar views of the City of Lights.</t>
+          <t>Summarized description: Hear the history and legends linked to the Paris icon as a guide accompanies you to the second level. Get help to identify the different monuments at your feet and upgrade to access the summit and climb even higher.</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr"/>
@@ -19447,7 +19447,7 @@
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Paris Eiffel Tower Skip-line Priority Access With Tour Guide </t>
+          <t>Title: Morning Eiffel Tower tour with a guide and elevator access</t>
         </is>
       </c>
       <c r="B1264" t="inlineStr"/>
@@ -19462,7 +19462,7 @@
     <row r="1265">
       <c r="A1265" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1265" t="inlineStr"/>
@@ -19477,7 +19477,7 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1266" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 248877P54</t>
+          <t>PRODUCTCODE: 268768P59</t>
         </is>
       </c>
       <c r="B1267" t="inlineStr"/>
@@ -19507,7 +19507,7 @@
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower is one of the most famous landmarks in the world. It is located in the centre of the French capital, Paris. The tower was built in the early 1900s and is now a tourist attraction.</t>
+          <t>Summarized description: Discover a meticulously recreated office of Gustave Eiffel on the 2nd floor, accessed by lift. This exclusive opportunity provides insight into the mind of the visionary engineer responsible for this remarkable feat of engineering.</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr"/>
@@ -19522,7 +19522,7 @@
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower - Paris Icon Tour : Direct Access to the Second Floor Guided Tour</t>
+          <t>Title: Eiffel Tower Skip the Queue Ticket by lift and Audio Guide Tour</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr"/>
@@ -19537,7 +19537,7 @@
     <row r="1270">
       <c r="A1270" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1270" t="inlineStr"/>
@@ -19552,7 +19552,7 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr"/>
@@ -19567,7 +19567,7 @@
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 387432P34</t>
+          <t>PRODUCTCODE: 320547P787</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr"/>
@@ -19582,7 +19582,7 @@
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>Summarized description: Hear the history and legends linked to the Paris icon as a guide accompanies you to the second level. Get help to identify the different monuments at your feet and upgrade to access the summit and climb even higher.</t>
+          <t>Summarized description: Our host will give you a brief history of the Eiffel Tower. Then you follow the host to the complex's entrance. As you pass through security, you join our host in line. You must wait in line with our host, who will pick up the summit (top floor) with elevator tickets.</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr"/>
@@ -19597,7 +19597,7 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>Title: 2 Hour Eiffel Tower Morning Guided Tour</t>
+          <t xml:space="preserve">Title: Private Tour in Eiffel Tower with Guide and Pick up </t>
         </is>
       </c>
       <c r="B1274" t="inlineStr"/>
@@ -19612,7 +19612,7 @@
     <row r="1275">
       <c r="A1275" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1275" t="inlineStr"/>
@@ -19627,7 +19627,7 @@
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1276" t="inlineStr"/>
@@ -19642,7 +19642,7 @@
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 112782P31</t>
+          <t>PRODUCTCODE: 420543P3</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower is known to be the symbol of the city of Paris. You will get to know all about the building itself and about the civil engineer who created it. The view over the city will take your breath away.</t>
+          <t>Summarized description: The tour includes curated spots to discover within the Eiffel Tower, offering a 360-degree view that captures the essence of Paris. Customize your adventure upon request before the tour.</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr"/>
@@ -19672,7 +19672,7 @@
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>Title: Paris: Eiffel Tower Guided Tour with Summit Access</t>
+          <t>Title: 2-Hour Private Tour in Eiffel Tower with 360-Degree View</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr"/>
@@ -19702,7 +19702,7 @@
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr"/>
@@ -19717,7 +19717,7 @@
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 374060P11</t>
+          <t>PRODUCTCODE: 157275P22</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr"/>
@@ -19732,7 +19732,7 @@
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>Summarized description: After the security entrance, you can skip the line with our Guide. Climb up together on the stairs, up until to the second floor. Learn more about the architecture and history of the Eiffel Tower.</t>
+          <t>Summarized description: Paris Eiffel Tower is one of the world's most famous monuments. Skip the line with a 1.3-hour guided tour of the second floor. After the tour, continue to the summit for stellar views of the City of Lights.</t>
         </is>
       </c>
       <c r="B1283" t="inlineStr"/>
@@ -19747,7 +19747,7 @@
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>Title: Guided Tour to the Second Floor off Eiffel Tower in Paris</t>
+          <t xml:space="preserve">Title: Paris Eiffel Tower Skip-line Priority Access With Tour Guide </t>
         </is>
       </c>
       <c r="B1284" t="inlineStr"/>
@@ -19777,7 +19777,7 @@
     <row r="1286">
       <c r="A1286" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1286" t="inlineStr"/>
@@ -19792,7 +19792,7 @@
     <row r="1287">
       <c r="A1287" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 125051P3</t>
+          <t>PRODUCTCODE: 248877P54</t>
         </is>
       </c>
       <c r="B1287" t="inlineStr"/>
@@ -19807,7 +19807,7 @@
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>Summarized description: Take an insider's tour of the summit with a guide. Get unparalleled views of Parisian landmarks like Montmartre, the Louvre Museum and more. Get the lowdown on how and why the tower was built.</t>
+          <t>Summarized description: The Eiffel Tower is one of the most famous landmarks in the world. It is located in the centre of the French capital, Paris. The tower was built in the early 1900s and is now a tourist attraction.</t>
         </is>
       </c>
       <c r="B1288" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t>Title: Tickets for Eiffel Tower - Summit: Guided Visit</t>
+          <t>Title: Eiffel Tower - Paris Icon Tour : Direct Access to the Second Floor Guided Tour</t>
         </is>
       </c>
       <c r="B1289" t="inlineStr"/>
@@ -19852,7 +19852,7 @@
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1291" t="inlineStr"/>
@@ -19867,7 +19867,7 @@
     <row r="1292">
       <c r="A1292" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7845P52</t>
+          <t>PRODUCTCODE: 387432P34</t>
         </is>
       </c>
       <c r="B1292" t="inlineStr"/>
@@ -19882,7 +19882,7 @@
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>Summarized description: Join your host and enjoy a one of a kind Eiffel Tower tour, combining history and technology. Enjoy many stories, anecdotes and even insider tips, all brought to you by your passionate guide. More importantly, you'll get to enjoy the added value of individual complementary tablets.</t>
+          <t>Summarized description: Hear the history and legends linked to the Paris icon as a guide accompanies you to the second level. Get help to identify the different monuments at your feet and upgrade to access the summit and climb even higher.</t>
         </is>
       </c>
       <c r="B1293" t="inlineStr"/>
@@ -19897,7 +19897,7 @@
     <row r="1294">
       <c r="A1294" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Interactive Experience with 2nd Level Access</t>
+          <t>Title: 2 Hour Eiffel Tower Morning Guided Tour</t>
         </is>
       </c>
       <c r="B1294" t="inlineStr"/>
@@ -19927,7 +19927,7 @@
     <row r="1296">
       <c r="A1296" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1296" t="inlineStr"/>
@@ -19942,7 +19942,7 @@
     <row r="1297">
       <c r="A1297" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 46334P64</t>
+          <t>PRODUCTCODE: 112782P31</t>
         </is>
       </c>
       <c r="B1297" t="inlineStr"/>
@@ -19957,7 +19957,7 @@
     <row r="1298">
       <c r="A1298" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy pre-booked timed entry to the Eiffel Tower. Top off your visit with the best macarons in Paris as you savor the spectacular views over the city.</t>
+          <t>Summarized description: The Eiffel Tower is known to be the symbol of the city of Paris. You will get to know all about the building itself and about the civil engineer who created it. The view over the city will take your breath away.</t>
         </is>
       </c>
       <c r="B1298" t="inlineStr"/>
@@ -19972,7 +19972,7 @@
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Timed Access Guided Tour with Macarons</t>
+          <t>Title: Paris: Eiffel Tower Guided Tour with Summit Access</t>
         </is>
       </c>
       <c r="B1299" t="inlineStr"/>
@@ -20002,7 +20002,7 @@
     <row r="1301">
       <c r="A1301" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1301" t="inlineStr"/>
@@ -20017,7 +20017,7 @@
     <row r="1302">
       <c r="A1302" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 452894P1</t>
+          <t>PRODUCTCODE: 374060P11</t>
         </is>
       </c>
       <c r="B1302" t="inlineStr"/>
@@ -20032,7 +20032,7 @@
     <row r="1303">
       <c r="A1303" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the Eiffel Tower with a young Artist from Paris, with joy and good humor. Learn about the history of M. Gustave Eiffels Tower and its construction. Enjoy the amazing view and its beautiful landscape from the second floor.</t>
+          <t>Summarized description: After the security entrance, you can skip the line with our Guide. Climb up together on the stairs, up until to the second floor. Learn more about the architecture and history of the Eiffel Tower.</t>
         </is>
       </c>
       <c r="B1303" t="inlineStr"/>
@@ -20047,7 +20047,7 @@
     <row r="1304">
       <c r="A1304" t="inlineStr">
         <is>
-          <t>Title: 2 Hours Eiffel Tower Guided Tour</t>
+          <t>Title: Guided Tour to the Second Floor off Eiffel Tower in Paris</t>
         </is>
       </c>
       <c r="B1304" t="inlineStr"/>
@@ -20077,7 +20077,7 @@
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1306" t="inlineStr"/>
@@ -20092,7 +20092,7 @@
     <row r="1307">
       <c r="A1307" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 415184P115</t>
+          <t>PRODUCTCODE: 125051P3</t>
         </is>
       </c>
       <c r="B1307" t="inlineStr"/>
@@ -20107,7 +20107,7 @@
     <row r="1308">
       <c r="A1308" t="inlineStr">
         <is>
-          <t>Summarized description: With our Skip-the-Line priority access, you'll breeze past the crowds and be whisked directly to the heart of the Eiffel Tower. With our audio-guided tour, you will get an insider's perspective that adds an extra layer of wonder.</t>
+          <t>Summarized description: Take an insider's tour of the summit with a guide. Get unparalleled views of Parisian landmarks like Montmartre, the Louvre Museum and more. Get the lowdown on how and why the tower was built.</t>
         </is>
       </c>
       <c r="B1308" t="inlineStr"/>
@@ -20122,7 +20122,7 @@
     <row r="1309">
       <c r="A1309" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Skip The Line Ticket by Lift &amp; Free Audio Guide Tour</t>
+          <t>Title: Tickets for Eiffel Tower - Summit: Guided Visit</t>
         </is>
       </c>
       <c r="B1309" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
     <row r="1311">
       <c r="A1311" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1311" t="inlineStr"/>
@@ -20167,7 +20167,7 @@
     <row r="1312">
       <c r="A1312" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 32142P56</t>
+          <t>PRODUCTCODE: 7845P52</t>
         </is>
       </c>
       <c r="B1312" t="inlineStr"/>
@@ -20182,7 +20182,7 @@
     <row r="1313">
       <c r="A1313" t="inlineStr">
         <is>
-          <t>Summarized description: Small-Group Tour of the Eiffel Tower allows you to go straight to the security lines, climb up to the different levels of the tower. Tailor-made guided tour dedicated to kids and includes a basket of organic snacks and beverages.</t>
+          <t>Summarized description: Join your host and enjoy a one of a kind Eiffel Tower tour, combining history and technology. Enjoy many stories, anecdotes and even insider tips, all brought to you by your passionate guide. More importantly, you'll get to enjoy the added value of individual complementary tablets.</t>
         </is>
       </c>
       <c r="B1313" t="inlineStr"/>
@@ -20197,7 +20197,7 @@
     <row r="1314">
       <c r="A1314" t="inlineStr">
         <is>
-          <t>Title: Family-Friendly Eiffel Tower Small-Group Tour</t>
+          <t>Title: Eiffel Tower Interactive Experience with 2nd Level Access</t>
         </is>
       </c>
       <c r="B1314" t="inlineStr"/>
@@ -20227,7 +20227,7 @@
     <row r="1316">
       <c r="A1316" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Dining Experiences', 'Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1316" t="inlineStr"/>
@@ -20242,7 +20242,7 @@
     <row r="1317">
       <c r="A1317" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 32142P55</t>
+          <t>PRODUCTCODE: 46334P64</t>
         </is>
       </c>
       <c r="B1317" t="inlineStr"/>
@@ -20257,7 +20257,7 @@
     <row r="1318">
       <c r="A1318" t="inlineStr">
         <is>
-          <t>Summarized description: Explore Paris' main attractions with your beloved ones. The tour includes entrance tickets to the Eiffel Tower that will allow your group to go straight to the security lines.</t>
+          <t>Summarized description: Enjoy pre-booked timed entry to the Eiffel Tower. Top off your visit with the best macarons in Paris as you savor the spectacular views over the city.</t>
         </is>
       </c>
       <c r="B1318" t="inlineStr"/>
@@ -20272,7 +20272,7 @@
     <row r="1319">
       <c r="A1319" t="inlineStr">
         <is>
-          <t>Title: Family-Friendly Eiffel Tower Private Tour</t>
+          <t>Title: Eiffel Tower Timed Access Guided Tour with Macarons</t>
         </is>
       </c>
       <c r="B1319" t="inlineStr"/>
@@ -20302,7 +20302,7 @@
     <row r="1321">
       <c r="A1321" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Dining Experiences', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1321" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
     <row r="1322">
       <c r="A1322" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9205P14</t>
+          <t>PRODUCTCODE: 452894P1</t>
         </is>
       </c>
       <c r="B1322" t="inlineStr"/>
@@ -20332,7 +20332,7 @@
     <row r="1323">
       <c r="A1323" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Paris' most famous landmark with a local and passionate guide. Ticket includes skip-the-line access to the second level of the Eiffel Tower.</t>
+          <t>Summarized description: Discover the Eiffel Tower with a young Artist from Paris, with joy and good humor. Learn about the history of M. Gustave Eiffels Tower and its construction. Enjoy the amazing view and its beautiful landscape from the second floor.</t>
         </is>
       </c>
       <c r="B1323" t="inlineStr"/>
@@ -20347,7 +20347,7 @@
     <row r="1324">
       <c r="A1324" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Eiffel Tower Tour and Summit Access by elevator-Group Option</t>
+          <t>Title: 2 Hours Eiffel Tower Guided Tour</t>
         </is>
       </c>
       <c r="B1324" t="inlineStr"/>
@@ -20377,7 +20377,7 @@
     <row r="1326">
       <c r="A1326" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1326" t="inlineStr"/>
@@ -20392,7 +20392,7 @@
     <row r="1327">
       <c r="A1327" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 197814P1</t>
+          <t>PRODUCTCODE: 415184P115</t>
         </is>
       </c>
       <c r="B1327" t="inlineStr"/>
@@ -20407,7 +20407,7 @@
     <row r="1328">
       <c r="A1328" t="inlineStr">
         <is>
-          <t>Summarized description: Learn history of Gustave Eiffel and the tower's construction. See Paris from 300 meters high for a tour from the sky. Toast your arrival at the top at the famous champagne bar.</t>
+          <t>Summarized description: With our Skip-the-Line priority access, you'll breeze past the crowds and be whisked directly to the heart of the Eiffel Tower. With our audio-guided tour, you will get an insider's perspective that adds an extra layer of wonder.</t>
         </is>
       </c>
       <c r="B1328" t="inlineStr"/>
@@ -20422,7 +20422,7 @@
     <row r="1329">
       <c r="A1329" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Tour with Summit Option</t>
+          <t>Title: Eiffel Tower Skip The Line Ticket by Lift &amp; Free Audio Guide Tour</t>
         </is>
       </c>
       <c r="B1329" t="inlineStr"/>
@@ -20452,7 +20452,7 @@
     <row r="1331">
       <c r="A1331" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1331" t="inlineStr"/>
@@ -20467,7 +20467,7 @@
     <row r="1332">
       <c r="A1332" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 445693P5</t>
+          <t>PRODUCTCODE: 32142P56</t>
         </is>
       </c>
       <c r="B1332" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
     <row r="1333">
       <c r="A1333" t="inlineStr">
         <is>
-          <t>Summarized description: Hear the history and legends behind the Paris icon as a guide accompanies you up to the second level. Get help identifying the monuments below, and upgrade for summit access.</t>
+          <t>Summarized description: Small-Group Tour of the Eiffel Tower allows you to go straight to the security lines, climb up to the different levels of the tower. Tailor-made guided tour dedicated to kids and includes a basket of organic snacks and beverages.</t>
         </is>
       </c>
       <c r="B1333" t="inlineStr"/>
@@ -20497,7 +20497,7 @@
     <row r="1334">
       <c r="A1334" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Paris Eiffel Tower Tour by Elevator </t>
+          <t>Title: Family-Friendly Eiffel Tower Small-Group Tour</t>
         </is>
       </c>
       <c r="B1334" t="inlineStr"/>
@@ -20527,7 +20527,7 @@
     <row r="1336">
       <c r="A1336" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Dining Experiences', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1336" t="inlineStr"/>
@@ -20542,7 +20542,7 @@
     <row r="1337">
       <c r="A1337" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9386P48</t>
+          <t>PRODUCTCODE: 32142P55</t>
         </is>
       </c>
       <c r="B1337" t="inlineStr"/>
@@ -20557,7 +20557,7 @@
     <row r="1338">
       <c r="A1338" t="inlineStr">
         <is>
-          <t>Summarized description: With our ticket to the Eiffel Tower with priority access, we will avoid the famous lines and go up by elevator to the second floor. There we will live one of the most beautiful moments of the walk, enjoying the most spectacular views of Paris.</t>
+          <t>Summarized description: Explore Paris' main attractions with your beloved ones. The tour includes entrance tickets to the Eiffel Tower that will allow your group to go straight to the security lines.</t>
         </is>
       </c>
       <c r="B1338" t="inlineStr"/>
@@ -20572,7 +20572,7 @@
     <row r="1339">
       <c r="A1339" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Tour</t>
+          <t>Title: Family-Friendly Eiffel Tower Private Tour</t>
         </is>
       </c>
       <c r="B1339" t="inlineStr"/>
@@ -20602,7 +20602,7 @@
     <row r="1341">
       <c r="A1341" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1341" t="inlineStr"/>
@@ -20617,7 +20617,7 @@
     <row r="1342">
       <c r="A1342" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 183842P3</t>
+          <t>PRODUCTCODE: 9205P14</t>
         </is>
       </c>
       <c r="B1342" t="inlineStr"/>
@@ -20632,7 +20632,7 @@
     <row r="1343">
       <c r="A1343" t="inlineStr">
         <is>
-          <t>Summarized description: A unique experience, taking the elevator to the second floor and then the summit. Guided admission ticket to the Eiffel Tower. Enjoying panoramic view from both the summit and the first floor.</t>
+          <t>Summarized description: Discover Paris' most famous landmark with a local and passionate guide. Ticket includes skip-the-line access to the second level of the Eiffel Tower.</t>
         </is>
       </c>
       <c r="B1343" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
     <row r="1344">
       <c r="A1344" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Guided Tour Eiffel Tower elevator with Host </t>
+          <t>Title: Skip the Line: Eiffel Tower Tour and Summit Access by elevator-Group Option</t>
         </is>
       </c>
       <c r="B1344" t="inlineStr"/>
@@ -20677,7 +20677,7 @@
     <row r="1346">
       <c r="A1346" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1346" t="inlineStr"/>
@@ -20692,7 +20692,7 @@
     <row r="1347">
       <c r="A1347" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 458844P1</t>
+          <t>PRODUCTCODE: 197814P1</t>
         </is>
       </c>
       <c r="B1347" t="inlineStr"/>
@@ -20707,7 +20707,7 @@
     <row r="1348">
       <c r="A1348" t="inlineStr">
         <is>
-          <t>Summarized description: Make the most of this Viator Eiffel Tower ticket. Enjoy hassle-free entry to one of the world’s busiest monuments. Listen as your host adds colourful history and facts to the sights below.</t>
+          <t>Summarized description: Learn history of Gustave Eiffel and the tower's construction. See Paris from 300 meters high for a tour from the sky. Toast your arrival at the top at the famous champagne bar.</t>
         </is>
       </c>
       <c r="B1348" t="inlineStr"/>
@@ -20722,7 +20722,7 @@
     <row r="1349">
       <c r="A1349" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower with Host 2nd Floor access with elevator</t>
+          <t>Title: Eiffel Tower Tour with Summit Option</t>
         </is>
       </c>
       <c r="B1349" t="inlineStr"/>
@@ -20752,7 +20752,7 @@
     <row r="1351">
       <c r="A1351" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1351" t="inlineStr"/>
@@ -20767,7 +20767,7 @@
     <row r="1352">
       <c r="A1352" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 248877P42</t>
+          <t>PRODUCTCODE: 445693P5</t>
         </is>
       </c>
       <c r="B1352" t="inlineStr"/>
@@ -20782,7 +20782,7 @@
     <row r="1353">
       <c r="A1353" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower is a wrought iron lattice tower on the Champ de Mars in Paris, France. Enjoy direct access before admiring exceptional views of Paris. Take a thrilling trip to the summit or second level with a professional guide.</t>
+          <t>Summarized description: Hear the history and legends behind the Paris icon as a guide accompanies you up to the second level. Get help identifying the monuments below, and upgrade for summit access.</t>
         </is>
       </c>
       <c r="B1353" t="inlineStr"/>
@@ -20797,7 +20797,7 @@
     <row r="1354">
       <c r="A1354" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit or 2nd Floor Direct Access Guided Tour (Small Group)</t>
+          <t xml:space="preserve">Title: Paris Eiffel Tower Tour by Elevator </t>
         </is>
       </c>
       <c r="B1354" t="inlineStr"/>
@@ -20827,7 +20827,7 @@
     <row r="1356">
       <c r="A1356" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1356" t="inlineStr"/>
@@ -20842,7 +20842,7 @@
     <row r="1357">
       <c r="A1357" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 248877P47</t>
+          <t>PRODUCTCODE: 423194P1</t>
         </is>
       </c>
       <c r="B1357" t="inlineStr"/>
@@ -20857,7 +20857,7 @@
     <row r="1358">
       <c r="A1358" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower is one of the most visited tourist attractions in the world. It is located on the banks of the River Seine in Paris, France.</t>
+          <t>Summarized description: Visit the Eiffel Tower with this entry ticket and marvel at spectacular views of Paris. Enjoy access to the 1st and 2nd floors by elevator. Hear the history and legends behind the Paris icon.</t>
         </is>
       </c>
       <c r="B1358" t="inlineStr"/>
@@ -20872,7 +20872,7 @@
     <row r="1359">
       <c r="A1359" t="inlineStr">
         <is>
-          <t>Title: Paris Eiffel Tower Experience (Access to 2nd Floor)</t>
+          <t>Title: Eiffel Tower Elevator Guided Tour with Summit Access</t>
         </is>
       </c>
       <c r="B1359" t="inlineStr"/>
@@ -20902,7 +20902,7 @@
     <row r="1361">
       <c r="A1361" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1361" t="inlineStr"/>
@@ -20917,7 +20917,7 @@
     <row r="1362">
       <c r="A1362" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5717P11</t>
+          <t>PRODUCTCODE: 183842P3</t>
         </is>
       </c>
       <c r="B1362" t="inlineStr"/>
@@ -20932,7 +20932,7 @@
     <row r="1363">
       <c r="A1363" t="inlineStr">
         <is>
-          <t>Summarized description: Discover a new side of the Eiffel Tower and her secrets. Enjoy a 90-minute guided tour to discover a newside of the tower and its secrets.</t>
+          <t>Summarized description: A unique experience, taking the elevator to the second floor and then the summit. Guided admission ticket to the Eiffel Tower. Enjoying panoramic view from both the summit and the first floor.</t>
         </is>
       </c>
       <c r="B1363" t="inlineStr"/>
@@ -20947,7 +20947,7 @@
     <row r="1364">
       <c r="A1364" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Skip the Line Guided Tour to the 2nd floor</t>
+          <t xml:space="preserve">Title: Guided Tour Eiffel Tower elevator with Host </t>
         </is>
       </c>
       <c r="B1364" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
     <row r="1366">
       <c r="A1366" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1366" t="inlineStr"/>
@@ -20992,7 +20992,7 @@
     <row r="1367">
       <c r="A1367" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 226089P1</t>
+          <t>PRODUCTCODE: 458844P1</t>
         </is>
       </c>
       <c r="B1367" t="inlineStr"/>
@@ -21007,7 +21007,7 @@
     <row r="1368">
       <c r="A1368" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the stunning views of Gustave Eiffel's most famous creation from top to bottom. Our skip the lines access will send you to the 2nd-floor observation deck right away.</t>
+          <t>Summarized description: Make the most of this Viator Eiffel Tower ticket. Enjoy hassle-free entry to one of the world’s busiest monuments. Listen as your host adds colourful history and facts to the sights below.</t>
         </is>
       </c>
       <c r="B1368" t="inlineStr"/>
@@ -21022,7 +21022,7 @@
     <row r="1369">
       <c r="A1369" t="inlineStr">
         <is>
-          <t>Title: Skip-the-line access: Guided Eiffel Tower Tour with Optional Summit Access</t>
+          <t>Title: Eiffel Tower with Host 2nd Floor access with elevator</t>
         </is>
       </c>
       <c r="B1369" t="inlineStr"/>
@@ -21052,7 +21052,7 @@
     <row r="1371">
       <c r="A1371" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1371" t="inlineStr"/>
@@ -21067,7 +21067,7 @@
     <row r="1372">
       <c r="A1372" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 248877P48</t>
+          <t>PRODUCTCODE: 248877P42</t>
         </is>
       </c>
       <c r="B1372" t="inlineStr"/>
@@ -21082,7 +21082,7 @@
     <row r="1373">
       <c r="A1373" t="inlineStr">
         <is>
-          <t>Summarized description:  skip-the-line tickets give you access to the 2nd level of the Eiffel Tower. Check out stunning Parisian neighborhoods such as the Champs Elysees, Notre Dame, Montmartre, Seine River.</t>
+          <t>Summarized description: The Eiffel Tower is a wrought iron lattice tower on the Champ de Mars in Paris, France. Enjoy direct access before admiring exceptional views of Paris. Take a thrilling trip to the summit or second level with a professional guide.</t>
         </is>
       </c>
       <c r="B1373" t="inlineStr"/>
@@ -21097,7 +21097,7 @@
     <row r="1374">
       <c r="A1374" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Eiffel Tower Skip the Line: 2nd Floor or SUMMIT Access with Quick Lift </t>
+          <t>Title: Eiffel Tower Summit or 2nd Floor Direct Access Guided Tour (Small Group)</t>
         </is>
       </c>
       <c r="B1374" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
     <row r="1377">
       <c r="A1377" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 183842P4</t>
+          <t>PRODUCTCODE: 248877P47</t>
         </is>
       </c>
       <c r="B1377" t="inlineStr"/>
@@ -21157,7 +21157,7 @@
     <row r="1378">
       <c r="A1378" t="inlineStr">
         <is>
-          <t>Summarized description: A unique experience, taking the elevator to the second floor and then the summit. Guided admission ticket to the Eiffel Tower. Enjoying panoramic view from both the summit and the first floor.</t>
+          <t>Summarized description: The Eiffel Tower is one of the most visited tourist attractions in the world. It is located on the banks of the River Seine in Paris, France.</t>
         </is>
       </c>
       <c r="B1378" t="inlineStr"/>
@@ -21172,7 +21172,7 @@
     <row r="1379">
       <c r="A1379" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Guided Eiffel Tower Tour by Elevator with professional guide </t>
+          <t>Title: Paris Eiffel Tower Experience (Access to 2nd Floor)</t>
         </is>
       </c>
       <c r="B1379" t="inlineStr"/>
@@ -21217,7 +21217,7 @@
     <row r="1382">
       <c r="A1382" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239576P20</t>
+          <t>PRODUCTCODE: 170990P27</t>
         </is>
       </c>
       <c r="B1382" t="inlineStr"/>
@@ -21232,7 +21232,7 @@
     <row r="1383">
       <c r="A1383" t="inlineStr">
         <is>
-          <t>Summarized description: Take on the 704-step trek to the Eiffel Tower's second floor as a challenge. From the second story of the Tower, take in the stunning 360-degree view.</t>
+          <t>Summarized description: Enjoy hassle-free entry to one of the world’s busiest monuments. Cut out the long admission lines with a timed, priority-entry ticket. Explore the Eiffel Tower's first and second levels at your own pace.</t>
         </is>
       </c>
       <c r="B1383" t="inlineStr"/>
@@ -21247,7 +21247,7 @@
     <row r="1384">
       <c r="A1384" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Guided Tour (Multiple Options)</t>
+          <t>Title: Eiffel Tower Tour and Summit Priority Access</t>
         </is>
       </c>
       <c r="B1384" t="inlineStr"/>
@@ -21277,7 +21277,7 @@
     <row r="1386">
       <c r="A1386" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1386" t="inlineStr"/>
@@ -21292,7 +21292,7 @@
     <row r="1387">
       <c r="A1387" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 427087P2</t>
+          <t>PRODUCTCODE: 5717P11</t>
         </is>
       </c>
       <c r="B1387" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
     <row r="1388">
       <c r="A1388" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the Eiffel Tower at your own pace. You will get a more personalized and relaxed experience focused on your wishes. It will be a great and unique opportunity to share this memorable visit with your family or closest friends and nobody else.</t>
+          <t>Summarized description: Discover a new side of the Eiffel Tower and her secrets. Enjoy a 90-minute guided tour to discover a newside of the tower and its secrets.</t>
         </is>
       </c>
       <c r="B1388" t="inlineStr"/>
@@ -21322,7 +21322,7 @@
     <row r="1389">
       <c r="A1389" t="inlineStr">
         <is>
-          <t>Title: Private Tour at the Eiffel Tower with Second Floor Access</t>
+          <t>Title: Eiffel Tower Skip the Line Guided Tour to the 2nd floor</t>
         </is>
       </c>
       <c r="B1389" t="inlineStr"/>
@@ -21352,7 +21352,7 @@
     <row r="1391">
       <c r="A1391" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1391" t="inlineStr"/>
@@ -21367,7 +21367,7 @@
     <row r="1392">
       <c r="A1392" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 409807P3</t>
+          <t>PRODUCTCODE: 226089P1</t>
         </is>
       </c>
       <c r="B1392" t="inlineStr"/>
@@ -21382,7 +21382,7 @@
     <row r="1393">
       <c r="A1393" t="inlineStr">
         <is>
-          <t>Summarized description: Narrated by world class entertainers, this historical audio guide will allow you to digest Eiffel Tower information in a most enjoyable manner. Explore at your own pace and at an affordable price.</t>
+          <t>Summarized description: Explore the stunning views of Gustave Eiffel's most famous creation from top to bottom. Our skip the lines access will send you to the 2nd-floor observation deck right away.</t>
         </is>
       </c>
       <c r="B1393" t="inlineStr"/>
@@ -21397,7 +21397,7 @@
     <row r="1394">
       <c r="A1394" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Audio Tour Experience</t>
+          <t>Title: Skip-the-line access: Guided Eiffel Tower Tour with Optional Summit Access</t>
         </is>
       </c>
       <c r="B1394" t="inlineStr"/>
@@ -21427,7 +21427,7 @@
     <row r="1396">
       <c r="A1396" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1396" t="inlineStr"/>
@@ -21442,7 +21442,7 @@
     <row r="1397">
       <c r="A1397" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>PRODUCTCODE: 248877P48</t>
         </is>
       </c>
       <c r="B1397" t="inlineStr"/>
@@ -21454,6 +21454,381 @@
       <c r="H1397" t="inlineStr"/>
       <c r="I1397" t="inlineStr"/>
     </row>
+    <row r="1398">
+      <c r="A1398" t="inlineStr">
+        <is>
+          <t>Summarized description:  skip-the-line tickets give you access to the 2nd level of the Eiffel Tower. Check out stunning Parisian neighborhoods such as the Champs Elysees, Notre Dame, Montmartre, Seine River.</t>
+        </is>
+      </c>
+      <c r="B1398" t="inlineStr"/>
+      <c r="C1398" t="inlineStr"/>
+      <c r="D1398" t="inlineStr"/>
+      <c r="E1398" t="inlineStr"/>
+      <c r="F1398" t="inlineStr"/>
+      <c r="G1398" t="inlineStr"/>
+      <c r="H1398" t="inlineStr"/>
+      <c r="I1398" t="inlineStr"/>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Title: Eiffel Tower Skip the Line: 2nd Floor or SUMMIT Access with Quick Lift </t>
+        </is>
+      </c>
+      <c r="B1399" t="inlineStr"/>
+      <c r="C1399" t="inlineStr"/>
+      <c r="D1399" t="inlineStr"/>
+      <c r="E1399" t="inlineStr"/>
+      <c r="F1399" t="inlineStr"/>
+      <c r="G1399" t="inlineStr"/>
+      <c r="H1399" t="inlineStr"/>
+      <c r="I1399" t="inlineStr"/>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1400" t="inlineStr"/>
+      <c r="C1400" t="inlineStr"/>
+      <c r="D1400" t="inlineStr"/>
+      <c r="E1400" t="inlineStr"/>
+      <c r="F1400" t="inlineStr"/>
+      <c r="G1400" t="inlineStr"/>
+      <c r="H1400" t="inlineStr"/>
+      <c r="I1400" t="inlineStr"/>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="inlineStr">
+        <is>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+        </is>
+      </c>
+      <c r="B1401" t="inlineStr"/>
+      <c r="C1401" t="inlineStr"/>
+      <c r="D1401" t="inlineStr"/>
+      <c r="E1401" t="inlineStr"/>
+      <c r="F1401" t="inlineStr"/>
+      <c r="G1401" t="inlineStr"/>
+      <c r="H1401" t="inlineStr"/>
+      <c r="I1401" t="inlineStr"/>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 183842P4</t>
+        </is>
+      </c>
+      <c r="B1402" t="inlineStr"/>
+      <c r="C1402" t="inlineStr"/>
+      <c r="D1402" t="inlineStr"/>
+      <c r="E1402" t="inlineStr"/>
+      <c r="F1402" t="inlineStr"/>
+      <c r="G1402" t="inlineStr"/>
+      <c r="H1402" t="inlineStr"/>
+      <c r="I1402" t="inlineStr"/>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="inlineStr">
+        <is>
+          <t>Summarized description: A unique experience, taking the elevator to the second floor and then the summit. Guided admission ticket to the Eiffel Tower. Enjoying panoramic view from both the summit and the first floor.</t>
+        </is>
+      </c>
+      <c r="B1403" t="inlineStr"/>
+      <c r="C1403" t="inlineStr"/>
+      <c r="D1403" t="inlineStr"/>
+      <c r="E1403" t="inlineStr"/>
+      <c r="F1403" t="inlineStr"/>
+      <c r="G1403" t="inlineStr"/>
+      <c r="H1403" t="inlineStr"/>
+      <c r="I1403" t="inlineStr"/>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Title: Guided Eiffel Tower Tour by Elevator with professional guide </t>
+        </is>
+      </c>
+      <c r="B1404" t="inlineStr"/>
+      <c r="C1404" t="inlineStr"/>
+      <c r="D1404" t="inlineStr"/>
+      <c r="E1404" t="inlineStr"/>
+      <c r="F1404" t="inlineStr"/>
+      <c r="G1404" t="inlineStr"/>
+      <c r="H1404" t="inlineStr"/>
+      <c r="I1404" t="inlineStr"/>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1405" t="inlineStr"/>
+      <c r="C1405" t="inlineStr"/>
+      <c r="D1405" t="inlineStr"/>
+      <c r="E1405" t="inlineStr"/>
+      <c r="F1405" t="inlineStr"/>
+      <c r="G1405" t="inlineStr"/>
+      <c r="H1405" t="inlineStr"/>
+      <c r="I1405" t="inlineStr"/>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="inlineStr">
+        <is>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+        </is>
+      </c>
+      <c r="B1406" t="inlineStr"/>
+      <c r="C1406" t="inlineStr"/>
+      <c r="D1406" t="inlineStr"/>
+      <c r="E1406" t="inlineStr"/>
+      <c r="F1406" t="inlineStr"/>
+      <c r="G1406" t="inlineStr"/>
+      <c r="H1406" t="inlineStr"/>
+      <c r="I1406" t="inlineStr"/>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 239576P20</t>
+        </is>
+      </c>
+      <c r="B1407" t="inlineStr"/>
+      <c r="C1407" t="inlineStr"/>
+      <c r="D1407" t="inlineStr"/>
+      <c r="E1407" t="inlineStr"/>
+      <c r="F1407" t="inlineStr"/>
+      <c r="G1407" t="inlineStr"/>
+      <c r="H1407" t="inlineStr"/>
+      <c r="I1407" t="inlineStr"/>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="inlineStr">
+        <is>
+          <t>Summarized description: Take on the 704-step trek to the Eiffel Tower's second floor as a challenge. From the second story of the Tower, take in the stunning 360-degree view.</t>
+        </is>
+      </c>
+      <c r="B1408" t="inlineStr"/>
+      <c r="C1408" t="inlineStr"/>
+      <c r="D1408" t="inlineStr"/>
+      <c r="E1408" t="inlineStr"/>
+      <c r="F1408" t="inlineStr"/>
+      <c r="G1408" t="inlineStr"/>
+      <c r="H1408" t="inlineStr"/>
+      <c r="I1408" t="inlineStr"/>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="inlineStr">
+        <is>
+          <t>Title: Eiffel Tower Guided Tour (Multiple Options)</t>
+        </is>
+      </c>
+      <c r="B1409" t="inlineStr"/>
+      <c r="C1409" t="inlineStr"/>
+      <c r="D1409" t="inlineStr"/>
+      <c r="E1409" t="inlineStr"/>
+      <c r="F1409" t="inlineStr"/>
+      <c r="G1409" t="inlineStr"/>
+      <c r="H1409" t="inlineStr"/>
+      <c r="I1409" t="inlineStr"/>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1410" t="inlineStr"/>
+      <c r="C1410" t="inlineStr"/>
+      <c r="D1410" t="inlineStr"/>
+      <c r="E1410" t="inlineStr"/>
+      <c r="F1410" t="inlineStr"/>
+      <c r="G1410" t="inlineStr"/>
+      <c r="H1410" t="inlineStr"/>
+      <c r="I1410" t="inlineStr"/>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="inlineStr">
+        <is>
+          <t>Category: ['Aerial Tours']</t>
+        </is>
+      </c>
+      <c r="B1411" t="inlineStr"/>
+      <c r="C1411" t="inlineStr"/>
+      <c r="D1411" t="inlineStr"/>
+      <c r="E1411" t="inlineStr"/>
+      <c r="F1411" t="inlineStr"/>
+      <c r="G1411" t="inlineStr"/>
+      <c r="H1411" t="inlineStr"/>
+      <c r="I1411" t="inlineStr"/>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 427087P2</t>
+        </is>
+      </c>
+      <c r="B1412" t="inlineStr"/>
+      <c r="C1412" t="inlineStr"/>
+      <c r="D1412" t="inlineStr"/>
+      <c r="E1412" t="inlineStr"/>
+      <c r="F1412" t="inlineStr"/>
+      <c r="G1412" t="inlineStr"/>
+      <c r="H1412" t="inlineStr"/>
+      <c r="I1412" t="inlineStr"/>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="inlineStr">
+        <is>
+          <t>Summarized description: Discover the Eiffel Tower at your own pace. You will get a more personalized and relaxed experience focused on your wishes. It will be a great and unique opportunity to share this memorable visit with your family or closest friends and nobody else.</t>
+        </is>
+      </c>
+      <c r="B1413" t="inlineStr"/>
+      <c r="C1413" t="inlineStr"/>
+      <c r="D1413" t="inlineStr"/>
+      <c r="E1413" t="inlineStr"/>
+      <c r="F1413" t="inlineStr"/>
+      <c r="G1413" t="inlineStr"/>
+      <c r="H1413" t="inlineStr"/>
+      <c r="I1413" t="inlineStr"/>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="inlineStr">
+        <is>
+          <t>Title: Private Tour at the Eiffel Tower with Second Floor Access</t>
+        </is>
+      </c>
+      <c r="B1414" t="inlineStr"/>
+      <c r="C1414" t="inlineStr"/>
+      <c r="D1414" t="inlineStr"/>
+      <c r="E1414" t="inlineStr"/>
+      <c r="F1414" t="inlineStr"/>
+      <c r="G1414" t="inlineStr"/>
+      <c r="H1414" t="inlineStr"/>
+      <c r="I1414" t="inlineStr"/>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1415" t="inlineStr"/>
+      <c r="C1415" t="inlineStr"/>
+      <c r="D1415" t="inlineStr"/>
+      <c r="E1415" t="inlineStr"/>
+      <c r="F1415" t="inlineStr"/>
+      <c r="G1415" t="inlineStr"/>
+      <c r="H1415" t="inlineStr"/>
+      <c r="I1415" t="inlineStr"/>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1416" t="inlineStr"/>
+      <c r="C1416" t="inlineStr"/>
+      <c r="D1416" t="inlineStr"/>
+      <c r="E1416" t="inlineStr"/>
+      <c r="F1416" t="inlineStr"/>
+      <c r="G1416" t="inlineStr"/>
+      <c r="H1416" t="inlineStr"/>
+      <c r="I1416" t="inlineStr"/>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 409807P3</t>
+        </is>
+      </c>
+      <c r="B1417" t="inlineStr"/>
+      <c r="C1417" t="inlineStr"/>
+      <c r="D1417" t="inlineStr"/>
+      <c r="E1417" t="inlineStr"/>
+      <c r="F1417" t="inlineStr"/>
+      <c r="G1417" t="inlineStr"/>
+      <c r="H1417" t="inlineStr"/>
+      <c r="I1417" t="inlineStr"/>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="inlineStr">
+        <is>
+          <t>Summarized description: Narrated by world class entertainers, this historical audio guide will allow you to digest Eiffel Tower information in a most enjoyable manner. Explore at your own pace and at an affordable price.</t>
+        </is>
+      </c>
+      <c r="B1418" t="inlineStr"/>
+      <c r="C1418" t="inlineStr"/>
+      <c r="D1418" t="inlineStr"/>
+      <c r="E1418" t="inlineStr"/>
+      <c r="F1418" t="inlineStr"/>
+      <c r="G1418" t="inlineStr"/>
+      <c r="H1418" t="inlineStr"/>
+      <c r="I1418" t="inlineStr"/>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="inlineStr">
+        <is>
+          <t>Title: Eiffel Tower Audio Tour Experience</t>
+        </is>
+      </c>
+      <c r="B1419" t="inlineStr"/>
+      <c r="C1419" t="inlineStr"/>
+      <c r="D1419" t="inlineStr"/>
+      <c r="E1419" t="inlineStr"/>
+      <c r="F1419" t="inlineStr"/>
+      <c r="G1419" t="inlineStr"/>
+      <c r="H1419" t="inlineStr"/>
+      <c r="I1419" t="inlineStr"/>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1420" t="inlineStr"/>
+      <c r="C1420" t="inlineStr"/>
+      <c r="D1420" t="inlineStr"/>
+      <c r="E1420" t="inlineStr"/>
+      <c r="F1420" t="inlineStr"/>
+      <c r="G1420" t="inlineStr"/>
+      <c r="H1420" t="inlineStr"/>
+      <c r="I1420" t="inlineStr"/>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="inlineStr">
+        <is>
+          <t>Category: ['Historical Tours', 'Entertainment']</t>
+        </is>
+      </c>
+      <c r="B1421" t="inlineStr"/>
+      <c r="C1421" t="inlineStr"/>
+      <c r="D1421" t="inlineStr"/>
+      <c r="E1421" t="inlineStr"/>
+      <c r="F1421" t="inlineStr"/>
+      <c r="G1421" t="inlineStr"/>
+      <c r="H1421" t="inlineStr"/>
+      <c r="I1421" t="inlineStr"/>
+    </row>
+    <row r="1422">
+      <c r="A1422" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+      <c r="B1422" t="inlineStr"/>
+      <c r="C1422" t="inlineStr"/>
+      <c r="D1422" t="inlineStr"/>
+      <c r="E1422" t="inlineStr"/>
+      <c r="F1422" t="inlineStr"/>
+      <c r="G1422" t="inlineStr"/>
+      <c r="H1422" t="inlineStr"/>
+      <c r="I1422" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/47475P7.xlsx
+++ b/experiment_results/47475P7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1422"/>
+  <dimension ref="A1:I1282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -696,7 +696,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -1071,7 +1071,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Category: ['', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['', 'Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1221,7 +1221,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Category: ['', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1596,7 +1596,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -1746,7 +1746,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -2196,7 +2196,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
@@ -2796,7 +2796,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -2946,7 +2946,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
@@ -3171,7 +3171,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -3321,7 +3321,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Aerial Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Aerial Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
@@ -3396,7 +3396,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
@@ -3471,7 +3471,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
@@ -3546,7 +3546,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
@@ -3846,7 +3846,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B224" t="inlineStr"/>
@@ -4071,7 +4071,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B239" t="inlineStr"/>
@@ -4371,7 +4371,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises', 'Museums']</t>
+          <t>Category: ['Cultural Cruises', 'Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B259" t="inlineStr"/>
@@ -4446,7 +4446,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B264" t="inlineStr"/>
@@ -4521,7 +4521,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B269" t="inlineStr"/>
@@ -4596,7 +4596,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B274" t="inlineStr"/>
@@ -4671,7 +4671,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B279" t="inlineStr"/>
@@ -4746,7 +4746,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Dining Experiences', 'Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B284" t="inlineStr"/>
@@ -5121,7 +5121,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B309" t="inlineStr"/>
@@ -5196,7 +5196,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B314" t="inlineStr"/>
@@ -5571,7 +5571,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B339" t="inlineStr"/>
@@ -5871,7 +5871,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B359" t="inlineStr"/>
@@ -5946,7 +5946,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B364" t="inlineStr"/>
@@ -6021,7 +6021,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B369" t="inlineStr"/>
@@ -6171,7 +6171,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B379" t="inlineStr"/>
@@ -6246,7 +6246,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B384" t="inlineStr"/>
@@ -6546,7 +6546,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B404" t="inlineStr"/>
@@ -6621,7 +6621,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B409" t="inlineStr"/>
@@ -6921,7 +6921,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises', 'Museums']</t>
         </is>
       </c>
       <c r="B429" t="inlineStr"/>
@@ -6996,7 +6996,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B434" t="inlineStr"/>
@@ -7146,7 +7146,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B444" t="inlineStr"/>
@@ -7221,7 +7221,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B449" t="inlineStr"/>
@@ -7371,7 +7371,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B459" t="inlineStr"/>
@@ -7446,7 +7446,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B464" t="inlineStr"/>
@@ -7671,7 +7671,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Dining Experiences', 'Modern Attractions']</t>
+          <t>Category: ['Dining Experiences', 'Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B479" t="inlineStr"/>
@@ -7896,7 +7896,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B494" t="inlineStr"/>
@@ -8046,7 +8046,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B504" t="inlineStr"/>
@@ -8271,7 +8271,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Entertainment', 'Modern Attractions']</t>
+          <t>Category: ['Entertainment', 'Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B519" t="inlineStr"/>
@@ -8646,7 +8646,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B544" t="inlineStr"/>
@@ -8721,7 +8721,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B549" t="inlineStr"/>
@@ -9246,7 +9246,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B584" t="inlineStr"/>
@@ -9546,7 +9546,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B604" t="inlineStr"/>
@@ -9771,7 +9771,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B619" t="inlineStr"/>
@@ -9921,7 +9921,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B629" t="inlineStr"/>
@@ -9996,7 +9996,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B634" t="inlineStr"/>
@@ -10071,7 +10071,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B639" t="inlineStr"/>
@@ -10371,7 +10371,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B659" t="inlineStr"/>
@@ -10821,7 +10821,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Transportation &amp; Travel Services']</t>
+          <t>Category: ['Transportation &amp; Travel Services', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B689" t="inlineStr"/>
@@ -10896,7 +10896,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B694" t="inlineStr"/>
@@ -10971,7 +10971,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B699" t="inlineStr"/>
@@ -11046,7 +11046,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B704" t="inlineStr"/>
@@ -11121,7 +11121,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B709" t="inlineStr"/>
@@ -11496,7 +11496,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B734" t="inlineStr"/>
@@ -11646,7 +11646,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B744" t="inlineStr"/>
@@ -11721,7 +11721,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B749" t="inlineStr"/>
@@ -11871,7 +11871,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B759" t="inlineStr"/>
@@ -11946,7 +11946,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B764" t="inlineStr"/>
@@ -12021,7 +12021,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B769" t="inlineStr"/>
@@ -12096,7 +12096,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B774" t="inlineStr"/>
@@ -12321,7 +12321,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Dining Experiences', 'Modern Attractions']</t>
+          <t>Category: ['Dining Experiences', 'Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B789" t="inlineStr"/>
@@ -12621,7 +12621,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B809" t="inlineStr"/>
@@ -12696,7 +12696,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B814" t="inlineStr"/>
@@ -12771,7 +12771,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B819" t="inlineStr"/>
@@ -12921,7 +12921,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B829" t="inlineStr"/>
@@ -13296,7 +13296,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B854" t="inlineStr"/>
@@ -13521,7 +13521,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B869" t="inlineStr"/>
@@ -13671,7 +13671,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Modern Attractions']</t>
+          <t>Category: ['Entertainment', 'Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B879" t="inlineStr"/>
@@ -13746,7 +13746,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B884" t="inlineStr"/>
@@ -13821,7 +13821,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B889" t="inlineStr"/>
@@ -13971,7 +13971,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B899" t="inlineStr"/>
@@ -14271,7 +14271,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B919" t="inlineStr"/>
@@ -14346,7 +14346,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B924" t="inlineStr"/>
@@ -14421,7 +14421,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Entertainment', 'Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B929" t="inlineStr"/>
@@ -14721,7 +14721,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B949" t="inlineStr"/>
@@ -15021,7 +15021,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B969" t="inlineStr"/>
@@ -15096,7 +15096,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B974" t="inlineStr"/>
@@ -15171,7 +15171,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B979" t="inlineStr"/>
@@ -15246,7 +15246,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B984" t="inlineStr"/>
@@ -15321,7 +15321,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B989" t="inlineStr"/>
@@ -15442,7 +15442,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 366458P1</t>
+          <t>PRODUCTCODE: 2050CIT</t>
         </is>
       </c>
       <c r="B997" t="inlineStr"/>
@@ -15457,7 +15457,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>Summarized description: Take in sweeping city views as you ascend this iconic landmark. See Notre-Dame Cathedral, the Trocadéro gardens and the golden dome of the Hôtel des Invalides. Live a unique experience with local guides.</t>
+          <t>Summarized description: 4-hour combo tour gives you the chance to experience Paris in the evening in three ways. A 1-hour river cruise on the Seine, a sightseeing tour by coach and admission to the second floor of the Eiffel Tower.</t>
         </is>
       </c>
       <c r="B998" t="inlineStr"/>
@@ -15472,7 +15472,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>Title: Visit all floors of the Eiffel Tower by elevator</t>
+          <t>Title: Eiffel Tower: Summit Option plus Seine River Cruise and City Tour</t>
         </is>
       </c>
       <c r="B999" t="inlineStr"/>
@@ -15487,7 +15487,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>TotalReviews: 3445</t>
+          <t>TotalReviews: 1008</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr"/>
@@ -15502,7 +15502,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours']</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr"/>
@@ -15517,7 +15517,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 423364P1</t>
+          <t>PRODUCTCODE: 3731EIFFELSIENE</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>Summarized description: Explore all three floors of the Eiffel Tower, starting from the second level. Immerse yourself in the tower's history, as our guide shares captivating anecdotes.</t>
+          <t>Summarized description: Eiffel Tower Observation Deck ticket and Seine River Cruise together in the most flexible and stress-free way possible. Exclusively designed tour for the discerning traveler looking for the classic Paris experience.</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr"/>
@@ -15547,7 +15547,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Guiding Tour by Elevator with Summit Access</t>
+          <t>Title: Eiffel Tower Tour with Optional Summit and Seine Champagne Cruise</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -15562,7 +15562,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>TotalReviews: 2309</t>
+          <t>TotalReviews: 840</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr"/>
@@ -15577,7 +15577,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr"/>
@@ -15592,7 +15592,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9205P4</t>
+          <t>PRODUCTCODE: 438153P1</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr"/>
@@ -15607,7 +15607,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>Summarized description: The 60-minute tour includes access to the second level of the Eiffel Tower. You can also enjoy a view of Paris' skyline from 1,063 feet above the city.</t>
+          <t>Summarized description: Ecklectours offers tours of the Eiffel Tower in Paris, France. The tour is entertaining and engaging to give you a lasting memory of the magnificent Tower.</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr"/>
@@ -15622,7 +15622,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Reserved access Tour and optional Summit by Elevator</t>
+          <t>Title: Eiffel Tower Elevator Tour with a Guide (Ecklectours)</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15637,7 +15637,7 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>TotalReviews: 2174</t>
+          <t>TotalReviews: 478</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3731EIFFELTOWER</t>
+          <t>PRODUCTCODE: 352648P3</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Summarized description: Meet your guide near the base of the Eiffel Tower, listening to the fascinating history of the original “Dame de Fer” (Iron Lady) You’ll have a chance to enjoy her every curve from every angle and to understand the beautiful science that keeps her standing.</t>
+          <t>Summarized description: Take awesome pictures from any of the floors of the Tower and get ready to see Paris from a different and spectacular perspective. Engage in our exciting quiz session to broaden your knowledge of the tower in a fun and engaging way. The quiz master will be rewarded with a special gift, making this experience truly unforgettable.</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Guided Tour with Optional Access to the Summit</t>
+          <t>Title: Eiffel Tower by Elevator, Lovely Views, Optional Summit &amp; Cruise</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15712,7 +15712,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>TotalReviews: 973</t>
+          <t>TotalReviews: 402</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Entertainment', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 382015P1</t>
+          <t>PRODUCTCODE: 6839P8</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Summarized description: Direct access ticket to the Eiffel Tower. Professional guides will accompany you all the way to the iconic “Iron Lady'' Panoramic and unobstructed view of the most romantic city in the world.</t>
+          <t>Summarized description: Choose a morning start time when it is less crowded to start your journey at the Eiffel Tower. You will hear tales as you walk, and learn about its creation for the International Exposition of 1889. Hop aboard your sightseeing boat at the water’s edge, and relax out on deck or in the lower saloon as you cruise along the famous river.</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Reserved Access Summit or 2nd Floor Guided by Lift</t>
+          <t>Title: Eiffel Tower Summit Morning Tour by Elevator &amp; Seine River Cruise</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15787,7 +15787,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>TotalReviews: 939</t>
+          <t>TotalReviews: 328</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 438153P1</t>
+          <t>PRODUCTCODE: 67584P5</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Summarized description: Ecklectours offers tours of the Eiffel Tower in Paris, France. The tour is entertaining and engaging to give you a lasting memory of the magnificent Tower.</t>
+          <t>Summarized description: Paris at night is enchanting! Make the most of your stay by booking this fantastic combo. A Seine River Cruise and a comprehensive guided tour with elevator access to the Eiffel Tower.</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Elevator Tour with a Guide (Ecklectours)</t>
+          <t>Title: Eiffel Tower Tour &amp; River Cruise with Summit Option</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>TotalReviews: 478</t>
+          <t>TotalReviews: 169</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 456325P1</t>
+          <t>PRODUCTCODE: 7832P9</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the enchanting beauty and rich history of Paris through our exclusive tour of the Eiffel Tower. With special access to the summit, you get to admire breathtaking panoramas from the second level. Indulge in a glass of Champagne from the bar (additional cost)</t>
+          <t>Summarized description: 1-hour illuminations cruise along the Seine River. See Paris city from the Eiffel Tower's nearly highest point. See all the famous landmarks of Paris city in just under one hour.</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Eiffel Tower Guided Tour by Elevator with Summit access Reserved </t>
+          <t>Title: Eiffel Tower 2nd Floor Entry and Optional Seine River Cruise</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>TotalReviews: 250</t>
+          <t>TotalReviews: 80</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Dining Experiences']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 46334P29</t>
+          <t>PRODUCTCODE: 5045P44</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Summarized description: Climb to the top of the Eiffel Tower with our timed entry tour. Discover the fascinating stories behind the construction of the ‘Iron Lady’</t>
+          <t>Summarized description: Head up to the 2nd level of the Eiffel Tower with your ticket and admire many of the top attractions of Paris from up above. Hear commentary from an English-speaking guide on a 1-hour Seine River cruise.</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Guided Tour with Summit Access</t>
+          <t>Title: Eiffel Tower Entry to 2nd Floor By Elevator and Seine Cruise</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>TotalReviews: 238</t>
+          <t>TotalReviews: 70</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6839P88</t>
+          <t>PRODUCTCODE: 5045P40</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Summarized description: From the tower’s second floor, the city of Paris spreads out like a virtual map. Revel in sweeping panoramic views over Paris from the top of the Eiffel Tower.</t>
+          <t>Summarized description: Head directly up to the 2nd level of the Eiffel Tower with your ticket. Get access to the Summit so you can admire the city from every angle. Later on, you and your small group will have the opportunity to embark on a Seine River cruise.</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Eiffel Tower Tour: Morning Access with host by Elevator </t>
+          <t xml:space="preserve">Title: Eiffel Tower Tour with Summit by Elevator and Seine Cruise </t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16087,7 +16087,7 @@
     <row r="1040">
       <c r="A1040" t="inlineStr">
         <is>
-          <t>TotalReviews: 165</t>
+          <t>TotalReviews: 34</t>
         </is>
       </c>
       <c r="B1040" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 193509P2</t>
+          <t>PRODUCTCODE: 3731P137</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Summarized description: Eiffel Tower skip-the-line pass and 1.5-hour tour. Get priority access to the tower's second level. Toast your travels with a glass of bubbly from the Champagne bar.</t>
+          <t>Summarized description: Join an English-speaking guide for an illuminating 1.5-hour tour of the Eiffel Tower. Enjoy spectacular views of Paris as the city lights up against the darkening sky.</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Eiffel Tower Tour and Summit Access by elevator</t>
+          <t>Title: Eiffel Tower Tour &amp; Seine River Cruise by Night</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16162,7 +16162,7 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>TotalReviews: 116</t>
+          <t>TotalReviews: 32</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 375109P1</t>
+          <t>PRODUCTCODE: 3731P146</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Summarized description: The energy of the city is what makes this tour so special. We are all about making sure everyone understands and enjoy the experience. Our tour guides have enough experience to satisfy every demand.</t>
+          <t>Summarized description: The Eiffel Tower, the Seine River and the Louvre are quintessential Parisian experiences. This exclusive tour offers a fully guided visit to the Eiffle Tower, a Seine river cruise, and a Skip-the-Line tour of the museum.</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Tour with a Guide and Elevator Access</t>
+          <t>Title: Paris First Timer: Eiffel Tower, Seine Cruise and Louvre Tour</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16237,7 +16237,7 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>TotalReviews: 81</t>
+          <t>TotalReviews: 19</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Cultural Cruises', 'Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 275837P5</t>
+          <t>PRODUCTCODE: 7832P42</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Summarized description: Take the elevator straight to the 2nd floor of the Eiffel Tower from where you will see a breathtaking view of the amazing city of Paris. Our fluent guides, with their novel storytelling approach, makes this tour extremely unique.</t>
+          <t>Summarized description: 1-hour illuminations cruise along the Seine River. Admire the city of Paris from the Eiffel Tower highest point.</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>Title: Visit the Eiffel Tower with Experienced Guide | Elevator to the 2nd Floor</t>
+          <t>Title: Eiffel Tower Summit Floor Entry and Illuminations Seine Cruise</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16312,7 +16312,7 @@
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>TotalReviews: 73</t>
+          <t>TotalReviews: 19</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5045P44</t>
+          <t>PRODUCTCODE: 2050P315</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Summarized description: Head up to the 2nd level of the Eiffel Tower with your ticket and admire many of the top attractions of Paris from up above. Hear commentary from an English-speaking guide on a 1-hour Seine River cruise.</t>
+          <t>Summarized description: Take a spin around the essential sights from the comfort of a coach with our exclusive Histopad. Then embark on a cruise along the Seine, under its many bridges, before scaling the heights of the Grande Dame.</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Entry to 2nd Floor By Elevator and Seine Cruise</t>
+          <t>Title: Eiffel Tower Summit Access with City Tour and Seine Cruise</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16387,7 +16387,7 @@
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>TotalReviews: 70</t>
+          <t>TotalReviews: 13</t>
         </is>
       </c>
       <c r="B1060" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 415184P119</t>
+          <t>PRODUCTCODE: 375109P2</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Summarized description: We offer a self-guided audio tour that acts as your personal storyteller. Delve into the Eiffel Tower's captivating history and gain a deeper understanding of its significance in Parisian culture and architecture.</t>
+          <t>Summarized description: Visit the eiffel tower with a live guide who will tell you all about the history of one of the most iconic monuments of this world. Relax on a Seine river cruise through the City of Light.</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Paris Skip The Line Ticket &amp; Free Audio Guide Tour</t>
+          <t>Title: Boat Cruise River Seine Sightseeing and Guided Eiffel Tower Tour</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16462,7 +16462,7 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>TotalReviews: 36</t>
+          <t>TotalReviews: 8</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5045P75</t>
+          <t>PRODUCTCODE: 7832P177</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Summarized description: Head directly up to the 2nd level of the Eiffel Tower with your ticket by elevator. On your way down, walk on the floor of glass for a thrilling moment.</t>
+          <t>Summarized description: Your ticket includes a 1-hour cruise on the Seine river, that you can take at any time. Admire the UNESCO-listed buildings lining the riverbanks, including the Eiffel Tower.</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>Title: Pre-booked Timed Eiffel Tower Ticket to 2nd floor by Elevator</t>
+          <t>Title: Eiffel Tower Summit Floor Ticket and Seine River Cruise</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16537,7 +16537,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>TotalReviews: 34</t>
+          <t>TotalReviews: 8</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 413318P103</t>
+          <t>PRODUCTCODE: 220418P22</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Summarized description: The summit of the Eiffel Tower offers a bird's-eye view of Paris. The vistas from the summit are simply awe-inspiring. You'll see Paris's most renowned landmarks, its winding river, and the bustling streets.</t>
+          <t>Summarized description: Visit Paris' most iconic attraction with skip-the-line access and a tour guide. Take in the most impressive views of the city and learn about its construction and significance. Take the optional opportunity to ascend by elevator past the second floor to the summit.</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit Skip the Line Ticket with Audio Guide Tour</t>
+          <t>Title: Paris: Eiffel Tower Guided Tour with Summit Access</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16612,7 +16612,7 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>TotalReviews: 32</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Aerial Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7245P5</t>
+          <t>PRODUCTCODE: 64296P2</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy a one hour Seine river cruise on a glass-covered boat. Use your cruise ticket anytime of day or night. Skip the long lines to the second floor of the Eiffel Tower.</t>
+          <t>Summarized description: The Eiffel Tower needs no introduction and you are just one of millions of travellers who will visit this year. Don’t waste time and stand in line but instead join us to Skip the Line with a local, fun, licensed, English speaking guide.</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower 2nd floor Skip the Line Ticket with Hotel Pick up and Cruise</t>
+          <t>Title: VIP Eiffel Tower Tour &amp; Summit Access</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>TotalReviews: 30</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6718P195</t>
+          <t>PRODUCTCODE: 7845P20</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description: Eiffel Tower is the most iconic symbol of Paris. Enjoy skip-the-line entry and board a glass elevator as you journey through this 276 meter high tower. At the very top, experience breathtaking views of the city of Paris below.</t>
+          <t>Summarized description: Enjoy a 1-hour experience where you’re escorted by a host to the Eiffel Tower and up to its Summit. Afterward, receive your Big Bus Paris Hop-on Hop-off tour and Bateaux Parisiens Seine River Sightseeing Cruise tickets.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Title: Top Tier Eiffel Tower Skip the Line Semi-Private Tour</t>
+          <t>Title: Eiffel Tower Summit Entry with Big Bus and Seine River Cruise</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16762,7 +16762,7 @@
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>TotalReviews: 25</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 46334P66</t>
+          <t>PRODUCTCODE: 7832P194</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description: Join an expert guide for a semi-private tour of the Eiffel Tower. The tour is shared with a small group of only 10 guests. You'll learn about the turbulent history of the "Iron Lady"</t>
+          <t>Summarized description: Your ticket includes a 1-hour cruise on the Seine River, that you can take at any time during your stay. Admire the UNESCO-listed buildings lining the riverbanks, including the Eiffel Tower.</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit Semi-Private Guided Tour</t>
+          <t>Title: Eiffel Tower Summit Floor Access and Seine River Cruise</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16837,7 +16837,7 @@
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>TotalReviews: 24</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 457596P2</t>
+          <t>PRODUCTCODE: 7832P109</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower tour is an unforgettable exploration of the iconic Parisian landmark. Visitors have the opportunity to ascend the tower and enjoy breathtaking views of the city's skyline, including the Louvre, Notre-Dame, and the Seine River.</t>
+          <t>Summarized description: Skip the long lines to one of the most popular monument in Europe and enjoy fast track access to the Eiffel Tower. Be amazed by the illuminated views of Paris at night on a 1 hour River Cruise.</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Guided Tour Summit Access</t>
+          <t xml:space="preserve">Title:  Eiffel Tower Summit &amp; River Cruise Tickets by Night </t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16912,7 +16912,7 @@
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>TotalReviews: 23</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1095" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 387432P1</t>
+          <t>PRODUCTCODE: 7832P33</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: Group guides aim to make each experience on the Eiffel Tower unique. We focus on small group sizes so everyone has a unique and personalized experience. We use a very visual and entertaining approach to present the iron lady.</t>
+          <t>Summarized description: Enjoy visiting the Eiffel Tower with summit acces, 1 hour seine river cruise and  explore the Louvre in the afternoon on a one hour and a half guided tour.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Visit With A Guide and Top Elevator Access</t>
+          <t>Title: Eiffel Tower &amp; Louvre Museum Guided Tour with Seine River Cruise Ticket</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -16987,7 +16987,7 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>TotalReviews: 22</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises', 'Museums']</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3588P46</t>
+          <t>PRODUCTCODE: 7832P116</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy reserved entry at the base of the Tower. As you make your way up to the summit, your guide will give you background on the history of the Eiffel Tower. Your guide will point out various amenities, such as restaurants, current exhibitions, and places where you can sit.</t>
+          <t>Summarized description: Skip the long lines to one of the most popular monument in Europe and enjoy fast track access to the Eiffel Tower. Be amazed by the illuminated views of Paris at night on a 1 hour River Cruise.</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>Title: Small-Group Eiffel Tower Tour with Reserved Entry &amp; Summit Access</t>
+          <t xml:space="preserve">Title:  Eiffel Tower Ticket with Summit Access &amp; Seine River Cruise by Night </t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17062,7 +17062,7 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>TotalReviews: 21</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 275837P8</t>
+          <t>PRODUCTCODE: 7845P21</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Summarized description: Guests book this experience because they are assured of access to the summit. Get within hand reach of the details of the tower - the rivets holding together the iron pieces, the bulbs that light up at night.</t>
+          <t>Summarized description:  skip-the-line admission tickets to the Eiffel Tower. Enjoy a 1-hour experience where you're escorted by a host to the tower. Afterward, receive your Big Bus Paris Hop-on Hop-off tour and Bateaux Parisiens Seine River Sightseeing Cruise tickets.</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>Title: Guaranteed Summit Access - Eiffel Tower Elevator Tour</t>
+          <t>Title: Eiffel Tower Skip the Line 2nd Floor Access with Big Bus and Seine River Cruise</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17137,7 +17137,7 @@
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>TotalReviews: 21</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 112782P30</t>
+          <t>PRODUCTCODE: 2050P314</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the building itself and about the civil engineer who created it, Gustave Eiffel. Take advantage of the optional opportunity to ascend by elevator past the second floor to the summit of the tower.</t>
+          <t>Summarized description: 4/5-hour combo tour gives you the chance to experience Paris in the evening in three ways: a 1-hour river cruise on the Seine, a sightseeing tour by coach and admission to the summit level of the Eiffel Tower.</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Guided Tour - 2nd floor + optional Summit access</t>
+          <t>Title: Evening Cruise and City Tour with Summit Priority Eiffel Tower Access</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17212,7 +17212,7 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>TotalReviews: 19</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 427087P1</t>
+          <t>PRODUCTCODE: 239343P19</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Summarized description: Eiffel Tower tours are fun, smart and engaging in the image of our guides. As a young team of Parisian experienced guides, we believe in small intimate and interactive groups.</t>
+          <t>Summarized description: Enjoy direct access to the Second floor of the Eiffel Tower by Elevator or Stairs. Choose a time to embark on a Seine sightseeing river cruise.</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Eiffel Tower small group guided tour </t>
+          <t>Title: Eiffel Tower Second Floor Access and Seine River Cruise Tour</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17287,7 +17287,7 @@
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>TotalReviews: 17</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1120" t="inlineStr"/>
@@ -17302,7 +17302,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 220637P7</t>
+          <t>PRODUCTCODE: 435669P3</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17332,7 +17332,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Summarized description: Meet your Spanish-speaking guide a few steps from the Eiffel Tower. As you walk, your guide will tell you the history and anecdotes about the construction of the structure.</t>
+          <t>Summarized description: Ascend to the top of the Eiffel Tower (if option selected) and see Paris from a different perspective as you cruise along the Seine River. From cruise you can enjoy panoramic views of the city, Notre Dame Cathedral, and more.</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Spanish Guided Tour with 2nd Level Access Ticket</t>
+          <t xml:space="preserve">Title: Eiffel Tower and Seine River Cruise Self- Guided Audio Tour </t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -17362,7 +17362,7 @@
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>TotalReviews: 16</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1125" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 379045P2</t>
+          <t>PRODUCTCODE: 3731P173</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17407,7 +17407,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Summarized description: Step into the historic elevators of the Eiffel Tower and be whisked away to dizzying heights. Panoramic views of Paris await you at every turn. Learn the Tower's Secrets with insightful commentary from our knowledgeable guides. Skip the lines and enjoy VIP treatment with our exclusive tour package.</t>
+          <t>Summarized description: 5-hour tour includes a guided tour of the Eiffel Tower, the Seine River and Moulin Rouge. You'll travel by coach between venues accompanied by a guide.</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr"/>
@@ -17422,7 +17422,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Eiffel Tower Elevator Tour </t>
+          <t>Title: Moulin Rouge Show with Eiffel Tower and Seine River Cruise</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr"/>
@@ -17437,7 +17437,7 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>TotalReviews: 15</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Entertainment', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 247361P11</t>
+          <t>PRODUCTCODE: 7832P69</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr"/>
@@ -17482,7 +17482,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Summarized description: Don't miss the wonderful experience of climbing the Eiffel Tower. Enjoy the incredible view of the beautiful city of Paris from the top of the tower.</t>
+          <t>Summarized description: Visit the Eiffel Tower, navigate the Seine and let yourself be surprised by the fabulous Lido show. French prestige on stage and on your lips!</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Skip-the-Line Eiffel Tower </t>
+          <t>Title: Eiffel Tower Guided Tour with Illuminations Cruise &amp; Lido Burlesque Show</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>TotalReviews: 11</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Entertainment', 'Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 391918P9</t>
+          <t>PRODUCTCODE: 2050P304</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr"/>
@@ -17557,7 +17557,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Summarized description: Eiffel Tower Skip The Queue Ticket and Audio guide tour is designed to maximize your time at the iconic landmark. Embark on an unforgettable journey with our self-guided audio tour, your personal storyteller.</t>
+          <t>Summarized description: Dine at the Eiffel Tower with an amazing romantic view. Step aboard a glass-topped vessel to cruise along the river Seine.</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Skip The Queue Ticket Tour with Paris Audio Guide</t>
+          <t xml:space="preserve">Title: Eiffel Tower Experience with Dinner at the 1st Floor and Seine River Cruise </t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17587,7 +17587,7 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17617,7 +17617,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7832P36</t>
+          <t>PRODUCTCODE: 7832P129</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr"/>
@@ -17632,7 +17632,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>Summarized description: Your guide will take you to the second floor on which s/he will tell you about the history of the Eiffel Tower and get a detailed description of the view. Enjoy visiting  all the way up the world's famous  monument with your guide.</t>
+          <t>Summarized description: The Eiffel Tower is one of the most beautiful monuments of Paris. Cruise on the Seine River to see the Louvre and Notre Dame Cathedral.</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr"/>
@@ -17647,7 +17647,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit Access Guided Visit and Optional Cruise</t>
+          <t>Title: Guided Tour of the Eiffel Tower in Spanish &amp; Cruise</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr"/>
@@ -17662,7 +17662,7 @@
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr"/>
@@ -17692,7 +17692,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 415184P100</t>
+          <t>PRODUCTCODE: 6839P161</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr"/>
@@ -17707,7 +17707,7 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>Summarized description: The Skip-the-Line feature allows you to spend more time exploring the heights of this iconic tower. Dive deep into the captivating history of the Eiffel Tower and gain a profound understanding of its significance in Parisian culture.</t>
+          <t>Summarized description: The Eiffel Tower is 674 steps up to the 2nd floor. There are 380 steps from the first floor to the top of the tower.</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr"/>
@@ -17722,7 +17722,7 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Paris Skip The Line with Audio Guided Tour</t>
+          <t>Title: Paris Eiffel Tower Climbing Experience by Stairs with Cruise</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr"/>
@@ -17737,7 +17737,7 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr"/>
@@ -17752,7 +17752,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr"/>
@@ -17767,7 +17767,7 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 419625P1</t>
+          <t>PRODUCTCODE: 320547P459</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr"/>
@@ -17782,7 +17782,7 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>Summarized description: Our guide will provide a captivating historical overview of the Eiffel Tower. As you pass through security, our knowledgeable host will accompany you, addressing any questions you may have along the way.</t>
+          <t>Summarized description: Paris is beautiful but it's challenging to visit Paris in a short period. Many people don't get time to visit Eiffel Tower in Paris which is a pity. We will pick you up from hotel with a private vehicle &amp; take you up to the 3rd floor. Our expert guide meets and leads you around to Eiffle tower and tells you about it's history. Your guide will also buy you tickets of Eiffler tower Top floor (summit with elevator)</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr"/>
@@ -17797,7 +17797,7 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit (All Floors) Guided Tour by Elevator Tickets.</t>
+          <t xml:space="preserve">Title: Eiffel Tower Private Top floor Summit Tour with Hotel Pick up and private guide </t>
         </is>
       </c>
       <c r="B1154" t="inlineStr"/>
@@ -17812,7 +17812,7 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr"/>
@@ -17827,7 +17827,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 198319P6</t>
+          <t>PRODUCTCODE: 243313P23</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr"/>
@@ -17857,7 +17857,7 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>Summarized description: Find out more about the building itself and the civil engineer who designed it, Gustave Eiffel. Take advantage of the optional opportunity to ascend by elevator past the second floor to the summit of the tower.</t>
+          <t>Summarized description:  skip-the-line tickets give you access to the 2nd level of the Eiffel Tower. Check out stunning Parisian landmarks such as the Champs Elysees, Notre Dame, Montmartre, Seine River, and so on.</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr"/>
@@ -17872,7 +17872,7 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>Title: Paris: Eiffel Tower Guided Tour with Optional Summit Access</t>
+          <t xml:space="preserve">Title: Eiffel Tower Skip the Line Experience : 2nd Floor or SUMMIT with Lift Access </t>
         </is>
       </c>
       <c r="B1159" t="inlineStr"/>
@@ -17887,7 +17887,7 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr"/>
@@ -17902,7 +17902,7 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr"/>
@@ -17917,7 +17917,7 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 220418P22</t>
+          <t>PRODUCTCODE: 6839P23</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr"/>
@@ -17932,7 +17932,7 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>Summarized description: Visit Paris' most iconic attraction with skip-the-line access and a tour guide. Take in the most impressive views of the city and learn about its construction and significance. Take the optional opportunity to ascend by elevator past the second floor to the summit.</t>
+          <t>Summarized description: Take a 2-Hour walking tour to see the Eiffel Tower from different angles. At the end of the tour, you will get to experience a 1-Hour cruise through the very heart of the French capital.</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr"/>
@@ -17947,7 +17947,7 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>Title: Paris: Eiffel Tower Guided Tour with Summit Access</t>
+          <t>Title: Walking Tour : Eiffel Tower and Areas with a Seine Cruise</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr"/>
@@ -17962,7 +17962,7 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr"/>
@@ -17977,7 +17977,7 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr"/>
@@ -17992,7 +17992,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 64296P2</t>
+          <t>PRODUCTCODE: 384373P17</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower needs no introduction and you are just one of millions of travellers who will visit this year. Don’t waste time and stand in line but instead join us to Skip the Line with a local, fun, licensed, English speaking guide.</t>
+          <t>Summarized description: The Eiffel Tower is one of the most famous landmarks in the world. Take a tour of the famous landmark from the top of the tower. Enjoy a complimentary glass of champagne.</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr"/>
@@ -18022,7 +18022,7 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>Title: VIP Eiffel Tower Tour &amp; Summit Access</t>
+          <t>Title: Twilight Eiffel Tower Elevator Private Tour with Seine Cruise</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr"/>
@@ -18037,7 +18037,7 @@
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1170" t="inlineStr"/>
@@ -18052,7 +18052,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Dining Experiences', 'Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr"/>
@@ -18067,7 +18067,7 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 413318P104</t>
+          <t>PRODUCTCODE: 2050P313</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr"/>
@@ -18082,7 +18082,7 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>Summarized description: Visit a meticulously recreated office of Gustave Eiffel on the 2nd floor by lift. This unique opportunity gives you a glimpse into the mind of the visionary engineer responsible for this engineering marvel. Take your time, soak in the atmosphere, and create your own unique memories.</t>
+          <t>Summarized description: Take a spin around the essential sights from the comfort of a coach with our exclusive Histopad. Then embark on a cruise along the Seine, under its many bridges, before scaling the heights of the Grande Dame.</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr"/>
@@ -18097,7 +18097,7 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>Title: Paris Eiffel Tower Skip the Line by lift with Audio Guide Tour</t>
+          <t>Title: Eiffel Tower Summit, Immersive Paris Tour &amp; Cruise</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr"/>
@@ -18112,7 +18112,7 @@
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1175" t="inlineStr"/>
@@ -18127,7 +18127,7 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Museums']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr"/>
@@ -18142,7 +18142,7 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 46334P52</t>
+          <t>PRODUCTCODE: 210555P11</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr"/>
@@ -18157,7 +18157,7 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>Summarized description: Join an expert local guide to climb the Eiffel Tower. Hear about the events, techniques and controversies leading to the Tower’s construction. Enjoy some of the best views over the City of Lights.</t>
+          <t>Summarized description: This tour is just not limited to Hop on Hop but it also includes the Etnrance tickets to Eiffel Tower second floor. Also with this ticket you get 1 hour cruise ride on the seine river.</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Tour with Second floor access and timed entry</t>
+          <t>Title: Paris city tour by Hop-On-Off &amp; Entrance tickets of Eiffel Tower &amp; Seine Cruise</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr"/>
@@ -18187,7 +18187,7 @@
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr"/>
@@ -18202,7 +18202,7 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr"/>
@@ -18217,7 +18217,7 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 456325P3</t>
+          <t>PRODUCTCODE: 239343P7</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr"/>
@@ -18232,7 +18232,7 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>Summarized description: Learn all about the tower’s history from your guide, plus the famous sights you’ll see from the viewing areas. This is much more informative than if you were to ascend the tower on your own and you may even make a few new friends.</t>
+          <t>Summarized description: Eiffel Tower access with Elevator Tour. Mona Lisa &amp; Venus de Milo in-person visit. River Sightseeing Cruise Tour. Audio guide in multiple languages.</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr"/>
@@ -18247,7 +18247,7 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower by Elevator with Spectacular City Views</t>
+          <t>Title: Paris Famous Eiffel Tower, Louvre Museum Experience &amp; Seine River Cruise Tour</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr"/>
@@ -18262,7 +18262,7 @@
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr"/>
@@ -18277,7 +18277,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr"/>
@@ -18292,7 +18292,7 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 320547P164</t>
+          <t>PRODUCTCODE: 199710P1</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr"/>
@@ -18307,7 +18307,7 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>Summarized description: Our private Host is here to make things easier for you. You meet your host at a designated place where our host gives you a short explaination about this famous Monument. You climb up alone once you get the tickets from the host. It's Eiffel Tower second floor with elevator ticket included.</t>
+          <t>Summarized description: Visit the Eiffel Tower with a priority access ticket. Enjoy access to the 1st and 2nd floors and the Top. Marvel at spectacular views of Paris.</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr"/>
@@ -18322,7 +18322,7 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower 2nd Floor Elevator Tour Eiffel with Private Host</t>
+          <t>Title: Eiffel Tower Skip the Ticket Line with Summit Access</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr"/>
@@ -18352,7 +18352,7 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr"/>
@@ -18367,7 +18367,7 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 419625P4</t>
+          <t>PRODUCTCODE: 387432P34</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr"/>
@@ -18382,7 +18382,7 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>Summarized description: Our guide will provide a captivating historical overview of the Eiffel Tower. As you pass through security, our knowledgeable host will accompany you. The guide will have your summit (top floor) Skip-The-Line elevator tickets.</t>
+          <t>Summarized description: Hear the history and legends linked to the Paris icon as a guide accompanies you to the second level. Get help to identify the different monuments at your feet and upgrade to access the summit and climb even higher.</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr"/>
@@ -18397,7 +18397,7 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit/All Floors Skip-The-Line Guided Tour By Lift</t>
+          <t>Title: 2 Hour Eiffel Tower Morning Guided Tour</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr"/>
@@ -18412,7 +18412,7 @@
     <row r="1195">
       <c r="A1195" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1195" t="inlineStr"/>
@@ -18427,7 +18427,7 @@
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr"/>
@@ -18442,7 +18442,7 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7845P53</t>
+          <t>PRODUCTCODE: 242733P3</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr"/>
@@ -18457,7 +18457,7 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>Summarized description: Follow your guide to the Eiffel Tower's elevators, and enjoy many stories, anecdotes, and even insider tips. More importantly, you'll get to enjoy the added value of individual complementary tablets, as your guide will illustrate his fascinating stories with archive videos, pictures and augmented reality.</t>
+          <t>Summarized description: Visit the Eiffel Tower and soak in the beautiful views of the city from the second floor. Take a scenic cruise along the heart of Paris, the River Seine, and see the city’s most beautiful landmarks.</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr"/>
@@ -18472,7 +18472,7 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Interactive Experience with Summit Level Access</t>
+          <t>Title: Eiffel Tower and Louvre Museum Day Tour with Seine River Cruise from London</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr"/>
@@ -18487,7 +18487,7 @@
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr"/>
@@ -18517,7 +18517,7 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 443044P1</t>
+          <t>PRODUCTCODE: 145071P91</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr"/>
@@ -18532,7 +18532,7 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>Summarized description: Find out more about the building itself and the civil engineer that designed it, Gustave Eiffel. Take advantage of the optional opportunity to ascend by elevator past the second floor to the summit of the tower.</t>
+          <t>Summarized description: Eiffel Tower Skip-the-Line ticket. 1-hour Seine river cruise ticket. Services of a bilingual host to the first security check at the Eiffel tower.</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr"/>
@@ -18547,7 +18547,7 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>Title: Paris: Eiffel Tower Guided Tour with Optional Summit Access</t>
+          <t xml:space="preserve">Title: Eiffel Tower Ticket + Seine River Cruise </t>
         </is>
       </c>
       <c r="B1204" t="inlineStr"/>
@@ -18562,7 +18562,7 @@
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1205" t="inlineStr"/>
@@ -18577,7 +18577,7 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr"/>
@@ -18592,7 +18592,7 @@
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 75761P25</t>
+          <t>PRODUCTCODE: 128905P203</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr"/>
@@ -18607,7 +18607,7 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>Summarized description: Paris Eiffel Tower Priority Access with Host. 1.3-hour tour of the 2nd Floor. Champagne bar at the top of the tower.</t>
+          <t>Summarized description: Experience Paris with this combination tour. Start off with the Eiffel Tower’s 2nd or 3rd floors for spectacular views of the city. Then head to a Seine River audio-guided cruise. Finally, enjoy the interactive walking tour of Paris with the mobile app.</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr"/>
@@ -18622,7 +18622,7 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Paris Eiffel Tower Priority Access With Tour Guide </t>
+          <t>Title: Paris: Eiffel Tower, Audio-Guided Seine Cruise &amp; Interactive Walking City Tour</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr"/>
@@ -18637,7 +18637,7 @@
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr"/>
@@ -18652,7 +18652,7 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Dining Experiences', 'Modern Attractions']</t>
+          <t>Category: ['', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239343P42</t>
+          <t>PRODUCTCODE: 2050P351</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr"/>
@@ -18682,7 +18682,7 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the tower's rich history, engineering, and current role in Parisian society. From above, take in a unique perspective of Paris and its landmarks.</t>
+          <t>Summarized description: Ride into a privatized transport with your friends and family. Discover the most famous districts and monuments of the capital. The tour will be followed by a Seine River Cruise. The last, but not least stop will be the Eiffel Tower.</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr"/>
@@ -18697,7 +18697,7 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>Title: Paris Most Famous View Of Eiffel Tower Summit With Elevator Tour</t>
+          <t>Title: Private Tour Eiffel Tower 2nd floor City Tour and Cruise</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr"/>
@@ -18712,7 +18712,7 @@
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr"/>
@@ -18727,7 +18727,7 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr"/>
@@ -18742,7 +18742,7 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 85210P33</t>
+          <t>PRODUCTCODE: 320547P518</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr"/>
@@ -18757,7 +18757,7 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>Summarized description: Book your priority access ticket to climb the Eiffel Tower either by day or by night. Enjoy panoramic views across the city and admire famous Parisian landmarks such as Notre-Dame Cathedral.</t>
+          <t>Summarized description: Eiffel Tower, Seine River cruise and hop-on hop-off bus tour with an audio guide. Private chauffeur driven air conditioned vehicle Carrying a bottle of French wine. We can replace wine with juice on request.</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr"/>
@@ -18772,7 +18772,7 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>Title: Eiffel tower with audio guide and PRIORITY ACCESS</t>
+          <t xml:space="preserve">Title: Paris VIP Open Bus Tour with Cruise Eiffel Tower and Pick up </t>
         </is>
       </c>
       <c r="B1219" t="inlineStr"/>
@@ -18787,7 +18787,7 @@
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr"/>
@@ -18802,7 +18802,7 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Dining Experiences', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr"/>
@@ -18817,7 +18817,7 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 275837P12</t>
+          <t>PRODUCTCODE: 73434P63</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>Summarized description: Guests book this experience because their guide handles everything. Your tickets are acquired on site by your guide and it takes you up to the 2nd level. For an extra experience, you can take the stairs as you descend.</t>
+          <t>Summarized description: Discover the 1st and 2nd floors to savor the spectacular views. Cruise along the UNESCO-listed riverbanks of the Seine and admire the Louvre.</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr"/>
@@ -18847,7 +18847,7 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower visit with Experienced Guide | Take the Elevator to the 2nd Floor</t>
+          <t>Title: Eiffel Tower Tour with Free Seine Cruise Ride in Paris</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr"/>
@@ -18862,7 +18862,7 @@
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr"/>
@@ -18877,7 +18877,7 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr"/>
@@ -18892,7 +18892,7 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 419625P3</t>
+          <t>PRODUCTCODE: 158620P24</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr"/>
@@ -18907,7 +18907,7 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>Summarized description: Our guide will provide a captivating historical overview of the Eiffel Tower. As you pass through security, our knowledgeable host will accompany you. The guide will have your elevator tickets and hand them to you.</t>
+          <t>Summarized description: Discover the 1st and 2nd floor to savor the spectacular views. Cruise along the UNESCO-listed riverbanks of the Seine and admire the Louvre.</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr"/>
@@ -18922,7 +18922,7 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Skip-the-Line 2nd Floor Guided Tour by Elevator</t>
+          <t>Title: Eiffel Tower Tour with Free Seine Cruise Ride</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr"/>
@@ -18937,7 +18937,7 @@
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1230" t="inlineStr"/>
@@ -18952,7 +18952,7 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr"/>
@@ -18967,7 +18967,7 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5460P21</t>
+          <t>PRODUCTCODE: 270253P10</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr"/>
@@ -18982,7 +18982,7 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>Summarized description: Choose from a guided tour of the 2nd floor or the summit. Hear from your handpicked guide about its origins and the secrets behind the construction of this architectural masterpiece.</t>
+          <t>Summarized description: Ticket with priority access to the Eiffel Tower to the first and second levels by elevator. 1 Seine river cruise with Bateaux Parisiens ticket.</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Guided Tour by Elevator in English</t>
+          <t>Title: Guided Eiffel Tower Skip-the-Line Tour with Seine River Cruise</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr"/>
@@ -19012,7 +19012,7 @@
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1235" t="inlineStr"/>
@@ -19027,7 +19027,7 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Museums']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr"/>
@@ -19042,7 +19042,7 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 320547P459</t>
+          <t>PRODUCTCODE: 3731P119</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr"/>
@@ -19057,7 +19057,7 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>Summarized description: Paris is beautiful but it's challenging to visit Paris in a short period. Many people don't get time to visit Eiffel Tower in Paris which is a pity. We will pick you up from hotel with a private vehicle &amp; take you up to the 3rd floor. Our expert guide meets and leads you around to Eiffle tower and tells you about it's history. Your guide will also buy you tickets of Eiffler tower Top floor (summit with elevator)</t>
+          <t>Summarized description: The Eiffel Tower and the Seine River are two of Paris' most iconic sites. This exclusive tour includes a 2nd floor Observation Deck ticket and a Seine river cruise.</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr"/>
@@ -19072,7 +19072,7 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Eiffel Tower Private Top floor Summit Tour with Hotel Pick up and private guide </t>
+          <t>Title: Special Access: Express Eiffel Tower Tour with 2nd floor Observation Deck and Seine River Cruise</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr"/>
@@ -19087,7 +19087,7 @@
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1240" t="inlineStr"/>
@@ -19102,7 +19102,7 @@
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr"/>
@@ -19117,7 +19117,7 @@
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 243313P23</t>
+          <t>PRODUCTCODE: 7832P168</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr"/>
@@ -19132,7 +19132,7 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>Summarized description:  skip-the-line tickets give you access to the 2nd level of the Eiffel Tower. Check out stunning Parisian landmarks such as the Champs Elysees, Notre Dame, Montmartre, Seine River, and so on.</t>
+          <t>Summarized description: Enjoy views of the French capital from the iconic Eiffel Tower. Access the tower with skip-the-line tickets then head to the Seine River for a dinner cruise.</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr"/>
@@ -19147,7 +19147,7 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Eiffel Tower Skip the Line Experience : 2nd Floor or SUMMIT with Lift Access </t>
+          <t xml:space="preserve">Title: Eiffel Tower 2nd Floor Skip-the-Line Access and Dinner Cruise </t>
         </is>
       </c>
       <c r="B1244" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
     <row r="1245">
       <c r="A1245" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1245" t="inlineStr"/>
@@ -19177,7 +19177,7 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr"/>
@@ -19192,7 +19192,7 @@
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 375109P4</t>
+          <t>PRODUCTCODE: 237089P18</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr"/>
@@ -19207,7 +19207,7 @@
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>Summarized description: Paris is known worldwide for the Louvre Museum, Notre-Dame cathedral, and the Eiffel tower. It has a reputation of being a romantic and cultural city. The city is also known for its high-quality gastronomy and the terraces of its cafés.</t>
+          <t>Summarized description: Get access to the summit floor of the Eiffel Tower. Enjoy a boat cruise on the Seine at any time during your stay in Paris.</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr"/>
@@ -19222,7 +19222,7 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Elevator Visit with a Guide and City Bus Tour</t>
+          <t>Title: Paris Eiffel Tower Summit Ticket &amp; Seine River Cruise Tour</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr"/>
@@ -19237,7 +19237,7 @@
     <row r="1250">
       <c r="A1250" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1250" t="inlineStr"/>
@@ -19252,7 +19252,7 @@
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Dining Experiences']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr"/>
@@ -19267,7 +19267,7 @@
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 248877P36</t>
+          <t>PRODUCTCODE: 320547P458</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr"/>
@@ -19282,7 +19282,7 @@
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>Summarized description: Take advantage of priority access to the 2nd floor of the Eiffel Tower with a expert English speaking guide. Enjoy the view of Paris from above and add access to go all the way to the summit.</t>
+          <t>Summarized description: Paris is beautiful, but it's challenging to visit Paris in a short period of time. We take you up to the 3rd floor of the Eiffel Tower (summit) elevator. We will also give you tickets for the Seine River Cruise, which is nearby.</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr"/>
@@ -19297,7 +19297,7 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Guided Tour with Summit or Second Floor Priority Access</t>
+          <t>Title: Half-Day Eiffel Tower and Seine River Cruise Private Tour</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr"/>
@@ -19312,7 +19312,7 @@
     <row r="1255">
       <c r="A1255" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1255" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr"/>
@@ -19342,7 +19342,7 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 415184P116</t>
+          <t>PRODUCTCODE: 7832P173</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr"/>
@@ -19357,7 +19357,7 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>Summarized description: Our package includes Skip-the-Line access, granting you priority entry to the Eiffel Tower. Our knowledgeable guides are passionate about the history and stories behind the iconic Iron Lady.</t>
+          <t>Summarized description: Cruise begins at the foot of the Eiffel Tower on the River Seine. Enjoy priority access to the top of the iconic structure. World famous Cabaret Show ; Paradis Latin.</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr"/>
@@ -19372,7 +19372,7 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>Title: Paris Eiffel Tower Skip The Line Ticket with English Guided Tour</t>
+          <t xml:space="preserve">Title: Eiffel Tower, Cruise and Paradis Latin Cabaret Show </t>
         </is>
       </c>
       <c r="B1259" t="inlineStr"/>
@@ -19387,7 +19387,7 @@
     <row r="1260">
       <c r="A1260" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1260" t="inlineStr"/>
@@ -19402,7 +19402,7 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['Entertainment', 'Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr"/>
@@ -19417,7 +19417,7 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 375109P30</t>
+          <t>PRODUCTCODE: 183842P4</t>
         </is>
       </c>
       <c r="B1262" t="inlineStr"/>
@@ -19432,7 +19432,7 @@
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>Summarized description: Hear the history and legends linked to the Paris icon as a guide accompanies you to the second level. Get help to identify the different monuments at your feet and upgrade to access the summit and climb even higher.</t>
+          <t>Summarized description: A unique experience, taking the elevator to the second floor and then the summit. Guided admission ticket to the Eiffel Tower. Enjoying panoramic view from both the summit and the first floor.</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr"/>
@@ -19447,7 +19447,7 @@
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>Title: Morning Eiffel Tower tour with a guide and elevator access</t>
+          <t xml:space="preserve">Title: Guided Eiffel Tower Tour by Elevator with professional guide </t>
         </is>
       </c>
       <c r="B1264" t="inlineStr"/>
@@ -19462,7 +19462,7 @@
     <row r="1265">
       <c r="A1265" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1265" t="inlineStr"/>
@@ -19477,7 +19477,7 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1266" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 268768P59</t>
+          <t>PRODUCTCODE: 40121P1</t>
         </is>
       </c>
       <c r="B1267" t="inlineStr"/>
@@ -19507,7 +19507,7 @@
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>Summarized description: Discover a meticulously recreated office of Gustave Eiffel on the 2nd floor, accessed by lift. This exclusive opportunity provides insight into the mind of the visionary engineer responsible for this remarkable feat of engineering.</t>
+          <t>Summarized description: Ride along the Seine River through the heart of the city. Admire many of the most famous monuments including the Louvre and Notre Dame Cathedral. After your cruise, a guide will accompany you to the second floor of the Eiffel Tower.</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr"/>
@@ -19522,7 +19522,7 @@
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Skip the Queue Ticket by lift and Audio Guide Tour</t>
+          <t>Title: Priority Access Eiffel Tower and Seine River Cruise</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr"/>
@@ -19537,7 +19537,7 @@
     <row r="1270">
       <c r="A1270" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1270" t="inlineStr"/>
@@ -19552,7 +19552,7 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr"/>
@@ -19567,7 +19567,7 @@
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 320547P787</t>
+          <t>PRODUCTCODE: 7832P131</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr"/>
@@ -19582,7 +19582,7 @@
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>Summarized description: Our host will give you a brief history of the Eiffel Tower. Then you follow the host to the complex's entrance. As you pass through security, you join our host in line. You must wait in line with our host, who will pick up the summit (top floor) with elevator tickets.</t>
+          <t>Summarized description: Get closer to the sky at 320 meters altitude and contemplate the most beautiful monuments of Paris from the top of Eiffel Tower. Unwind while contemplating many monuments such as the Louvre Museum and Notre Dame Cathedral on a Seine River cruise.</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr"/>
@@ -19597,7 +19597,7 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Private Tour in Eiffel Tower with Guide and Pick up </t>
+          <t>Title: Eiffel Tower Access including Summit in Spanish &amp; Seine River Cruise</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr"/>
@@ -19612,7 +19612,7 @@
     <row r="1275">
       <c r="A1275" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1275" t="inlineStr"/>
@@ -19627,7 +19627,7 @@
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1276" t="inlineStr"/>
@@ -19642,7 +19642,7 @@
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 420543P3</t>
+          <t>PRODUCTCODE: 90894P186</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>Summarized description: The tour includes curated spots to discover within the Eiffel Tower, offering a 360-degree view that captures the essence of Paris. Customize your adventure upon request before the tour.</t>
+          <t>Summarized description: Scenic cruise down River Seine. Panoramic night bus tour of the city. Unforgettable views over the city from the 2nd floor of the Eiffel Tower.</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr"/>
@@ -19672,7 +19672,7 @@
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>Title: 2-Hour Private Tour in Eiffel Tower with 360-Degree View</t>
+          <t>Title: Eiffel Tower Visit with Seine Cruise and Paris Night Tour</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr"/>
@@ -19702,7 +19702,7 @@
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr"/>
@@ -19717,7 +19717,7 @@
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 157275P22</t>
+          <t>*****</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr"/>
@@ -19729,2106 +19729,6 @@
       <c r="H1282" t="inlineStr"/>
       <c r="I1282" t="inlineStr"/>
     </row>
-    <row r="1283">
-      <c r="A1283" t="inlineStr">
-        <is>
-          <t>Summarized description: Paris Eiffel Tower is one of the world's most famous monuments. Skip the line with a 1.3-hour guided tour of the second floor. After the tour, continue to the summit for stellar views of the City of Lights.</t>
-        </is>
-      </c>
-      <c r="B1283" t="inlineStr"/>
-      <c r="C1283" t="inlineStr"/>
-      <c r="D1283" t="inlineStr"/>
-      <c r="E1283" t="inlineStr"/>
-      <c r="F1283" t="inlineStr"/>
-      <c r="G1283" t="inlineStr"/>
-      <c r="H1283" t="inlineStr"/>
-      <c r="I1283" t="inlineStr"/>
-    </row>
-    <row r="1284">
-      <c r="A1284" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title: Paris Eiffel Tower Skip-line Priority Access With Tour Guide </t>
-        </is>
-      </c>
-      <c r="B1284" t="inlineStr"/>
-      <c r="C1284" t="inlineStr"/>
-      <c r="D1284" t="inlineStr"/>
-      <c r="E1284" t="inlineStr"/>
-      <c r="F1284" t="inlineStr"/>
-      <c r="G1284" t="inlineStr"/>
-      <c r="H1284" t="inlineStr"/>
-      <c r="I1284" t="inlineStr"/>
-    </row>
-    <row r="1285">
-      <c r="A1285" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1285" t="inlineStr"/>
-      <c r="C1285" t="inlineStr"/>
-      <c r="D1285" t="inlineStr"/>
-      <c r="E1285" t="inlineStr"/>
-      <c r="F1285" t="inlineStr"/>
-      <c r="G1285" t="inlineStr"/>
-      <c r="H1285" t="inlineStr"/>
-      <c r="I1285" t="inlineStr"/>
-    </row>
-    <row r="1286">
-      <c r="A1286" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1286" t="inlineStr"/>
-      <c r="C1286" t="inlineStr"/>
-      <c r="D1286" t="inlineStr"/>
-      <c r="E1286" t="inlineStr"/>
-      <c r="F1286" t="inlineStr"/>
-      <c r="G1286" t="inlineStr"/>
-      <c r="H1286" t="inlineStr"/>
-      <c r="I1286" t="inlineStr"/>
-    </row>
-    <row r="1287">
-      <c r="A1287" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 248877P54</t>
-        </is>
-      </c>
-      <c r="B1287" t="inlineStr"/>
-      <c r="C1287" t="inlineStr"/>
-      <c r="D1287" t="inlineStr"/>
-      <c r="E1287" t="inlineStr"/>
-      <c r="F1287" t="inlineStr"/>
-      <c r="G1287" t="inlineStr"/>
-      <c r="H1287" t="inlineStr"/>
-      <c r="I1287" t="inlineStr"/>
-    </row>
-    <row r="1288">
-      <c r="A1288" t="inlineStr">
-        <is>
-          <t>Summarized description: The Eiffel Tower is one of the most famous landmarks in the world. It is located in the centre of the French capital, Paris. The tower was built in the early 1900s and is now a tourist attraction.</t>
-        </is>
-      </c>
-      <c r="B1288" t="inlineStr"/>
-      <c r="C1288" t="inlineStr"/>
-      <c r="D1288" t="inlineStr"/>
-      <c r="E1288" t="inlineStr"/>
-      <c r="F1288" t="inlineStr"/>
-      <c r="G1288" t="inlineStr"/>
-      <c r="H1288" t="inlineStr"/>
-      <c r="I1288" t="inlineStr"/>
-    </row>
-    <row r="1289">
-      <c r="A1289" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower - Paris Icon Tour : Direct Access to the Second Floor Guided Tour</t>
-        </is>
-      </c>
-      <c r="B1289" t="inlineStr"/>
-      <c r="C1289" t="inlineStr"/>
-      <c r="D1289" t="inlineStr"/>
-      <c r="E1289" t="inlineStr"/>
-      <c r="F1289" t="inlineStr"/>
-      <c r="G1289" t="inlineStr"/>
-      <c r="H1289" t="inlineStr"/>
-      <c r="I1289" t="inlineStr"/>
-    </row>
-    <row r="1290">
-      <c r="A1290" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1290" t="inlineStr"/>
-      <c r="C1290" t="inlineStr"/>
-      <c r="D1290" t="inlineStr"/>
-      <c r="E1290" t="inlineStr"/>
-      <c r="F1290" t="inlineStr"/>
-      <c r="G1290" t="inlineStr"/>
-      <c r="H1290" t="inlineStr"/>
-      <c r="I1290" t="inlineStr"/>
-    </row>
-    <row r="1291">
-      <c r="A1291" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1291" t="inlineStr"/>
-      <c r="C1291" t="inlineStr"/>
-      <c r="D1291" t="inlineStr"/>
-      <c r="E1291" t="inlineStr"/>
-      <c r="F1291" t="inlineStr"/>
-      <c r="G1291" t="inlineStr"/>
-      <c r="H1291" t="inlineStr"/>
-      <c r="I1291" t="inlineStr"/>
-    </row>
-    <row r="1292">
-      <c r="A1292" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 387432P34</t>
-        </is>
-      </c>
-      <c r="B1292" t="inlineStr"/>
-      <c r="C1292" t="inlineStr"/>
-      <c r="D1292" t="inlineStr"/>
-      <c r="E1292" t="inlineStr"/>
-      <c r="F1292" t="inlineStr"/>
-      <c r="G1292" t="inlineStr"/>
-      <c r="H1292" t="inlineStr"/>
-      <c r="I1292" t="inlineStr"/>
-    </row>
-    <row r="1293">
-      <c r="A1293" t="inlineStr">
-        <is>
-          <t>Summarized description: Hear the history and legends linked to the Paris icon as a guide accompanies you to the second level. Get help to identify the different monuments at your feet and upgrade to access the summit and climb even higher.</t>
-        </is>
-      </c>
-      <c r="B1293" t="inlineStr"/>
-      <c r="C1293" t="inlineStr"/>
-      <c r="D1293" t="inlineStr"/>
-      <c r="E1293" t="inlineStr"/>
-      <c r="F1293" t="inlineStr"/>
-      <c r="G1293" t="inlineStr"/>
-      <c r="H1293" t="inlineStr"/>
-      <c r="I1293" t="inlineStr"/>
-    </row>
-    <row r="1294">
-      <c r="A1294" t="inlineStr">
-        <is>
-          <t>Title: 2 Hour Eiffel Tower Morning Guided Tour</t>
-        </is>
-      </c>
-      <c r="B1294" t="inlineStr"/>
-      <c r="C1294" t="inlineStr"/>
-      <c r="D1294" t="inlineStr"/>
-      <c r="E1294" t="inlineStr"/>
-      <c r="F1294" t="inlineStr"/>
-      <c r="G1294" t="inlineStr"/>
-      <c r="H1294" t="inlineStr"/>
-      <c r="I1294" t="inlineStr"/>
-    </row>
-    <row r="1295">
-      <c r="A1295" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1295" t="inlineStr"/>
-      <c r="C1295" t="inlineStr"/>
-      <c r="D1295" t="inlineStr"/>
-      <c r="E1295" t="inlineStr"/>
-      <c r="F1295" t="inlineStr"/>
-      <c r="G1295" t="inlineStr"/>
-      <c r="H1295" t="inlineStr"/>
-      <c r="I1295" t="inlineStr"/>
-    </row>
-    <row r="1296">
-      <c r="A1296" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1296" t="inlineStr"/>
-      <c r="C1296" t="inlineStr"/>
-      <c r="D1296" t="inlineStr"/>
-      <c r="E1296" t="inlineStr"/>
-      <c r="F1296" t="inlineStr"/>
-      <c r="G1296" t="inlineStr"/>
-      <c r="H1296" t="inlineStr"/>
-      <c r="I1296" t="inlineStr"/>
-    </row>
-    <row r="1297">
-      <c r="A1297" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 112782P31</t>
-        </is>
-      </c>
-      <c r="B1297" t="inlineStr"/>
-      <c r="C1297" t="inlineStr"/>
-      <c r="D1297" t="inlineStr"/>
-      <c r="E1297" t="inlineStr"/>
-      <c r="F1297" t="inlineStr"/>
-      <c r="G1297" t="inlineStr"/>
-      <c r="H1297" t="inlineStr"/>
-      <c r="I1297" t="inlineStr"/>
-    </row>
-    <row r="1298">
-      <c r="A1298" t="inlineStr">
-        <is>
-          <t>Summarized description: The Eiffel Tower is known to be the symbol of the city of Paris. You will get to know all about the building itself and about the civil engineer who created it. The view over the city will take your breath away.</t>
-        </is>
-      </c>
-      <c r="B1298" t="inlineStr"/>
-      <c r="C1298" t="inlineStr"/>
-      <c r="D1298" t="inlineStr"/>
-      <c r="E1298" t="inlineStr"/>
-      <c r="F1298" t="inlineStr"/>
-      <c r="G1298" t="inlineStr"/>
-      <c r="H1298" t="inlineStr"/>
-      <c r="I1298" t="inlineStr"/>
-    </row>
-    <row r="1299">
-      <c r="A1299" t="inlineStr">
-        <is>
-          <t>Title: Paris: Eiffel Tower Guided Tour with Summit Access</t>
-        </is>
-      </c>
-      <c r="B1299" t="inlineStr"/>
-      <c r="C1299" t="inlineStr"/>
-      <c r="D1299" t="inlineStr"/>
-      <c r="E1299" t="inlineStr"/>
-      <c r="F1299" t="inlineStr"/>
-      <c r="G1299" t="inlineStr"/>
-      <c r="H1299" t="inlineStr"/>
-      <c r="I1299" t="inlineStr"/>
-    </row>
-    <row r="1300">
-      <c r="A1300" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1300" t="inlineStr"/>
-      <c r="C1300" t="inlineStr"/>
-      <c r="D1300" t="inlineStr"/>
-      <c r="E1300" t="inlineStr"/>
-      <c r="F1300" t="inlineStr"/>
-      <c r="G1300" t="inlineStr"/>
-      <c r="H1300" t="inlineStr"/>
-      <c r="I1300" t="inlineStr"/>
-    </row>
-    <row r="1301">
-      <c r="A1301" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1301" t="inlineStr"/>
-      <c r="C1301" t="inlineStr"/>
-      <c r="D1301" t="inlineStr"/>
-      <c r="E1301" t="inlineStr"/>
-      <c r="F1301" t="inlineStr"/>
-      <c r="G1301" t="inlineStr"/>
-      <c r="H1301" t="inlineStr"/>
-      <c r="I1301" t="inlineStr"/>
-    </row>
-    <row r="1302">
-      <c r="A1302" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 374060P11</t>
-        </is>
-      </c>
-      <c r="B1302" t="inlineStr"/>
-      <c r="C1302" t="inlineStr"/>
-      <c r="D1302" t="inlineStr"/>
-      <c r="E1302" t="inlineStr"/>
-      <c r="F1302" t="inlineStr"/>
-      <c r="G1302" t="inlineStr"/>
-      <c r="H1302" t="inlineStr"/>
-      <c r="I1302" t="inlineStr"/>
-    </row>
-    <row r="1303">
-      <c r="A1303" t="inlineStr">
-        <is>
-          <t>Summarized description: After the security entrance, you can skip the line with our Guide. Climb up together on the stairs, up until to the second floor. Learn more about the architecture and history of the Eiffel Tower.</t>
-        </is>
-      </c>
-      <c r="B1303" t="inlineStr"/>
-      <c r="C1303" t="inlineStr"/>
-      <c r="D1303" t="inlineStr"/>
-      <c r="E1303" t="inlineStr"/>
-      <c r="F1303" t="inlineStr"/>
-      <c r="G1303" t="inlineStr"/>
-      <c r="H1303" t="inlineStr"/>
-      <c r="I1303" t="inlineStr"/>
-    </row>
-    <row r="1304">
-      <c r="A1304" t="inlineStr">
-        <is>
-          <t>Title: Guided Tour to the Second Floor off Eiffel Tower in Paris</t>
-        </is>
-      </c>
-      <c r="B1304" t="inlineStr"/>
-      <c r="C1304" t="inlineStr"/>
-      <c r="D1304" t="inlineStr"/>
-      <c r="E1304" t="inlineStr"/>
-      <c r="F1304" t="inlineStr"/>
-      <c r="G1304" t="inlineStr"/>
-      <c r="H1304" t="inlineStr"/>
-      <c r="I1304" t="inlineStr"/>
-    </row>
-    <row r="1305">
-      <c r="A1305" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1305" t="inlineStr"/>
-      <c r="C1305" t="inlineStr"/>
-      <c r="D1305" t="inlineStr"/>
-      <c r="E1305" t="inlineStr"/>
-      <c r="F1305" t="inlineStr"/>
-      <c r="G1305" t="inlineStr"/>
-      <c r="H1305" t="inlineStr"/>
-      <c r="I1305" t="inlineStr"/>
-    </row>
-    <row r="1306">
-      <c r="A1306" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1306" t="inlineStr"/>
-      <c r="C1306" t="inlineStr"/>
-      <c r="D1306" t="inlineStr"/>
-      <c r="E1306" t="inlineStr"/>
-      <c r="F1306" t="inlineStr"/>
-      <c r="G1306" t="inlineStr"/>
-      <c r="H1306" t="inlineStr"/>
-      <c r="I1306" t="inlineStr"/>
-    </row>
-    <row r="1307">
-      <c r="A1307" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 125051P3</t>
-        </is>
-      </c>
-      <c r="B1307" t="inlineStr"/>
-      <c r="C1307" t="inlineStr"/>
-      <c r="D1307" t="inlineStr"/>
-      <c r="E1307" t="inlineStr"/>
-      <c r="F1307" t="inlineStr"/>
-      <c r="G1307" t="inlineStr"/>
-      <c r="H1307" t="inlineStr"/>
-      <c r="I1307" t="inlineStr"/>
-    </row>
-    <row r="1308">
-      <c r="A1308" t="inlineStr">
-        <is>
-          <t>Summarized description: Take an insider's tour of the summit with a guide. Get unparalleled views of Parisian landmarks like Montmartre, the Louvre Museum and more. Get the lowdown on how and why the tower was built.</t>
-        </is>
-      </c>
-      <c r="B1308" t="inlineStr"/>
-      <c r="C1308" t="inlineStr"/>
-      <c r="D1308" t="inlineStr"/>
-      <c r="E1308" t="inlineStr"/>
-      <c r="F1308" t="inlineStr"/>
-      <c r="G1308" t="inlineStr"/>
-      <c r="H1308" t="inlineStr"/>
-      <c r="I1308" t="inlineStr"/>
-    </row>
-    <row r="1309">
-      <c r="A1309" t="inlineStr">
-        <is>
-          <t>Title: Tickets for Eiffel Tower - Summit: Guided Visit</t>
-        </is>
-      </c>
-      <c r="B1309" t="inlineStr"/>
-      <c r="C1309" t="inlineStr"/>
-      <c r="D1309" t="inlineStr"/>
-      <c r="E1309" t="inlineStr"/>
-      <c r="F1309" t="inlineStr"/>
-      <c r="G1309" t="inlineStr"/>
-      <c r="H1309" t="inlineStr"/>
-      <c r="I1309" t="inlineStr"/>
-    </row>
-    <row r="1310">
-      <c r="A1310" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1310" t="inlineStr"/>
-      <c r="C1310" t="inlineStr"/>
-      <c r="D1310" t="inlineStr"/>
-      <c r="E1310" t="inlineStr"/>
-      <c r="F1310" t="inlineStr"/>
-      <c r="G1310" t="inlineStr"/>
-      <c r="H1310" t="inlineStr"/>
-      <c r="I1310" t="inlineStr"/>
-    </row>
-    <row r="1311">
-      <c r="A1311" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1311" t="inlineStr"/>
-      <c r="C1311" t="inlineStr"/>
-      <c r="D1311" t="inlineStr"/>
-      <c r="E1311" t="inlineStr"/>
-      <c r="F1311" t="inlineStr"/>
-      <c r="G1311" t="inlineStr"/>
-      <c r="H1311" t="inlineStr"/>
-      <c r="I1311" t="inlineStr"/>
-    </row>
-    <row r="1312">
-      <c r="A1312" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 7845P52</t>
-        </is>
-      </c>
-      <c r="B1312" t="inlineStr"/>
-      <c r="C1312" t="inlineStr"/>
-      <c r="D1312" t="inlineStr"/>
-      <c r="E1312" t="inlineStr"/>
-      <c r="F1312" t="inlineStr"/>
-      <c r="G1312" t="inlineStr"/>
-      <c r="H1312" t="inlineStr"/>
-      <c r="I1312" t="inlineStr"/>
-    </row>
-    <row r="1313">
-      <c r="A1313" t="inlineStr">
-        <is>
-          <t>Summarized description: Join your host and enjoy a one of a kind Eiffel Tower tour, combining history and technology. Enjoy many stories, anecdotes and even insider tips, all brought to you by your passionate guide. More importantly, you'll get to enjoy the added value of individual complementary tablets.</t>
-        </is>
-      </c>
-      <c r="B1313" t="inlineStr"/>
-      <c r="C1313" t="inlineStr"/>
-      <c r="D1313" t="inlineStr"/>
-      <c r="E1313" t="inlineStr"/>
-      <c r="F1313" t="inlineStr"/>
-      <c r="G1313" t="inlineStr"/>
-      <c r="H1313" t="inlineStr"/>
-      <c r="I1313" t="inlineStr"/>
-    </row>
-    <row r="1314">
-      <c r="A1314" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower Interactive Experience with 2nd Level Access</t>
-        </is>
-      </c>
-      <c r="B1314" t="inlineStr"/>
-      <c r="C1314" t="inlineStr"/>
-      <c r="D1314" t="inlineStr"/>
-      <c r="E1314" t="inlineStr"/>
-      <c r="F1314" t="inlineStr"/>
-      <c r="G1314" t="inlineStr"/>
-      <c r="H1314" t="inlineStr"/>
-      <c r="I1314" t="inlineStr"/>
-    </row>
-    <row r="1315">
-      <c r="A1315" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1315" t="inlineStr"/>
-      <c r="C1315" t="inlineStr"/>
-      <c r="D1315" t="inlineStr"/>
-      <c r="E1315" t="inlineStr"/>
-      <c r="F1315" t="inlineStr"/>
-      <c r="G1315" t="inlineStr"/>
-      <c r="H1315" t="inlineStr"/>
-      <c r="I1315" t="inlineStr"/>
-    </row>
-    <row r="1316">
-      <c r="A1316" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1316" t="inlineStr"/>
-      <c r="C1316" t="inlineStr"/>
-      <c r="D1316" t="inlineStr"/>
-      <c r="E1316" t="inlineStr"/>
-      <c r="F1316" t="inlineStr"/>
-      <c r="G1316" t="inlineStr"/>
-      <c r="H1316" t="inlineStr"/>
-      <c r="I1316" t="inlineStr"/>
-    </row>
-    <row r="1317">
-      <c r="A1317" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 46334P64</t>
-        </is>
-      </c>
-      <c r="B1317" t="inlineStr"/>
-      <c r="C1317" t="inlineStr"/>
-      <c r="D1317" t="inlineStr"/>
-      <c r="E1317" t="inlineStr"/>
-      <c r="F1317" t="inlineStr"/>
-      <c r="G1317" t="inlineStr"/>
-      <c r="H1317" t="inlineStr"/>
-      <c r="I1317" t="inlineStr"/>
-    </row>
-    <row r="1318">
-      <c r="A1318" t="inlineStr">
-        <is>
-          <t>Summarized description: Enjoy pre-booked timed entry to the Eiffel Tower. Top off your visit with the best macarons in Paris as you savor the spectacular views over the city.</t>
-        </is>
-      </c>
-      <c r="B1318" t="inlineStr"/>
-      <c r="C1318" t="inlineStr"/>
-      <c r="D1318" t="inlineStr"/>
-      <c r="E1318" t="inlineStr"/>
-      <c r="F1318" t="inlineStr"/>
-      <c r="G1318" t="inlineStr"/>
-      <c r="H1318" t="inlineStr"/>
-      <c r="I1318" t="inlineStr"/>
-    </row>
-    <row r="1319">
-      <c r="A1319" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower Timed Access Guided Tour with Macarons</t>
-        </is>
-      </c>
-      <c r="B1319" t="inlineStr"/>
-      <c r="C1319" t="inlineStr"/>
-      <c r="D1319" t="inlineStr"/>
-      <c r="E1319" t="inlineStr"/>
-      <c r="F1319" t="inlineStr"/>
-      <c r="G1319" t="inlineStr"/>
-      <c r="H1319" t="inlineStr"/>
-      <c r="I1319" t="inlineStr"/>
-    </row>
-    <row r="1320">
-      <c r="A1320" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1320" t="inlineStr"/>
-      <c r="C1320" t="inlineStr"/>
-      <c r="D1320" t="inlineStr"/>
-      <c r="E1320" t="inlineStr"/>
-      <c r="F1320" t="inlineStr"/>
-      <c r="G1320" t="inlineStr"/>
-      <c r="H1320" t="inlineStr"/>
-      <c r="I1320" t="inlineStr"/>
-    </row>
-    <row r="1321">
-      <c r="A1321" t="inlineStr">
-        <is>
-          <t>Category: ['Dining Experiences', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1321" t="inlineStr"/>
-      <c r="C1321" t="inlineStr"/>
-      <c r="D1321" t="inlineStr"/>
-      <c r="E1321" t="inlineStr"/>
-      <c r="F1321" t="inlineStr"/>
-      <c r="G1321" t="inlineStr"/>
-      <c r="H1321" t="inlineStr"/>
-      <c r="I1321" t="inlineStr"/>
-    </row>
-    <row r="1322">
-      <c r="A1322" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 452894P1</t>
-        </is>
-      </c>
-      <c r="B1322" t="inlineStr"/>
-      <c r="C1322" t="inlineStr"/>
-      <c r="D1322" t="inlineStr"/>
-      <c r="E1322" t="inlineStr"/>
-      <c r="F1322" t="inlineStr"/>
-      <c r="G1322" t="inlineStr"/>
-      <c r="H1322" t="inlineStr"/>
-      <c r="I1322" t="inlineStr"/>
-    </row>
-    <row r="1323">
-      <c r="A1323" t="inlineStr">
-        <is>
-          <t>Summarized description: Discover the Eiffel Tower with a young Artist from Paris, with joy and good humor. Learn about the history of M. Gustave Eiffels Tower and its construction. Enjoy the amazing view and its beautiful landscape from the second floor.</t>
-        </is>
-      </c>
-      <c r="B1323" t="inlineStr"/>
-      <c r="C1323" t="inlineStr"/>
-      <c r="D1323" t="inlineStr"/>
-      <c r="E1323" t="inlineStr"/>
-      <c r="F1323" t="inlineStr"/>
-      <c r="G1323" t="inlineStr"/>
-      <c r="H1323" t="inlineStr"/>
-      <c r="I1323" t="inlineStr"/>
-    </row>
-    <row r="1324">
-      <c r="A1324" t="inlineStr">
-        <is>
-          <t>Title: 2 Hours Eiffel Tower Guided Tour</t>
-        </is>
-      </c>
-      <c r="B1324" t="inlineStr"/>
-      <c r="C1324" t="inlineStr"/>
-      <c r="D1324" t="inlineStr"/>
-      <c r="E1324" t="inlineStr"/>
-      <c r="F1324" t="inlineStr"/>
-      <c r="G1324" t="inlineStr"/>
-      <c r="H1324" t="inlineStr"/>
-      <c r="I1324" t="inlineStr"/>
-    </row>
-    <row r="1325">
-      <c r="A1325" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1325" t="inlineStr"/>
-      <c r="C1325" t="inlineStr"/>
-      <c r="D1325" t="inlineStr"/>
-      <c r="E1325" t="inlineStr"/>
-      <c r="F1325" t="inlineStr"/>
-      <c r="G1325" t="inlineStr"/>
-      <c r="H1325" t="inlineStr"/>
-      <c r="I1325" t="inlineStr"/>
-    </row>
-    <row r="1326">
-      <c r="A1326" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1326" t="inlineStr"/>
-      <c r="C1326" t="inlineStr"/>
-      <c r="D1326" t="inlineStr"/>
-      <c r="E1326" t="inlineStr"/>
-      <c r="F1326" t="inlineStr"/>
-      <c r="G1326" t="inlineStr"/>
-      <c r="H1326" t="inlineStr"/>
-      <c r="I1326" t="inlineStr"/>
-    </row>
-    <row r="1327">
-      <c r="A1327" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 415184P115</t>
-        </is>
-      </c>
-      <c r="B1327" t="inlineStr"/>
-      <c r="C1327" t="inlineStr"/>
-      <c r="D1327" t="inlineStr"/>
-      <c r="E1327" t="inlineStr"/>
-      <c r="F1327" t="inlineStr"/>
-      <c r="G1327" t="inlineStr"/>
-      <c r="H1327" t="inlineStr"/>
-      <c r="I1327" t="inlineStr"/>
-    </row>
-    <row r="1328">
-      <c r="A1328" t="inlineStr">
-        <is>
-          <t>Summarized description: With our Skip-the-Line priority access, you'll breeze past the crowds and be whisked directly to the heart of the Eiffel Tower. With our audio-guided tour, you will get an insider's perspective that adds an extra layer of wonder.</t>
-        </is>
-      </c>
-      <c r="B1328" t="inlineStr"/>
-      <c r="C1328" t="inlineStr"/>
-      <c r="D1328" t="inlineStr"/>
-      <c r="E1328" t="inlineStr"/>
-      <c r="F1328" t="inlineStr"/>
-      <c r="G1328" t="inlineStr"/>
-      <c r="H1328" t="inlineStr"/>
-      <c r="I1328" t="inlineStr"/>
-    </row>
-    <row r="1329">
-      <c r="A1329" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower Skip The Line Ticket by Lift &amp; Free Audio Guide Tour</t>
-        </is>
-      </c>
-      <c r="B1329" t="inlineStr"/>
-      <c r="C1329" t="inlineStr"/>
-      <c r="D1329" t="inlineStr"/>
-      <c r="E1329" t="inlineStr"/>
-      <c r="F1329" t="inlineStr"/>
-      <c r="G1329" t="inlineStr"/>
-      <c r="H1329" t="inlineStr"/>
-      <c r="I1329" t="inlineStr"/>
-    </row>
-    <row r="1330">
-      <c r="A1330" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1330" t="inlineStr"/>
-      <c r="C1330" t="inlineStr"/>
-      <c r="D1330" t="inlineStr"/>
-      <c r="E1330" t="inlineStr"/>
-      <c r="F1330" t="inlineStr"/>
-      <c r="G1330" t="inlineStr"/>
-      <c r="H1330" t="inlineStr"/>
-      <c r="I1330" t="inlineStr"/>
-    </row>
-    <row r="1331">
-      <c r="A1331" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1331" t="inlineStr"/>
-      <c r="C1331" t="inlineStr"/>
-      <c r="D1331" t="inlineStr"/>
-      <c r="E1331" t="inlineStr"/>
-      <c r="F1331" t="inlineStr"/>
-      <c r="G1331" t="inlineStr"/>
-      <c r="H1331" t="inlineStr"/>
-      <c r="I1331" t="inlineStr"/>
-    </row>
-    <row r="1332">
-      <c r="A1332" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 32142P56</t>
-        </is>
-      </c>
-      <c r="B1332" t="inlineStr"/>
-      <c r="C1332" t="inlineStr"/>
-      <c r="D1332" t="inlineStr"/>
-      <c r="E1332" t="inlineStr"/>
-      <c r="F1332" t="inlineStr"/>
-      <c r="G1332" t="inlineStr"/>
-      <c r="H1332" t="inlineStr"/>
-      <c r="I1332" t="inlineStr"/>
-    </row>
-    <row r="1333">
-      <c r="A1333" t="inlineStr">
-        <is>
-          <t>Summarized description: Small-Group Tour of the Eiffel Tower allows you to go straight to the security lines, climb up to the different levels of the tower. Tailor-made guided tour dedicated to kids and includes a basket of organic snacks and beverages.</t>
-        </is>
-      </c>
-      <c r="B1333" t="inlineStr"/>
-      <c r="C1333" t="inlineStr"/>
-      <c r="D1333" t="inlineStr"/>
-      <c r="E1333" t="inlineStr"/>
-      <c r="F1333" t="inlineStr"/>
-      <c r="G1333" t="inlineStr"/>
-      <c r="H1333" t="inlineStr"/>
-      <c r="I1333" t="inlineStr"/>
-    </row>
-    <row r="1334">
-      <c r="A1334" t="inlineStr">
-        <is>
-          <t>Title: Family-Friendly Eiffel Tower Small-Group Tour</t>
-        </is>
-      </c>
-      <c r="B1334" t="inlineStr"/>
-      <c r="C1334" t="inlineStr"/>
-      <c r="D1334" t="inlineStr"/>
-      <c r="E1334" t="inlineStr"/>
-      <c r="F1334" t="inlineStr"/>
-      <c r="G1334" t="inlineStr"/>
-      <c r="H1334" t="inlineStr"/>
-      <c r="I1334" t="inlineStr"/>
-    </row>
-    <row r="1335">
-      <c r="A1335" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1335" t="inlineStr"/>
-      <c r="C1335" t="inlineStr"/>
-      <c r="D1335" t="inlineStr"/>
-      <c r="E1335" t="inlineStr"/>
-      <c r="F1335" t="inlineStr"/>
-      <c r="G1335" t="inlineStr"/>
-      <c r="H1335" t="inlineStr"/>
-      <c r="I1335" t="inlineStr"/>
-    </row>
-    <row r="1336">
-      <c r="A1336" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Dining Experiences', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1336" t="inlineStr"/>
-      <c r="C1336" t="inlineStr"/>
-      <c r="D1336" t="inlineStr"/>
-      <c r="E1336" t="inlineStr"/>
-      <c r="F1336" t="inlineStr"/>
-      <c r="G1336" t="inlineStr"/>
-      <c r="H1336" t="inlineStr"/>
-      <c r="I1336" t="inlineStr"/>
-    </row>
-    <row r="1337">
-      <c r="A1337" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 32142P55</t>
-        </is>
-      </c>
-      <c r="B1337" t="inlineStr"/>
-      <c r="C1337" t="inlineStr"/>
-      <c r="D1337" t="inlineStr"/>
-      <c r="E1337" t="inlineStr"/>
-      <c r="F1337" t="inlineStr"/>
-      <c r="G1337" t="inlineStr"/>
-      <c r="H1337" t="inlineStr"/>
-      <c r="I1337" t="inlineStr"/>
-    </row>
-    <row r="1338">
-      <c r="A1338" t="inlineStr">
-        <is>
-          <t>Summarized description: Explore Paris' main attractions with your beloved ones. The tour includes entrance tickets to the Eiffel Tower that will allow your group to go straight to the security lines.</t>
-        </is>
-      </c>
-      <c r="B1338" t="inlineStr"/>
-      <c r="C1338" t="inlineStr"/>
-      <c r="D1338" t="inlineStr"/>
-      <c r="E1338" t="inlineStr"/>
-      <c r="F1338" t="inlineStr"/>
-      <c r="G1338" t="inlineStr"/>
-      <c r="H1338" t="inlineStr"/>
-      <c r="I1338" t="inlineStr"/>
-    </row>
-    <row r="1339">
-      <c r="A1339" t="inlineStr">
-        <is>
-          <t>Title: Family-Friendly Eiffel Tower Private Tour</t>
-        </is>
-      </c>
-      <c r="B1339" t="inlineStr"/>
-      <c r="C1339" t="inlineStr"/>
-      <c r="D1339" t="inlineStr"/>
-      <c r="E1339" t="inlineStr"/>
-      <c r="F1339" t="inlineStr"/>
-      <c r="G1339" t="inlineStr"/>
-      <c r="H1339" t="inlineStr"/>
-      <c r="I1339" t="inlineStr"/>
-    </row>
-    <row r="1340">
-      <c r="A1340" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1340" t="inlineStr"/>
-      <c r="C1340" t="inlineStr"/>
-      <c r="D1340" t="inlineStr"/>
-      <c r="E1340" t="inlineStr"/>
-      <c r="F1340" t="inlineStr"/>
-      <c r="G1340" t="inlineStr"/>
-      <c r="H1340" t="inlineStr"/>
-      <c r="I1340" t="inlineStr"/>
-    </row>
-    <row r="1341">
-      <c r="A1341" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1341" t="inlineStr"/>
-      <c r="C1341" t="inlineStr"/>
-      <c r="D1341" t="inlineStr"/>
-      <c r="E1341" t="inlineStr"/>
-      <c r="F1341" t="inlineStr"/>
-      <c r="G1341" t="inlineStr"/>
-      <c r="H1341" t="inlineStr"/>
-      <c r="I1341" t="inlineStr"/>
-    </row>
-    <row r="1342">
-      <c r="A1342" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 9205P14</t>
-        </is>
-      </c>
-      <c r="B1342" t="inlineStr"/>
-      <c r="C1342" t="inlineStr"/>
-      <c r="D1342" t="inlineStr"/>
-      <c r="E1342" t="inlineStr"/>
-      <c r="F1342" t="inlineStr"/>
-      <c r="G1342" t="inlineStr"/>
-      <c r="H1342" t="inlineStr"/>
-      <c r="I1342" t="inlineStr"/>
-    </row>
-    <row r="1343">
-      <c r="A1343" t="inlineStr">
-        <is>
-          <t>Summarized description: Discover Paris' most famous landmark with a local and passionate guide. Ticket includes skip-the-line access to the second level of the Eiffel Tower.</t>
-        </is>
-      </c>
-      <c r="B1343" t="inlineStr"/>
-      <c r="C1343" t="inlineStr"/>
-      <c r="D1343" t="inlineStr"/>
-      <c r="E1343" t="inlineStr"/>
-      <c r="F1343" t="inlineStr"/>
-      <c r="G1343" t="inlineStr"/>
-      <c r="H1343" t="inlineStr"/>
-      <c r="I1343" t="inlineStr"/>
-    </row>
-    <row r="1344">
-      <c r="A1344" t="inlineStr">
-        <is>
-          <t>Title: Skip the Line: Eiffel Tower Tour and Summit Access by elevator-Group Option</t>
-        </is>
-      </c>
-      <c r="B1344" t="inlineStr"/>
-      <c r="C1344" t="inlineStr"/>
-      <c r="D1344" t="inlineStr"/>
-      <c r="E1344" t="inlineStr"/>
-      <c r="F1344" t="inlineStr"/>
-      <c r="G1344" t="inlineStr"/>
-      <c r="H1344" t="inlineStr"/>
-      <c r="I1344" t="inlineStr"/>
-    </row>
-    <row r="1345">
-      <c r="A1345" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1345" t="inlineStr"/>
-      <c r="C1345" t="inlineStr"/>
-      <c r="D1345" t="inlineStr"/>
-      <c r="E1345" t="inlineStr"/>
-      <c r="F1345" t="inlineStr"/>
-      <c r="G1345" t="inlineStr"/>
-      <c r="H1345" t="inlineStr"/>
-      <c r="I1345" t="inlineStr"/>
-    </row>
-    <row r="1346">
-      <c r="A1346" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1346" t="inlineStr"/>
-      <c r="C1346" t="inlineStr"/>
-      <c r="D1346" t="inlineStr"/>
-      <c r="E1346" t="inlineStr"/>
-      <c r="F1346" t="inlineStr"/>
-      <c r="G1346" t="inlineStr"/>
-      <c r="H1346" t="inlineStr"/>
-      <c r="I1346" t="inlineStr"/>
-    </row>
-    <row r="1347">
-      <c r="A1347" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 197814P1</t>
-        </is>
-      </c>
-      <c r="B1347" t="inlineStr"/>
-      <c r="C1347" t="inlineStr"/>
-      <c r="D1347" t="inlineStr"/>
-      <c r="E1347" t="inlineStr"/>
-      <c r="F1347" t="inlineStr"/>
-      <c r="G1347" t="inlineStr"/>
-      <c r="H1347" t="inlineStr"/>
-      <c r="I1347" t="inlineStr"/>
-    </row>
-    <row r="1348">
-      <c r="A1348" t="inlineStr">
-        <is>
-          <t>Summarized description: Learn history of Gustave Eiffel and the tower's construction. See Paris from 300 meters high for a tour from the sky. Toast your arrival at the top at the famous champagne bar.</t>
-        </is>
-      </c>
-      <c r="B1348" t="inlineStr"/>
-      <c r="C1348" t="inlineStr"/>
-      <c r="D1348" t="inlineStr"/>
-      <c r="E1348" t="inlineStr"/>
-      <c r="F1348" t="inlineStr"/>
-      <c r="G1348" t="inlineStr"/>
-      <c r="H1348" t="inlineStr"/>
-      <c r="I1348" t="inlineStr"/>
-    </row>
-    <row r="1349">
-      <c r="A1349" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower Tour with Summit Option</t>
-        </is>
-      </c>
-      <c r="B1349" t="inlineStr"/>
-      <c r="C1349" t="inlineStr"/>
-      <c r="D1349" t="inlineStr"/>
-      <c r="E1349" t="inlineStr"/>
-      <c r="F1349" t="inlineStr"/>
-      <c r="G1349" t="inlineStr"/>
-      <c r="H1349" t="inlineStr"/>
-      <c r="I1349" t="inlineStr"/>
-    </row>
-    <row r="1350">
-      <c r="A1350" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1350" t="inlineStr"/>
-      <c r="C1350" t="inlineStr"/>
-      <c r="D1350" t="inlineStr"/>
-      <c r="E1350" t="inlineStr"/>
-      <c r="F1350" t="inlineStr"/>
-      <c r="G1350" t="inlineStr"/>
-      <c r="H1350" t="inlineStr"/>
-      <c r="I1350" t="inlineStr"/>
-    </row>
-    <row r="1351">
-      <c r="A1351" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1351" t="inlineStr"/>
-      <c r="C1351" t="inlineStr"/>
-      <c r="D1351" t="inlineStr"/>
-      <c r="E1351" t="inlineStr"/>
-      <c r="F1351" t="inlineStr"/>
-      <c r="G1351" t="inlineStr"/>
-      <c r="H1351" t="inlineStr"/>
-      <c r="I1351" t="inlineStr"/>
-    </row>
-    <row r="1352">
-      <c r="A1352" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 445693P5</t>
-        </is>
-      </c>
-      <c r="B1352" t="inlineStr"/>
-      <c r="C1352" t="inlineStr"/>
-      <c r="D1352" t="inlineStr"/>
-      <c r="E1352" t="inlineStr"/>
-      <c r="F1352" t="inlineStr"/>
-      <c r="G1352" t="inlineStr"/>
-      <c r="H1352" t="inlineStr"/>
-      <c r="I1352" t="inlineStr"/>
-    </row>
-    <row r="1353">
-      <c r="A1353" t="inlineStr">
-        <is>
-          <t>Summarized description: Hear the history and legends behind the Paris icon as a guide accompanies you up to the second level. Get help identifying the monuments below, and upgrade for summit access.</t>
-        </is>
-      </c>
-      <c r="B1353" t="inlineStr"/>
-      <c r="C1353" t="inlineStr"/>
-      <c r="D1353" t="inlineStr"/>
-      <c r="E1353" t="inlineStr"/>
-      <c r="F1353" t="inlineStr"/>
-      <c r="G1353" t="inlineStr"/>
-      <c r="H1353" t="inlineStr"/>
-      <c r="I1353" t="inlineStr"/>
-    </row>
-    <row r="1354">
-      <c r="A1354" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title: Paris Eiffel Tower Tour by Elevator </t>
-        </is>
-      </c>
-      <c r="B1354" t="inlineStr"/>
-      <c r="C1354" t="inlineStr"/>
-      <c r="D1354" t="inlineStr"/>
-      <c r="E1354" t="inlineStr"/>
-      <c r="F1354" t="inlineStr"/>
-      <c r="G1354" t="inlineStr"/>
-      <c r="H1354" t="inlineStr"/>
-      <c r="I1354" t="inlineStr"/>
-    </row>
-    <row r="1355">
-      <c r="A1355" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1355" t="inlineStr"/>
-      <c r="C1355" t="inlineStr"/>
-      <c r="D1355" t="inlineStr"/>
-      <c r="E1355" t="inlineStr"/>
-      <c r="F1355" t="inlineStr"/>
-      <c r="G1355" t="inlineStr"/>
-      <c r="H1355" t="inlineStr"/>
-      <c r="I1355" t="inlineStr"/>
-    </row>
-    <row r="1356">
-      <c r="A1356" t="inlineStr">
-        <is>
-          <t>Category: ['Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1356" t="inlineStr"/>
-      <c r="C1356" t="inlineStr"/>
-      <c r="D1356" t="inlineStr"/>
-      <c r="E1356" t="inlineStr"/>
-      <c r="F1356" t="inlineStr"/>
-      <c r="G1356" t="inlineStr"/>
-      <c r="H1356" t="inlineStr"/>
-      <c r="I1356" t="inlineStr"/>
-    </row>
-    <row r="1357">
-      <c r="A1357" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 423194P1</t>
-        </is>
-      </c>
-      <c r="B1357" t="inlineStr"/>
-      <c r="C1357" t="inlineStr"/>
-      <c r="D1357" t="inlineStr"/>
-      <c r="E1357" t="inlineStr"/>
-      <c r="F1357" t="inlineStr"/>
-      <c r="G1357" t="inlineStr"/>
-      <c r="H1357" t="inlineStr"/>
-      <c r="I1357" t="inlineStr"/>
-    </row>
-    <row r="1358">
-      <c r="A1358" t="inlineStr">
-        <is>
-          <t>Summarized description: Visit the Eiffel Tower with this entry ticket and marvel at spectacular views of Paris. Enjoy access to the 1st and 2nd floors by elevator. Hear the history and legends behind the Paris icon.</t>
-        </is>
-      </c>
-      <c r="B1358" t="inlineStr"/>
-      <c r="C1358" t="inlineStr"/>
-      <c r="D1358" t="inlineStr"/>
-      <c r="E1358" t="inlineStr"/>
-      <c r="F1358" t="inlineStr"/>
-      <c r="G1358" t="inlineStr"/>
-      <c r="H1358" t="inlineStr"/>
-      <c r="I1358" t="inlineStr"/>
-    </row>
-    <row r="1359">
-      <c r="A1359" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower Elevator Guided Tour with Summit Access</t>
-        </is>
-      </c>
-      <c r="B1359" t="inlineStr"/>
-      <c r="C1359" t="inlineStr"/>
-      <c r="D1359" t="inlineStr"/>
-      <c r="E1359" t="inlineStr"/>
-      <c r="F1359" t="inlineStr"/>
-      <c r="G1359" t="inlineStr"/>
-      <c r="H1359" t="inlineStr"/>
-      <c r="I1359" t="inlineStr"/>
-    </row>
-    <row r="1360">
-      <c r="A1360" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1360" t="inlineStr"/>
-      <c r="C1360" t="inlineStr"/>
-      <c r="D1360" t="inlineStr"/>
-      <c r="E1360" t="inlineStr"/>
-      <c r="F1360" t="inlineStr"/>
-      <c r="G1360" t="inlineStr"/>
-      <c r="H1360" t="inlineStr"/>
-      <c r="I1360" t="inlineStr"/>
-    </row>
-    <row r="1361">
-      <c r="A1361" t="inlineStr">
-        <is>
-          <t>Category: ['Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1361" t="inlineStr"/>
-      <c r="C1361" t="inlineStr"/>
-      <c r="D1361" t="inlineStr"/>
-      <c r="E1361" t="inlineStr"/>
-      <c r="F1361" t="inlineStr"/>
-      <c r="G1361" t="inlineStr"/>
-      <c r="H1361" t="inlineStr"/>
-      <c r="I1361" t="inlineStr"/>
-    </row>
-    <row r="1362">
-      <c r="A1362" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 183842P3</t>
-        </is>
-      </c>
-      <c r="B1362" t="inlineStr"/>
-      <c r="C1362" t="inlineStr"/>
-      <c r="D1362" t="inlineStr"/>
-      <c r="E1362" t="inlineStr"/>
-      <c r="F1362" t="inlineStr"/>
-      <c r="G1362" t="inlineStr"/>
-      <c r="H1362" t="inlineStr"/>
-      <c r="I1362" t="inlineStr"/>
-    </row>
-    <row r="1363">
-      <c r="A1363" t="inlineStr">
-        <is>
-          <t>Summarized description: A unique experience, taking the elevator to the second floor and then the summit. Guided admission ticket to the Eiffel Tower. Enjoying panoramic view from both the summit and the first floor.</t>
-        </is>
-      </c>
-      <c r="B1363" t="inlineStr"/>
-      <c r="C1363" t="inlineStr"/>
-      <c r="D1363" t="inlineStr"/>
-      <c r="E1363" t="inlineStr"/>
-      <c r="F1363" t="inlineStr"/>
-      <c r="G1363" t="inlineStr"/>
-      <c r="H1363" t="inlineStr"/>
-      <c r="I1363" t="inlineStr"/>
-    </row>
-    <row r="1364">
-      <c r="A1364" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title: Guided Tour Eiffel Tower elevator with Host </t>
-        </is>
-      </c>
-      <c r="B1364" t="inlineStr"/>
-      <c r="C1364" t="inlineStr"/>
-      <c r="D1364" t="inlineStr"/>
-      <c r="E1364" t="inlineStr"/>
-      <c r="F1364" t="inlineStr"/>
-      <c r="G1364" t="inlineStr"/>
-      <c r="H1364" t="inlineStr"/>
-      <c r="I1364" t="inlineStr"/>
-    </row>
-    <row r="1365">
-      <c r="A1365" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1365" t="inlineStr"/>
-      <c r="C1365" t="inlineStr"/>
-      <c r="D1365" t="inlineStr"/>
-      <c r="E1365" t="inlineStr"/>
-      <c r="F1365" t="inlineStr"/>
-      <c r="G1365" t="inlineStr"/>
-      <c r="H1365" t="inlineStr"/>
-      <c r="I1365" t="inlineStr"/>
-    </row>
-    <row r="1366">
-      <c r="A1366" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1366" t="inlineStr"/>
-      <c r="C1366" t="inlineStr"/>
-      <c r="D1366" t="inlineStr"/>
-      <c r="E1366" t="inlineStr"/>
-      <c r="F1366" t="inlineStr"/>
-      <c r="G1366" t="inlineStr"/>
-      <c r="H1366" t="inlineStr"/>
-      <c r="I1366" t="inlineStr"/>
-    </row>
-    <row r="1367">
-      <c r="A1367" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 458844P1</t>
-        </is>
-      </c>
-      <c r="B1367" t="inlineStr"/>
-      <c r="C1367" t="inlineStr"/>
-      <c r="D1367" t="inlineStr"/>
-      <c r="E1367" t="inlineStr"/>
-      <c r="F1367" t="inlineStr"/>
-      <c r="G1367" t="inlineStr"/>
-      <c r="H1367" t="inlineStr"/>
-      <c r="I1367" t="inlineStr"/>
-    </row>
-    <row r="1368">
-      <c r="A1368" t="inlineStr">
-        <is>
-          <t>Summarized description: Make the most of this Viator Eiffel Tower ticket. Enjoy hassle-free entry to one of the world’s busiest monuments. Listen as your host adds colourful history and facts to the sights below.</t>
-        </is>
-      </c>
-      <c r="B1368" t="inlineStr"/>
-      <c r="C1368" t="inlineStr"/>
-      <c r="D1368" t="inlineStr"/>
-      <c r="E1368" t="inlineStr"/>
-      <c r="F1368" t="inlineStr"/>
-      <c r="G1368" t="inlineStr"/>
-      <c r="H1368" t="inlineStr"/>
-      <c r="I1368" t="inlineStr"/>
-    </row>
-    <row r="1369">
-      <c r="A1369" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower with Host 2nd Floor access with elevator</t>
-        </is>
-      </c>
-      <c r="B1369" t="inlineStr"/>
-      <c r="C1369" t="inlineStr"/>
-      <c r="D1369" t="inlineStr"/>
-      <c r="E1369" t="inlineStr"/>
-      <c r="F1369" t="inlineStr"/>
-      <c r="G1369" t="inlineStr"/>
-      <c r="H1369" t="inlineStr"/>
-      <c r="I1369" t="inlineStr"/>
-    </row>
-    <row r="1370">
-      <c r="A1370" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1370" t="inlineStr"/>
-      <c r="C1370" t="inlineStr"/>
-      <c r="D1370" t="inlineStr"/>
-      <c r="E1370" t="inlineStr"/>
-      <c r="F1370" t="inlineStr"/>
-      <c r="G1370" t="inlineStr"/>
-      <c r="H1370" t="inlineStr"/>
-      <c r="I1370" t="inlineStr"/>
-    </row>
-    <row r="1371">
-      <c r="A1371" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1371" t="inlineStr"/>
-      <c r="C1371" t="inlineStr"/>
-      <c r="D1371" t="inlineStr"/>
-      <c r="E1371" t="inlineStr"/>
-      <c r="F1371" t="inlineStr"/>
-      <c r="G1371" t="inlineStr"/>
-      <c r="H1371" t="inlineStr"/>
-      <c r="I1371" t="inlineStr"/>
-    </row>
-    <row r="1372">
-      <c r="A1372" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 248877P42</t>
-        </is>
-      </c>
-      <c r="B1372" t="inlineStr"/>
-      <c r="C1372" t="inlineStr"/>
-      <c r="D1372" t="inlineStr"/>
-      <c r="E1372" t="inlineStr"/>
-      <c r="F1372" t="inlineStr"/>
-      <c r="G1372" t="inlineStr"/>
-      <c r="H1372" t="inlineStr"/>
-      <c r="I1372" t="inlineStr"/>
-    </row>
-    <row r="1373">
-      <c r="A1373" t="inlineStr">
-        <is>
-          <t>Summarized description: The Eiffel Tower is a wrought iron lattice tower on the Champ de Mars in Paris, France. Enjoy direct access before admiring exceptional views of Paris. Take a thrilling trip to the summit or second level with a professional guide.</t>
-        </is>
-      </c>
-      <c r="B1373" t="inlineStr"/>
-      <c r="C1373" t="inlineStr"/>
-      <c r="D1373" t="inlineStr"/>
-      <c r="E1373" t="inlineStr"/>
-      <c r="F1373" t="inlineStr"/>
-      <c r="G1373" t="inlineStr"/>
-      <c r="H1373" t="inlineStr"/>
-      <c r="I1373" t="inlineStr"/>
-    </row>
-    <row r="1374">
-      <c r="A1374" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower Summit or 2nd Floor Direct Access Guided Tour (Small Group)</t>
-        </is>
-      </c>
-      <c r="B1374" t="inlineStr"/>
-      <c r="C1374" t="inlineStr"/>
-      <c r="D1374" t="inlineStr"/>
-      <c r="E1374" t="inlineStr"/>
-      <c r="F1374" t="inlineStr"/>
-      <c r="G1374" t="inlineStr"/>
-      <c r="H1374" t="inlineStr"/>
-      <c r="I1374" t="inlineStr"/>
-    </row>
-    <row r="1375">
-      <c r="A1375" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1375" t="inlineStr"/>
-      <c r="C1375" t="inlineStr"/>
-      <c r="D1375" t="inlineStr"/>
-      <c r="E1375" t="inlineStr"/>
-      <c r="F1375" t="inlineStr"/>
-      <c r="G1375" t="inlineStr"/>
-      <c r="H1375" t="inlineStr"/>
-      <c r="I1375" t="inlineStr"/>
-    </row>
-    <row r="1376">
-      <c r="A1376" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1376" t="inlineStr"/>
-      <c r="C1376" t="inlineStr"/>
-      <c r="D1376" t="inlineStr"/>
-      <c r="E1376" t="inlineStr"/>
-      <c r="F1376" t="inlineStr"/>
-      <c r="G1376" t="inlineStr"/>
-      <c r="H1376" t="inlineStr"/>
-      <c r="I1376" t="inlineStr"/>
-    </row>
-    <row r="1377">
-      <c r="A1377" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 248877P47</t>
-        </is>
-      </c>
-      <c r="B1377" t="inlineStr"/>
-      <c r="C1377" t="inlineStr"/>
-      <c r="D1377" t="inlineStr"/>
-      <c r="E1377" t="inlineStr"/>
-      <c r="F1377" t="inlineStr"/>
-      <c r="G1377" t="inlineStr"/>
-      <c r="H1377" t="inlineStr"/>
-      <c r="I1377" t="inlineStr"/>
-    </row>
-    <row r="1378">
-      <c r="A1378" t="inlineStr">
-        <is>
-          <t>Summarized description: The Eiffel Tower is one of the most visited tourist attractions in the world. It is located on the banks of the River Seine in Paris, France.</t>
-        </is>
-      </c>
-      <c r="B1378" t="inlineStr"/>
-      <c r="C1378" t="inlineStr"/>
-      <c r="D1378" t="inlineStr"/>
-      <c r="E1378" t="inlineStr"/>
-      <c r="F1378" t="inlineStr"/>
-      <c r="G1378" t="inlineStr"/>
-      <c r="H1378" t="inlineStr"/>
-      <c r="I1378" t="inlineStr"/>
-    </row>
-    <row r="1379">
-      <c r="A1379" t="inlineStr">
-        <is>
-          <t>Title: Paris Eiffel Tower Experience (Access to 2nd Floor)</t>
-        </is>
-      </c>
-      <c r="B1379" t="inlineStr"/>
-      <c r="C1379" t="inlineStr"/>
-      <c r="D1379" t="inlineStr"/>
-      <c r="E1379" t="inlineStr"/>
-      <c r="F1379" t="inlineStr"/>
-      <c r="G1379" t="inlineStr"/>
-      <c r="H1379" t="inlineStr"/>
-      <c r="I1379" t="inlineStr"/>
-    </row>
-    <row r="1380">
-      <c r="A1380" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1380" t="inlineStr"/>
-      <c r="C1380" t="inlineStr"/>
-      <c r="D1380" t="inlineStr"/>
-      <c r="E1380" t="inlineStr"/>
-      <c r="F1380" t="inlineStr"/>
-      <c r="G1380" t="inlineStr"/>
-      <c r="H1380" t="inlineStr"/>
-      <c r="I1380" t="inlineStr"/>
-    </row>
-    <row r="1381">
-      <c r="A1381" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1381" t="inlineStr"/>
-      <c r="C1381" t="inlineStr"/>
-      <c r="D1381" t="inlineStr"/>
-      <c r="E1381" t="inlineStr"/>
-      <c r="F1381" t="inlineStr"/>
-      <c r="G1381" t="inlineStr"/>
-      <c r="H1381" t="inlineStr"/>
-      <c r="I1381" t="inlineStr"/>
-    </row>
-    <row r="1382">
-      <c r="A1382" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 170990P27</t>
-        </is>
-      </c>
-      <c r="B1382" t="inlineStr"/>
-      <c r="C1382" t="inlineStr"/>
-      <c r="D1382" t="inlineStr"/>
-      <c r="E1382" t="inlineStr"/>
-      <c r="F1382" t="inlineStr"/>
-      <c r="G1382" t="inlineStr"/>
-      <c r="H1382" t="inlineStr"/>
-      <c r="I1382" t="inlineStr"/>
-    </row>
-    <row r="1383">
-      <c r="A1383" t="inlineStr">
-        <is>
-          <t>Summarized description: Enjoy hassle-free entry to one of the world’s busiest monuments. Cut out the long admission lines with a timed, priority-entry ticket. Explore the Eiffel Tower's first and second levels at your own pace.</t>
-        </is>
-      </c>
-      <c r="B1383" t="inlineStr"/>
-      <c r="C1383" t="inlineStr"/>
-      <c r="D1383" t="inlineStr"/>
-      <c r="E1383" t="inlineStr"/>
-      <c r="F1383" t="inlineStr"/>
-      <c r="G1383" t="inlineStr"/>
-      <c r="H1383" t="inlineStr"/>
-      <c r="I1383" t="inlineStr"/>
-    </row>
-    <row r="1384">
-      <c r="A1384" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower Tour and Summit Priority Access</t>
-        </is>
-      </c>
-      <c r="B1384" t="inlineStr"/>
-      <c r="C1384" t="inlineStr"/>
-      <c r="D1384" t="inlineStr"/>
-      <c r="E1384" t="inlineStr"/>
-      <c r="F1384" t="inlineStr"/>
-      <c r="G1384" t="inlineStr"/>
-      <c r="H1384" t="inlineStr"/>
-      <c r="I1384" t="inlineStr"/>
-    </row>
-    <row r="1385">
-      <c r="A1385" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1385" t="inlineStr"/>
-      <c r="C1385" t="inlineStr"/>
-      <c r="D1385" t="inlineStr"/>
-      <c r="E1385" t="inlineStr"/>
-      <c r="F1385" t="inlineStr"/>
-      <c r="G1385" t="inlineStr"/>
-      <c r="H1385" t="inlineStr"/>
-      <c r="I1385" t="inlineStr"/>
-    </row>
-    <row r="1386">
-      <c r="A1386" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1386" t="inlineStr"/>
-      <c r="C1386" t="inlineStr"/>
-      <c r="D1386" t="inlineStr"/>
-      <c r="E1386" t="inlineStr"/>
-      <c r="F1386" t="inlineStr"/>
-      <c r="G1386" t="inlineStr"/>
-      <c r="H1386" t="inlineStr"/>
-      <c r="I1386" t="inlineStr"/>
-    </row>
-    <row r="1387">
-      <c r="A1387" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 5717P11</t>
-        </is>
-      </c>
-      <c r="B1387" t="inlineStr"/>
-      <c r="C1387" t="inlineStr"/>
-      <c r="D1387" t="inlineStr"/>
-      <c r="E1387" t="inlineStr"/>
-      <c r="F1387" t="inlineStr"/>
-      <c r="G1387" t="inlineStr"/>
-      <c r="H1387" t="inlineStr"/>
-      <c r="I1387" t="inlineStr"/>
-    </row>
-    <row r="1388">
-      <c r="A1388" t="inlineStr">
-        <is>
-          <t>Summarized description: Discover a new side of the Eiffel Tower and her secrets. Enjoy a 90-minute guided tour to discover a newside of the tower and its secrets.</t>
-        </is>
-      </c>
-      <c r="B1388" t="inlineStr"/>
-      <c r="C1388" t="inlineStr"/>
-      <c r="D1388" t="inlineStr"/>
-      <c r="E1388" t="inlineStr"/>
-      <c r="F1388" t="inlineStr"/>
-      <c r="G1388" t="inlineStr"/>
-      <c r="H1388" t="inlineStr"/>
-      <c r="I1388" t="inlineStr"/>
-    </row>
-    <row r="1389">
-      <c r="A1389" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower Skip the Line Guided Tour to the 2nd floor</t>
-        </is>
-      </c>
-      <c r="B1389" t="inlineStr"/>
-      <c r="C1389" t="inlineStr"/>
-      <c r="D1389" t="inlineStr"/>
-      <c r="E1389" t="inlineStr"/>
-      <c r="F1389" t="inlineStr"/>
-      <c r="G1389" t="inlineStr"/>
-      <c r="H1389" t="inlineStr"/>
-      <c r="I1389" t="inlineStr"/>
-    </row>
-    <row r="1390">
-      <c r="A1390" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1390" t="inlineStr"/>
-      <c r="C1390" t="inlineStr"/>
-      <c r="D1390" t="inlineStr"/>
-      <c r="E1390" t="inlineStr"/>
-      <c r="F1390" t="inlineStr"/>
-      <c r="G1390" t="inlineStr"/>
-      <c r="H1390" t="inlineStr"/>
-      <c r="I1390" t="inlineStr"/>
-    </row>
-    <row r="1391">
-      <c r="A1391" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1391" t="inlineStr"/>
-      <c r="C1391" t="inlineStr"/>
-      <c r="D1391" t="inlineStr"/>
-      <c r="E1391" t="inlineStr"/>
-      <c r="F1391" t="inlineStr"/>
-      <c r="G1391" t="inlineStr"/>
-      <c r="H1391" t="inlineStr"/>
-      <c r="I1391" t="inlineStr"/>
-    </row>
-    <row r="1392">
-      <c r="A1392" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 226089P1</t>
-        </is>
-      </c>
-      <c r="B1392" t="inlineStr"/>
-      <c r="C1392" t="inlineStr"/>
-      <c r="D1392" t="inlineStr"/>
-      <c r="E1392" t="inlineStr"/>
-      <c r="F1392" t="inlineStr"/>
-      <c r="G1392" t="inlineStr"/>
-      <c r="H1392" t="inlineStr"/>
-      <c r="I1392" t="inlineStr"/>
-    </row>
-    <row r="1393">
-      <c r="A1393" t="inlineStr">
-        <is>
-          <t>Summarized description: Explore the stunning views of Gustave Eiffel's most famous creation from top to bottom. Our skip the lines access will send you to the 2nd-floor observation deck right away.</t>
-        </is>
-      </c>
-      <c r="B1393" t="inlineStr"/>
-      <c r="C1393" t="inlineStr"/>
-      <c r="D1393" t="inlineStr"/>
-      <c r="E1393" t="inlineStr"/>
-      <c r="F1393" t="inlineStr"/>
-      <c r="G1393" t="inlineStr"/>
-      <c r="H1393" t="inlineStr"/>
-      <c r="I1393" t="inlineStr"/>
-    </row>
-    <row r="1394">
-      <c r="A1394" t="inlineStr">
-        <is>
-          <t>Title: Skip-the-line access: Guided Eiffel Tower Tour with Optional Summit Access</t>
-        </is>
-      </c>
-      <c r="B1394" t="inlineStr"/>
-      <c r="C1394" t="inlineStr"/>
-      <c r="D1394" t="inlineStr"/>
-      <c r="E1394" t="inlineStr"/>
-      <c r="F1394" t="inlineStr"/>
-      <c r="G1394" t="inlineStr"/>
-      <c r="H1394" t="inlineStr"/>
-      <c r="I1394" t="inlineStr"/>
-    </row>
-    <row r="1395">
-      <c r="A1395" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1395" t="inlineStr"/>
-      <c r="C1395" t="inlineStr"/>
-      <c r="D1395" t="inlineStr"/>
-      <c r="E1395" t="inlineStr"/>
-      <c r="F1395" t="inlineStr"/>
-      <c r="G1395" t="inlineStr"/>
-      <c r="H1395" t="inlineStr"/>
-      <c r="I1395" t="inlineStr"/>
-    </row>
-    <row r="1396">
-      <c r="A1396" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1396" t="inlineStr"/>
-      <c r="C1396" t="inlineStr"/>
-      <c r="D1396" t="inlineStr"/>
-      <c r="E1396" t="inlineStr"/>
-      <c r="F1396" t="inlineStr"/>
-      <c r="G1396" t="inlineStr"/>
-      <c r="H1396" t="inlineStr"/>
-      <c r="I1396" t="inlineStr"/>
-    </row>
-    <row r="1397">
-      <c r="A1397" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 248877P48</t>
-        </is>
-      </c>
-      <c r="B1397" t="inlineStr"/>
-      <c r="C1397" t="inlineStr"/>
-      <c r="D1397" t="inlineStr"/>
-      <c r="E1397" t="inlineStr"/>
-      <c r="F1397" t="inlineStr"/>
-      <c r="G1397" t="inlineStr"/>
-      <c r="H1397" t="inlineStr"/>
-      <c r="I1397" t="inlineStr"/>
-    </row>
-    <row r="1398">
-      <c r="A1398" t="inlineStr">
-        <is>
-          <t>Summarized description:  skip-the-line tickets give you access to the 2nd level of the Eiffel Tower. Check out stunning Parisian neighborhoods such as the Champs Elysees, Notre Dame, Montmartre, Seine River.</t>
-        </is>
-      </c>
-      <c r="B1398" t="inlineStr"/>
-      <c r="C1398" t="inlineStr"/>
-      <c r="D1398" t="inlineStr"/>
-      <c r="E1398" t="inlineStr"/>
-      <c r="F1398" t="inlineStr"/>
-      <c r="G1398" t="inlineStr"/>
-      <c r="H1398" t="inlineStr"/>
-      <c r="I1398" t="inlineStr"/>
-    </row>
-    <row r="1399">
-      <c r="A1399" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title: Eiffel Tower Skip the Line: 2nd Floor or SUMMIT Access with Quick Lift </t>
-        </is>
-      </c>
-      <c r="B1399" t="inlineStr"/>
-      <c r="C1399" t="inlineStr"/>
-      <c r="D1399" t="inlineStr"/>
-      <c r="E1399" t="inlineStr"/>
-      <c r="F1399" t="inlineStr"/>
-      <c r="G1399" t="inlineStr"/>
-      <c r="H1399" t="inlineStr"/>
-      <c r="I1399" t="inlineStr"/>
-    </row>
-    <row r="1400">
-      <c r="A1400" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1400" t="inlineStr"/>
-      <c r="C1400" t="inlineStr"/>
-      <c r="D1400" t="inlineStr"/>
-      <c r="E1400" t="inlineStr"/>
-      <c r="F1400" t="inlineStr"/>
-      <c r="G1400" t="inlineStr"/>
-      <c r="H1400" t="inlineStr"/>
-      <c r="I1400" t="inlineStr"/>
-    </row>
-    <row r="1401">
-      <c r="A1401" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1401" t="inlineStr"/>
-      <c r="C1401" t="inlineStr"/>
-      <c r="D1401" t="inlineStr"/>
-      <c r="E1401" t="inlineStr"/>
-      <c r="F1401" t="inlineStr"/>
-      <c r="G1401" t="inlineStr"/>
-      <c r="H1401" t="inlineStr"/>
-      <c r="I1401" t="inlineStr"/>
-    </row>
-    <row r="1402">
-      <c r="A1402" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 183842P4</t>
-        </is>
-      </c>
-      <c r="B1402" t="inlineStr"/>
-      <c r="C1402" t="inlineStr"/>
-      <c r="D1402" t="inlineStr"/>
-      <c r="E1402" t="inlineStr"/>
-      <c r="F1402" t="inlineStr"/>
-      <c r="G1402" t="inlineStr"/>
-      <c r="H1402" t="inlineStr"/>
-      <c r="I1402" t="inlineStr"/>
-    </row>
-    <row r="1403">
-      <c r="A1403" t="inlineStr">
-        <is>
-          <t>Summarized description: A unique experience, taking the elevator to the second floor and then the summit. Guided admission ticket to the Eiffel Tower. Enjoying panoramic view from both the summit and the first floor.</t>
-        </is>
-      </c>
-      <c r="B1403" t="inlineStr"/>
-      <c r="C1403" t="inlineStr"/>
-      <c r="D1403" t="inlineStr"/>
-      <c r="E1403" t="inlineStr"/>
-      <c r="F1403" t="inlineStr"/>
-      <c r="G1403" t="inlineStr"/>
-      <c r="H1403" t="inlineStr"/>
-      <c r="I1403" t="inlineStr"/>
-    </row>
-    <row r="1404">
-      <c r="A1404" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title: Guided Eiffel Tower Tour by Elevator with professional guide </t>
-        </is>
-      </c>
-      <c r="B1404" t="inlineStr"/>
-      <c r="C1404" t="inlineStr"/>
-      <c r="D1404" t="inlineStr"/>
-      <c r="E1404" t="inlineStr"/>
-      <c r="F1404" t="inlineStr"/>
-      <c r="G1404" t="inlineStr"/>
-      <c r="H1404" t="inlineStr"/>
-      <c r="I1404" t="inlineStr"/>
-    </row>
-    <row r="1405">
-      <c r="A1405" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1405" t="inlineStr"/>
-      <c r="C1405" t="inlineStr"/>
-      <c r="D1405" t="inlineStr"/>
-      <c r="E1405" t="inlineStr"/>
-      <c r="F1405" t="inlineStr"/>
-      <c r="G1405" t="inlineStr"/>
-      <c r="H1405" t="inlineStr"/>
-      <c r="I1405" t="inlineStr"/>
-    </row>
-    <row r="1406">
-      <c r="A1406" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1406" t="inlineStr"/>
-      <c r="C1406" t="inlineStr"/>
-      <c r="D1406" t="inlineStr"/>
-      <c r="E1406" t="inlineStr"/>
-      <c r="F1406" t="inlineStr"/>
-      <c r="G1406" t="inlineStr"/>
-      <c r="H1406" t="inlineStr"/>
-      <c r="I1406" t="inlineStr"/>
-    </row>
-    <row r="1407">
-      <c r="A1407" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 239576P20</t>
-        </is>
-      </c>
-      <c r="B1407" t="inlineStr"/>
-      <c r="C1407" t="inlineStr"/>
-      <c r="D1407" t="inlineStr"/>
-      <c r="E1407" t="inlineStr"/>
-      <c r="F1407" t="inlineStr"/>
-      <c r="G1407" t="inlineStr"/>
-      <c r="H1407" t="inlineStr"/>
-      <c r="I1407" t="inlineStr"/>
-    </row>
-    <row r="1408">
-      <c r="A1408" t="inlineStr">
-        <is>
-          <t>Summarized description: Take on the 704-step trek to the Eiffel Tower's second floor as a challenge. From the second story of the Tower, take in the stunning 360-degree view.</t>
-        </is>
-      </c>
-      <c r="B1408" t="inlineStr"/>
-      <c r="C1408" t="inlineStr"/>
-      <c r="D1408" t="inlineStr"/>
-      <c r="E1408" t="inlineStr"/>
-      <c r="F1408" t="inlineStr"/>
-      <c r="G1408" t="inlineStr"/>
-      <c r="H1408" t="inlineStr"/>
-      <c r="I1408" t="inlineStr"/>
-    </row>
-    <row r="1409">
-      <c r="A1409" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower Guided Tour (Multiple Options)</t>
-        </is>
-      </c>
-      <c r="B1409" t="inlineStr"/>
-      <c r="C1409" t="inlineStr"/>
-      <c r="D1409" t="inlineStr"/>
-      <c r="E1409" t="inlineStr"/>
-      <c r="F1409" t="inlineStr"/>
-      <c r="G1409" t="inlineStr"/>
-      <c r="H1409" t="inlineStr"/>
-      <c r="I1409" t="inlineStr"/>
-    </row>
-    <row r="1410">
-      <c r="A1410" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1410" t="inlineStr"/>
-      <c r="C1410" t="inlineStr"/>
-      <c r="D1410" t="inlineStr"/>
-      <c r="E1410" t="inlineStr"/>
-      <c r="F1410" t="inlineStr"/>
-      <c r="G1410" t="inlineStr"/>
-      <c r="H1410" t="inlineStr"/>
-      <c r="I1410" t="inlineStr"/>
-    </row>
-    <row r="1411">
-      <c r="A1411" t="inlineStr">
-        <is>
-          <t>Category: ['Aerial Tours']</t>
-        </is>
-      </c>
-      <c r="B1411" t="inlineStr"/>
-      <c r="C1411" t="inlineStr"/>
-      <c r="D1411" t="inlineStr"/>
-      <c r="E1411" t="inlineStr"/>
-      <c r="F1411" t="inlineStr"/>
-      <c r="G1411" t="inlineStr"/>
-      <c r="H1411" t="inlineStr"/>
-      <c r="I1411" t="inlineStr"/>
-    </row>
-    <row r="1412">
-      <c r="A1412" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 427087P2</t>
-        </is>
-      </c>
-      <c r="B1412" t="inlineStr"/>
-      <c r="C1412" t="inlineStr"/>
-      <c r="D1412" t="inlineStr"/>
-      <c r="E1412" t="inlineStr"/>
-      <c r="F1412" t="inlineStr"/>
-      <c r="G1412" t="inlineStr"/>
-      <c r="H1412" t="inlineStr"/>
-      <c r="I1412" t="inlineStr"/>
-    </row>
-    <row r="1413">
-      <c r="A1413" t="inlineStr">
-        <is>
-          <t>Summarized description: Discover the Eiffel Tower at your own pace. You will get a more personalized and relaxed experience focused on your wishes. It will be a great and unique opportunity to share this memorable visit with your family or closest friends and nobody else.</t>
-        </is>
-      </c>
-      <c r="B1413" t="inlineStr"/>
-      <c r="C1413" t="inlineStr"/>
-      <c r="D1413" t="inlineStr"/>
-      <c r="E1413" t="inlineStr"/>
-      <c r="F1413" t="inlineStr"/>
-      <c r="G1413" t="inlineStr"/>
-      <c r="H1413" t="inlineStr"/>
-      <c r="I1413" t="inlineStr"/>
-    </row>
-    <row r="1414">
-      <c r="A1414" t="inlineStr">
-        <is>
-          <t>Title: Private Tour at the Eiffel Tower with Second Floor Access</t>
-        </is>
-      </c>
-      <c r="B1414" t="inlineStr"/>
-      <c r="C1414" t="inlineStr"/>
-      <c r="D1414" t="inlineStr"/>
-      <c r="E1414" t="inlineStr"/>
-      <c r="F1414" t="inlineStr"/>
-      <c r="G1414" t="inlineStr"/>
-      <c r="H1414" t="inlineStr"/>
-      <c r="I1414" t="inlineStr"/>
-    </row>
-    <row r="1415">
-      <c r="A1415" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1415" t="inlineStr"/>
-      <c r="C1415" t="inlineStr"/>
-      <c r="D1415" t="inlineStr"/>
-      <c r="E1415" t="inlineStr"/>
-      <c r="F1415" t="inlineStr"/>
-      <c r="G1415" t="inlineStr"/>
-      <c r="H1415" t="inlineStr"/>
-      <c r="I1415" t="inlineStr"/>
-    </row>
-    <row r="1416">
-      <c r="A1416" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1416" t="inlineStr"/>
-      <c r="C1416" t="inlineStr"/>
-      <c r="D1416" t="inlineStr"/>
-      <c r="E1416" t="inlineStr"/>
-      <c r="F1416" t="inlineStr"/>
-      <c r="G1416" t="inlineStr"/>
-      <c r="H1416" t="inlineStr"/>
-      <c r="I1416" t="inlineStr"/>
-    </row>
-    <row r="1417">
-      <c r="A1417" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 409807P3</t>
-        </is>
-      </c>
-      <c r="B1417" t="inlineStr"/>
-      <c r="C1417" t="inlineStr"/>
-      <c r="D1417" t="inlineStr"/>
-      <c r="E1417" t="inlineStr"/>
-      <c r="F1417" t="inlineStr"/>
-      <c r="G1417" t="inlineStr"/>
-      <c r="H1417" t="inlineStr"/>
-      <c r="I1417" t="inlineStr"/>
-    </row>
-    <row r="1418">
-      <c r="A1418" t="inlineStr">
-        <is>
-          <t>Summarized description: Narrated by world class entertainers, this historical audio guide will allow you to digest Eiffel Tower information in a most enjoyable manner. Explore at your own pace and at an affordable price.</t>
-        </is>
-      </c>
-      <c r="B1418" t="inlineStr"/>
-      <c r="C1418" t="inlineStr"/>
-      <c r="D1418" t="inlineStr"/>
-      <c r="E1418" t="inlineStr"/>
-      <c r="F1418" t="inlineStr"/>
-      <c r="G1418" t="inlineStr"/>
-      <c r="H1418" t="inlineStr"/>
-      <c r="I1418" t="inlineStr"/>
-    </row>
-    <row r="1419">
-      <c r="A1419" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower Audio Tour Experience</t>
-        </is>
-      </c>
-      <c r="B1419" t="inlineStr"/>
-      <c r="C1419" t="inlineStr"/>
-      <c r="D1419" t="inlineStr"/>
-      <c r="E1419" t="inlineStr"/>
-      <c r="F1419" t="inlineStr"/>
-      <c r="G1419" t="inlineStr"/>
-      <c r="H1419" t="inlineStr"/>
-      <c r="I1419" t="inlineStr"/>
-    </row>
-    <row r="1420">
-      <c r="A1420" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1420" t="inlineStr"/>
-      <c r="C1420" t="inlineStr"/>
-      <c r="D1420" t="inlineStr"/>
-      <c r="E1420" t="inlineStr"/>
-      <c r="F1420" t="inlineStr"/>
-      <c r="G1420" t="inlineStr"/>
-      <c r="H1420" t="inlineStr"/>
-      <c r="I1420" t="inlineStr"/>
-    </row>
-    <row r="1421">
-      <c r="A1421" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'Entertainment']</t>
-        </is>
-      </c>
-      <c r="B1421" t="inlineStr"/>
-      <c r="C1421" t="inlineStr"/>
-      <c r="D1421" t="inlineStr"/>
-      <c r="E1421" t="inlineStr"/>
-      <c r="F1421" t="inlineStr"/>
-      <c r="G1421" t="inlineStr"/>
-      <c r="H1421" t="inlineStr"/>
-      <c r="I1421" t="inlineStr"/>
-    </row>
-    <row r="1422">
-      <c r="A1422" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-      <c r="B1422" t="inlineStr"/>
-      <c r="C1422" t="inlineStr"/>
-      <c r="D1422" t="inlineStr"/>
-      <c r="E1422" t="inlineStr"/>
-      <c r="F1422" t="inlineStr"/>
-      <c r="G1422" t="inlineStr"/>
-      <c r="H1422" t="inlineStr"/>
-      <c r="I1422" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
